--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CCFAEE-FAF5-4A7A-9756-B8E5D1EF18BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DD1F09-84AE-49F6-BBED-B6FFF5CA3E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,27 @@
     <sheet name="Synthetic Non-Linear Model" sheetId="2" r:id="rId2"/>
     <sheet name="Lorenz Attractor" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>1) Without mismatch, RTSNet converges to RTS</t>
   </si>
@@ -36,13 +46,118 @@
   </si>
   <si>
     <t>2) Observation mismatch (H rotate 10 degree)</t>
+  </si>
+  <si>
+    <t>N_E=1000, N_CV=100, N_T=200</t>
+  </si>
+  <si>
+    <t>v = -20 [dB]</t>
+  </si>
+  <si>
+    <t>1/r2 [dB], 1/q2 [dB]</t>
+  </si>
+  <si>
+    <t>[-10,10]</t>
+  </si>
+  <si>
+    <t>[0,20]</t>
+  </si>
+  <si>
+    <t>10,30</t>
+  </si>
+  <si>
+    <t>20,40</t>
+  </si>
+  <si>
+    <t>30,50</t>
+  </si>
+  <si>
+    <t>RunTime T=100 for 2x2 (s) (GPU, high RAM for all)</t>
+  </si>
+  <si>
+    <t>EKF true [dB]</t>
+  </si>
+  <si>
+    <t>EKF H rot 10 [dB]</t>
+  </si>
+  <si>
+    <t>RTS true [dB]</t>
+  </si>
+  <si>
+    <t>RTS H rot 10 [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet true [dB] (n_Epochs=500, n_Batch=30, learningRate=1E-3, weightDecay=1E-9)</t>
+  </si>
+  <si>
+    <t>RTSNet H rot 10 [dB] (n_Epochs=500, n_Batch=30, learningRate=1E-3, weightDecay=1E-5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T=100 (Trajectory Length) </t>
+  </si>
+  <si>
+    <t>RTS true std [dB]</t>
+  </si>
+  <si>
+    <t>RTS H rot 10 std [dB]</t>
+  </si>
+  <si>
+    <t>RunTime (s) (colab GPU, high RAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet true std [dB] </t>
+  </si>
+  <si>
+    <t>H = H_(theta=10)</t>
+  </si>
+  <si>
+    <t>T=100 (Trajectory Length) 2x2, N_E=1000, N_CV=100, N_T=200, v = -20 [dB]</t>
+  </si>
+  <si>
+    <t>RunTime/traj  (s) (GPU, high RAM for all)</t>
+  </si>
+  <si>
+    <t>KF true [dB]</t>
+  </si>
+  <si>
+    <t>KF true std [dB]</t>
+  </si>
+  <si>
+    <t>KF H=I [dB]</t>
+  </si>
+  <si>
+    <t>KF H=I std [dB]</t>
+  </si>
+  <si>
+    <t>Knet full [dB]</t>
+  </si>
+  <si>
+    <t>Knet full std [dB]</t>
+  </si>
+  <si>
+    <t>Knet partial(H=I) [dB]</t>
+  </si>
+  <si>
+    <t>Knet partial(H=I) std [dB]</t>
+  </si>
+  <si>
+    <t>Knet H_hat [dB]</t>
+  </si>
+  <si>
+    <t>Knet H_hat std [dB]</t>
+  </si>
+  <si>
+    <t>True Observation matrix H:[[ 0.9848, -0.1736],[ 0.1736,  0.9848]]</t>
+  </si>
+  <si>
+    <t>Estimated Observation matrix H_hat: [[ 0.9849, -0.1745], [ 0.1735,  0.9868]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,16 +165,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -67,12 +210,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -353,31 +602,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-7.2537000000000003</v>
+      </c>
+      <c r="D7" s="10">
+        <v>-17.338799999999999</v>
+      </c>
+      <c r="E7" s="10">
+        <v>-27.194199999999999</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-37.323900000000002</v>
+      </c>
+      <c r="G7" s="9">
+        <f>1.77942299842834/200</f>
+        <v>8.8971149921416998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-1.7902</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-11.8467</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-21.738299999999999</v>
+      </c>
+      <c r="E8" s="10">
+        <v>-31.619900000000001</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-41.830800000000004</v>
+      </c>
+      <c r="G8" s="9">
+        <f xml:space="preserve"> 3.59941244125366/200</f>
+        <v>1.7997062206268299E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10">
+        <v>-6.7565999999999997</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-16.8535</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="11">
+        <v>-1.64</v>
+      </c>
+      <c r="C10" s="11">
+        <v>-11.7117</v>
+      </c>
+      <c r="D10" s="11">
+        <v>-21.543399999999998</v>
+      </c>
+      <c r="E10" s="11">
+        <v>-31.816700000000001</v>
+      </c>
+      <c r="F10" s="11">
+        <v>-41.504600000000003</v>
+      </c>
+      <c r="G10" s="9">
+        <f>57.6589806079864/200</f>
+        <v>0.28829490303993199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="C23" s="8">
+        <v>-7.2537000000000003</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-17.338799999999999</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-27.194199999999999</v>
+      </c>
+      <c r="F23" s="8">
+        <v>-37.323900000000002</v>
+      </c>
+      <c r="G23" s="9">
+        <f>1.77942299842834/200</f>
+        <v>8.8971149921416998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8">
+        <v>14.502800000000001</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4.3966000000000003</v>
+      </c>
+      <c r="D24" s="8">
+        <v>-4.8975999999999997</v>
+      </c>
+      <c r="E24" s="8">
+        <v>-15.5601</v>
+      </c>
+      <c r="F24" s="8">
+        <v>-25.504300000000001</v>
+      </c>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="8">
+        <v>-1.7902</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-11.8467</v>
+      </c>
+      <c r="D25" s="8">
+        <v>-21.738299999999999</v>
+      </c>
+      <c r="E25" s="8">
+        <v>-31.619900000000001</v>
+      </c>
+      <c r="F25" s="8">
+        <v>-41.830800000000004</v>
+      </c>
+      <c r="G25" s="9">
+        <f xml:space="preserve"> 3.59941244125366/200</f>
+        <v>1.7997062206268299E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="8">
+        <v>-6.7565999999999997</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-16.8535</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="8">
+        <v>5.2054</v>
+      </c>
+      <c r="C27" s="8">
+        <v>-4.7461000000000002</v>
+      </c>
+      <c r="D27" s="8">
+        <v>-14.133599999999999</v>
+      </c>
+      <c r="E27" s="8">
+        <v>-24.758199999999999</v>
+      </c>
+      <c r="F27" s="8">
+        <v>-34.624899999999997</v>
+      </c>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5.3707000000000003</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-4.3220000000000001</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="12">
+        <v>-1.64</v>
+      </c>
+      <c r="C29" s="12">
+        <v>-11.7117</v>
+      </c>
+      <c r="D29" s="12">
+        <v>-21.543399999999998</v>
+      </c>
+      <c r="E29" s="12">
+        <v>-31.816700000000001</v>
+      </c>
+      <c r="F29" s="12">
+        <v>-41.504600000000003</v>
+      </c>
+      <c r="G29" s="9">
+        <f>57.6589806079864/200</f>
+        <v>0.28829490303993199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="13">
+        <v>-0.5202</v>
+      </c>
+      <c r="C30" s="13">
+        <v>-10.783300000000001</v>
+      </c>
+      <c r="D30" s="13">
+        <v>-20.809699999999999</v>
+      </c>
+      <c r="E30" s="13">
+        <v>-30.607099999999999</v>
+      </c>
+      <c r="F30" s="13">
+        <v>-40.2684</v>
+      </c>
+      <c r="G30" s="14"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>2.7427999999999999</v>
+      </c>
+      <c r="C37">
+        <v>-7.3353999999999999</v>
+      </c>
+      <c r="D37">
+        <v>-17.3293</v>
+      </c>
+      <c r="E37">
+        <v>-27.2514</v>
+      </c>
+      <c r="F37">
+        <v>-37.272300000000001</v>
+      </c>
+      <c r="G37">
+        <v>5.0272833000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>-3.4327000000000001</v>
+      </c>
+      <c r="C38">
+        <v>-13.453099999999999</v>
+      </c>
+      <c r="D38">
+        <v>-23.264900000000001</v>
+      </c>
+      <c r="E38">
+        <v>-33.330100000000002</v>
+      </c>
+      <c r="F38">
+        <v>-43.088500000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40">
+        <v>10.8751</v>
+      </c>
+      <c r="C40">
+        <v>0.96579999999999999</v>
+      </c>
+      <c r="D40">
+        <v>-9.3392999999999997</v>
+      </c>
+      <c r="E40">
+        <v>-18.451699999999999</v>
+      </c>
+      <c r="F40">
+        <v>-28.922799999999999</v>
+      </c>
+      <c r="G40">
+        <v>5.0599524E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41">
+        <v>10.648400000000001</v>
+      </c>
+      <c r="C41">
+        <v>1.4197</v>
+      </c>
+      <c r="D41">
+        <v>-9.0609999999999999</v>
+      </c>
+      <c r="E41">
+        <v>-17.606000000000002</v>
+      </c>
+      <c r="F41">
+        <v>-29.722200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43">
+        <v>2.8641000000000001</v>
+      </c>
+      <c r="C43">
+        <v>-7.1985999999999999</v>
+      </c>
+      <c r="D43">
+        <v>-17.209299999999999</v>
+      </c>
+      <c r="E43">
+        <v>-27.149699999999999</v>
+      </c>
+      <c r="F43">
+        <v>-36.924700000000001</v>
+      </c>
+      <c r="G43">
+        <v>0.116083519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>-3.4102999999999999</v>
+      </c>
+      <c r="C44">
+        <v>-13.260999999999999</v>
+      </c>
+      <c r="D44">
+        <v>-23.144600000000001</v>
+      </c>
+      <c r="E44">
+        <v>-33.285899999999998</v>
+      </c>
+      <c r="F44">
+        <v>-42.896900000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>4.5346000000000002</v>
+      </c>
+      <c r="C46">
+        <v>-6.2085999999999997</v>
+      </c>
+      <c r="D46">
+        <v>-16.321000000000002</v>
+      </c>
+      <c r="E46">
+        <v>-26.735700000000001</v>
+      </c>
+      <c r="F46">
+        <v>-36.0501</v>
+      </c>
+      <c r="G46">
+        <v>0.1187723</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>-1.4903</v>
+      </c>
+      <c r="C47">
+        <v>-12.162599999999999</v>
+      </c>
+      <c r="D47">
+        <v>-22.052</v>
+      </c>
+      <c r="E47">
+        <v>-33.043300000000002</v>
+      </c>
+      <c r="F47">
+        <v>-42.5334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B49">
+        <v>2.9352999999999998</v>
+      </c>
+      <c r="C49">
+        <v>-7.2027999999999999</v>
+      </c>
+      <c r="D49">
+        <v>-17.222799999999999</v>
+      </c>
+      <c r="E49">
+        <v>-26.9771</v>
+      </c>
+      <c r="F49">
+        <v>-37.169800000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50">
+        <v>-3.2262</v>
+      </c>
+      <c r="C50">
+        <v>-13.405900000000001</v>
+      </c>
+      <c r="D50">
+        <v>-23.091999999999999</v>
+      </c>
+      <c r="E50">
+        <v>-33.152799999999999</v>
+      </c>
+      <c r="F50">
+        <v>-42.952599999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DEC20C9-1460-4799-8030-9B85DB0D7E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A228F887-06CD-4A0F-800C-E6C4D8E14244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>1) Without mismatch, RTSNet converges to RTS</t>
   </si>
@@ -93,30 +93,6 @@
     <t>KF H=I std [dB]</t>
   </si>
   <si>
-    <t>Knet full [dB]</t>
-  </si>
-  <si>
-    <t>Knet full std [dB]</t>
-  </si>
-  <si>
-    <t>Knet partial(H=I) [dB]</t>
-  </si>
-  <si>
-    <t>Knet partial(H=I) std [dB]</t>
-  </si>
-  <si>
-    <t>Knet H_hat [dB]</t>
-  </si>
-  <si>
-    <t>Knet H_hat std [dB]</t>
-  </si>
-  <si>
-    <t>True Observation matrix H:[[ 0.9848, -0.1736],[ 0.1736,  0.9848]]</t>
-  </si>
-  <si>
-    <t>Estimated Observation matrix H_hat: [[ 0.9849, -0.1745], [ 0.1735,  0.9868]]</t>
-  </si>
-  <si>
     <t xml:space="preserve">2) Observation mismatch </t>
   </si>
   <si>
@@ -133,13 +109,135 @@
   </si>
   <si>
     <t>5x5, H in canonical form</t>
+  </si>
+  <si>
+    <t>RTSNet full [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet full std [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet partial(H=I) [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet partial(H=I) std [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet H_hat [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet H_hat std [dB]</t>
+  </si>
+  <si>
+    <t>RTS full(H=H_rot10) [dB]</t>
+  </si>
+  <si>
+    <t>RTS full std [dB]</t>
+  </si>
+  <si>
+    <t>RTS partial(H=I) [dB]</t>
+  </si>
+  <si>
+    <t>RTS H=I std [dB]</t>
+  </si>
+  <si>
+    <t>KNet full [dB]</t>
+  </si>
+  <si>
+    <t>KNet full std [dB]</t>
+  </si>
+  <si>
+    <t>KNet partial(H=I) [dB]</t>
+  </si>
+  <si>
+    <t>KNet partial(H=I) std [dB]</t>
+  </si>
+  <si>
+    <t>KNet H_hat [dB]</t>
+  </si>
+  <si>
+    <t>KNet H_hat std [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) State evolution model mismatch </t>
+  </si>
+  <si>
+    <t>F rotate 10 degree</t>
+  </si>
+  <si>
+    <r>
+      <t>Same dataset as in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, T=100 (Trajectory Length) 2x2, N_E=1000, N_CV=100, N_T=200, v = -20 [dB]</t>
+    </r>
+  </si>
+  <si>
+    <t>RTSNet F_hat [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet F_hat std [dB]</t>
+  </si>
+  <si>
+    <t>Shall we do F matrix estimation same as in 2)?</t>
+  </si>
+  <si>
+    <t>KF full [dB]</t>
+  </si>
+  <si>
+    <t>KF partial(F rot 10) [dB]</t>
+  </si>
+  <si>
+    <t>KF partial std [dB]</t>
+  </si>
+  <si>
+    <t>RTS full [dB]</t>
+  </si>
+  <si>
+    <t>RTS partial(F rot 10) [dB]</t>
+  </si>
+  <si>
+    <t>RTS partial std [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet partial(F rot 10) [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet partial std [dB]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +270,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -283,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -306,16 +418,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -596,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,8 +737,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
-        <v>30</v>
+      <c r="A4" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -738,8 +852,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
-        <v>31</v>
+      <c r="A13" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -831,7 +945,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -846,291 +960,734 @@
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="14">
-        <v>2.7427999999999999</v>
-      </c>
-      <c r="C28" s="14">
-        <v>-7.3353999999999999</v>
-      </c>
-      <c r="D28" s="14">
-        <v>-17.3293</v>
-      </c>
-      <c r="E28" s="14">
-        <v>-27.2514</v>
-      </c>
-      <c r="F28" s="14">
-        <v>-37.272300000000001</v>
-      </c>
-      <c r="G28" s="18">
-        <v>5.0272833000000003E-2</v>
+        <v>19</v>
+      </c>
+      <c r="B28" s="22">
+        <v>2.7021000000000002</v>
+      </c>
+      <c r="C28" s="22">
+        <v>-7.3941999999999997</v>
+      </c>
+      <c r="D28" s="22">
+        <v>-17.366499999999998</v>
+      </c>
+      <c r="E28" s="22">
+        <v>-27.2926</v>
+      </c>
+      <c r="F28" s="22">
+        <v>-37.272500000000001</v>
+      </c>
+      <c r="G28" s="8">
+        <f>6.50587582588195/200</f>
+        <v>3.2529379129409751E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="14">
-        <v>-3.4327000000000001</v>
-      </c>
-      <c r="C29" s="14">
-        <v>-13.453099999999999</v>
-      </c>
-      <c r="D29" s="14">
-        <v>-23.264900000000001</v>
-      </c>
-      <c r="E29" s="14">
-        <v>-33.330100000000002</v>
-      </c>
-      <c r="F29" s="14">
-        <v>-43.088500000000003</v>
-      </c>
-      <c r="G29" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="B29" s="22">
+        <v>-3.7565</v>
+      </c>
+      <c r="C29" s="22">
+        <v>-13.7667</v>
+      </c>
+      <c r="D29" s="22">
+        <v>-23.4497</v>
+      </c>
+      <c r="E29" s="22">
+        <v>-33.330800000000004</v>
+      </c>
+      <c r="F29" s="22">
+        <v>-43</v>
+      </c>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="14">
-        <v>10.8751</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0.96579999999999999</v>
-      </c>
-      <c r="D31" s="14">
-        <v>-9.3392999999999997</v>
-      </c>
-      <c r="E31" s="14">
-        <v>-18.451699999999999</v>
-      </c>
-      <c r="F31" s="14">
-        <v>-28.922799999999999</v>
-      </c>
-      <c r="G31" s="18">
-        <v>5.0599524E-2</v>
+        <v>21</v>
+      </c>
+      <c r="B31" s="22">
+        <v>11.153700000000001</v>
+      </c>
+      <c r="C31" s="22">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="D31" s="22">
+        <v>-9.1595999999999993</v>
+      </c>
+      <c r="E31" s="22">
+        <v>-18.4282</v>
+      </c>
+      <c r="F31" s="22">
+        <v>-28.785699999999999</v>
+      </c>
+      <c r="G31" s="8">
+        <f>6.49999380111694/200</f>
+        <v>3.2499969005584696E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="14">
-        <v>10.648400000000001</v>
-      </c>
-      <c r="C32" s="14">
-        <v>1.4197</v>
-      </c>
-      <c r="D32" s="14">
-        <v>-9.0609999999999999</v>
-      </c>
-      <c r="E32" s="14">
-        <v>-17.606000000000002</v>
-      </c>
-      <c r="F32" s="14">
-        <v>-29.722200000000001</v>
-      </c>
-      <c r="G32" s="18"/>
+      <c r="B32" s="22">
+        <v>11.1798</v>
+      </c>
+      <c r="C32" s="22">
+        <v>1.0333000000000001</v>
+      </c>
+      <c r="D32" s="22">
+        <v>-7.9607999999999999</v>
+      </c>
+      <c r="E32" s="22">
+        <v>-17.954899999999999</v>
+      </c>
+      <c r="F32" s="22">
+        <v>-28.222899999999999</v>
+      </c>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="14">
-        <v>2.8641000000000001</v>
-      </c>
-      <c r="C34" s="14">
-        <v>-7.1985999999999999</v>
-      </c>
-      <c r="D34" s="14">
-        <v>-17.209299999999999</v>
-      </c>
-      <c r="E34" s="14">
-        <v>-27.149699999999999</v>
-      </c>
-      <c r="F34" s="14">
-        <v>-36.924700000000001</v>
-      </c>
-      <c r="G34" s="18">
-        <v>0.116083519</v>
+        <v>30</v>
+      </c>
+      <c r="B34" s="22">
+        <v>-1.8754</v>
+      </c>
+      <c r="C34" s="22">
+        <v>-11.879799999999999</v>
+      </c>
+      <c r="D34" s="22">
+        <v>-21.812200000000001</v>
+      </c>
+      <c r="E34" s="22">
+        <v>-31.9605</v>
+      </c>
+      <c r="F34" s="22">
+        <v>-41.809899999999999</v>
+      </c>
+      <c r="G34" s="8">
+        <f>13.4261772632598/200</f>
+        <v>6.7130886316299002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B35" s="14">
-        <v>-3.4102999999999999</v>
-      </c>
-      <c r="C35" s="14">
-        <v>-13.260999999999999</v>
-      </c>
-      <c r="D35" s="14">
-        <v>-23.144600000000001</v>
-      </c>
-      <c r="E35" s="14">
-        <v>-33.285899999999998</v>
-      </c>
-      <c r="F35" s="14">
-        <v>-42.896900000000002</v>
-      </c>
-      <c r="G35" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="B35" s="22">
+        <v>-6.5049000000000001</v>
+      </c>
+      <c r="C35" s="22">
+        <v>-16.561499999999999</v>
+      </c>
+      <c r="D35" s="22">
+        <v>-27.001000000000001</v>
+      </c>
+      <c r="E35" s="22">
+        <v>-36.670699999999997</v>
+      </c>
+      <c r="F35" s="22">
+        <v>-46.9679</v>
+      </c>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="5"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B37" s="14">
-        <v>4.5346000000000002</v>
-      </c>
-      <c r="C37" s="14">
-        <v>-6.2085999999999997</v>
-      </c>
-      <c r="D37" s="14">
-        <v>-16.321000000000002</v>
-      </c>
-      <c r="E37" s="14">
-        <v>-26.735700000000001</v>
-      </c>
-      <c r="F37" s="14">
-        <v>-36.0501</v>
-      </c>
-      <c r="G37" s="18">
-        <v>0.1187723</v>
+        <v>32</v>
+      </c>
+      <c r="B37" s="22">
+        <v>5.5016999999999996</v>
+      </c>
+      <c r="C37" s="22">
+        <v>-4.8254000000000001</v>
+      </c>
+      <c r="D37" s="22">
+        <v>-15.061500000000001</v>
+      </c>
+      <c r="E37" s="22">
+        <v>-24.198</v>
+      </c>
+      <c r="F37" s="22">
+        <v>-34.591799999999999</v>
+      </c>
+      <c r="G37" s="8">
+        <f>13.4844782352447/200</f>
+        <v>6.7422391176223492E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="14">
-        <v>-1.4903</v>
-      </c>
-      <c r="C38" s="14">
-        <v>-12.162599999999999</v>
-      </c>
-      <c r="D38" s="14">
-        <v>-22.052</v>
-      </c>
-      <c r="E38" s="14">
-        <v>-33.043300000000002</v>
-      </c>
-      <c r="F38" s="14">
-        <v>-42.5334</v>
-      </c>
-      <c r="G38" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="B38" s="22">
+        <v>5.3632</v>
+      </c>
+      <c r="C38" s="22">
+        <v>-4.4451000000000001</v>
+      </c>
+      <c r="D38" s="22">
+        <v>-14.241</v>
+      </c>
+      <c r="E38" s="22">
+        <v>-23.9832</v>
+      </c>
+      <c r="F38" s="22">
+        <v>-34.349800000000002</v>
+      </c>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="14">
+        <v>34</v>
+      </c>
+      <c r="B40" s="22">
+        <v>2.8641000000000001</v>
+      </c>
+      <c r="C40" s="22">
+        <v>-7.1985999999999999</v>
+      </c>
+      <c r="D40" s="22">
+        <v>-17.209299999999999</v>
+      </c>
+      <c r="E40" s="22">
+        <v>-27.149699999999999</v>
+      </c>
+      <c r="F40" s="22">
+        <v>-36.924700000000001</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.116083519</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="22">
+        <v>-3.4102999999999999</v>
+      </c>
+      <c r="C41" s="22">
+        <v>-13.260999999999999</v>
+      </c>
+      <c r="D41" s="22">
+        <v>-23.144600000000001</v>
+      </c>
+      <c r="E41" s="22">
+        <v>-33.285899999999998</v>
+      </c>
+      <c r="F41" s="22">
+        <v>-42.896900000000002</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="22">
+        <v>4.5346000000000002</v>
+      </c>
+      <c r="C43" s="22">
+        <v>-6.2085999999999997</v>
+      </c>
+      <c r="D43" s="22">
+        <v>-16.321000000000002</v>
+      </c>
+      <c r="E43" s="22">
+        <v>-26.735700000000001</v>
+      </c>
+      <c r="F43" s="22">
+        <v>-36.0501</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0.1187723</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="22">
+        <v>-1.4903</v>
+      </c>
+      <c r="C44" s="22">
+        <v>-12.162599999999999</v>
+      </c>
+      <c r="D44" s="22">
+        <v>-22.052</v>
+      </c>
+      <c r="E44" s="22">
+        <v>-33.043300000000002</v>
+      </c>
+      <c r="F44" s="22">
+        <v>-42.5334</v>
+      </c>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="22">
         <v>2.9352999999999998</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C46" s="22">
         <v>-7.2027999999999999</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D46" s="22">
         <v>-17.222799999999999</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E46" s="22">
         <v>-26.9771</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F46" s="22">
         <v>-37.169800000000002</v>
       </c>
-      <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="19">
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="22">
         <v>-3.2262</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C47" s="22">
         <v>-13.405900000000001</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D47" s="22">
         <v>-23.091999999999999</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E47" s="22">
         <v>-33.152799999999999</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F47" s="22">
         <v>-42.952599999999997</v>
       </c>
-      <c r="G41" s="20"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="21"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="19"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="5"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="19"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="5"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="19"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="5"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="19"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="19"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="5"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="19"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A228F887-06CD-4A0F-800C-E6C4D8E14244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D66E2-7771-4604-8141-45654C5D685F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
   <si>
     <t>1) Without mismatch, RTSNet converges to RTS</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>RTSNet F_hat std [dB]</t>
-  </si>
-  <si>
-    <t>Shall we do F matrix estimation same as in 2)?</t>
   </si>
   <si>
     <t>KF full [dB]</t>
@@ -712,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,9 +1440,7 @@
       <c r="A59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
@@ -1483,7 +1478,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
@@ -1514,7 +1509,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
@@ -1525,7 +1520,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -1545,7 +1540,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -1576,7 +1571,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -1587,7 +1582,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -1638,7 +1633,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -1649,7 +1644,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839D66E2-7771-4604-8141-45654C5D685F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD08B4-0536-4441-82EE-A01EBC440D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>1) Without mismatch, RTSNet converges to RTS</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>RTSNet partial std [dB]</t>
+  </si>
+  <si>
+    <t>Welling true [dB] (n_Epochs=500, n_Batch=30, learningRate=1E-3, weightDecay=1E-9)</t>
+  </si>
+  <si>
+    <t>RNN true [dB] (n_Epochs=1000, n_Batch=50, learningRate=5e-3, weightDecay=1e-5)</t>
   </si>
 </sst>
 </file>
@@ -707,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -814,559 +820,572 @@
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="22">
         <v>-1.64</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="22">
         <v>-11.7117</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="22">
         <v>-21.543399999999998</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="22">
         <v>-31.816700000000001</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="22">
         <v>-41.504600000000003</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <f>56.4998171329498/200</f>
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="22">
+        <v>35.489800000000002</v>
+      </c>
+      <c r="C10" s="22">
+        <v>24.462700000000002</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="17" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B18" s="9">
         <v>0.37009999999999998</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C18" s="9">
         <v>-9.5507000000000009</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D18" s="9">
         <v>-19.614100000000001</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E18" s="9">
         <v>-29.642099999999999</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F18" s="9">
         <v>-39.517699999999998</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G18" s="8">
         <f>6.71297335624694/200</f>
         <v>3.3564866781234701E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B19" s="9">
         <v>-2.0627</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C19" s="9">
         <v>-12.234</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D19" s="9">
         <v>-22.131499999999999</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E19" s="9">
         <v>-32.137099999999997</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F19" s="9">
         <v>-42.033499999999997</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G19" s="8">
         <f>13.8022818565368/200</f>
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="13" t="s">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="11"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="14" t="s">
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B29" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G29" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B30" s="22">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C30" s="22">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D30" s="22">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E30" s="22">
         <v>-27.2926</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F30" s="22">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G30" s="8">
         <f>6.50587582588195/200</f>
         <v>3.2529379129409751E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="22">
-        <v>-3.7565</v>
-      </c>
-      <c r="C29" s="22">
-        <v>-13.7667</v>
-      </c>
-      <c r="D29" s="22">
-        <v>-23.4497</v>
-      </c>
-      <c r="E29" s="22">
-        <v>-33.330800000000004</v>
-      </c>
-      <c r="F29" s="22">
-        <v>-43</v>
-      </c>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="19"/>
-    </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="22">
+        <v>-3.7565</v>
+      </c>
+      <c r="C31" s="22">
+        <v>-13.7667</v>
+      </c>
+      <c r="D31" s="22">
+        <v>-23.4497</v>
+      </c>
+      <c r="E31" s="22">
+        <v>-33.330800000000004</v>
+      </c>
+      <c r="F31" s="22">
+        <v>-43</v>
+      </c>
+      <c r="G31" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B33" s="22">
         <v>11.153700000000001</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C33" s="22">
         <v>0.92630000000000001</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D33" s="22">
         <v>-9.1595999999999993</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E33" s="22">
         <v>-18.4282</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F33" s="22">
         <v>-28.785699999999999</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G33" s="8">
         <f>6.49999380111694/200</f>
         <v>3.2499969005584696E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="22">
-        <v>11.1798</v>
-      </c>
-      <c r="C32" s="22">
-        <v>1.0333000000000001</v>
-      </c>
-      <c r="D32" s="22">
-        <v>-7.9607999999999999</v>
-      </c>
-      <c r="E32" s="22">
-        <v>-17.954899999999999</v>
-      </c>
-      <c r="F32" s="22">
-        <v>-28.222899999999999</v>
-      </c>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="19"/>
-    </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="22">
+        <v>11.1798</v>
+      </c>
+      <c r="C34" s="22">
+        <v>1.0333000000000001</v>
+      </c>
+      <c r="D34" s="22">
+        <v>-7.9607999999999999</v>
+      </c>
+      <c r="E34" s="22">
+        <v>-17.954899999999999</v>
+      </c>
+      <c r="F34" s="22">
+        <v>-28.222899999999999</v>
+      </c>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="19"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B36" s="22">
         <v>-1.8754</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C36" s="22">
         <v>-11.879799999999999</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D36" s="22">
         <v>-21.812200000000001</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E36" s="22">
         <v>-31.9605</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F36" s="22">
         <v>-41.809899999999999</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G36" s="8">
         <f>13.4261772632598/200</f>
         <v>6.7130886316299002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="22">
-        <v>-6.5049000000000001</v>
-      </c>
-      <c r="C35" s="22">
-        <v>-16.561499999999999</v>
-      </c>
-      <c r="D35" s="22">
-        <v>-27.001000000000001</v>
-      </c>
-      <c r="E35" s="22">
-        <v>-36.670699999999997</v>
-      </c>
-      <c r="F35" s="22">
-        <v>-46.9679</v>
-      </c>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="8"/>
-    </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="22">
+        <v>-6.5049000000000001</v>
+      </c>
+      <c r="C37" s="22">
+        <v>-16.561499999999999</v>
+      </c>
+      <c r="D37" s="22">
+        <v>-27.001000000000001</v>
+      </c>
+      <c r="E37" s="22">
+        <v>-36.670699999999997</v>
+      </c>
+      <c r="F37" s="22">
+        <v>-46.9679</v>
+      </c>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B39" s="22">
         <v>5.5016999999999996</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C39" s="22">
         <v>-4.8254000000000001</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D39" s="22">
         <v>-15.061500000000001</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E39" s="22">
         <v>-24.198</v>
       </c>
-      <c r="F37" s="22">
+      <c r="F39" s="22">
         <v>-34.591799999999999</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G39" s="8">
         <f>13.4844782352447/200</f>
         <v>6.7422391176223492E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="22">
-        <v>5.3632</v>
-      </c>
-      <c r="C38" s="22">
-        <v>-4.4451000000000001</v>
-      </c>
-      <c r="D38" s="22">
-        <v>-14.241</v>
-      </c>
-      <c r="E38" s="22">
-        <v>-23.9832</v>
-      </c>
-      <c r="F38" s="22">
-        <v>-34.349800000000002</v>
-      </c>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="19"/>
-    </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="22">
+        <v>5.3632</v>
+      </c>
+      <c r="C40" s="22">
+        <v>-4.4451000000000001</v>
+      </c>
+      <c r="D40" s="22">
+        <v>-14.241</v>
+      </c>
+      <c r="E40" s="22">
+        <v>-23.9832</v>
+      </c>
+      <c r="F40" s="22">
+        <v>-34.349800000000002</v>
+      </c>
+      <c r="G40" s="19"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B42" s="22">
         <v>2.8641000000000001</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C42" s="22">
         <v>-7.1985999999999999</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D42" s="22">
         <v>-17.209299999999999</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E42" s="22">
         <v>-27.149699999999999</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F42" s="22">
         <v>-36.924700000000001</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G42" s="8">
         <v>0.116083519</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="22">
-        <v>-3.4102999999999999</v>
-      </c>
-      <c r="C41" s="22">
-        <v>-13.260999999999999</v>
-      </c>
-      <c r="D41" s="22">
-        <v>-23.144600000000001</v>
-      </c>
-      <c r="E41" s="22">
-        <v>-33.285899999999998</v>
-      </c>
-      <c r="F41" s="22">
-        <v>-42.896900000000002</v>
-      </c>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="19"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="22">
+        <v>-3.4102999999999999</v>
+      </c>
+      <c r="C43" s="22">
+        <v>-13.260999999999999</v>
+      </c>
+      <c r="D43" s="22">
+        <v>-23.144600000000001</v>
+      </c>
+      <c r="E43" s="22">
+        <v>-33.285899999999998</v>
+      </c>
+      <c r="F43" s="22">
+        <v>-42.896900000000002</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="22">
+      <c r="B45" s="22">
         <v>4.5346000000000002</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C45" s="22">
         <v>-6.2085999999999997</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D45" s="22">
         <v>-16.321000000000002</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E45" s="22">
         <v>-26.735700000000001</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F45" s="22">
         <v>-36.0501</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G45" s="8">
         <v>0.1187723</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="22">
-        <v>-1.4903</v>
-      </c>
-      <c r="C44" s="22">
-        <v>-12.162599999999999</v>
-      </c>
-      <c r="D44" s="22">
-        <v>-22.052</v>
-      </c>
-      <c r="E44" s="22">
-        <v>-33.043300000000002</v>
-      </c>
-      <c r="F44" s="22">
-        <v>-42.5334</v>
-      </c>
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="19"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="22">
+        <v>-1.4903</v>
+      </c>
+      <c r="C46" s="22">
+        <v>-12.162599999999999</v>
+      </c>
+      <c r="D46" s="22">
+        <v>-22.052</v>
+      </c>
+      <c r="E46" s="22">
+        <v>-33.043300000000002</v>
+      </c>
+      <c r="F46" s="22">
+        <v>-42.5334</v>
+      </c>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B48" s="22">
         <v>2.9352999999999998</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C48" s="22">
         <v>-7.2027999999999999</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D48" s="22">
         <v>-17.222799999999999</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E48" s="22">
         <v>-26.9771</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F48" s="22">
         <v>-37.169800000000002</v>
       </c>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="22">
-        <v>-3.2262</v>
-      </c>
-      <c r="C47" s="22">
-        <v>-13.405900000000001</v>
-      </c>
-      <c r="D47" s="22">
-        <v>-23.091999999999999</v>
-      </c>
-      <c r="E47" s="22">
-        <v>-33.152799999999999</v>
-      </c>
-      <c r="F47" s="22">
-        <v>-42.952599999999997</v>
-      </c>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="B49" s="22">
+        <v>-3.2262</v>
+      </c>
+      <c r="C49" s="22">
+        <v>-13.405900000000001</v>
+      </c>
+      <c r="D49" s="22">
+        <v>-23.091999999999999</v>
+      </c>
+      <c r="E49" s="22">
+        <v>-33.152799999999999</v>
+      </c>
+      <c r="F49" s="22">
+        <v>-42.952599999999997</v>
+      </c>
       <c r="G49" s="19"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A50" s="5"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -1375,7 +1394,9 @@
       <c r="G50" s="19"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
+      <c r="A51" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -1385,7 +1406,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -1395,9 +1416,7 @@
       <c r="G52" s="19"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="A53" s="5"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -1406,7 +1425,9 @@
       <c r="G53" s="19"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
+      <c r="A54" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
       <c r="D54" s="18"/>
@@ -1416,7 +1437,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -1425,104 +1446,102 @@
       <c r="F55" s="18"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="5"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="19"/>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="7" t="s">
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="21"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="23"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="C61" s="23"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="14" t="s">
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B65" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="D65" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E63" s="15" t="s">
+      <c r="E65" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F63" s="15" t="s">
+      <c r="F65" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G65" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
-      <c r="B66" s="18"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="22"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
-      <c r="G66" s="19"/>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
-      <c r="G67" s="8"/>
+      <c r="G67" s="19"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="22"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="18"/>
       <c r="C68" s="22"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
@@ -1530,39 +1549,41 @@
       <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-      <c r="B69" s="18"/>
+      <c r="A69" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="22"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
-      <c r="G69" s="19"/>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
-      <c r="G70" s="8"/>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B71" s="22"/>
+      <c r="A71" s="5"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
-      <c r="G71" s="8"/>
+      <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="18"/>
+      <c r="A72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="22"/>
       <c r="C72" s="22"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
@@ -1571,7 +1592,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -1581,40 +1602,38 @@
       <c r="G73" s="8"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="22"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
-      <c r="G74" s="19"/>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="19"/>
+      <c r="A75" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
+        <v>50</v>
+      </c>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
       <c r="G76" s="19"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A77" s="5"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -1623,7 +1642,9 @@
       <c r="G77" s="19"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -1633,7 +1654,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -1643,9 +1664,7 @@
       <c r="G79" s="19"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="A80" s="5"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
@@ -1654,7 +1673,9 @@
       <c r="G80" s="19"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -1664,7 +1685,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -1673,16 +1694,36 @@
       <c r="F82" s="18"/>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="5"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="21"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BD08B4-0536-4441-82EE-A01EBC440D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A000167-43C8-4C17-AF98-F1D5B1269C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
-  <si>
-    <t>1) Without mismatch, RTSNet converges to RTS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -235,12 +232,33 @@
   <si>
     <t>RNN true [dB] (n_Epochs=1000, n_Batch=50, learningRate=5e-3, weightDecay=1e-5)</t>
   </si>
+  <si>
+    <t>1) Full info, RTSNet converges to RTS</t>
+  </si>
+  <si>
+    <t>Gneralization to long sequence</t>
+  </si>
+  <si>
+    <t>T = 100, T_test = 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet true [dB] </t>
+  </si>
+  <si>
+    <t>Random initial conditions</t>
+  </si>
+  <si>
+    <t>N_E=1000, N_CV=100, N_T=200, 2x2, H=I</t>
+  </si>
+  <si>
+    <t>When filters know the initial condition, the test results don't change. So here I show the situation when filters don't know initial condition.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +308,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -398,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -433,6 +457,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -713,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,55 +760,55 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="9">
         <v>2.7555999999999998</v>
@@ -798,7 +832,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="9">
         <v>-1.7902</v>
@@ -822,7 +856,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="22">
         <v>-1.64</v>
@@ -846,7 +880,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="22">
         <v>35.489800000000002</v>
@@ -855,13 +889,20 @@
         <v>24.462700000000002</v>
       </c>
       <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="8"/>
+      <c r="E10" s="22">
+        <v>5.7971000000000004</v>
+      </c>
+      <c r="F10" s="22">
+        <v>-6.4617000000000004</v>
+      </c>
+      <c r="G10" s="8">
+        <f>28.904328584671/200</f>
+        <v>0.14452164292335501</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -880,585 +921,547 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A13" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22">
+        <v>-7.1620999999999997</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="8">
+        <f>19.1064960956573/200</f>
+        <v>9.5532480478286497E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22">
+        <v>-11.8101</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="8">
+        <f>39.3029329776763/200</f>
+        <v>0.19651466488838149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="28"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="28"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="28"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="28"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="9">
         <v>0.37009999999999998</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C34" s="9">
         <v>-9.5507000000000009</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D34" s="9">
         <v>-19.614100000000001</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E34" s="9">
         <v>-29.642099999999999</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F34" s="9">
         <v>-39.517699999999998</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G34" s="8">
         <f>6.71297335624694/200</f>
         <v>3.3564866781234701E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="9">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="9">
         <v>-2.0627</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C35" s="9">
         <v>-12.234</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D35" s="9">
         <v>-22.131499999999999</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E35" s="9">
         <v>-32.137099999999997</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F35" s="9">
         <v>-42.033499999999997</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G35" s="8">
         <f>13.8022818565368/200</f>
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="22">
+      <c r="B46" s="22">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C46" s="22">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D46" s="22">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E46" s="22">
         <v>-27.2926</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F46" s="22">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G46" s="8">
         <f>6.50587582588195/200</f>
         <v>3.2529379129409751E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="22">
+        <v>-3.7565</v>
+      </c>
+      <c r="C47" s="22">
+        <v>-13.7667</v>
+      </c>
+      <c r="D47" s="22">
+        <v>-23.4497</v>
+      </c>
+      <c r="E47" s="22">
+        <v>-33.330800000000004</v>
+      </c>
+      <c r="F47" s="22">
+        <v>-43</v>
+      </c>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="22">
-        <v>-3.7565</v>
-      </c>
-      <c r="C31" s="22">
-        <v>-13.7667</v>
-      </c>
-      <c r="D31" s="22">
-        <v>-23.4497</v>
-      </c>
-      <c r="E31" s="22">
-        <v>-33.330800000000004</v>
-      </c>
-      <c r="F31" s="22">
-        <v>-43</v>
-      </c>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="22">
+      <c r="B49" s="22">
         <v>11.153700000000001</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C49" s="22">
         <v>0.92630000000000001</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D49" s="22">
         <v>-9.1595999999999993</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E49" s="22">
         <v>-18.4282</v>
       </c>
-      <c r="F33" s="22">
+      <c r="F49" s="22">
         <v>-28.785699999999999</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G49" s="8">
         <f>6.49999380111694/200</f>
         <v>3.2499969005584696E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="22">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="22">
         <v>11.1798</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C50" s="22">
         <v>1.0333000000000001</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D50" s="22">
         <v>-7.9607999999999999</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E50" s="22">
         <v>-17.954899999999999</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F50" s="22">
         <v>-28.222899999999999</v>
       </c>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="22">
+      <c r="G50" s="19"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="19"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="22">
         <v>-1.8754</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C52" s="22">
         <v>-11.879799999999999</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D52" s="22">
         <v>-21.812200000000001</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E52" s="22">
         <v>-31.9605</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F52" s="22">
         <v>-41.809899999999999</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G52" s="8">
         <f>13.4261772632598/200</f>
         <v>6.7130886316299002E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="22">
+        <v>-6.5049000000000001</v>
+      </c>
+      <c r="C53" s="22">
+        <v>-16.561499999999999</v>
+      </c>
+      <c r="D53" s="22">
+        <v>-27.001000000000001</v>
+      </c>
+      <c r="E53" s="22">
+        <v>-36.670699999999997</v>
+      </c>
+      <c r="F53" s="22">
+        <v>-46.9679</v>
+      </c>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="5"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="22">
-        <v>-6.5049000000000001</v>
-      </c>
-      <c r="C37" s="22">
-        <v>-16.561499999999999</v>
-      </c>
-      <c r="D37" s="22">
-        <v>-27.001000000000001</v>
-      </c>
-      <c r="E37" s="22">
-        <v>-36.670699999999997</v>
-      </c>
-      <c r="F37" s="22">
-        <v>-46.9679</v>
-      </c>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="22">
+      <c r="B55" s="22">
         <v>5.5016999999999996</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C55" s="22">
         <v>-4.8254000000000001</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D55" s="22">
         <v>-15.061500000000001</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E55" s="22">
         <v>-24.198</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F55" s="22">
         <v>-34.591799999999999</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G55" s="8">
         <f>13.4844782352447/200</f>
         <v>6.7422391176223492E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="22">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="22">
         <v>5.3632</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C56" s="22">
         <v>-4.4451000000000001</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D56" s="22">
         <v>-14.241</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E56" s="22">
         <v>-23.9832</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F56" s="22">
         <v>-34.349800000000002</v>
       </c>
-      <c r="G40" s="19"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" s="22">
-        <v>2.8641000000000001</v>
-      </c>
-      <c r="C42" s="22">
-        <v>-7.1985999999999999</v>
-      </c>
-      <c r="D42" s="22">
-        <v>-17.209299999999999</v>
-      </c>
-      <c r="E42" s="22">
-        <v>-27.149699999999999</v>
-      </c>
-      <c r="F42" s="22">
-        <v>-36.924700000000001</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0.116083519</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="22">
-        <v>-3.4102999999999999</v>
-      </c>
-      <c r="C43" s="22">
-        <v>-13.260999999999999</v>
-      </c>
-      <c r="D43" s="22">
-        <v>-23.144600000000001</v>
-      </c>
-      <c r="E43" s="22">
-        <v>-33.285899999999998</v>
-      </c>
-      <c r="F43" s="22">
-        <v>-42.896900000000002</v>
-      </c>
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="19"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="22">
-        <v>4.5346000000000002</v>
-      </c>
-      <c r="C45" s="22">
-        <v>-6.2085999999999997</v>
-      </c>
-      <c r="D45" s="22">
-        <v>-16.321000000000002</v>
-      </c>
-      <c r="E45" s="22">
-        <v>-26.735700000000001</v>
-      </c>
-      <c r="F45" s="22">
-        <v>-36.0501</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0.1187723</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="22">
-        <v>-1.4903</v>
-      </c>
-      <c r="C46" s="22">
-        <v>-12.162599999999999</v>
-      </c>
-      <c r="D46" s="22">
-        <v>-22.052</v>
-      </c>
-      <c r="E46" s="22">
-        <v>-33.043300000000002</v>
-      </c>
-      <c r="F46" s="22">
-        <v>-42.5334</v>
-      </c>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="22">
-        <v>2.9352999999999998</v>
-      </c>
-      <c r="C48" s="22">
-        <v>-7.2027999999999999</v>
-      </c>
-      <c r="D48" s="22">
-        <v>-17.222799999999999</v>
-      </c>
-      <c r="E48" s="22">
-        <v>-26.9771</v>
-      </c>
-      <c r="F48" s="22">
-        <v>-37.169800000000002</v>
-      </c>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="22">
-        <v>-3.2262</v>
-      </c>
-      <c r="C49" s="22">
-        <v>-13.405900000000001</v>
-      </c>
-      <c r="D49" s="22">
-        <v>-23.091999999999999</v>
-      </c>
-      <c r="E49" s="22">
-        <v>-33.152799999999999</v>
-      </c>
-      <c r="F49" s="22">
-        <v>-42.952599999999997</v>
-      </c>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="19"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
       <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A57" s="5"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -1466,264 +1469,494 @@
       <c r="F57" s="18"/>
       <c r="G57" s="19"/>
     </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="21"/>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="22">
+        <v>2.8641000000000001</v>
+      </c>
+      <c r="C58" s="22">
+        <v>-7.1985999999999999</v>
+      </c>
+      <c r="D58" s="22">
+        <v>-17.209299999999999</v>
+      </c>
+      <c r="E58" s="22">
+        <v>-27.149699999999999</v>
+      </c>
+      <c r="F58" s="22">
+        <v>-36.924700000000001</v>
+      </c>
+      <c r="G58" s="8">
+        <v>0.116083519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="22">
+        <v>-3.4102999999999999</v>
+      </c>
+      <c r="C59" s="22">
+        <v>-13.260999999999999</v>
+      </c>
+      <c r="D59" s="22">
+        <v>-23.144600000000001</v>
+      </c>
+      <c r="E59" s="22">
+        <v>-33.285899999999998</v>
+      </c>
+      <c r="F59" s="22">
+        <v>-42.896900000000002</v>
+      </c>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="5"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C61" s="23"/>
+      <c r="A61" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="22">
+        <v>4.5346000000000002</v>
+      </c>
+      <c r="C61" s="22">
+        <v>-6.2085999999999997</v>
+      </c>
+      <c r="D61" s="22">
+        <v>-16.321000000000002</v>
+      </c>
+      <c r="E61" s="22">
+        <v>-26.735700000000001</v>
+      </c>
+      <c r="F61" s="22">
+        <v>-36.0501</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0.1187723</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>41</v>
-      </c>
+      <c r="A62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B62" s="22">
+        <v>-1.4903</v>
+      </c>
+      <c r="C62" s="22">
+        <v>-12.162599999999999</v>
+      </c>
+      <c r="D62" s="22">
+        <v>-22.052</v>
+      </c>
+      <c r="E62" s="22">
+        <v>-33.043300000000002</v>
+      </c>
+      <c r="F62" s="22">
+        <v>-42.5334</v>
+      </c>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="A63" s="5"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="22">
+        <v>2.9352999999999998</v>
+      </c>
+      <c r="C64" s="22">
+        <v>-7.2027999999999999</v>
+      </c>
+      <c r="D64" s="22">
+        <v>-17.222799999999999</v>
+      </c>
+      <c r="E64" s="22">
+        <v>-26.9771</v>
+      </c>
+      <c r="F64" s="22">
+        <v>-37.169800000000002</v>
+      </c>
+      <c r="G64" s="19"/>
+    </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="A65" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="22">
+        <v>-3.2262</v>
+      </c>
+      <c r="C65" s="22">
+        <v>-13.405900000000001</v>
+      </c>
+      <c r="D65" s="22">
+        <v>-23.091999999999999</v>
+      </c>
+      <c r="E65" s="22">
+        <v>-33.152799999999999</v>
+      </c>
+      <c r="F65" s="22">
+        <v>-42.952599999999997</v>
+      </c>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="8"/>
+      <c r="A66" s="5"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
       <c r="G67" s="19"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="5"/>
+      <c r="A68" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="8"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
+        <v>25</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
       <c r="G70" s="19"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="5"/>
+      <c r="A71" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
       <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="8"/>
+      <c r="A72" s="5"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="8"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="5"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="19"/>
+        <v>27</v>
+      </c>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="21"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="5"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="19"/>
+      <c r="A77" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="23"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="19"/>
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="5"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="19"/>
-    </row>
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="19"/>
+      <c r="A81" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
+        <v>44</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="8"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="5"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
+      <c r="A83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
       <c r="G83" s="19"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="19"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="5"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="19"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="5"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="5"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="19"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="19"/>
+    </row>
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="19"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="21"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1735,7 +1968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA9BEF7-12A8-4AD9-A9A3-5FC3C4E27F43}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -1747,7 +1982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A000167-43C8-4C17-AF98-F1D5B1269C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7440A364-FA83-4C05-AE91-1DCE877614F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -236,12 +236,6 @@
     <t>1) Full info, RTSNet converges to RTS</t>
   </si>
   <si>
-    <t>Gneralization to long sequence</t>
-  </si>
-  <si>
-    <t>T = 100, T_test = 1000</t>
-  </si>
-  <si>
     <t xml:space="preserve">RTSNet true [dB] </t>
   </si>
   <si>
@@ -252,6 +246,90 @@
   </si>
   <si>
     <t>When filters know the initial condition, the test results don't change. So here I show the situation when filters don't know initial condition.</t>
+  </si>
+  <si>
+    <t>T= 100, N_E=1000, N_CV=100, N_T=200, 2x2, H=I</t>
+  </si>
+  <si>
+    <t>Trajectory Length T=100, Dataset size: N_E=1000, N_CV=100, N_T=200</t>
+  </si>
+  <si>
+    <t>Gneralization to long sequence (T_train = 100, T_test = 1000)</t>
+  </si>
+  <si>
+    <t>RunTime (s/traj) (colab GPU, high RAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet mismatch (trained on init state = [0,0] and init variance = 0) [dB] </t>
+  </si>
+  <si>
+    <t>RTS mismatch(fed with false init state [0,0] and false init variance=0) [dB]</t>
+  </si>
+  <si>
+    <t>EKF mismatch(fed with false init state [0,0] and false init variance=0) [dB]</t>
+  </si>
+  <si>
+    <t>Traj length T=2000,  test set size N_T=100</t>
+  </si>
+  <si>
+    <t>[1/r2 [dB], 1/q^2 [dB]]</t>
+  </si>
+  <si>
+    <t>[0, 20]</t>
+  </si>
+  <si>
+    <t>40,60</t>
+  </si>
+  <si>
+    <t>EKF J=5 [dB]</t>
+  </si>
+  <si>
+    <t>EKF J=5 std [dB]</t>
+  </si>
+  <si>
+    <t>optimal 1/q2 [dB] for J=5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKF J=2 [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKF J=2 std [dB] </t>
+  </si>
+  <si>
+    <t>optimal 1/q2 [dB] for J=2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF J=5 [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF J=5 std [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF J=2 [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF J=2 std [dB] </t>
+  </si>
+  <si>
+    <t>PF J=5 [dB]</t>
+  </si>
+  <si>
+    <t>PF J=5 std [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF J=2 [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF J=2 std [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knet New architecture J=2, train on T=2000 (n_Epochs=200, n_Batch=10, learningRate=1e-3, weightDecay=1e-6) [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knet New architecture J=2 std [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNet J=5, train on T=100 (n_Epochs=500, n_Batch=100, learningRate=5e-3, weightDecay=1e-4) [dB] </t>
   </si>
 </sst>
 </file>
@@ -422,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -460,13 +538,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -747,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -765,154 +844,168 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="C5" s="9">
+        <v>-7.2537000000000003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-17.338799999999999</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-27.194199999999999</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-37.323900000000002</v>
+      </c>
+      <c r="G5" s="8">
+        <f>6.41488122940063/200</f>
+        <v>3.2074406147003152E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>12</v>
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-1.7902</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-11.8467</v>
+      </c>
+      <c r="D6" s="9">
+        <v>-21.738299999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-31.619900000000001</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-41.830800000000004</v>
+      </c>
+      <c r="G6" s="8">
+        <f xml:space="preserve"> 13.3679509162902/200</f>
+        <v>6.6839754581451E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2.7555999999999998</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-7.2537000000000003</v>
-      </c>
-      <c r="D7" s="9">
-        <v>-17.338799999999999</v>
-      </c>
-      <c r="E7" s="9">
-        <v>-27.194199999999999</v>
-      </c>
-      <c r="F7" s="9">
-        <v>-37.323900000000002</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="22">
+        <v>-1.64</v>
+      </c>
+      <c r="C7" s="22">
+        <v>-11.7117</v>
+      </c>
+      <c r="D7" s="22">
+        <v>-21.543399999999998</v>
+      </c>
+      <c r="E7" s="22">
+        <v>-31.816700000000001</v>
+      </c>
+      <c r="F7" s="22">
+        <v>-41.504600000000003</v>
       </c>
       <c r="G7" s="8">
-        <f>6.41488122940063/200</f>
-        <v>3.2074406147003152E-2</v>
+        <f>56.4998171329498/200</f>
+        <v>0.28249908566474902</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-1.7902</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-11.8467</v>
-      </c>
-      <c r="D8" s="9">
-        <v>-21.738299999999999</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-31.619900000000001</v>
-      </c>
-      <c r="F8" s="9">
-        <v>-41.830800000000004</v>
+        <v>53</v>
+      </c>
+      <c r="B8" s="22">
+        <v>35.489800000000002</v>
+      </c>
+      <c r="C8" s="22">
+        <v>24.462700000000002</v>
+      </c>
+      <c r="D8" s="22">
+        <v>13.6477</v>
+      </c>
+      <c r="E8" s="22">
+        <v>5.7971000000000004</v>
+      </c>
+      <c r="F8" s="22">
+        <v>-6.4617000000000004</v>
       </c>
       <c r="G8" s="8">
-        <f xml:space="preserve"> 13.3679509162902/200</f>
-        <v>6.6839754581451E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="22">
-        <v>-1.64</v>
-      </c>
-      <c r="C9" s="22">
-        <v>-11.7117</v>
-      </c>
-      <c r="D9" s="22">
-        <v>-21.543399999999998</v>
-      </c>
-      <c r="E9" s="22">
-        <v>-31.816700000000001</v>
-      </c>
-      <c r="F9" s="22">
-        <v>-41.504600000000003</v>
-      </c>
-      <c r="G9" s="8">
-        <f>56.4998171329498/200</f>
-        <v>0.28249908566474902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="22">
-        <v>35.489800000000002</v>
-      </c>
-      <c r="C10" s="22">
-        <v>24.462700000000002</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22">
-        <v>5.7971000000000004</v>
-      </c>
-      <c r="F10" s="22">
-        <v>-6.4617000000000004</v>
-      </c>
-      <c r="G10" s="8">
         <f>28.904328584671/200</f>
         <v>0.14452164292335501</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="22" t="s">
+        <v>57</v>
+      </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -921,704 +1014,729 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
-        <v>59</v>
+      <c r="A14" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="C14" s="22">
+        <v>-7.1620999999999997</v>
+      </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22" t="s">
-        <v>56</v>
+      <c r="G14" s="8">
+        <f>19.1064960956573/200</f>
+        <v>9.5532480478286497E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="C15" s="22">
+        <v>-11.8101</v>
+      </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="4" t="s">
-        <v>12</v>
+      <c r="G15" s="8">
+        <f>39.3029329776763/200</f>
+        <v>0.19651466488838149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10">
+        <f>(-11.7224-11.7828)/2</f>
+        <v>-11.752600000000001</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11">
+        <f>297.675692081451/100</f>
+        <v>2.9767569208145104</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="A17" s="22"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="22">
-        <v>-7.1620999999999997</v>
-      </c>
+      <c r="C17" s="24"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="8">
-        <f>19.1064960956573/200</f>
-        <v>9.5532480478286497E-2</v>
-      </c>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>9</v>
+      <c r="A18" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="B18" s="22"/>
-      <c r="C18" s="22">
-        <v>-11.8101</v>
-      </c>
+      <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="8">
-        <f>39.3029329776763/200</f>
-        <v>0.19651466488838149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="24"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
+      <c r="A21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28" t="s">
+        <v>4</v>
+      </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="22" t="s">
-        <v>60</v>
+      <c r="F21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="8">
+        <v>-6.7045000000000003</v>
+      </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="G22" s="22"/>
-      <c r="H22" s="28"/>
+      <c r="H22" s="8">
+        <v>30.081099999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="30" t="s">
-        <v>4</v>
+      <c r="A23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="8">
+        <v>-11.539099999999999</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="8"/>
+      <c r="F23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="8">
+        <v>26.237500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="28"/>
+      <c r="F24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11">
+        <v>11.6327</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="A25" s="22"/>
       <c r="B25" s="22"/>
-      <c r="C25" s="8"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="28"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="31"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="28"/>
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B32" s="9">
         <v>0.37009999999999998</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C32" s="9">
         <v>-9.5507000000000009</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D32" s="9">
         <v>-19.614100000000001</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E32" s="9">
         <v>-29.642099999999999</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F32" s="9">
         <v>-39.517699999999998</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G32" s="8">
         <f>6.71297335624694/200</f>
         <v>3.3564866781234701E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B33" s="9">
         <v>-2.0627</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C33" s="9">
         <v>-12.234</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D33" s="9">
         <v>-22.131499999999999</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E33" s="9">
         <v>-32.137099999999997</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F33" s="9">
         <v>-42.033499999999997</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G33" s="8">
         <f>13.8022818565368/200</f>
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="13" t="s">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="11"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-    </row>
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="14" t="s">
+      <c r="A43" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="15" t="s">
+      <c r="D43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E43" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F43" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G43" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B44" s="22">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C44" s="22">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D44" s="22">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E44" s="22">
         <v>-27.2926</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F44" s="22">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G44" s="8">
         <f>6.50587582588195/200</f>
         <v>3.2529379129409751E-2</v>
       </c>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="22">
+        <v>-3.7565</v>
+      </c>
+      <c r="C45" s="22">
+        <v>-13.7667</v>
+      </c>
+      <c r="D45" s="22">
+        <v>-23.4497</v>
+      </c>
+      <c r="E45" s="22">
+        <v>-33.330800000000004</v>
+      </c>
+      <c r="F45" s="22">
+        <v>-43</v>
+      </c>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="19"/>
+    </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B47" s="22">
-        <v>-3.7565</v>
+        <v>11.153700000000001</v>
       </c>
       <c r="C47" s="22">
-        <v>-13.7667</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="D47" s="22">
-        <v>-23.4497</v>
+        <v>-9.1595999999999993</v>
       </c>
       <c r="E47" s="22">
-        <v>-33.330800000000004</v>
+        <v>-18.4282</v>
       </c>
       <c r="F47" s="22">
-        <v>-43</v>
-      </c>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B49" s="22">
-        <v>11.153700000000001</v>
-      </c>
-      <c r="C49" s="22">
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="D49" s="22">
-        <v>-9.1595999999999993</v>
-      </c>
-      <c r="E49" s="22">
-        <v>-18.4282</v>
-      </c>
-      <c r="F49" s="22">
         <v>-28.785699999999999</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G47" s="8">
         <f>6.49999380111694/200</f>
         <v>3.2499969005584696E-2</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="22">
+        <v>11.1798</v>
+      </c>
+      <c r="C48" s="22">
+        <v>1.0333000000000001</v>
+      </c>
+      <c r="D48" s="22">
+        <v>-7.9607999999999999</v>
+      </c>
+      <c r="E48" s="22">
+        <v>-17.954899999999999</v>
+      </c>
+      <c r="F48" s="22">
+        <v>-28.222899999999999</v>
+      </c>
+      <c r="G48" s="19"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="19"/>
+    </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B50" s="22">
-        <v>11.1798</v>
+        <v>-1.8754</v>
       </c>
       <c r="C50" s="22">
-        <v>1.0333000000000001</v>
+        <v>-11.879799999999999</v>
       </c>
       <c r="D50" s="22">
-        <v>-7.9607999999999999</v>
+        <v>-21.812200000000001</v>
       </c>
       <c r="E50" s="22">
-        <v>-17.954899999999999</v>
+        <v>-31.9605</v>
       </c>
       <c r="F50" s="22">
-        <v>-28.222899999999999</v>
-      </c>
-      <c r="G50" s="19"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="22">
-        <v>-1.8754</v>
-      </c>
-      <c r="C52" s="22">
-        <v>-11.879799999999999</v>
-      </c>
-      <c r="D52" s="22">
-        <v>-21.812200000000001</v>
-      </c>
-      <c r="E52" s="22">
-        <v>-31.9605</v>
-      </c>
-      <c r="F52" s="22">
         <v>-41.809899999999999</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G50" s="8">
         <f>13.4261772632598/200</f>
         <v>6.7130886316299002E-2</v>
       </c>
     </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="22">
+        <v>-6.5049000000000001</v>
+      </c>
+      <c r="C51" s="22">
+        <v>-16.561499999999999</v>
+      </c>
+      <c r="D51" s="22">
+        <v>-27.001000000000001</v>
+      </c>
+      <c r="E51" s="22">
+        <v>-36.670699999999997</v>
+      </c>
+      <c r="F51" s="22">
+        <v>-46.9679</v>
+      </c>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="5"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="8"/>
+    </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B53" s="22">
-        <v>-6.5049000000000001</v>
+        <v>5.5016999999999996</v>
       </c>
       <c r="C53" s="22">
-        <v>-16.561499999999999</v>
+        <v>-4.8254000000000001</v>
       </c>
       <c r="D53" s="22">
-        <v>-27.001000000000001</v>
+        <v>-15.061500000000001</v>
       </c>
       <c r="E53" s="22">
-        <v>-36.670699999999997</v>
+        <v>-24.198</v>
       </c>
       <c r="F53" s="22">
-        <v>-46.9679</v>
-      </c>
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="22">
-        <v>5.5016999999999996</v>
-      </c>
-      <c r="C55" s="22">
-        <v>-4.8254000000000001</v>
-      </c>
-      <c r="D55" s="22">
-        <v>-15.061500000000001</v>
-      </c>
-      <c r="E55" s="22">
-        <v>-24.198</v>
-      </c>
-      <c r="F55" s="22">
         <v>-34.591799999999999</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G53" s="8">
         <f>13.4844782352447/200</f>
         <v>6.7422391176223492E-2</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="22">
+        <v>5.3632</v>
+      </c>
+      <c r="C54" s="22">
+        <v>-4.4451000000000001</v>
+      </c>
+      <c r="D54" s="22">
+        <v>-14.241</v>
+      </c>
+      <c r="E54" s="22">
+        <v>-23.9832</v>
+      </c>
+      <c r="F54" s="22">
+        <v>-34.349800000000002</v>
+      </c>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="5"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+    </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B56" s="22">
-        <v>5.3632</v>
+        <v>2.8641000000000001</v>
       </c>
       <c r="C56" s="22">
-        <v>-4.4451000000000001</v>
+        <v>-7.1985999999999999</v>
       </c>
       <c r="D56" s="22">
-        <v>-14.241</v>
+        <v>-17.209299999999999</v>
       </c>
       <c r="E56" s="22">
-        <v>-23.9832</v>
+        <v>-27.149699999999999</v>
       </c>
       <c r="F56" s="22">
-        <v>-34.349800000000002</v>
-      </c>
-      <c r="G56" s="19"/>
+        <v>-36.924700000000001</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0.116083519</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="5"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="19"/>
+      <c r="A57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="22">
+        <v>-3.4102999999999999</v>
+      </c>
+      <c r="C57" s="22">
+        <v>-13.260999999999999</v>
+      </c>
+      <c r="D57" s="22">
+        <v>-23.144600000000001</v>
+      </c>
+      <c r="E57" s="22">
+        <v>-33.285899999999998</v>
+      </c>
+      <c r="F57" s="22">
+        <v>-42.896900000000002</v>
+      </c>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B58" s="22">
-        <v>2.8641000000000001</v>
-      </c>
-      <c r="C58" s="22">
-        <v>-7.1985999999999999</v>
-      </c>
-      <c r="D58" s="22">
-        <v>-17.209299999999999</v>
-      </c>
-      <c r="E58" s="22">
-        <v>-27.149699999999999</v>
-      </c>
-      <c r="F58" s="22">
-        <v>-36.924700000000001</v>
-      </c>
-      <c r="G58" s="8">
-        <v>0.116083519</v>
-      </c>
+      <c r="A58" s="5"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B59" s="22">
-        <v>-3.4102999999999999</v>
+        <v>4.5346000000000002</v>
       </c>
       <c r="C59" s="22">
-        <v>-13.260999999999999</v>
+        <v>-6.2085999999999997</v>
       </c>
       <c r="D59" s="22">
-        <v>-23.144600000000001</v>
+        <v>-16.321000000000002</v>
       </c>
       <c r="E59" s="22">
-        <v>-33.285899999999998</v>
+        <v>-26.735700000000001</v>
       </c>
       <c r="F59" s="22">
-        <v>-42.896900000000002</v>
-      </c>
-      <c r="G59" s="8"/>
+        <v>-36.0501</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0.1187723</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="5"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="19"/>
+      <c r="A60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" s="22">
+        <v>-1.4903</v>
+      </c>
+      <c r="C60" s="22">
+        <v>-12.162599999999999</v>
+      </c>
+      <c r="D60" s="22">
+        <v>-22.052</v>
+      </c>
+      <c r="E60" s="22">
+        <v>-33.043300000000002</v>
+      </c>
+      <c r="F60" s="22">
+        <v>-42.5334</v>
+      </c>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="22">
-        <v>4.5346000000000002</v>
-      </c>
-      <c r="C61" s="22">
-        <v>-6.2085999999999997</v>
-      </c>
-      <c r="D61" s="22">
-        <v>-16.321000000000002</v>
-      </c>
-      <c r="E61" s="22">
-        <v>-26.735700000000001</v>
-      </c>
-      <c r="F61" s="22">
-        <v>-36.0501</v>
-      </c>
-      <c r="G61" s="8">
-        <v>0.1187723</v>
-      </c>
+      <c r="A61" s="5"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B62" s="22">
-        <v>-1.4903</v>
+        <v>2.9352999999999998</v>
       </c>
       <c r="C62" s="22">
-        <v>-12.162599999999999</v>
+        <v>-7.2027999999999999</v>
       </c>
       <c r="D62" s="22">
-        <v>-22.052</v>
+        <v>-17.222799999999999</v>
       </c>
       <c r="E62" s="22">
-        <v>-33.043300000000002</v>
+        <v>-26.9771</v>
       </c>
       <c r="F62" s="22">
-        <v>-42.5334</v>
-      </c>
-      <c r="G62" s="8"/>
+        <v>-37.169800000000002</v>
+      </c>
+      <c r="G62" s="19"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="5"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
+      <c r="A63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="22">
+        <v>-3.2262</v>
+      </c>
+      <c r="C63" s="22">
+        <v>-13.405900000000001</v>
+      </c>
+      <c r="D63" s="22">
+        <v>-23.091999999999999</v>
+      </c>
+      <c r="E63" s="22">
+        <v>-33.152799999999999</v>
+      </c>
+      <c r="F63" s="22">
+        <v>-42.952599999999997</v>
+      </c>
       <c r="G63" s="19"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="22">
-        <v>2.9352999999999998</v>
-      </c>
-      <c r="C64" s="22">
-        <v>-7.2027999999999999</v>
-      </c>
-      <c r="D64" s="22">
-        <v>-17.222799999999999</v>
-      </c>
-      <c r="E64" s="22">
-        <v>-26.9771</v>
-      </c>
-      <c r="F64" s="22">
-        <v>-37.169800000000002</v>
-      </c>
+      <c r="A64" s="5"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
       <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="22">
-        <v>-3.2262</v>
-      </c>
-      <c r="C65" s="22">
-        <v>-13.405900000000001</v>
-      </c>
-      <c r="D65" s="22">
-        <v>-23.091999999999999</v>
-      </c>
-      <c r="E65" s="22">
-        <v>-33.152799999999999</v>
-      </c>
-      <c r="F65" s="22">
-        <v>-42.952599999999997</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
       <c r="G65" s="19"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="5"/>
+      <c r="A66" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -1627,9 +1745,7 @@
       <c r="G66" s="19"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A67" s="5"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -1639,7 +1755,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -1649,7 +1765,9 @@
       <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -1658,9 +1776,7 @@
       <c r="G69" s="19"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A70" s="5"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -1670,7 +1786,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -1679,102 +1795,104 @@
       <c r="F71" s="18"/>
       <c r="G71" s="19"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="6" t="s">
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="21"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="21"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" s="23"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C77" s="23"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>40</v>
-      </c>
-    </row>
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="A79" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="8"/>
+    </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="19"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="22"/>
+      <c r="A82" s="5"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="22"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
-      <c r="G82" s="8"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
-      <c r="G83" s="19"/>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="18"/>
+      <c r="A84" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="22"/>
       <c r="C84" s="22"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
@@ -1782,41 +1900,39 @@
       <c r="G84" s="19"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B85" s="22"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="22"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
-      <c r="G85" s="8"/>
+      <c r="G85" s="19"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" s="22"/>
       <c r="C86" s="22"/>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
-      <c r="G86" s="19"/>
+      <c r="G86" s="8"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
-      <c r="B87" s="18"/>
+      <c r="A87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="22"/>
       <c r="C87" s="22"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
-      <c r="G87" s="19"/>
+      <c r="G87" s="8"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B88" s="22"/>
+      <c r="A88" s="5"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
       <c r="E88" s="22"/>
@@ -1825,7 +1941,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -1835,38 +1951,40 @@
       <c r="G89" s="8"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
-      <c r="B90" s="18"/>
+      <c r="A90" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B90" s="22"/>
       <c r="C90" s="22"/>
       <c r="D90" s="22"/>
       <c r="E90" s="22"/>
       <c r="F90" s="22"/>
-      <c r="G90" s="8"/>
+      <c r="G90" s="19"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="8"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
       <c r="G92" s="19"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
+      <c r="A93" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
@@ -1875,9 +1993,7 @@
       <c r="G93" s="19"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A94" s="5"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
@@ -1887,7 +2003,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -1897,7 +2013,9 @@
       <c r="G95" s="19"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="5"/>
+      <c r="A96" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
@@ -1906,9 +2024,7 @@
       <c r="G96" s="19"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A97" s="5"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
@@ -1918,7 +2034,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -1927,36 +2043,16 @@
       <c r="F98" s="18"/>
       <c r="G98" s="19"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="5"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="19"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="19"/>
-    </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="6" t="s">
+    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-      <c r="E101" s="20"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="21"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1980,14 +2076,463 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="27">
+        <v>-10.4472</v>
+      </c>
+      <c r="C3" s="27">
+        <v>-20.370799999999999</v>
+      </c>
+      <c r="D3" s="27">
+        <v>-30.398399999999999</v>
+      </c>
+      <c r="E3" s="27">
+        <v>-40.393700000000003</v>
+      </c>
+      <c r="F3" s="30">
+        <v>-49.8947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="27">
+        <v>-23.1279</v>
+      </c>
+      <c r="C4" s="27">
+        <v>-32.644799999999996</v>
+      </c>
+      <c r="D4" s="27">
+        <v>-42.8185</v>
+      </c>
+      <c r="E4" s="27">
+        <v>-52.9345</v>
+      </c>
+      <c r="F4" s="30">
+        <v>-63.1145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="27">
+        <v>18.239100000000001</v>
+      </c>
+      <c r="C5" s="27">
+        <v>28.239100000000001</v>
+      </c>
+      <c r="D5" s="27">
+        <v>38.239100000000001</v>
+      </c>
+      <c r="E5" s="27">
+        <v>48</v>
+      </c>
+      <c r="F5" s="30">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="27">
+        <v>-10.364599999999999</v>
+      </c>
+      <c r="C6" s="27">
+        <v>-19.473500000000001</v>
+      </c>
+      <c r="D6" s="27">
+        <v>-23.626000000000001</v>
+      </c>
+      <c r="E6" s="27">
+        <v>-33.509500000000003</v>
+      </c>
+      <c r="F6" s="30">
+        <v>-41.149799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="27">
+        <v>-21.3749</v>
+      </c>
+      <c r="C7" s="27">
+        <v>-31.677499999999998</v>
+      </c>
+      <c r="D7" s="27">
+        <v>-39.564999999999998</v>
+      </c>
+      <c r="E7" s="27">
+        <v>-47.318899999999999</v>
+      </c>
+      <c r="F7" s="30">
+        <v>-56.848700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="27">
+        <v>18.239100000000001</v>
+      </c>
+      <c r="C8" s="27">
+        <v>28.239100000000001</v>
+      </c>
+      <c r="D8" s="27">
+        <v>30.969100000000001</v>
+      </c>
+      <c r="E8" s="27">
+        <v>33.010300000000001</v>
+      </c>
+      <c r="F8" s="30">
+        <v>35.2288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="27">
+        <v>-5.6181000000000001</v>
+      </c>
+      <c r="C9" s="27">
+        <v>-12.0389</v>
+      </c>
+      <c r="D9" s="27">
+        <v>-20.452500000000001</v>
+      </c>
+      <c r="E9" s="27">
+        <v>-30.0549</v>
+      </c>
+      <c r="F9" s="30">
+        <v>-40.004899999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="27">
+        <v>-12.022600000000001</v>
+      </c>
+      <c r="C10" s="27">
+        <v>-20.712599999999998</v>
+      </c>
+      <c r="D10" s="27">
+        <v>-32.408700000000003</v>
+      </c>
+      <c r="E10" s="27">
+        <v>-46.951999999999998</v>
+      </c>
+      <c r="F10" s="30">
+        <v>-57.283099999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="27">
+        <v>8</v>
+      </c>
+      <c r="C11" s="27">
+        <v>8</v>
+      </c>
+      <c r="D11" s="27">
+        <v>10</v>
+      </c>
+      <c r="E11" s="27">
+        <v>10</v>
+      </c>
+      <c r="F11" s="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="27">
+        <v>-5.6073000000000004</v>
+      </c>
+      <c r="C12" s="27">
+        <v>-11.949199999999999</v>
+      </c>
+      <c r="D12" s="27">
+        <v>-20.449400000000001</v>
+      </c>
+      <c r="E12" s="27">
+        <v>-30.054300000000001</v>
+      </c>
+      <c r="F12" s="30">
+        <v>-39.9771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="27">
+        <v>-12.0246</v>
+      </c>
+      <c r="C13" s="27">
+        <v>-18.514199999999999</v>
+      </c>
+      <c r="D13" s="27">
+        <v>-32.425600000000003</v>
+      </c>
+      <c r="E13" s="27">
+        <v>-46.9529</v>
+      </c>
+      <c r="F13" s="30">
+        <v>-56.845199999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="27">
+        <v>8</v>
+      </c>
+      <c r="C14" s="27">
+        <v>10</v>
+      </c>
+      <c r="D14" s="27">
+        <v>10</v>
+      </c>
+      <c r="E14" s="27">
+        <v>10</v>
+      </c>
+      <c r="F14" s="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="27">
+        <v>-9.7801298939999999</v>
+      </c>
+      <c r="C15" s="27">
+        <v>-18.12679808</v>
+      </c>
+      <c r="D15" s="27">
+        <v>-23.542873570000001</v>
+      </c>
+      <c r="E15" s="27">
+        <v>-30.158300000000001</v>
+      </c>
+      <c r="F15" s="30">
+        <v>-33.947899999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="27">
+        <v>-17.3626</v>
+      </c>
+      <c r="C16" s="27">
+        <v>-32.033700000000003</v>
+      </c>
+      <c r="D16" s="27">
+        <v>-40.044400000000003</v>
+      </c>
+      <c r="E16" s="27">
+        <v>-47.186999999999998</v>
+      </c>
+      <c r="F16" s="30">
+        <v>-49.0274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="27">
+        <v>15</v>
+      </c>
+      <c r="C17" s="27">
+        <v>20</v>
+      </c>
+      <c r="D17" s="27">
+        <v>20</v>
+      </c>
+      <c r="E17" s="27">
+        <v>20</v>
+      </c>
+      <c r="F17" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="27">
+        <v>-9.6328417179999999</v>
+      </c>
+      <c r="C18" s="27">
+        <v>-17.95149254</v>
+      </c>
+      <c r="D18" s="27">
+        <v>-23.466352789999998</v>
+      </c>
+      <c r="E18" s="27">
+        <v>-30.110199999999999</v>
+      </c>
+      <c r="F18" s="30">
+        <v>-33.805129010000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="27">
+        <v>-18.3842</v>
+      </c>
+      <c r="C19" s="27">
+        <v>-31.8005</v>
+      </c>
+      <c r="D19" s="27">
+        <v>-40.051200000000001</v>
+      </c>
+      <c r="E19" s="27">
+        <v>-46.649900000000002</v>
+      </c>
+      <c r="F19" s="30">
+        <v>-48.9452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="27">
+        <v>15</v>
+      </c>
+      <c r="C20" s="27">
+        <v>20</v>
+      </c>
+      <c r="D20" s="27">
+        <v>20</v>
+      </c>
+      <c r="E20" s="27">
+        <v>20</v>
+      </c>
+      <c r="F20" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="27">
+        <v>-9.3295999999999992</v>
+      </c>
+      <c r="C21" s="27">
+        <v>-19.7074</v>
+      </c>
+      <c r="D21" s="27">
+        <v>-27.0731</v>
+      </c>
+      <c r="E21" s="27">
+        <v>-35.414900000000003</v>
+      </c>
+      <c r="F21" s="30">
+        <v>-41.743099999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="27">
+        <v>-21.508299999999998</v>
+      </c>
+      <c r="C22" s="27">
+        <v>-31.377800000000001</v>
+      </c>
+      <c r="D22" s="27">
+        <v>-40.8187</v>
+      </c>
+      <c r="E22" s="27">
+        <v>-48.7545</v>
+      </c>
+      <c r="F22" s="30">
+        <v>-57.733800000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="31">
+        <v>-9.7865000000000002</v>
+      </c>
+      <c r="C23" s="31">
+        <v>-19.745899999999999</v>
+      </c>
+      <c r="D23" s="31">
+        <v>-29.374300000000002</v>
+      </c>
+      <c r="E23" s="31">
+        <v>-39.676200000000001</v>
+      </c>
+      <c r="F23" s="32">
+        <v>-48.985799999999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7440A364-FA83-4C05-AE91-1DCE877614F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB88B72-C0D3-4FDF-A585-C24492C40F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -828,7 +828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB88B72-C0D3-4FDF-A585-C24492C40F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD7906D-E0F3-4FF7-9305-CAA169182792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">KNet J=5, train on T=100 (n_Epochs=500, n_Batch=100, learningRate=5e-3, weightDecay=1e-4) [dB] </t>
+  </si>
+  <si>
+    <t>RTS J=5 [dB]</t>
   </si>
 </sst>
 </file>
@@ -2076,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2532,6 +2535,14 @@
         <v>-48.985799999999998</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25">
+        <v>-13.9579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD7906D-E0F3-4FF7-9305-CAA169182792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C26D7-1193-4474-9E53-1990634DF4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -227,9 +227,6 @@
     <t>RTSNet partial std [dB]</t>
   </si>
   <si>
-    <t>Welling true [dB] (n_Epochs=500, n_Batch=30, learningRate=1E-3, weightDecay=1E-9)</t>
-  </si>
-  <si>
     <t>RNN true [dB] (n_Epochs=1000, n_Batch=50, learningRate=5e-3, weightDecay=1e-5)</t>
   </si>
   <si>
@@ -284,55 +281,88 @@
     <t>EKF J=5 [dB]</t>
   </si>
   <si>
-    <t>EKF J=5 std [dB]</t>
-  </si>
-  <si>
     <t>optimal 1/q2 [dB] for J=5</t>
   </si>
   <si>
     <t xml:space="preserve">EKF J=2 [dB] </t>
   </si>
   <si>
-    <t xml:space="preserve">EKF J=2 std [dB] </t>
-  </si>
-  <si>
     <t>optimal 1/q2 [dB] for J=2</t>
   </si>
   <si>
     <t xml:space="preserve">UKF J=5 [dB] </t>
   </si>
   <si>
-    <t xml:space="preserve">UKF J=5 std [dB] </t>
-  </si>
-  <si>
     <t xml:space="preserve">UKF J=2 [dB] </t>
   </si>
   <si>
-    <t xml:space="preserve">UKF J=2 std [dB] </t>
-  </si>
-  <si>
     <t>PF J=5 [dB]</t>
   </si>
   <si>
-    <t>PF J=5 std [dB]</t>
-  </si>
-  <si>
     <t xml:space="preserve">PF J=2 [dB] </t>
   </si>
   <si>
-    <t xml:space="preserve">PF J=2 std [dB] </t>
-  </si>
-  <si>
     <t xml:space="preserve">Knet New architecture J=2, train on T=2000 (n_Epochs=200, n_Batch=10, learningRate=1e-3, weightDecay=1e-6) [dB] </t>
   </si>
   <si>
-    <t xml:space="preserve">Knet New architecture J=2 std [dB] </t>
-  </si>
-  <si>
     <t xml:space="preserve">KNet J=5, train on T=100 (n_Epochs=500, n_Batch=100, learningRate=5e-3, weightDecay=1e-4) [dB] </t>
   </si>
   <si>
     <t>RTS J=5 [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welling true std [linear] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welling true [dB] </t>
+  </si>
+  <si>
+    <t>EKF mismatch(fed with false init state [0,0] and init variance=100^2*Identity) [dB]</t>
+  </si>
+  <si>
+    <t>RTS mismatch(fed with false init state [0,0] and init variance=100^2*Identity) [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet mismatch(fed with false init state [0,0]) [dB] </t>
+  </si>
+  <si>
+    <t>EKF std [linear]</t>
+  </si>
+  <si>
+    <t>RTS std [linear]</t>
+  </si>
+  <si>
+    <t>RTSNet std [linear]</t>
+  </si>
+  <si>
+    <t>RNN std [linear]</t>
+  </si>
+  <si>
+    <t>RTSNet 2-fold J=5 std [linear]</t>
+  </si>
+  <si>
+    <t>EKF J=5 std [linear]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKF J=2 std [linear] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF J=2 std [linear] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UKF J=5 std [linear] </t>
+  </si>
+  <si>
+    <t>PF J=5 std [linear]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF J=2 std [linear] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knet New architecture J=2 std [linear] </t>
+  </si>
+  <si>
+    <t>RTSNet 2-fold J=5, train on T=100(n_Epochs=5000, n_Batch=10, learningRate=1e-4, weightDecay=1e-3) [dB]</t>
   </si>
 </sst>
 </file>
@@ -503,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -549,6 +579,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -829,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -842,12 +876,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -875,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -904,193 +938,204 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F6" s="33">
+        <v>4.5952999999999999E-5</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B7" s="9">
+        <f>-1.7902</f>
         <v>-1.7902</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C7" s="9">
         <v>-11.8467</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D7" s="9">
         <v>-21.738299999999999</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E7" s="9">
         <v>-31.619900000000001</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F7" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G7" s="8">
         <f xml:space="preserve"> 13.3679509162902/200</f>
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.06E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.3E-3</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F8" s="33">
+        <v>2.2665999999999999E-5</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B9" s="22">
         <v>-1.64</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C9" s="22">
         <v>-11.7117</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D9" s="22">
         <v>-21.543399999999998</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E9" s="22">
         <v>-31.816700000000001</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F9" s="22">
         <v>-41.504600000000003</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G9" s="8">
         <f>56.4998171329498/200</f>
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="22">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.21790000000000001</v>
+      </c>
+      <c r="C10" s="22">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D10" s="22">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E10" s="22">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F10" s="34">
+        <v>2.3122999999999999E-5</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="22">
         <v>35.489800000000002</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C11" s="22">
         <v>24.462700000000002</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D11" s="22">
         <v>13.6477</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E11" s="22">
         <v>5.7971000000000004</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F11" s="22">
         <v>-6.4617000000000004</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G11" s="8">
         <f>28.904328584671/200</f>
         <v>0.14452164292335501</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="22" t="s">
-        <v>57</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22">
-        <v>-7.1620999999999997</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="8">
-        <f>19.1064960956573/200</f>
-        <v>9.5532480478286497E-2</v>
-      </c>
+      <c r="A13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="A15" s="22"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="22">
-        <v>-11.8101</v>
-      </c>
+      <c r="C15" s="22"/>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="8">
-        <f>39.3029329776763/200</f>
-        <v>0.19651466488838149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10">
-        <f>(-11.7224-11.7828)/2</f>
-        <v>-11.752600000000001</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11">
-        <f>297.675692081451/100</f>
-        <v>2.9767569208145104</v>
-      </c>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
+      <c r="A17" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="24"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="22" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="22"/>
@@ -1101,618 +1146,585 @@
       <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="22" t="s">
-        <v>58</v>
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="C20" s="22">
+        <v>-7.1620999999999997</v>
+      </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="27"/>
+      <c r="G20" s="8">
+        <f>19.1064960956573/200</f>
+        <v>9.5532480478286497E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="28" t="s">
-        <v>4</v>
+      <c r="A21" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22">
+        <v>1.54E-2</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
-      <c r="F21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="28" t="s">
-        <v>4</v>
-      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="22"/>
-      <c r="C22" s="8">
-        <v>-6.7045000000000003</v>
+      <c r="C22" s="22">
+        <v>-11.8101</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="8">
-        <v>30.081099999999999</v>
+      <c r="F22" s="22"/>
+      <c r="G22" s="8">
+        <f>39.3029329776763/200</f>
+        <v>0.19651466488838149</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B23" s="22"/>
-      <c r="C23" s="8">
-        <v>-11.539099999999999</v>
+      <c r="C23" s="22">
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
-      <c r="F23" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="8">
-        <v>26.237500000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="29"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22">
+        <f>(-11.7224-11.7828)/2</f>
+        <v>-11.752600000000001</v>
+      </c>
       <c r="D24" s="22"/>
-      <c r="F24" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11">
-        <v>11.6327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="27"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="8">
+        <f>297.675692081451/100</f>
+        <v>2.9767569208145104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10">
+        <f>(0.0068*50+0.0086*50+0.0066*50+0.0071*50)/200</f>
+        <v>7.2750000000000002E-3</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
       <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="A27" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
+      <c r="A28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="26"/>
+      <c r="C30" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="26"/>
+      <c r="H30" s="28" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>12</v>
+      <c r="A31" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="8">
+        <v>-6.7045000000000003</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="22"/>
+      <c r="H31" s="8">
+        <v>30.081099999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="8">
+        <v>-11.539099999999999</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="22"/>
+      <c r="H32" s="8">
+        <v>26.237500000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="22"/>
+      <c r="F33" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11">
+        <v>11.6327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="27"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B41" s="9">
         <v>0.37009999999999998</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C41" s="9">
         <v>-9.5507000000000009</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D41" s="9">
         <v>-19.614100000000001</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E41" s="9">
         <v>-29.642099999999999</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F41" s="9">
         <v>-39.517699999999998</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G41" s="8">
         <f>6.71297335624694/200</f>
         <v>3.3564866781234701E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B42" s="9">
         <v>-2.0627</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C42" s="9">
         <v>-12.234</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D42" s="9">
         <v>-22.131499999999999</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E42" s="9">
         <v>-32.137099999999997</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F42" s="9">
         <v>-42.033499999999997</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G42" s="8">
         <f>13.8022818565368/200</f>
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B52" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="D52" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E52" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F52" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G52" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B53" s="22">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C53" s="22">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D53" s="22">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E53" s="22">
         <v>-27.2926</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F53" s="22">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G53" s="8">
         <f>6.50587582588195/200</f>
         <v>3.2529379129409751E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45" s="22">
-        <v>-3.7565</v>
-      </c>
-      <c r="C45" s="22">
-        <v>-13.7667</v>
-      </c>
-      <c r="D45" s="22">
-        <v>-23.4497</v>
-      </c>
-      <c r="E45" s="22">
-        <v>-33.330800000000004</v>
-      </c>
-      <c r="F45" s="22">
-        <v>-43</v>
-      </c>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="22">
-        <v>11.153700000000001</v>
-      </c>
-      <c r="C47" s="22">
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="D47" s="22">
-        <v>-9.1595999999999993</v>
-      </c>
-      <c r="E47" s="22">
-        <v>-18.4282</v>
-      </c>
-      <c r="F47" s="22">
-        <v>-28.785699999999999</v>
-      </c>
-      <c r="G47" s="8">
-        <f>6.49999380111694/200</f>
-        <v>3.2499969005584696E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" s="22">
-        <v>11.1798</v>
-      </c>
-      <c r="C48" s="22">
-        <v>1.0333000000000001</v>
-      </c>
-      <c r="D48" s="22">
-        <v>-7.9607999999999999</v>
-      </c>
-      <c r="E48" s="22">
-        <v>-17.954899999999999</v>
-      </c>
-      <c r="F48" s="22">
-        <v>-28.222899999999999</v>
-      </c>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="22">
-        <v>-1.8754</v>
-      </c>
-      <c r="C50" s="22">
-        <v>-11.879799999999999</v>
-      </c>
-      <c r="D50" s="22">
-        <v>-21.812200000000001</v>
-      </c>
-      <c r="E50" s="22">
-        <v>-31.9605</v>
-      </c>
-      <c r="F50" s="22">
-        <v>-41.809899999999999</v>
-      </c>
-      <c r="G50" s="8">
-        <f>13.4261772632598/200</f>
-        <v>6.7130886316299002E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B51" s="22">
-        <v>-6.5049000000000001</v>
-      </c>
-      <c r="C51" s="22">
-        <v>-16.561499999999999</v>
-      </c>
-      <c r="D51" s="22">
-        <v>-27.001000000000001</v>
-      </c>
-      <c r="E51" s="22">
-        <v>-36.670699999999997</v>
-      </c>
-      <c r="F51" s="22">
-        <v>-46.9679</v>
-      </c>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="22">
-        <v>5.5016999999999996</v>
-      </c>
-      <c r="C53" s="22">
-        <v>-4.8254000000000001</v>
-      </c>
-      <c r="D53" s="22">
-        <v>-15.061500000000001</v>
-      </c>
-      <c r="E53" s="22">
-        <v>-24.198</v>
-      </c>
-      <c r="F53" s="22">
-        <v>-34.591799999999999</v>
-      </c>
-      <c r="G53" s="8">
-        <f>13.4844782352447/200</f>
-        <v>6.7422391176223492E-2</v>
-      </c>
-    </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B54" s="22">
-        <v>5.3632</v>
+        <v>-3.7565</v>
       </c>
       <c r="C54" s="22">
-        <v>-4.4451000000000001</v>
+        <v>-13.7667</v>
       </c>
       <c r="D54" s="22">
-        <v>-14.241</v>
+        <v>-23.4497</v>
       </c>
       <c r="E54" s="22">
-        <v>-23.9832</v>
+        <v>-33.330800000000004</v>
       </c>
       <c r="F54" s="22">
-        <v>-34.349800000000002</v>
+        <v>-43</v>
       </c>
       <c r="G54" s="19"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="5"/>
       <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
       <c r="G55" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B56" s="22">
-        <v>2.8641000000000001</v>
+        <v>11.153700000000001</v>
       </c>
       <c r="C56" s="22">
-        <v>-7.1985999999999999</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="D56" s="22">
-        <v>-17.209299999999999</v>
+        <v>-9.1595999999999993</v>
       </c>
       <c r="E56" s="22">
-        <v>-27.149699999999999</v>
+        <v>-18.4282</v>
       </c>
       <c r="F56" s="22">
-        <v>-36.924700000000001</v>
+        <v>-28.785699999999999</v>
       </c>
       <c r="G56" s="8">
-        <v>0.116083519</v>
+        <f>6.49999380111694/200</f>
+        <v>3.2499969005584696E-2</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B57" s="22">
-        <v>-3.4102999999999999</v>
+        <v>11.1798</v>
       </c>
       <c r="C57" s="22">
-        <v>-13.260999999999999</v>
+        <v>1.0333000000000001</v>
       </c>
       <c r="D57" s="22">
-        <v>-23.144600000000001</v>
+        <v>-7.9607999999999999</v>
       </c>
       <c r="E57" s="22">
-        <v>-33.285899999999998</v>
+        <v>-17.954899999999999</v>
       </c>
       <c r="F57" s="22">
-        <v>-42.896900000000002</v>
-      </c>
-      <c r="G57" s="8"/>
+        <v>-28.222899999999999</v>
+      </c>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="5"/>
       <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
       <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B59" s="22">
-        <v>4.5346000000000002</v>
+        <v>-1.8754</v>
       </c>
       <c r="C59" s="22">
-        <v>-6.2085999999999997</v>
+        <v>-11.879799999999999</v>
       </c>
       <c r="D59" s="22">
-        <v>-16.321000000000002</v>
+        <v>-21.812200000000001</v>
       </c>
       <c r="E59" s="22">
-        <v>-26.735700000000001</v>
+        <v>-31.9605</v>
       </c>
       <c r="F59" s="22">
-        <v>-36.0501</v>
+        <v>-41.809899999999999</v>
       </c>
       <c r="G59" s="8">
-        <v>0.1187723</v>
+        <f>13.4261772632598/200</f>
+        <v>6.7130886316299002E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B60" s="22">
-        <v>-1.4903</v>
+        <v>-6.5049000000000001</v>
       </c>
       <c r="C60" s="22">
-        <v>-12.162599999999999</v>
+        <v>-16.561499999999999</v>
       </c>
       <c r="D60" s="22">
-        <v>-22.052</v>
+        <v>-27.001000000000001</v>
       </c>
       <c r="E60" s="22">
-        <v>-33.043300000000002</v>
+        <v>-36.670699999999997</v>
       </c>
       <c r="F60" s="22">
-        <v>-42.5334</v>
+        <v>-46.9679</v>
       </c>
       <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="5"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="19"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B62" s="22">
-        <v>2.9352999999999998</v>
+        <v>5.5016999999999996</v>
       </c>
       <c r="C62" s="22">
-        <v>-7.2027999999999999</v>
+        <v>-4.8254000000000001</v>
       </c>
       <c r="D62" s="22">
-        <v>-17.222799999999999</v>
+        <v>-15.061500000000001</v>
       </c>
       <c r="E62" s="22">
-        <v>-26.9771</v>
+        <v>-24.198</v>
       </c>
       <c r="F62" s="22">
-        <v>-37.169800000000002</v>
-      </c>
-      <c r="G62" s="19"/>
+        <v>-34.591799999999999</v>
+      </c>
+      <c r="G62" s="8">
+        <f>13.4844782352447/200</f>
+        <v>6.7422391176223492E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B63" s="22">
-        <v>-3.2262</v>
+        <v>5.3632</v>
       </c>
       <c r="C63" s="22">
-        <v>-13.405900000000001</v>
+        <v>-4.4451000000000001</v>
       </c>
       <c r="D63" s="22">
-        <v>-23.091999999999999</v>
+        <v>-14.241</v>
       </c>
       <c r="E63" s="22">
-        <v>-33.152799999999999</v>
+        <v>-23.9832</v>
       </c>
       <c r="F63" s="22">
-        <v>-42.952599999999997</v>
+        <v>-34.349800000000002</v>
       </c>
       <c r="G63" s="19"/>
     </row>
@@ -1727,25 +1739,47 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="19"/>
+        <v>33</v>
+      </c>
+      <c r="B65" s="22">
+        <v>2.8641000000000001</v>
+      </c>
+      <c r="C65" s="22">
+        <v>-7.1985999999999999</v>
+      </c>
+      <c r="D65" s="22">
+        <v>-17.209299999999999</v>
+      </c>
+      <c r="E65" s="22">
+        <v>-27.149699999999999</v>
+      </c>
+      <c r="F65" s="22">
+        <v>-36.924700000000001</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0.116083519</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="19"/>
+        <v>34</v>
+      </c>
+      <c r="B66" s="22">
+        <v>-3.4102999999999999</v>
+      </c>
+      <c r="C66" s="22">
+        <v>-13.260999999999999</v>
+      </c>
+      <c r="D66" s="22">
+        <v>-23.144600000000001</v>
+      </c>
+      <c r="E66" s="22">
+        <v>-33.285899999999998</v>
+      </c>
+      <c r="F66" s="22">
+        <v>-42.896900000000002</v>
+      </c>
+      <c r="G66" s="8"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="5"/>
@@ -1758,25 +1792,47 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="19"/>
+        <v>35</v>
+      </c>
+      <c r="B68" s="22">
+        <v>4.5346000000000002</v>
+      </c>
+      <c r="C68" s="22">
+        <v>-6.2085999999999997</v>
+      </c>
+      <c r="D68" s="22">
+        <v>-16.321000000000002</v>
+      </c>
+      <c r="E68" s="22">
+        <v>-26.735700000000001</v>
+      </c>
+      <c r="F68" s="22">
+        <v>-36.0501</v>
+      </c>
+      <c r="G68" s="8">
+        <v>0.1187723</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="B69" s="22">
+        <v>-1.4903</v>
+      </c>
+      <c r="C69" s="22">
+        <v>-12.162599999999999</v>
+      </c>
+      <c r="D69" s="22">
+        <v>-22.052</v>
+      </c>
+      <c r="E69" s="22">
+        <v>-33.043300000000002</v>
+      </c>
+      <c r="F69" s="22">
+        <v>-42.5334</v>
+      </c>
+      <c r="G69" s="8"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="5"/>
@@ -1789,162 +1845,182 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B71" s="22">
+        <v>2.9352999999999998</v>
+      </c>
+      <c r="C71" s="22">
+        <v>-7.2027999999999999</v>
+      </c>
+      <c r="D71" s="22">
+        <v>-17.222799999999999</v>
+      </c>
+      <c r="E71" s="22">
+        <v>-26.9771</v>
+      </c>
+      <c r="F71" s="22">
+        <v>-37.169800000000002</v>
+      </c>
       <c r="G71" s="19"/>
     </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="21"/>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="22">
+        <v>-3.2262</v>
+      </c>
+      <c r="C72" s="22">
+        <v>-13.405900000000001</v>
+      </c>
+      <c r="D72" s="22">
+        <v>-23.091999999999999</v>
+      </c>
+      <c r="E72" s="22">
+        <v>-33.152799999999999</v>
+      </c>
+      <c r="F72" s="22">
+        <v>-42.952599999999997</v>
+      </c>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="5"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="23"/>
+      <c r="A75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="19"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>40</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="A77" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="19"/>
+    </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E79" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A79" s="5"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="8"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="5"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
+    </row>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="21"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="22"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="19"/>
+      <c r="A84" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="19"/>
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" s="22"/>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="8"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="8"/>
-    </row>
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="5"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="8"/>
+      <c r="A88" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -1955,7 +2031,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -1967,95 +2043,188 @@
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="5"/>
       <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
       <c r="G91" s="19"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="8"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
+        <v>46</v>
+      </c>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
       <c r="G93" s="19"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="5"/>
       <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
       <c r="G94" s="19"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="8"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="8"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="19"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="8"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="19"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="19"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="19"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="19"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="5"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="19"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="19"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="19"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="5"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="19"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="19"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="6" t="s">
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="19"/>
+    </row>
+    <row r="108" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="21"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2079,28 +2248,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>67</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>68</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>5</v>
@@ -2112,12 +2282,12 @@
         <v>7</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="27">
         <v>-10.4472</v>
@@ -2137,27 +2307,32 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B4" s="27">
-        <v>-23.1279</v>
+        <f>10^(-23.1279/10)</f>
+        <v>4.8664246130096294E-3</v>
       </c>
       <c r="C4" s="27">
-        <v>-32.644799999999996</v>
+        <f>10^(-32.6448/10)</f>
+        <v>5.4390117871859847E-4</v>
       </c>
       <c r="D4" s="27">
-        <v>-42.8185</v>
+        <f>10^(-42.8185/10)</f>
+        <v>5.2257664941334814E-5</v>
       </c>
       <c r="E4" s="27">
-        <v>-52.9345</v>
+        <f>10^(-52.9345/10)</f>
+        <v>5.0880339442835406E-6</v>
       </c>
       <c r="F4" s="30">
-        <v>-63.1145</v>
+        <f>10^(-63.1145/10)</f>
+        <v>4.8814629793201359E-7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="27">
         <v>18.239100000000001</v>
@@ -2176,223 +2351,202 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="27">
-        <v>-10.364599999999999</v>
-      </c>
-      <c r="C6" s="27">
-        <v>-19.473500000000001</v>
-      </c>
-      <c r="D6" s="27">
-        <v>-23.626000000000001</v>
-      </c>
-      <c r="E6" s="27">
-        <v>-33.509500000000003</v>
-      </c>
-      <c r="F6" s="30">
-        <v>-41.149799999999999</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="27">
-        <v>-21.3749</v>
+        <v>-10.364599999999999</v>
       </c>
       <c r="C7" s="27">
-        <v>-31.677499999999998</v>
+        <v>-19.473500000000001</v>
       </c>
       <c r="D7" s="27">
-        <v>-39.564999999999998</v>
+        <v>-23.626000000000001</v>
       </c>
       <c r="E7" s="27">
-        <v>-47.318899999999999</v>
+        <v>-33.509500000000003</v>
       </c>
       <c r="F7" s="30">
-        <v>-56.848700000000001</v>
+        <v>-41.149799999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B8" s="27">
-        <v>18.239100000000001</v>
+        <f>10^(-21.3749/10)</f>
+        <v>7.2863495175985275E-3</v>
       </c>
       <c r="C8" s="27">
-        <v>28.239100000000001</v>
+        <f>10^(-31.6775/10)</f>
+        <v>6.7959472621206287E-4</v>
       </c>
       <c r="D8" s="27">
-        <v>30.969100000000001</v>
+        <f>10^(-39.565/10)</f>
+        <v>1.1053504693828426E-4</v>
       </c>
       <c r="E8" s="27">
-        <v>33.010300000000001</v>
+        <f>10^(-47.3189/10)</f>
+        <v>1.8540011534460069E-5</v>
       </c>
       <c r="F8" s="30">
-        <v>35.2288</v>
+        <f>10^(-56.8487/10)</f>
+        <v>2.0659984911134943E-6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9" s="27">
-        <v>-5.6181000000000001</v>
+        <v>18.239100000000001</v>
       </c>
       <c r="C9" s="27">
-        <v>-12.0389</v>
+        <v>28.239100000000001</v>
       </c>
       <c r="D9" s="27">
-        <v>-20.452500000000001</v>
+        <v>30.969100000000001</v>
       </c>
       <c r="E9" s="27">
-        <v>-30.0549</v>
+        <v>33.010300000000001</v>
       </c>
       <c r="F9" s="30">
-        <v>-40.004899999999999</v>
+        <v>35.2288</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="27">
-        <v>-12.022600000000001</v>
-      </c>
-      <c r="C10" s="27">
-        <v>-20.712599999999998</v>
-      </c>
-      <c r="D10" s="27">
-        <v>-32.408700000000003</v>
-      </c>
-      <c r="E10" s="27">
-        <v>-46.951999999999998</v>
-      </c>
-      <c r="F10" s="30">
-        <v>-57.283099999999997</v>
-      </c>
+      <c r="A10" s="5"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="27">
-        <v>8</v>
+        <v>-5.6181000000000001</v>
       </c>
       <c r="C11" s="27">
-        <v>8</v>
+        <v>-12.0389</v>
       </c>
       <c r="D11" s="27">
-        <v>10</v>
+        <v>-20.452500000000001</v>
       </c>
       <c r="E11" s="27">
-        <v>10</v>
+        <v>-30.0549</v>
       </c>
       <c r="F11" s="30">
-        <v>10</v>
+        <v>-40.004899999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B12" s="27">
-        <v>-5.6073000000000004</v>
+        <f>10^(-12.0226/10)</f>
+        <v>6.2768247030975013E-2</v>
       </c>
       <c r="C12" s="27">
-        <v>-11.949199999999999</v>
+        <f>10^(-20.7126/10)</f>
+        <v>8.486722465038201E-3</v>
       </c>
       <c r="D12" s="27">
-        <v>-20.449400000000001</v>
+        <f>10^(-32.4087/10)</f>
+        <v>5.7428834169188556E-4</v>
       </c>
       <c r="E12" s="27">
-        <v>-30.054300000000001</v>
+        <f>10^(-46.952/10)</f>
+        <v>2.0174370856119214E-5</v>
       </c>
       <c r="F12" s="30">
-        <v>-39.9771</v>
+        <f>10^(-57.2831/10)</f>
+        <v>1.8693473213291681E-6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B13" s="27">
-        <v>-12.0246</v>
+        <v>8</v>
       </c>
       <c r="C13" s="27">
-        <v>-18.514199999999999</v>
+        <v>8</v>
       </c>
       <c r="D13" s="27">
-        <v>-32.425600000000003</v>
+        <v>10</v>
       </c>
       <c r="E13" s="27">
-        <v>-46.9529</v>
+        <v>10</v>
       </c>
       <c r="F13" s="30">
-        <v>-56.845199999999998</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="27">
-        <v>8</v>
-      </c>
-      <c r="C14" s="27">
-        <v>10</v>
-      </c>
-      <c r="D14" s="27">
-        <v>10</v>
-      </c>
-      <c r="E14" s="27">
-        <v>10</v>
-      </c>
-      <c r="F14" s="30">
-        <v>15</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B15" s="27">
-        <v>-9.7801298939999999</v>
+        <v>-5.6073000000000004</v>
       </c>
       <c r="C15" s="27">
-        <v>-18.12679808</v>
+        <v>-11.949199999999999</v>
       </c>
       <c r="D15" s="27">
-        <v>-23.542873570000001</v>
+        <v>-20.449400000000001</v>
       </c>
       <c r="E15" s="27">
-        <v>-30.158300000000001</v>
+        <v>-30.054300000000001</v>
       </c>
       <c r="F15" s="30">
-        <v>-33.947899999999997</v>
+        <v>-39.9771</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B16" s="27">
-        <v>-17.3626</v>
+        <f>10^(-12.0246/10)</f>
+        <v>6.2739347839785076E-2</v>
       </c>
       <c r="C16" s="27">
-        <v>-32.033700000000003</v>
+        <f>10^(-18.5142/10)</f>
+        <v>1.4079265541323905E-2</v>
       </c>
       <c r="D16" s="27">
-        <v>-40.044400000000003</v>
+        <f>10^(-32.4256/10)</f>
+        <v>5.720579164708396E-4</v>
       </c>
       <c r="E16" s="27">
-        <v>-47.186999999999998</v>
+        <f>10^(-46.9529/10)</f>
+        <v>2.017019050078382E-5</v>
       </c>
       <c r="F16" s="30">
-        <v>-49.0274</v>
+        <f>10^(-56.8452/10)</f>
+        <v>2.0676641602734406E-6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -2400,147 +2554,256 @@
         <v>72</v>
       </c>
       <c r="B17" s="27">
+        <v>8</v>
+      </c>
+      <c r="C17" s="27">
+        <v>10</v>
+      </c>
+      <c r="D17" s="27">
+        <v>10</v>
+      </c>
+      <c r="E17" s="27">
+        <v>10</v>
+      </c>
+      <c r="F17" s="30">
         <v>15</v>
       </c>
-      <c r="C17" s="27">
-        <v>20</v>
-      </c>
-      <c r="D17" s="27">
-        <v>20</v>
-      </c>
-      <c r="E17" s="27">
-        <v>20</v>
-      </c>
-      <c r="F17" s="30">
-        <v>20</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="27">
-        <v>-9.6328417179999999</v>
-      </c>
-      <c r="C18" s="27">
-        <v>-17.95149254</v>
-      </c>
-      <c r="D18" s="27">
-        <v>-23.466352789999998</v>
-      </c>
-      <c r="E18" s="27">
-        <v>-30.110199999999999</v>
-      </c>
-      <c r="F18" s="30">
-        <v>-33.805129010000002</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B19" s="27">
-        <v>-18.3842</v>
+        <v>-9.7801298939999999</v>
       </c>
       <c r="C19" s="27">
-        <v>-31.8005</v>
+        <v>-18.12679808</v>
       </c>
       <c r="D19" s="27">
-        <v>-40.051200000000001</v>
+        <v>-23.542873570000001</v>
       </c>
       <c r="E19" s="27">
-        <v>-46.649900000000002</v>
+        <v>-30.158300000000001</v>
       </c>
       <c r="F19" s="30">
-        <v>-48.9452</v>
+        <v>-33.947899999999997</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B20" s="27">
-        <v>15</v>
+        <f>10^(-17.3626/10)</f>
+        <v>1.8354391880868341E-2</v>
       </c>
       <c r="C20" s="27">
-        <v>20</v>
+        <f>10^(-32.0337/10)</f>
+        <v>6.2608024427006413E-4</v>
       </c>
       <c r="D20" s="27">
-        <v>20</v>
+        <f>10^(-40.0444/10)</f>
+        <v>9.8982860429852159E-5</v>
       </c>
       <c r="E20" s="27">
-        <v>20</v>
+        <f>10^(-47.187/10)</f>
+        <v>1.9111729942271991E-5</v>
       </c>
       <c r="F20" s="30">
-        <v>20</v>
+        <f>10^(-49.0274/10)</f>
+        <v>1.2510077495434468E-5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B21" s="27">
+        <v>15</v>
+      </c>
+      <c r="C21" s="27">
+        <v>20</v>
+      </c>
+      <c r="D21" s="27">
+        <v>20</v>
+      </c>
+      <c r="E21" s="27">
+        <v>20</v>
+      </c>
+      <c r="F21" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="27">
+        <v>-9.6328417179999999</v>
+      </c>
+      <c r="C23" s="27">
+        <v>-17.95149254</v>
+      </c>
+      <c r="D23" s="27">
+        <v>-23.466352789999998</v>
+      </c>
+      <c r="E23" s="27">
+        <v>-30.110199999999999</v>
+      </c>
+      <c r="F23" s="30">
+        <v>-33.805129010000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="27">
+        <f>10^(-18.3842/10)</f>
+        <v>1.450707979979207E-2</v>
+      </c>
+      <c r="C24" s="27">
+        <f>10^(-31.8005/10)</f>
+        <v>6.6061738724186808E-4</v>
+      </c>
+      <c r="D24" s="27">
+        <f>10^(-40.0512/10)</f>
+        <v>9.882799850758317E-5</v>
+      </c>
+      <c r="E24" s="27">
+        <f>10^(-46.6499/10)</f>
+        <v>2.1627683227346757E-5</v>
+      </c>
+      <c r="F24" s="30">
+        <f>10^(-48.9452/10)</f>
+        <v>1.2749113867527216E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="27">
+        <v>15</v>
+      </c>
+      <c r="C25" s="27">
+        <v>20</v>
+      </c>
+      <c r="D25" s="27">
+        <v>20</v>
+      </c>
+      <c r="E25" s="27">
+        <v>20</v>
+      </c>
+      <c r="F25" s="30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="27">
         <v>-9.3295999999999992</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C27" s="27">
         <v>-19.7074</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D27" s="27">
         <v>-27.0731</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E27" s="27">
         <v>-35.414900000000003</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F27" s="30">
         <v>-41.743099999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="27">
-        <v>-21.508299999999998</v>
-      </c>
-      <c r="C22" s="27">
-        <v>-31.377800000000001</v>
-      </c>
-      <c r="D22" s="27">
-        <v>-40.8187</v>
-      </c>
-      <c r="E22" s="27">
-        <v>-48.7545</v>
-      </c>
-      <c r="F22" s="30">
-        <v>-57.733800000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="31">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="27">
+        <f>10^(-21.5083/10)</f>
+        <v>7.0659408894885763E-3</v>
+      </c>
+      <c r="C28" s="27">
+        <f>10^(-31.3778/10)</f>
+        <v>7.2814856841542028E-4</v>
+      </c>
+      <c r="D28" s="27">
+        <f>10^(-40.8187/10)</f>
+        <v>8.2819003375562614E-5</v>
+      </c>
+      <c r="E28" s="27">
+        <f>10^(-48.7545/10)</f>
+        <v>1.332140401816459E-5</v>
+      </c>
+      <c r="F28" s="30">
+        <f>10^(-57.7338/10)</f>
+        <v>1.6850779667031662E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="31">
         <v>-9.7865000000000002</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C29" s="31">
         <v>-19.745899999999999</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D29" s="31">
         <v>-29.374300000000002</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E29" s="31">
         <v>-39.676200000000001</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F29" s="32">
         <v>-48.985799999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31">
         <v>-13.9579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091C26D7-1193-4474-9E53-1990634DF4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD690669-207C-4004-B684-9A38FB6B2D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -266,51 +266,12 @@
     <t>EKF mismatch(fed with false init state [0,0] and false init variance=0) [dB]</t>
   </si>
   <si>
-    <t>Traj length T=2000,  test set size N_T=100</t>
-  </si>
-  <si>
     <t>[1/r2 [dB], 1/q^2 [dB]]</t>
   </si>
   <si>
     <t>[0, 20]</t>
   </si>
   <si>
-    <t>40,60</t>
-  </si>
-  <si>
-    <t>EKF J=5 [dB]</t>
-  </si>
-  <si>
-    <t>optimal 1/q2 [dB] for J=5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKF J=2 [dB] </t>
-  </si>
-  <si>
-    <t>optimal 1/q2 [dB] for J=2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UKF J=5 [dB] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UKF J=2 [dB] </t>
-  </si>
-  <si>
-    <t>PF J=5 [dB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF J=2 [dB] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knet New architecture J=2, train on T=2000 (n_Epochs=200, n_Batch=10, learningRate=1e-3, weightDecay=1e-6) [dB] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">KNet J=5, train on T=100 (n_Epochs=500, n_Batch=100, learningRate=5e-3, weightDecay=1e-4) [dB] </t>
-  </si>
-  <si>
-    <t>RTS J=5 [dB]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Welling true std [linear] </t>
   </si>
   <si>
@@ -341,28 +302,40 @@
     <t>RTSNet 2-fold J=5 std [linear]</t>
   </si>
   <si>
-    <t>EKF J=5 std [linear]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EKF J=2 std [linear] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UKF J=2 std [linear] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UKF J=5 std [linear] </t>
-  </si>
-  <si>
-    <t>PF J=5 std [linear]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF J=2 std [linear] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knet New architecture J=2 std [linear] </t>
-  </si>
-  <si>
     <t>RTSNet 2-fold J=5, train on T=100(n_Epochs=5000, n_Batch=10, learningRate=1e-4, weightDecay=1e-3) [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EKF full [dB] </t>
+  </si>
+  <si>
+    <t>RTS full[dB]</t>
+  </si>
+  <si>
+    <t>EKF  Dtheta=1 [dB]</t>
+  </si>
+  <si>
+    <t>RTS Dtheta=1 [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet full, train on T=200(n_Epochs=1000, n_Batch=10, learningRate=1e-4, weightDecay=1e-6)[dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet Dtheta=1, train on T=200(n_Epochs=1000, n_Batch=10, learningRate=5e-4 weightDecay=1e-6) [dB] </t>
+  </si>
+  <si>
+    <t>Inference Time(s) T=200 (colab pro's CPU, high RAM )</t>
+  </si>
+  <si>
+    <t>EKF</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>RTSNet</t>
+  </si>
+  <si>
+    <t>T=200 (train and test both on T=200)</t>
   </si>
 </sst>
 </file>
@@ -865,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,7 +911,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B6" s="9">
         <v>0.53600000000000003</v>
@@ -984,7 +957,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B8" s="9">
         <v>0.21920000000000001</v>
@@ -1029,7 +1002,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B10" s="22">
         <v>0.21790000000000001</v>
@@ -1074,7 +1047,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -1085,7 +1058,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1096,7 +1069,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1178,7 +1151,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22">
@@ -1207,7 +1180,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22">
@@ -1237,7 +1210,7 @@
     </row>
     <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="13" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="10">
@@ -1312,7 +1285,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B31" s="22"/>
       <c r="C31" s="8">
@@ -1330,7 +1303,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="8">
@@ -1348,7 +1321,7 @@
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="13" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="29"/>
@@ -2248,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2260,550 +2233,201 @@
     <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="27">
-        <v>-10.4472</v>
-      </c>
-      <c r="C3" s="27">
-        <v>-20.370799999999999</v>
-      </c>
-      <c r="D3" s="27">
-        <v>-30.398399999999999</v>
-      </c>
-      <c r="E3" s="27">
-        <v>-40.393700000000003</v>
-      </c>
-      <c r="F3" s="30">
-        <v>-49.8947</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B4" s="27">
-        <f>10^(-23.1279/10)</f>
-        <v>4.8664246130096294E-3</v>
+        <v>-10.4223</v>
       </c>
       <c r="C4" s="27">
-        <f>10^(-32.6448/10)</f>
-        <v>5.4390117871859847E-4</v>
+        <v>-20.546399999999998</v>
       </c>
       <c r="D4" s="27">
-        <f>10^(-42.8185/10)</f>
-        <v>5.2257664941334814E-5</v>
-      </c>
-      <c r="E4" s="27">
-        <f>10^(-52.9345/10)</f>
-        <v>5.0880339442835406E-6</v>
-      </c>
-      <c r="F4" s="30">
-        <f>10^(-63.1145/10)</f>
-        <v>4.8814629793201359E-7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="27">
-        <v>18.239100000000001</v>
-      </c>
-      <c r="C5" s="27">
-        <v>28.239100000000001</v>
-      </c>
-      <c r="D5" s="27">
-        <v>38.239100000000001</v>
-      </c>
-      <c r="E5" s="27">
-        <v>48</v>
-      </c>
-      <c r="F5" s="30">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="27">
-        <v>-10.364599999999999</v>
-      </c>
-      <c r="C7" s="27">
-        <v>-19.473500000000001</v>
-      </c>
-      <c r="D7" s="27">
-        <v>-23.626000000000001</v>
-      </c>
-      <c r="E7" s="27">
-        <v>-33.509500000000003</v>
-      </c>
-      <c r="F7" s="30">
-        <v>-41.149799999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-30.565899999999999</v>
+      </c>
+      <c r="E4" s="30">
+        <v>-40.424100000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="27">
+        <v>-13.8728</v>
+      </c>
+      <c r="C6" s="27">
+        <v>-23.9254</v>
+      </c>
+      <c r="D6" s="27">
+        <v>-34.028799999999997</v>
+      </c>
+      <c r="E6" s="30">
+        <v>-43.958799999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B8" s="27">
-        <f>10^(-21.3749/10)</f>
-        <v>7.2863495175985275E-3</v>
+        <v>-9.6765000000000008</v>
       </c>
       <c r="C8" s="27">
-        <f>10^(-31.6775/10)</f>
-        <v>6.7959472621206287E-4</v>
+        <v>-15.9671</v>
       </c>
       <c r="D8" s="27">
-        <f>10^(-39.565/10)</f>
-        <v>1.1053504693828426E-4</v>
-      </c>
-      <c r="E8" s="27">
-        <f>10^(-47.3189/10)</f>
-        <v>1.8540011534460069E-5</v>
-      </c>
-      <c r="F8" s="30">
-        <f>10^(-56.8487/10)</f>
-        <v>2.0659984911134943E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="27">
-        <v>18.239100000000001</v>
-      </c>
-      <c r="C9" s="27">
-        <v>28.239100000000001</v>
-      </c>
-      <c r="D9" s="27">
-        <v>30.969100000000001</v>
-      </c>
-      <c r="E9" s="27">
-        <v>33.010300000000001</v>
-      </c>
-      <c r="F9" s="30">
-        <v>35.2288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="27">
-        <v>-5.6181000000000001</v>
-      </c>
-      <c r="C11" s="27">
-        <v>-12.0389</v>
-      </c>
-      <c r="D11" s="27">
-        <v>-20.452500000000001</v>
-      </c>
-      <c r="E11" s="27">
-        <v>-30.0549</v>
-      </c>
-      <c r="F11" s="30">
-        <v>-40.004899999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-17.5745</v>
+      </c>
+      <c r="E8" s="30">
+        <v>-17.808599999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="27">
+        <v>-13.1538</v>
+      </c>
+      <c r="C10" s="27">
+        <v>-19.496200000000002</v>
+      </c>
+      <c r="D10" s="27">
+        <v>-21.472899999999999</v>
+      </c>
+      <c r="E10" s="30">
+        <v>-21.748200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="30"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B12" s="27">
-        <f>10^(-12.0226/10)</f>
-        <v>6.2768247030975013E-2</v>
+        <v>-13.4038</v>
       </c>
       <c r="C12" s="27">
-        <f>10^(-20.7126/10)</f>
-        <v>8.486722465038201E-3</v>
+        <v>-23.161000000000001</v>
       </c>
       <c r="D12" s="27">
-        <f>10^(-32.4087/10)</f>
-        <v>5.7428834169188556E-4</v>
-      </c>
-      <c r="E12" s="27">
-        <f>10^(-46.952/10)</f>
-        <v>2.0174370856119214E-5</v>
-      </c>
-      <c r="F12" s="30">
-        <f>10^(-57.2831/10)</f>
-        <v>1.8693473213291681E-6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="27">
-        <v>8</v>
-      </c>
-      <c r="C13" s="27">
-        <v>8</v>
-      </c>
-      <c r="D13" s="27">
-        <v>10</v>
-      </c>
-      <c r="E13" s="27">
-        <v>10</v>
-      </c>
-      <c r="F13" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="27">
-        <v>-5.6073000000000004</v>
-      </c>
-      <c r="C15" s="27">
-        <v>-11.949199999999999</v>
-      </c>
-      <c r="D15" s="27">
-        <v>-20.449400000000001</v>
-      </c>
-      <c r="E15" s="27">
-        <v>-30.054300000000001</v>
-      </c>
-      <c r="F15" s="30">
-        <v>-39.9771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="27">
-        <f>10^(-12.0246/10)</f>
-        <v>6.2739347839785076E-2</v>
-      </c>
-      <c r="C16" s="27">
-        <f>10^(-18.5142/10)</f>
-        <v>1.4079265541323905E-2</v>
-      </c>
-      <c r="D16" s="27">
-        <f>10^(-32.4256/10)</f>
-        <v>5.720579164708396E-4</v>
-      </c>
-      <c r="E16" s="27">
-        <f>10^(-46.9529/10)</f>
-        <v>2.017019050078382E-5</v>
-      </c>
-      <c r="F16" s="30">
-        <f>10^(-56.8452/10)</f>
-        <v>2.0676641602734406E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="27">
-        <v>8</v>
-      </c>
-      <c r="C17" s="27">
-        <v>10</v>
-      </c>
-      <c r="D17" s="27">
-        <v>10</v>
-      </c>
-      <c r="E17" s="27">
-        <v>10</v>
-      </c>
-      <c r="F17" s="30">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>-33.494199999999999</v>
+      </c>
+      <c r="E12" s="30">
+        <v>-42.509599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="31">
+        <v>-12.888500000000001</v>
+      </c>
+      <c r="C13" s="31">
+        <v>-22.598099999999999</v>
+      </c>
+      <c r="D13" s="31">
+        <v>-29.8276</v>
+      </c>
+      <c r="E13" s="32">
+        <v>-36.738900000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="30">
+        <v>0.30146958000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="27">
-        <v>-9.7801298939999999</v>
-      </c>
-      <c r="C19" s="27">
-        <v>-18.12679808</v>
-      </c>
-      <c r="D19" s="27">
-        <v>-23.542873570000001</v>
-      </c>
-      <c r="E19" s="27">
-        <v>-30.158300000000001</v>
-      </c>
-      <c r="F19" s="30">
-        <v>-33.947899999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="27">
-        <f>10^(-17.3626/10)</f>
-        <v>1.8354391880868341E-2</v>
-      </c>
-      <c r="C20" s="27">
-        <f>10^(-32.0337/10)</f>
-        <v>6.2608024427006413E-4</v>
-      </c>
-      <c r="D20" s="27">
-        <f>10^(-40.0444/10)</f>
-        <v>9.8982860429852159E-5</v>
-      </c>
-      <c r="E20" s="27">
-        <f>10^(-47.187/10)</f>
-        <v>1.9111729942271991E-5</v>
-      </c>
-      <c r="F20" s="30">
-        <f>10^(-49.0274/10)</f>
-        <v>1.2510077495434468E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="27">
-        <v>15</v>
-      </c>
-      <c r="C21" s="27">
-        <v>20</v>
-      </c>
-      <c r="D21" s="27">
-        <v>20</v>
-      </c>
-      <c r="E21" s="27">
-        <v>20</v>
-      </c>
-      <c r="F21" s="30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="27">
-        <v>-9.6328417179999999</v>
-      </c>
-      <c r="C23" s="27">
-        <v>-17.95149254</v>
-      </c>
-      <c r="D23" s="27">
-        <v>-23.466352789999998</v>
-      </c>
-      <c r="E23" s="27">
-        <v>-30.110199999999999</v>
-      </c>
-      <c r="F23" s="30">
-        <v>-33.805129010000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="27">
-        <f>10^(-18.3842/10)</f>
-        <v>1.450707979979207E-2</v>
-      </c>
-      <c r="C24" s="27">
-        <f>10^(-31.8005/10)</f>
-        <v>6.6061738724186808E-4</v>
-      </c>
-      <c r="D24" s="27">
-        <f>10^(-40.0512/10)</f>
-        <v>9.882799850758317E-5</v>
-      </c>
-      <c r="E24" s="27">
-        <f>10^(-46.6499/10)</f>
-        <v>2.1627683227346757E-5</v>
-      </c>
-      <c r="F24" s="30">
-        <f>10^(-48.9452/10)</f>
-        <v>1.2749113867527216E-5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="27">
-        <v>15</v>
-      </c>
-      <c r="C25" s="27">
-        <v>20</v>
-      </c>
-      <c r="D25" s="27">
-        <v>20</v>
-      </c>
-      <c r="E25" s="27">
-        <v>20</v>
-      </c>
-      <c r="F25" s="30">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="27">
-        <v>-9.3295999999999992</v>
-      </c>
-      <c r="C27" s="27">
-        <v>-19.7074</v>
-      </c>
-      <c r="D27" s="27">
-        <v>-27.0731</v>
-      </c>
-      <c r="E27" s="27">
-        <v>-35.414900000000003</v>
-      </c>
-      <c r="F27" s="30">
-        <v>-41.743099999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="27">
-        <f>10^(-21.5083/10)</f>
-        <v>7.0659408894885763E-3</v>
-      </c>
-      <c r="C28" s="27">
-        <f>10^(-31.3778/10)</f>
-        <v>7.2814856841542028E-4</v>
-      </c>
-      <c r="D28" s="27">
-        <f>10^(-40.8187/10)</f>
-        <v>8.2819003375562614E-5</v>
-      </c>
-      <c r="E28" s="27">
-        <f>10^(-48.7545/10)</f>
-        <v>1.332140401816459E-5</v>
-      </c>
-      <c r="F28" s="30">
-        <f>10^(-57.7338/10)</f>
-        <v>1.6850779667031662E-6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="31">
-        <v>-9.7865000000000002</v>
-      </c>
-      <c r="C29" s="31">
-        <v>-19.745899999999999</v>
-      </c>
-      <c r="D29" s="31">
-        <v>-29.374300000000002</v>
-      </c>
-      <c r="E29" s="31">
-        <v>-39.676200000000001</v>
-      </c>
-      <c r="F29" s="32">
-        <v>-48.985799999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31">
-        <v>-13.9579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="B19" s="30">
+        <v>0.61430751900000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="32">
+        <v>0.39500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD690669-207C-4004-B684-9A38FB6B2D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1000DD3E-C019-4BB3-8010-CECC5C8B29AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
-    <sheet name="Synthetic Non-Linear Model" sheetId="2" r:id="rId2"/>
-    <sheet name="Lorenz Attractor" sheetId="3" r:id="rId3"/>
+    <sheet name="Lorenz Attractor" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,21 +1025,11 @@
       <c r="A11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="22">
-        <v>35.489800000000002</v>
-      </c>
-      <c r="C11" s="22">
-        <v>24.462700000000002</v>
-      </c>
-      <c r="D11" s="22">
-        <v>13.6477</v>
-      </c>
-      <c r="E11" s="22">
-        <v>5.7971000000000004</v>
-      </c>
-      <c r="F11" s="22">
-        <v>-6.4617000000000004</v>
-      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="8">
         <f>28.904328584671/200</f>
         <v>0.14452164292335501</v>
@@ -2206,25 +2196,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA9BEF7-12A8-4AD9-A9A3-5FC3C4E27F43}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1000DD3E-C019-4BB3-8010-CECC5C8B29AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030371D-CE20-4F8B-830B-72A1DFAEEE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -138,28 +138,7 @@
     <t>RTS H=I std [dB]</t>
   </si>
   <si>
-    <t>KNet full [dB]</t>
-  </si>
-  <si>
-    <t>KNet full std [dB]</t>
-  </si>
-  <si>
-    <t>KNet partial(H=I) [dB]</t>
-  </si>
-  <si>
-    <t>KNet partial(H=I) std [dB]</t>
-  </si>
-  <si>
-    <t>KNet H_hat [dB]</t>
-  </si>
-  <si>
-    <t>KNet H_hat std [dB]</t>
-  </si>
-  <si>
     <t xml:space="preserve">3) State evolution model mismatch </t>
-  </si>
-  <si>
-    <t>F rotate 10 degree</t>
   </si>
   <si>
     <r>
@@ -284,9 +263,6 @@
     <t>RTS mismatch(fed with false init state [0,0] and init variance=100^2*Identity) [dB]</t>
   </si>
   <si>
-    <t xml:space="preserve">RTSNet mismatch(fed with false init state [0,0]) [dB] </t>
-  </si>
-  <si>
     <t>EKF std [linear]</t>
   </si>
   <si>
@@ -336,13 +312,73 @@
   </si>
   <si>
     <t>T=200 (train and test both on T=200)</t>
+  </si>
+  <si>
+    <t>Generalization to 5x5 and 10x10</t>
+  </si>
+  <si>
+    <t>T=20 (Trajectory Length) [0,20] case</t>
+  </si>
+  <si>
+    <t>MSE 5x5</t>
+  </si>
+  <si>
+    <t>RunTime T=20 for 5x5</t>
+  </si>
+  <si>
+    <t>MSE 10x10</t>
+  </si>
+  <si>
+    <t>RunTime T=20 for 10x10 (s)</t>
+  </si>
+  <si>
+    <t>RTSNet true [dB] (n_Epochs=1000, n_Batch=50, learningRate=1E-4, weightDecay=1E-7)</t>
+  </si>
+  <si>
+    <t>F = F_(theta=10)</t>
+  </si>
+  <si>
+    <t>[-20,-20]</t>
+  </si>
+  <si>
+    <t>2x2, H=I, Trajectory Length T=100, Dataset size: N_E=1000, N_CV=100, N_T=200</t>
+  </si>
+  <si>
+    <t>[-10,-10]</t>
+  </si>
+  <si>
+    <t>[0,0]</t>
+  </si>
+  <si>
+    <t>v = 0 dB</t>
+  </si>
+  <si>
+    <t>EKF std [dB]</t>
+  </si>
+  <si>
+    <t>RTS std [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet with known randInit [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet std [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet std[dB] </t>
+  </si>
+  <si>
+    <t>True H: [[ 0.9848, -0.1736],[ 0.1736,  0.9848]]</t>
+  </si>
+  <si>
+    <t>Estimated  H: [[ 0.9848, -0.1732],[ 0.1739,  0.9795]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,6 +434,13 @@
       <color rgb="FF212121"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -506,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -542,13 +585,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -556,6 +597,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -836,384 +896,367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" customWidth="1"/>
+    <col min="2" max="2" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="A1" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9">
+        <v>-21.866800000000001</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-11.881500000000001</v>
+      </c>
+      <c r="D4" s="37">
+        <v>-1.7968</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.5383</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-23.740300000000001</v>
+      </c>
+      <c r="C6" s="9">
+        <v>-13.7622</v>
+      </c>
+      <c r="D6" s="37">
+        <v>-3.6911999999999998</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B13" s="9">
         <v>2.7555999999999998</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C13" s="9">
         <v>-7.2537000000000003</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D13" s="9">
         <v>-17.338799999999999</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E13" s="9">
         <v>-27.194199999999999</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F13" s="9">
         <v>-37.323900000000002</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G13" s="8">
         <f>6.41488122940063/200</f>
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="9">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="9">
         <v>0.53600000000000003</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C14" s="9">
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D14" s="9">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E14" s="9">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F14" s="31">
         <v>4.5952999999999999E-5</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B15" s="9">
         <f>-1.7902</f>
         <v>-1.7902</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C15" s="9">
         <v>-11.8467</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D15" s="9">
         <v>-21.738299999999999</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E15" s="9">
         <v>-31.619900000000001</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F15" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G15" s="8">
         <f xml:space="preserve"> 13.3679509162902/200</f>
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="9">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="9">
         <v>0.21920000000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C16" s="9">
         <v>2.06E-2</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D16" s="9">
         <v>2.3E-3</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E16" s="9">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F16" s="31">
         <v>2.2665999999999999E-5</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B17" s="22">
         <v>-1.64</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C17" s="22">
         <v>-11.7117</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D17" s="22">
         <v>-21.543399999999998</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E17" s="22">
         <v>-31.816700000000001</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F17" s="22">
         <v>-41.504600000000003</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G17" s="8">
         <f>56.4998171329498/200</f>
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="22">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="22">
         <v>0.21790000000000001</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C18" s="22">
         <v>2.0899999999999998E-2</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D18" s="22">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E18" s="22">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F18" s="32">
         <v>2.3122999999999999E-5</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="8">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="8">
         <f>28.904328584671/200</f>
         <v>0.14452164292335501</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>8</v>
-      </c>
       <c r="B20" s="22"/>
-      <c r="C20" s="22">
-        <v>-7.1620999999999997</v>
-      </c>
+      <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="8">
-        <f>19.1064960956573/200</f>
-        <v>9.5532480478286497E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B21" s="22"/>
-      <c r="C21" s="22">
-        <v>1.54E-2</v>
-      </c>
+      <c r="C21" s="22"/>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22">
-        <v>-11.8101</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="8">
-        <f>39.3029329776763/200</f>
-        <v>0.19651466488838149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
-        <v>73</v>
-      </c>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="22"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="22">
-        <v>7.1999999999999998E-3</v>
-      </c>
+      <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
-        <v>54</v>
-      </c>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="22">
-        <f>(-11.7224-11.7828)/2</f>
-        <v>-11.752600000000001</v>
-      </c>
+      <c r="C24" s="22"/>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="8">
-        <f>297.675692081451/100</f>
-        <v>2.9767569208145104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10">
-        <f>(0.0068*50+0.0086*50+0.0066*50+0.0071*50)/200</f>
-        <v>7.2750000000000002E-3</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="22"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="22" t="s">
+        <v>49</v>
+      </c>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
@@ -1221,688 +1264,688 @@
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="22" t="s">
-        <v>58</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="C28" s="22">
+        <v>-7.1620999999999997</v>
+      </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="22" t="s">
-        <v>57</v>
+      <c r="G28" s="8">
+        <f>19.1064960956573/200</f>
+        <v>9.5532480478286497E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="C29" s="22">
+        <v>1.54E-2</v>
+      </c>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="28" t="s">
-        <v>4</v>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22">
+        <v>-11.8101</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
-      <c r="F30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" s="26"/>
-      <c r="H30" s="28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F30" s="22"/>
+      <c r="G30" s="8">
+        <f>39.3029329776763/200</f>
+        <v>0.19651466488838149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="8">
-        <v>-6.7045000000000003</v>
+      <c r="C31" s="22">
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
-      <c r="F31" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="8">
-        <v>30.081099999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F31" s="22"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="8">
-        <v>-11.539099999999999</v>
+      <c r="C32" s="22">
+        <f>(-11.7224-11.7828)/2</f>
+        <v>-11.752600000000001</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
-      <c r="F32" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="8">
-        <v>26.237500000000001</v>
+      <c r="F32" s="22"/>
+      <c r="G32" s="8">
+        <f>297.675692081451/100</f>
+        <v>2.9767569208145104</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="13" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="22"/>
-      <c r="F33" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11">
-        <v>11.6327</v>
-      </c>
+      <c r="C33" s="10">
+        <f>(0.0068*50+0.0086*50+0.0066*50+0.0071*50)/200</f>
+        <v>7.2750000000000002E-3</v>
+      </c>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="22"/>
       <c r="B34" s="22"/>
-      <c r="C34" s="25"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
-      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
+      <c r="A35" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="B35" s="22"/>
-      <c r="C35" s="24"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="26"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="25"/>
+      <c r="C38" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="8">
+        <v>-6.7045000000000003</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="8">
+        <v>30.081099999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="8">
+        <v>-11.539099999999999</v>
+      </c>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="8">
+        <v>26.237500000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="40">
+        <v>-10.090299999999999</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="F41" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11">
+        <v>9.0884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="40">
+        <v>1.2316</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11">
+        <v>2.7212000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B49" s="9">
         <v>0.37009999999999998</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C49" s="9">
         <v>-9.5507000000000009</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D49" s="9">
         <v>-19.614100000000001</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E49" s="9">
         <v>-29.642099999999999</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F49" s="9">
         <v>-39.517699999999998</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G49" s="8">
         <f>6.71297335624694/200</f>
         <v>3.3564866781234701E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B50" s="9">
         <v>-2.0627</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C50" s="9">
         <v>-12.234</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D50" s="9">
         <v>-22.131499999999999</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E50" s="9">
         <v>-32.137099999999997</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F50" s="9">
         <v>-42.033499999999997</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G50" s="8">
         <f>13.8022818565368/200</f>
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="13" t="s">
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="22">
-        <v>2.7021000000000002</v>
-      </c>
-      <c r="C53" s="22">
-        <v>-7.3941999999999997</v>
-      </c>
-      <c r="D53" s="22">
-        <v>-17.366499999999998</v>
-      </c>
-      <c r="E53" s="22">
-        <v>-27.2926</v>
-      </c>
-      <c r="F53" s="22">
-        <v>-37.272500000000001</v>
-      </c>
-      <c r="G53" s="8">
-        <f>6.50587582588195/200</f>
-        <v>3.2529379129409751E-2</v>
-      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="11"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="22">
-        <v>-3.7565</v>
-      </c>
-      <c r="C54" s="22">
-        <v>-13.7667</v>
-      </c>
-      <c r="D54" s="22">
-        <v>-23.4497</v>
-      </c>
-      <c r="E54" s="22">
-        <v>-33.330800000000004</v>
-      </c>
-      <c r="F54" s="22">
-        <v>-43</v>
-      </c>
-      <c r="G54" s="19"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="19"/>
+      <c r="A54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="33"/>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B56" s="22">
-        <v>11.153700000000001</v>
-      </c>
-      <c r="C56" s="22">
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="D56" s="22">
-        <v>-9.1595999999999993</v>
-      </c>
-      <c r="E56" s="22">
-        <v>-18.4282</v>
-      </c>
-      <c r="F56" s="22">
-        <v>-28.785699999999999</v>
-      </c>
-      <c r="G56" s="8">
-        <f>6.49999380111694/200</f>
-        <v>3.2499969005584696E-2</v>
+      <c r="A56" s="2"/>
+      <c r="B56" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="22">
-        <v>11.1798</v>
-      </c>
-      <c r="C57" s="22">
-        <v>1.0333000000000001</v>
-      </c>
-      <c r="D57" s="22">
-        <v>-7.9607999999999999</v>
-      </c>
-      <c r="E57" s="22">
-        <v>-17.954899999999999</v>
-      </c>
-      <c r="F57" s="22">
-        <v>-28.222899999999999</v>
-      </c>
-      <c r="G57" s="19"/>
+        <v>8</v>
+      </c>
+      <c r="B57" s="34">
+        <v>-10.795199999999999</v>
+      </c>
+      <c r="C57">
+        <f>1.38270020484924/200</f>
+        <v>6.9135010242462004E-3</v>
+      </c>
+      <c r="D57" s="34">
+        <v>-11.2011</v>
+      </c>
+      <c r="E57" s="28">
+        <f>1.35998010635375/200</f>
+        <v>6.7999005317687499E-3</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="5"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B59" s="22">
-        <v>-1.8754</v>
-      </c>
-      <c r="C59" s="22">
-        <v>-11.879799999999999</v>
-      </c>
-      <c r="D59" s="22">
-        <v>-21.812200000000001</v>
-      </c>
-      <c r="E59" s="22">
-        <v>-31.9605</v>
-      </c>
-      <c r="F59" s="22">
-        <v>-41.809899999999999</v>
-      </c>
-      <c r="G59" s="8">
-        <f>13.4261772632598/200</f>
-        <v>6.7130886316299002E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="22">
-        <v>-6.5049000000000001</v>
-      </c>
-      <c r="C60" s="22">
-        <v>-16.561499999999999</v>
-      </c>
-      <c r="D60" s="22">
-        <v>-27.001000000000001</v>
-      </c>
-      <c r="E60" s="22">
-        <v>-36.670699999999997</v>
-      </c>
-      <c r="F60" s="22">
-        <v>-46.9679</v>
-      </c>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="5"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="8"/>
+      <c r="A58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="34">
+        <v>-12.548</v>
+      </c>
+      <c r="C58">
+        <f>2.79346585273742/200</f>
+        <v>1.39673292636871E-2</v>
+      </c>
+      <c r="D58" s="34">
+        <v>-12.3985</v>
+      </c>
+      <c r="E58" s="28">
+        <f>2.5887804031372/200</f>
+        <v>1.2943902015686E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="29">
+        <v>-12.0535</v>
+      </c>
+      <c r="C59" s="29">
+        <f>11.7575964927673/200</f>
+        <v>5.87879824638365E-2</v>
+      </c>
+      <c r="D59" s="29">
+        <v>-12.076599999999999</v>
+      </c>
+      <c r="E59" s="30">
+        <f>11.3483390808105/200</f>
+        <v>5.6741695404052502E-2</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="22">
-        <v>5.5016999999999996</v>
-      </c>
-      <c r="C62" s="22">
-        <v>-4.8254000000000001</v>
-      </c>
-      <c r="D62" s="22">
-        <v>-15.061500000000001</v>
-      </c>
-      <c r="E62" s="22">
-        <v>-24.198</v>
-      </c>
-      <c r="F62" s="22">
-        <v>-34.591799999999999</v>
-      </c>
-      <c r="G62" s="8">
-        <f>13.4844782352447/200</f>
-        <v>6.7422391176223492E-2</v>
+      <c r="A62" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="22">
-        <v>5.3632</v>
-      </c>
-      <c r="C63" s="22">
-        <v>-4.4451000000000001</v>
-      </c>
-      <c r="D63" s="22">
-        <v>-14.241</v>
-      </c>
-      <c r="E63" s="22">
-        <v>-23.9832</v>
-      </c>
-      <c r="F63" s="22">
-        <v>-34.349800000000002</v>
-      </c>
-      <c r="G63" s="19"/>
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="5"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="19"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="22">
-        <v>2.8641000000000001</v>
-      </c>
-      <c r="C65" s="22">
-        <v>-7.1985999999999999</v>
-      </c>
-      <c r="D65" s="22">
-        <v>-17.209299999999999</v>
-      </c>
-      <c r="E65" s="22">
-        <v>-27.149699999999999</v>
-      </c>
-      <c r="F65" s="22">
-        <v>-36.924700000000001</v>
-      </c>
-      <c r="G65" s="8">
-        <v>0.116083519</v>
-      </c>
-    </row>
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="22">
-        <v>-3.4102999999999999</v>
-      </c>
-      <c r="C66" s="22">
-        <v>-13.260999999999999</v>
-      </c>
-      <c r="D66" s="22">
-        <v>-23.144600000000001</v>
-      </c>
-      <c r="E66" s="22">
-        <v>-33.285899999999998</v>
-      </c>
-      <c r="F66" s="22">
-        <v>-42.896900000000002</v>
-      </c>
-      <c r="G66" s="8"/>
+      <c r="A66" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="5"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="19"/>
+      <c r="A67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B67" s="22">
+        <v>2.7021000000000002</v>
+      </c>
+      <c r="C67" s="22">
+        <v>-7.3941999999999997</v>
+      </c>
+      <c r="D67" s="22">
+        <v>-17.366499999999998</v>
+      </c>
+      <c r="E67" s="22">
+        <v>-27.2926</v>
+      </c>
+      <c r="F67" s="22">
+        <v>-37.272500000000001</v>
+      </c>
+      <c r="G67" s="8">
+        <f>1.87291026115417/200</f>
+        <v>9.3645513057708501E-3</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B68" s="22">
-        <v>4.5346000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C68" s="22">
-        <v>-6.2085999999999997</v>
+        <v>-13.7667</v>
       </c>
       <c r="D68" s="22">
-        <v>-16.321000000000002</v>
+        <v>-23.4497</v>
       </c>
       <c r="E68" s="22">
-        <v>-26.735700000000001</v>
+        <v>-33.330800000000004</v>
       </c>
       <c r="F68" s="22">
-        <v>-36.0501</v>
-      </c>
-      <c r="G68" s="8">
-        <v>0.1187723</v>
-      </c>
+        <v>-43</v>
+      </c>
+      <c r="G68" s="19"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B69" s="22">
-        <v>-1.4903</v>
-      </c>
-      <c r="C69" s="22">
-        <v>-12.162599999999999</v>
-      </c>
-      <c r="D69" s="22">
-        <v>-22.052</v>
-      </c>
-      <c r="E69" s="22">
-        <v>-33.043300000000002</v>
-      </c>
-      <c r="F69" s="22">
-        <v>-42.5334</v>
-      </c>
-      <c r="G69" s="8"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="19"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="5"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="19"/>
+      <c r="A70" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" s="22">
+        <v>11.153700000000001</v>
+      </c>
+      <c r="C70" s="22">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="D70" s="22">
+        <v>-9.1595999999999993</v>
+      </c>
+      <c r="E70" s="22">
+        <v>-18.4282</v>
+      </c>
+      <c r="F70" s="22">
+        <v>-28.785699999999999</v>
+      </c>
+      <c r="G70" s="8">
+        <f>1.73989057540893/200</f>
+        <v>8.6994528770446503E-3</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B71" s="22">
-        <v>2.9352999999999998</v>
+        <v>3.0234000000000001</v>
       </c>
       <c r="C71" s="22">
-        <v>-7.2027999999999999</v>
+        <v>1.0333000000000001</v>
       </c>
       <c r="D71" s="22">
-        <v>-17.222799999999999</v>
+        <v>-7.9607999999999999</v>
       </c>
       <c r="E71" s="22">
-        <v>-26.9771</v>
+        <v>-17.954899999999999</v>
       </c>
       <c r="F71" s="22">
-        <v>-37.169800000000002</v>
+        <v>-28.222899999999999</v>
       </c>
       <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" s="22">
-        <v>-3.2262</v>
-      </c>
-      <c r="C72" s="22">
-        <v>-13.405900000000001</v>
-      </c>
-      <c r="D72" s="22">
-        <v>-23.091999999999999</v>
-      </c>
-      <c r="E72" s="22">
-        <v>-33.152799999999999</v>
-      </c>
-      <c r="F72" s="22">
-        <v>-42.952599999999997</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="5"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="19"/>
+      <c r="A73" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B73" s="22">
+        <v>-1.8754</v>
+      </c>
+      <c r="C73" s="22">
+        <v>-11.879799999999999</v>
+      </c>
+      <c r="D73" s="22">
+        <v>-21.812200000000001</v>
+      </c>
+      <c r="E73" s="22">
+        <v>-31.9605</v>
+      </c>
+      <c r="F73" s="22">
+        <v>-41.809899999999999</v>
+      </c>
+      <c r="G73" s="8">
+        <f>3.64388179779052/200</f>
+        <v>1.82194089889526E-2</v>
+      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="B74" s="22">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="C74" s="22">
+        <v>-16.561499999999999</v>
+      </c>
+      <c r="D74" s="22">
+        <v>-27.001000000000001</v>
+      </c>
+      <c r="E74" s="22">
+        <v>-36.670699999999997</v>
+      </c>
+      <c r="F74" s="22">
+        <v>-46.9679</v>
+      </c>
+      <c r="G74" s="8"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A75" s="5"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="19"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="8"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="5"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="19"/>
+      <c r="A76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="22">
+        <v>5.5016999999999996</v>
+      </c>
+      <c r="C76" s="22">
+        <v>-4.8254000000000001</v>
+      </c>
+      <c r="D76" s="22">
+        <v>-15.061500000000001</v>
+      </c>
+      <c r="E76" s="22">
+        <v>-24.198</v>
+      </c>
+      <c r="F76" s="22">
+        <v>-34.591799999999999</v>
+      </c>
+      <c r="G76" s="8">
+        <f>3.63707900047302/200</f>
+        <v>1.8185395002365098E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="B77" s="22">
+        <v>2.9416000000000002</v>
+      </c>
+      <c r="C77" s="22">
+        <v>-4.4451000000000001</v>
+      </c>
+      <c r="D77" s="22">
+        <v>-14.241</v>
+      </c>
+      <c r="E77" s="22">
+        <v>-23.9832</v>
+      </c>
+      <c r="F77" s="22">
+        <v>-34.349800000000002</v>
+      </c>
       <c r="G77" s="19"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="A78" s="5"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -1911,163 +1954,175 @@
       <c r="G78" s="19"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="5"/>
-      <c r="B79" s="18"/>
+      <c r="A79" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="18">
+        <v>-1.6909000000000001</v>
+      </c>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
-      <c r="G79" s="19"/>
+      <c r="G79" s="19">
+        <f>43.5942468643188/200</f>
+        <v>0.21797123432159399</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="B80" s="18">
+        <v>1.2776000000000001</v>
+      </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="19"/>
     </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="5"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="19"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="18">
+        <v>-0.77390000000000003</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="18">
+        <v>1.2433000000000001</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="5"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="19"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C84" s="23"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="26"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+    </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="41"/>
+      <c r="B88" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="26"/>
+      <c r="B89" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C89" s="22"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="23"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="B96" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C96" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="15" t="s">
+      <c r="D96" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E96" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F88" s="15" t="s">
+      <c r="F96" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G96" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="19"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22"/>
-      <c r="G95" s="8"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="8"/>
-    </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="5"/>
-      <c r="B97" s="18"/>
+      <c r="A97" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B97" s="22"/>
       <c r="C97" s="22"/>
       <c r="D97" s="22"/>
       <c r="E97" s="22"/>
@@ -2076,20 +2131,18 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B98" s="22"/>
       <c r="C98" s="22"/>
       <c r="D98" s="22"/>
       <c r="E98" s="22"/>
       <c r="F98" s="22"/>
-      <c r="G98" s="8"/>
+      <c r="G98" s="19"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B99" s="22"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="18"/>
       <c r="C99" s="22"/>
       <c r="D99" s="22"/>
       <c r="E99" s="22"/>
@@ -2097,97 +2150,181 @@
       <c r="G99" s="19"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="19"/>
+      <c r="A100" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="8"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
+        <v>39</v>
+      </c>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="22"/>
       <c r="G101" s="19"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A102" s="5"/>
       <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
       <c r="G102" s="19"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="5"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="19"/>
+      <c r="A103" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="22"/>
+      <c r="G103" s="8"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="19"/>
+        <v>30</v>
+      </c>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A105" s="5"/>
       <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="19"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+      <c r="E105" s="22"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="5"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="19"/>
+      <c r="A106" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="22"/>
+      <c r="F106" s="22"/>
+      <c r="G106" s="8"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+      <c r="E107" s="22"/>
+      <c r="F107" s="22"/>
       <c r="G107" s="19"/>
     </row>
-    <row r="108" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="5"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="19"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="19"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="19"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="5"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="19"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B108" s="20"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="21"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="19"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="19"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="5"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="19"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2211,7 +2348,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2220,10 +2357,10 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
@@ -2237,172 +2374,172 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="27">
+        <v>70</v>
+      </c>
+      <c r="B4" s="26">
         <v>-10.4223</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>-20.546399999999998</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="26">
         <v>-30.565899999999999</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>-40.424100000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="27">
+        <v>71</v>
+      </c>
+      <c r="B6" s="26">
         <v>-13.8728</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>-23.9254</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>-34.028799999999997</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="28">
         <v>-43.958799999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="27">
+        <v>72</v>
+      </c>
+      <c r="B8" s="26">
         <v>-9.6765000000000008</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>-15.9671</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="26">
         <v>-17.5745</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="28">
         <v>-17.808599999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="30"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="27">
+        <v>73</v>
+      </c>
+      <c r="B10" s="26">
         <v>-13.1538</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>-19.496200000000002</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>-21.472899999999999</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="28">
         <v>-21.748200000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="30"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="27">
+        <v>74</v>
+      </c>
+      <c r="B12" s="26">
         <v>-13.4038</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="26">
         <v>-23.161000000000001</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="26">
         <v>-33.494199999999999</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="28">
         <v>-42.509599999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="31">
+        <v>75</v>
+      </c>
+      <c r="B13" s="29">
         <v>-12.888500000000001</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>-22.598099999999999</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="29">
         <v>-29.8276</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="30">
         <v>-36.738900000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="30">
+        <v>77</v>
+      </c>
+      <c r="B18" s="28">
         <v>0.30146958000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="30">
+        <v>78</v>
+      </c>
+      <c r="B19" s="28">
         <v>0.61430751900000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="32">
+        <v>79</v>
+      </c>
+      <c r="B20" s="30">
         <v>0.39500000000000002</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9030371D-CE20-4F8B-830B-72A1DFAEEE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F343FC-BABA-4617-AB60-AD97B6A594C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Lorenz Attractor" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -898,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F343FC-BABA-4617-AB60-AD97B6A594C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C5A20F-C820-4466-BF76-C64D28D1135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -101,9 +101,6 @@
     <t>KF partial(H=I) [dB]</t>
   </si>
   <si>
-    <t>2x2, H=I</t>
-  </si>
-  <si>
     <t>5x5, H in canonical form</t>
   </si>
   <si>
@@ -140,41 +137,6 @@
     <t xml:space="preserve">3) State evolution model mismatch </t>
   </si>
   <si>
-    <r>
-      <t>Same dataset as in</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, T=100 (Trajectory Length) 2x2, N_E=1000, N_CV=100, N_T=200, v = -20 [dB]</t>
-    </r>
-  </si>
-  <si>
     <t>RTSNet F_hat [dB]</t>
   </si>
   <si>
@@ -205,9 +167,6 @@
     <t>RTSNet partial std [dB]</t>
   </si>
   <si>
-    <t>RNN true [dB] (n_Epochs=1000, n_Batch=50, learningRate=5e-3, weightDecay=1e-5)</t>
-  </si>
-  <si>
     <t>1) Full info, RTSNet converges to RTS</t>
   </si>
   <si>
@@ -220,15 +179,9 @@
     <t>N_E=1000, N_CV=100, N_T=200, 2x2, H=I</t>
   </si>
   <si>
-    <t>When filters know the initial condition, the test results don't change. So here I show the situation when filters don't know initial condition.</t>
-  </si>
-  <si>
     <t>T= 100, N_E=1000, N_CV=100, N_T=200, 2x2, H=I</t>
   </si>
   <si>
-    <t>Trajectory Length T=100, Dataset size: N_E=1000, N_CV=100, N_T=200</t>
-  </si>
-  <si>
     <t>Gneralization to long sequence (T_train = 100, T_test = 1000)</t>
   </si>
   <si>
@@ -250,30 +203,6 @@
     <t>[0, 20]</t>
   </si>
   <si>
-    <t xml:space="preserve">Welling true std [linear] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welling true [dB] </t>
-  </si>
-  <si>
-    <t>EKF mismatch(fed with false init state [0,0] and init variance=100^2*Identity) [dB]</t>
-  </si>
-  <si>
-    <t>RTS mismatch(fed with false init state [0,0] and init variance=100^2*Identity) [dB]</t>
-  </si>
-  <si>
-    <t>EKF std [linear]</t>
-  </si>
-  <si>
-    <t>RTS std [linear]</t>
-  </si>
-  <si>
-    <t>RTSNet std [linear]</t>
-  </si>
-  <si>
-    <t>RNN std [linear]</t>
-  </si>
-  <si>
     <t>RTSNet 2-fold J=5 std [linear]</t>
   </si>
   <si>
@@ -337,9 +266,6 @@
     <t>F = F_(theta=10)</t>
   </si>
   <si>
-    <t>[-20,-20]</t>
-  </si>
-  <si>
     <t>2x2, H=I, Trajectory Length T=100, Dataset size: N_E=1000, N_CV=100, N_T=200</t>
   </si>
   <si>
@@ -371,13 +297,49 @@
   </si>
   <si>
     <t>Estimated  H: [[ 0.9848, -0.1732],[ 0.1739,  0.9795]]</t>
+  </si>
+  <si>
+    <t>[10,10]</t>
+  </si>
+  <si>
+    <t>[20,20]</t>
+  </si>
+  <si>
+    <t>[30,30]</t>
+  </si>
+  <si>
+    <t>v = -20 dB</t>
+  </si>
+  <si>
+    <t>RTSNet std [dB]</t>
+  </si>
+  <si>
+    <t>v = -10 dB</t>
+  </si>
+  <si>
+    <t>[-10,0]</t>
+  </si>
+  <si>
+    <t>[0,10]</t>
+  </si>
+  <si>
+    <t>[10,20]</t>
+  </si>
+  <si>
+    <t>[20,30]</t>
+  </si>
+  <si>
+    <t>[30,40]</t>
+  </si>
+  <si>
+    <t>When filters(MB KF and MB RTS) know the initial condition, the test results don't change. So here I show the situation when filters don't know initial condition.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,20 +377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="7"/>
       <color rgb="FF212121"/>
       <name val="Courier New"/>
@@ -437,6 +385,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -583,7 +537,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -600,10 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -613,8 +563,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -895,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -908,1311 +870,1384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9">
-        <v>-21.866800000000001</v>
-      </c>
-      <c r="C4" s="9">
-        <v>-11.881500000000001</v>
-      </c>
-      <c r="D4" s="37">
-        <v>-1.7968</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9">
-        <v>0.49790000000000001</v>
+        <v>8.0853999999999999</v>
       </c>
       <c r="C5" s="9">
-        <v>0.50270000000000004</v>
-      </c>
-      <c r="D5" s="37">
-        <v>0.5383</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="22"/>
+        <v>-1.7968</v>
+      </c>
+      <c r="D5" s="9">
+        <v>-11.8804</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-21.902799999999999</v>
+      </c>
+      <c r="F5" s="35">
+        <v>-31.885899999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.5383</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.4194</v>
+      </c>
+      <c r="F6" s="35">
+        <v>0.51370000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
-        <v>-23.740300000000001</v>
-      </c>
-      <c r="C6" s="9">
-        <v>-13.7622</v>
-      </c>
-      <c r="D6" s="37">
+      <c r="B7" s="9">
+        <v>6.2152000000000003</v>
+      </c>
+      <c r="C7" s="9">
         <v>-3.6911999999999998</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+      <c r="D7" s="9">
+        <v>-13.7761</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-23.750499999999999</v>
+      </c>
+      <c r="F7" s="35">
+        <v>-33.749099999999999</v>
+      </c>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.4869</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.4657</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.50760000000000005</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="38">
-        <v>0.50539999999999996</v>
-      </c>
-      <c r="C7" s="38">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D7" s="39">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2.7555999999999998</v>
-      </c>
-      <c r="C13" s="9">
-        <v>-7.2537000000000003</v>
-      </c>
-      <c r="D13" s="9">
-        <v>-17.338799999999999</v>
-      </c>
-      <c r="E13" s="9">
-        <v>-27.194199999999999</v>
-      </c>
-      <c r="F13" s="9">
-        <v>-37.323900000000002</v>
-      </c>
-      <c r="G13" s="8">
-        <f>6.41488122940063/200</f>
-        <v>3.2074406147003152E-2</v>
-      </c>
+      <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="B14" s="9">
-        <v>0.53600000000000003</v>
+        <v>5.2991000000000001</v>
       </c>
       <c r="C14" s="9">
-        <v>4.9399999999999999E-2</v>
+        <v>-4.7026000000000003</v>
       </c>
       <c r="D14" s="9">
-        <v>4.5999999999999999E-3</v>
+        <v>-14.756</v>
       </c>
       <c r="E14" s="9">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="F14" s="31">
-        <v>4.5952999999999999E-5</v>
-      </c>
-      <c r="G14" s="8"/>
+        <v>-24.680399999999999</v>
+      </c>
+      <c r="F14" s="35">
+        <v>-34.730899999999998</v>
+      </c>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="B15" s="9">
-        <f>-1.7902</f>
-        <v>-1.7902</v>
+        <v>0.70950000000000002</v>
       </c>
       <c r="C15" s="9">
-        <v>-11.8467</v>
+        <v>0.66279999999999994</v>
       </c>
       <c r="D15" s="9">
-        <v>-21.738299999999999</v>
+        <v>0.67449999999999999</v>
       </c>
       <c r="E15" s="9">
-        <v>-31.619900000000001</v>
-      </c>
-      <c r="F15" s="9">
-        <v>-41.830800000000004</v>
-      </c>
-      <c r="G15" s="8">
-        <f xml:space="preserve"> 13.3679509162902/200</f>
-        <v>6.6839754581451E-2</v>
-      </c>
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="F15" s="35">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B16" s="9">
-        <v>0.21920000000000001</v>
+        <v>1.8344</v>
       </c>
       <c r="C16" s="9">
-        <v>2.06E-2</v>
+        <v>-8.2195999999999998</v>
       </c>
       <c r="D16" s="9">
-        <v>2.3E-3</v>
+        <v>-18.179099999999998</v>
       </c>
       <c r="E16" s="9">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F16" s="31">
-        <v>2.2665999999999999E-5</v>
-      </c>
-      <c r="G16" s="8"/>
+        <v>-28.098099999999999</v>
+      </c>
+      <c r="F16" s="35">
+        <v>-38.235599999999998</v>
+      </c>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="22">
-        <v>-1.64</v>
-      </c>
-      <c r="C17" s="22">
-        <v>-11.7117</v>
-      </c>
-      <c r="D17" s="22">
-        <v>-21.543399999999998</v>
-      </c>
-      <c r="E17" s="22">
-        <v>-31.816700000000001</v>
-      </c>
-      <c r="F17" s="22">
-        <v>-41.504600000000003</v>
-      </c>
-      <c r="G17" s="8">
-        <f>56.4998171329498/200</f>
-        <v>0.28249908566474902</v>
+        <v>81</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.7208</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="F17" s="35">
+        <v>0.83679999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="22">
-        <v>0.21790000000000001</v>
-      </c>
-      <c r="C18" s="22">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="D18" s="22">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E18" s="22">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F18" s="32">
-        <v>2.3122999999999999E-5</v>
-      </c>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="8">
-        <f>28.904328584671/200</f>
-        <v>0.14452164292335501</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="39"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>67</v>
-      </c>
+      <c r="A20" s="22"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
       <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="11"/>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
+      <c r="A23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="9">
+        <v>2.7555999999999998</v>
+      </c>
+      <c r="C23" s="9">
+        <v>-7.2537000000000003</v>
+      </c>
+      <c r="D23" s="9">
+        <v>-17.338799999999999</v>
+      </c>
+      <c r="E23" s="9">
+        <v>-27.194199999999999</v>
+      </c>
+      <c r="F23" s="9">
+        <v>-37.323900000000002</v>
+      </c>
+      <c r="G23" s="35">
+        <f>6.41488122940063/200</f>
+        <v>3.2074406147003152E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
+      <c r="A24" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1.0863</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1.0122</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.96650000000000003</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.0107999999999999</v>
+      </c>
+      <c r="F24" s="31">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
+      <c r="A25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="9">
+        <f>-1.7902</f>
+        <v>-1.7902</v>
+      </c>
+      <c r="C25" s="9">
+        <v>-11.8467</v>
+      </c>
+      <c r="D25" s="9">
+        <v>-21.738299999999999</v>
+      </c>
+      <c r="E25" s="9">
+        <v>-31.619900000000001</v>
+      </c>
+      <c r="F25" s="9">
+        <v>-41.830800000000004</v>
+      </c>
+      <c r="G25" s="35">
+        <f xml:space="preserve"> 13.3679509162902/200</f>
+        <v>6.6839754581451E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="9">
+        <v>1.2419</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1.1898</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1.2814000000000001</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1.1073</v>
+      </c>
+      <c r="F26" s="31">
+        <v>1.2888999999999999</v>
+      </c>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22">
-        <v>-7.1620999999999997</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="8">
-        <f>19.1064960956573/200</f>
-        <v>9.5532480478286497E-2</v>
-      </c>
+      <c r="A27" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="9">
+        <v>-1.64</v>
+      </c>
+      <c r="C27" s="9">
+        <v>-11.7117</v>
+      </c>
+      <c r="D27" s="9">
+        <v>-21.543399999999998</v>
+      </c>
+      <c r="E27" s="9">
+        <v>-31.816700000000001</v>
+      </c>
+      <c r="F27" s="9">
+        <v>-41.504600000000003</v>
+      </c>
+      <c r="G27" s="35">
+        <f>56.4998171329498/200</f>
+        <v>0.28249908566474902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="36">
+        <v>1.1987000000000001</v>
+      </c>
+      <c r="C28" s="36">
+        <v>1.1726000000000001</v>
+      </c>
+      <c r="D28" s="36">
+        <v>1.2788999999999999</v>
+      </c>
+      <c r="E28" s="36">
+        <v>1.1524000000000001</v>
+      </c>
+      <c r="F28" s="40">
+        <v>1.2285999999999999</v>
+      </c>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>64</v>
-      </c>
+      <c r="A29" s="22"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="22">
-        <v>1.54E-2</v>
-      </c>
+      <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="A30" s="22"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="22">
-        <v>-11.8101</v>
-      </c>
+      <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="8">
-        <f>39.3029329776763/200</f>
-        <v>0.19651466488838149</v>
-      </c>
+      <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
-        <v>65</v>
+      <c r="A31" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="B31" s="22"/>
-      <c r="C31" s="22">
-        <v>7.1999999999999998E-3</v>
-      </c>
+      <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>47</v>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="B32" s="22"/>
-      <c r="C32" s="22">
-        <f>(-11.7224-11.7828)/2</f>
-        <v>-11.752600000000001</v>
-      </c>
+      <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="8">
-        <f>297.675692081451/100</f>
-        <v>2.9767569208145104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10">
-        <f>(0.0068*50+0.0086*50+0.0066*50+0.0071*50)/200</f>
-        <v>7.2750000000000002E-3</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="22"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="25"/>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
+      <c r="C34" s="22">
+        <v>-7.1620999999999997</v>
+      </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
-        <v>48</v>
+      <c r="G34" s="8">
+        <f>19.1064960956573/200</f>
+        <v>9.5532480478286497E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
+      <c r="C35" s="22">
+        <v>0.3347</v>
+      </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="22" t="s">
-        <v>51</v>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
+      <c r="C36" s="22">
+        <v>-11.8101</v>
+      </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="22" t="s">
-        <v>50</v>
+      <c r="G36" s="8">
+        <f>39.3029329776763/200</f>
+        <v>0.19651466488838149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
+      <c r="C37" s="22">
+        <v>0.45019999999999999</v>
+      </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="27" t="s">
-        <v>4</v>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22">
+        <f>(-11.7224-11.7828)/2</f>
+        <v>-11.752600000000001</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
-      <c r="F38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G38" s="25"/>
-      <c r="H38" s="27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="8">
-        <v>-6.7045000000000003</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="22"/>
-      <c r="H39" s="8">
-        <v>30.081099999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>63</v>
-      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="8">
+        <f>297.675692081451/100</f>
+        <v>2.9767569208145104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="22"/>
       <c r="B40" s="22"/>
-      <c r="C40" s="8">
-        <v>-11.539099999999999</v>
-      </c>
+      <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
-      <c r="F40" s="12" t="s">
-        <v>56</v>
-      </c>
+      <c r="F40" s="22"/>
       <c r="G40" s="22"/>
-      <c r="H40" s="8">
-        <v>26.237500000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="40">
-        <v>-10.090299999999999</v>
-      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
       <c r="D41" s="22"/>
-      <c r="F41" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11">
-        <v>9.0884</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="40">
-        <v>1.2316</v>
-      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
-      <c r="F42" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="11">
-        <v>2.7212000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="B43" s="22"/>
-      <c r="C43" s="24"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="H43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="38"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="8">
+        <v>30.081099999999999</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="22"/>
+      <c r="C46" s="8">
+        <v>26.237500000000001</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="38"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="45">
+        <v>-11.680099999999999</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="45">
+        <v>1.2060999999999999</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="8">
+        <v>9.0884</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="38"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="11">
+        <v>2.7212000000000001</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F57" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G57" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B58" s="9">
         <v>0.37009999999999998</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C58" s="9">
         <v>-9.5507000000000009</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D58" s="9">
         <v>-19.614100000000001</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E58" s="9">
         <v>-29.642099999999999</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F58" s="9">
         <v>-39.517699999999998</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G58" s="8">
         <f>6.71297335624694/200</f>
         <v>3.3564866781234701E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B59" s="9">
         <v>-2.0627</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C59" s="9">
         <v>-12.234</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D59" s="9">
         <v>-22.131499999999999</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E59" s="9">
         <v>-32.137099999999997</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F59" s="9">
         <v>-42.033499999999997</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G59" s="8">
         <f>13.8022818565368/200</f>
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="13" t="s">
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="33"/>
-    </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" s="33"/>
+    </row>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F55" s="33"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-      <c r="B56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
+      <c r="F64" s="33"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="B65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="34">
+      <c r="B66" s="34">
         <v>-10.795199999999999</v>
       </c>
-      <c r="C57">
+      <c r="C66">
         <f>1.38270020484924/200</f>
         <v>6.9135010242462004E-3</v>
       </c>
-      <c r="D57" s="34">
+      <c r="D66" s="34">
         <v>-11.2011</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E66" s="28">
         <f>1.35998010635375/200</f>
         <v>6.7999005317687499E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="34">
+      <c r="B67" s="34">
         <v>-12.548</v>
       </c>
-      <c r="C58">
+      <c r="C67">
         <f>2.79346585273742/200</f>
         <v>1.39673292636871E-2</v>
       </c>
-      <c r="D58" s="34">
+      <c r="D67" s="34">
         <v>-12.3985</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E67" s="28">
         <f>2.5887804031372/200</f>
         <v>1.2943902015686E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B59" s="29">
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B68" s="29">
         <v>-12.0535</v>
       </c>
-      <c r="C59" s="29">
+      <c r="C68" s="29">
         <f>11.7575964927673/200</f>
         <v>5.87879824638365E-2</v>
       </c>
-      <c r="D59" s="29">
+      <c r="D68" s="29">
         <v>-12.076599999999999</v>
       </c>
-      <c r="E59" s="30">
+      <c r="E68" s="30">
         <f>11.3483390808105/200</f>
         <v>5.6741695404052502E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="7" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="14" t="s">
+    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B75" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D75" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E75" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="15" t="s">
+      <c r="F75" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G75" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="22">
+      <c r="B76" s="22">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C76" s="22">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D67" s="22">
+      <c r="D76" s="22">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E76" s="22">
         <v>-27.2926</v>
       </c>
-      <c r="F67" s="22">
+      <c r="F76" s="22">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G76" s="8">
         <f>1.87291026115417/200</f>
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B68" s="22">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="C68" s="22">
-        <v>-13.7667</v>
-      </c>
-      <c r="D68" s="22">
-        <v>-23.4497</v>
-      </c>
-      <c r="E68" s="22">
-        <v>-33.330800000000004</v>
-      </c>
-      <c r="F68" s="22">
-        <v>-43</v>
-      </c>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="5"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B70" s="22">
-        <v>11.153700000000001</v>
-      </c>
-      <c r="C70" s="22">
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="D70" s="22">
-        <v>-9.1595999999999993</v>
-      </c>
-      <c r="E70" s="22">
-        <v>-18.4282</v>
-      </c>
-      <c r="F70" s="22">
-        <v>-28.785699999999999</v>
-      </c>
-      <c r="G70" s="8">
-        <f>1.73989057540893/200</f>
-        <v>8.6994528770446503E-3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B71" s="22">
-        <v>3.0234000000000001</v>
-      </c>
-      <c r="C71" s="22">
-        <v>1.0333000000000001</v>
-      </c>
-      <c r="D71" s="22">
-        <v>-7.9607999999999999</v>
-      </c>
-      <c r="E71" s="22">
-        <v>-17.954899999999999</v>
-      </c>
-      <c r="F71" s="22">
-        <v>-28.222899999999999</v>
-      </c>
-      <c r="G71" s="19"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="5"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="19"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="22">
-        <v>-1.8754</v>
-      </c>
-      <c r="C73" s="22">
-        <v>-11.879799999999999</v>
-      </c>
-      <c r="D73" s="22">
-        <v>-21.812200000000001</v>
-      </c>
-      <c r="E73" s="22">
-        <v>-31.9605</v>
-      </c>
-      <c r="F73" s="22">
-        <v>-41.809899999999999</v>
-      </c>
-      <c r="G73" s="8">
-        <f>3.64388179779052/200</f>
-        <v>1.82194089889526E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" s="22">
-        <v>1.2853000000000001</v>
-      </c>
-      <c r="C74" s="22">
-        <v>-16.561499999999999</v>
-      </c>
-      <c r="D74" s="22">
-        <v>-27.001000000000001</v>
-      </c>
-      <c r="E74" s="22">
-        <v>-36.670699999999997</v>
-      </c>
-      <c r="F74" s="22">
-        <v>-46.9679</v>
-      </c>
-      <c r="G74" s="8"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="5"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="8"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="22">
-        <v>5.5016999999999996</v>
-      </c>
-      <c r="C76" s="22">
-        <v>-4.8254000000000001</v>
-      </c>
-      <c r="D76" s="22">
-        <v>-15.061500000000001</v>
-      </c>
-      <c r="E76" s="22">
-        <v>-24.198</v>
-      </c>
-      <c r="F76" s="22">
-        <v>-34.591799999999999</v>
-      </c>
-      <c r="G76" s="8">
-        <f>3.63707900047302/200</f>
-        <v>1.8185395002365098E-2</v>
-      </c>
-    </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B77" s="22">
-        <v>2.9416000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C77" s="22">
-        <v>-4.4451000000000001</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D77" s="22">
-        <v>-14.241</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="E77" s="22">
-        <v>-23.9832</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="F77" s="22">
-        <v>-34.349800000000002</v>
+        <v>1.0293000000000001</v>
       </c>
       <c r="G77" s="19"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="5"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="22"/>
       <c r="G78" s="19"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="18">
-        <v>-1.6909000000000001</v>
-      </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="19">
-        <f>43.5942468643188/200</f>
-        <v>0.21797123432159399</v>
+        <v>20</v>
+      </c>
+      <c r="B79" s="22">
+        <v>11.153700000000001</v>
+      </c>
+      <c r="C79" s="22">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="D79" s="22">
+        <v>-9.1595999999999993</v>
+      </c>
+      <c r="E79" s="22">
+        <v>-18.4282</v>
+      </c>
+      <c r="F79" s="22">
+        <v>-28.785699999999999</v>
+      </c>
+      <c r="G79" s="8">
+        <f>1.73989057540893/200</f>
+        <v>8.6994528770446503E-3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B80" s="18">
-        <v>1.2776000000000001</v>
-      </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
+        <v>16</v>
+      </c>
+      <c r="B80" s="22">
+        <v>3.0234000000000001</v>
+      </c>
+      <c r="C80" s="22">
+        <v>3.0640999999999998</v>
+      </c>
+      <c r="D80" s="22">
+        <v>3.6509</v>
+      </c>
+      <c r="E80" s="22">
+        <v>3.2534000000000001</v>
+      </c>
+      <c r="F80" s="22">
+        <v>3.3008000000000002</v>
+      </c>
       <c r="G80" s="19"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="5"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="22"/>
       <c r="G81" s="19"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="18">
-        <v>-0.77390000000000003</v>
-      </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="B82" s="22">
+        <v>-1.8754</v>
+      </c>
+      <c r="C82" s="22">
+        <v>-11.879799999999999</v>
+      </c>
+      <c r="D82" s="22">
+        <v>-21.812200000000001</v>
+      </c>
+      <c r="E82" s="22">
+        <v>-31.9605</v>
+      </c>
+      <c r="F82" s="22">
+        <v>-41.809899999999999</v>
+      </c>
+      <c r="G82" s="8">
+        <f>3.64388179779052/200</f>
+        <v>1.82194089889526E-2</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B83" s="18">
-        <v>1.2433000000000001</v>
-      </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B83" s="22">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="C83" s="22">
+        <v>1.2719</v>
+      </c>
+      <c r="D83" s="22">
+        <v>1.1487000000000001</v>
+      </c>
+      <c r="E83" s="22">
+        <v>1.2646999999999999</v>
+      </c>
+      <c r="F83" s="22">
+        <v>1.1558999999999999</v>
+      </c>
+      <c r="G83" s="8"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5"/>
       <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="19"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="8"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="B85" s="22">
+        <v>5.5016999999999996</v>
+      </c>
+      <c r="C85" s="22">
+        <v>-4.8254000000000001</v>
+      </c>
+      <c r="D85" s="22">
+        <v>-15.061500000000001</v>
+      </c>
+      <c r="E85" s="22">
+        <v>-24.198</v>
+      </c>
+      <c r="F85" s="22">
+        <v>-34.591799999999999</v>
+      </c>
+      <c r="G85" s="8">
+        <f>3.63707900047302/200</f>
+        <v>1.8185395002365098E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B86" s="22">
+        <v>2.9416000000000002</v>
+      </c>
+      <c r="C86" s="22">
+        <v>3.2046000000000001</v>
+      </c>
+      <c r="D86" s="22">
+        <v>3.4399000000000002</v>
+      </c>
+      <c r="E86" s="22">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="F86" s="22">
+        <v>3.133</v>
+      </c>
+      <c r="G86" s="19"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="26"/>
+      <c r="A87" s="5"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
       <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
+      <c r="G87" s="19"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="41"/>
-      <c r="B88" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
+      <c r="A88" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B88" s="22">
+        <v>-1.6909000000000001</v>
+      </c>
+      <c r="C88" s="22">
+        <v>-11.7502</v>
+      </c>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="8">
+        <f>43.5942468643188/200</f>
+        <v>0.21797123432159399</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="26"/>
-      <c r="B89" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C89" s="22"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
+      <c r="A89" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="22">
+        <v>1.2776000000000001</v>
+      </c>
+      <c r="C89" s="22">
+        <v>1.2426999999999999</v>
+      </c>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="5"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="22">
+        <v>-0.77390000000000003</v>
+      </c>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="8"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="23"/>
+      <c r="A92" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="22">
+        <v>1.2433000000000001</v>
+      </c>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="8"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>88</v>
-      </c>
+      <c r="A93" s="5"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="8"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="A94" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" s="22">
+        <v>-1.7432000000000001</v>
+      </c>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="10">
+        <v>1.2693000000000001</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="11"/>
+    </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="26"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="38"/>
+      <c r="B97" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="26"/>
+      <c r="B98" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C98" s="22"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" s="23"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B105" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C96" s="15" t="s">
+      <c r="C105" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D105" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="E105" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F96" s="15" t="s">
+      <c r="F105" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G96" s="16" t="s">
+      <c r="G105" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22"/>
-      <c r="G97" s="8"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22"/>
-      <c r="G98" s="19"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="5"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="19"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="8"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22"/>
-      <c r="G101" s="19"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="5"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22"/>
-      <c r="G102" s="19"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22"/>
-      <c r="G103" s="8"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B104" s="22"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="22"/>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22"/>
-      <c r="G104" s="8"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="5"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22"/>
-      <c r="G105" s="8"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B106" s="22"/>
       <c r="C106" s="22"/>
@@ -2223,7 +2258,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
@@ -2235,97 +2270,191 @@
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5"/>
       <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
       <c r="G108" s="19"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+      <c r="E109" s="22"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="8"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+      <c r="E110" s="22"/>
+      <c r="F110" s="22"/>
       <c r="G110" s="19"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="22"/>
       <c r="G111" s="19"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="22"/>
+      <c r="F112" s="22"/>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
       <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="19"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+      <c r="E114" s="22"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="8"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="19"/>
-    </row>
-    <row r="116" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="20"/>
-      <c r="E116" s="20"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="22"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="22"/>
+      <c r="F116" s="22"/>
+      <c r="G116" s="19"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="5"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="18"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="19"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="18"/>
+      <c r="G118" s="19"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="19"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="5"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="18"/>
+      <c r="G120" s="19"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" s="18"/>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="19"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="19"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="5"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="19"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="19"/>
+    </row>
+    <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -2335,7 +2464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2347,7 +2476,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2356,10 +2485,10 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
@@ -2373,7 +2502,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B4" s="26">
         <v>-10.4223</v>
@@ -2397,7 +2526,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B6" s="26">
         <v>-13.8728</v>
@@ -2421,7 +2550,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B8" s="26">
         <v>-9.6765000000000008</v>
@@ -2445,7 +2574,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B10" s="26">
         <v>-13.1538</v>
@@ -2469,7 +2598,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B12" s="26">
         <v>-13.4038</v>
@@ -2486,7 +2615,7 @@
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B13" s="29">
         <v>-12.888500000000001</v>
@@ -2503,24 +2632,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B18" s="28">
         <v>0.30146958000000001</v>
@@ -2528,7 +2657,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B19" s="28">
         <v>0.61430751900000002</v>
@@ -2536,7 +2665,7 @@
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B20" s="30">
         <v>0.39500000000000002</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C5A20F-C820-4466-BF76-C64D28D1135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E06ADD-07FF-490A-8439-C650EDF16D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -188,9 +188,6 @@
     <t>RunTime (s/traj) (colab GPU, high RAM)</t>
   </si>
   <si>
-    <t xml:space="preserve">RTSNet mismatch (trained on init state = [0,0] and init variance = 0) [dB] </t>
-  </si>
-  <si>
     <t>RTS mismatch(fed with false init state [0,0] and false init variance=0) [dB]</t>
   </si>
   <si>
@@ -284,9 +281,6 @@
     <t>RTS std [dB]</t>
   </si>
   <si>
-    <t xml:space="preserve">RTSNet with known randInit [dB] </t>
-  </si>
-  <si>
     <t xml:space="preserve">RTSNet std [dB] </t>
   </si>
   <si>
@@ -333,13 +327,34 @@
   </si>
   <si>
     <t>When filters(MB KF and MB RTS) know the initial condition, the test results don't change. So here I show the situation when filters don't know initial condition.</t>
+  </si>
+  <si>
+    <t>Observation [dB]</t>
+  </si>
+  <si>
+    <t>Observation std [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet (train on test both on known randInit) [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet (trained on fixed init state = [0,0], test on random and known init) [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet mismatch (trained on fixed init state = [0,0], test on random init but feed with false init state = [0,0] still) [dB] </t>
+  </si>
+  <si>
+    <t>EKF (test on random and known init) [dB]</t>
+  </si>
+  <si>
+    <t>RTS (test on random and known init) [dB]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,12 +392,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF212121"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
@@ -396,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +415,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -537,7 +552,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,7 +582,6 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -576,7 +589,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -857,16 +909,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="37.81640625" customWidth="1"/>
+    <col min="2" max="2" width="37.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -876,12 +930,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -889,1449 +943,1585 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="47">
+        <v>10.022600000000001</v>
+      </c>
+      <c r="C5" s="47">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="D5" s="47">
+        <v>-10.002700000000001</v>
+      </c>
+      <c r="E5" s="47">
+        <v>-19.947399999999998</v>
+      </c>
+      <c r="F5" s="49">
+        <v>-29.9617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="47">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="C6" s="47">
+        <v>0.4476</v>
+      </c>
+      <c r="D6" s="47">
+        <v>0.42730000000000001</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.41070000000000001</v>
+      </c>
+      <c r="F6" s="49">
+        <v>0.42949999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B7" s="9">
         <v>8.0853999999999999</v>
       </c>
-      <c r="C5" s="9">
-        <v>-1.7968</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="C7" s="9">
+        <v>-1.8268</v>
+      </c>
+      <c r="D7" s="9">
         <v>-11.8804</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E7" s="9">
         <v>-21.902799999999999</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F7" s="34">
         <v>-31.885899999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.5252</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.46360000000000001</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.4194</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0.51370000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6.2152000000000003</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-3.6911999999999998</v>
+      </c>
+      <c r="D9" s="9">
+        <v>-13.7761</v>
+      </c>
+      <c r="E9" s="9">
+        <v>-23.750499999999999</v>
+      </c>
+      <c r="F9" s="34">
+        <v>-33.749099999999999</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="9">
-        <v>0.50170000000000003</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.5383</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.46360000000000001</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.4194</v>
-      </c>
-      <c r="F6" s="35">
-        <v>0.51370000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9">
-        <v>6.2152000000000003</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-3.6911999999999998</v>
-      </c>
-      <c r="D7" s="9">
-        <v>-13.7761</v>
-      </c>
-      <c r="E7" s="9">
-        <v>-23.750499999999999</v>
-      </c>
-      <c r="F7" s="35">
-        <v>-33.749099999999999</v>
-      </c>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="B10" s="9">
         <v>0.4869</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C10" s="9">
         <v>0.53690000000000004</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D10" s="9">
         <v>0.4657</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E10" s="9">
         <v>0.51919999999999999</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F10" s="34">
         <v>0.50760000000000005</v>
       </c>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="9">
+        <v>6.1844000000000001</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-3.7410000000000001</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="31"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="35">
+        <v>0.49259999999999998</v>
+      </c>
+      <c r="C12" s="35">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="22"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="F15" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="27" t="s">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="22"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="9">
-        <v>5.2991000000000001</v>
-      </c>
-      <c r="C14" s="9">
-        <v>-4.7026000000000003</v>
-      </c>
-      <c r="D14" s="9">
-        <v>-14.756</v>
-      </c>
-      <c r="E14" s="9">
-        <v>-24.680399999999999</v>
-      </c>
-      <c r="F14" s="35">
-        <v>-34.730899999999998</v>
-      </c>
-      <c r="G14" s="22"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.70950000000000002</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0.66279999999999994</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.67449999999999999</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.59619999999999995</v>
-      </c>
-      <c r="F15" s="35">
-        <v>0.69599999999999995</v>
-      </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1.8344</v>
-      </c>
-      <c r="C16" s="9">
-        <v>-8.2195999999999998</v>
-      </c>
-      <c r="D16" s="9">
-        <v>-18.179099999999998</v>
-      </c>
-      <c r="E16" s="9">
-        <v>-28.098099999999999</v>
-      </c>
-      <c r="F16" s="35">
-        <v>-38.235599999999998</v>
+      <c r="B16" s="47">
+        <v>10.004300000000001</v>
+      </c>
+      <c r="C16" s="51">
+        <v>-8.4907000000000005E-5</v>
+      </c>
+      <c r="D16" s="47">
+        <v>-10.0288</v>
+      </c>
+      <c r="E16" s="47">
+        <v>-19.9815</v>
+      </c>
+      <c r="F16" s="49">
+        <v>-29.968599999999999</v>
       </c>
       <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.79410000000000003</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.7208</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.72609999999999997</v>
-      </c>
-      <c r="F17" s="35">
-        <v>0.83679999999999999</v>
-      </c>
+      <c r="A17" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="47">
+        <v>0.41909999999999997</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="D17" s="47">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="E17" s="47">
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="F17" s="49">
+        <v>0.43509999999999999</v>
+      </c>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="9">
+        <v>5.2991000000000001</v>
+      </c>
+      <c r="C18" s="9">
+        <v>-4.7026000000000003</v>
+      </c>
+      <c r="D18" s="9">
+        <v>-14.756</v>
+      </c>
+      <c r="E18" s="9">
+        <v>-24.680399999999999</v>
+      </c>
+      <c r="F18" s="34">
+        <v>-34.730899999999998</v>
+      </c>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.70950000000000002</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.67449999999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.59619999999999995</v>
+      </c>
+      <c r="F19" s="34">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1.8344</v>
+      </c>
+      <c r="C20" s="9">
+        <v>-8.2195999999999998</v>
+      </c>
+      <c r="D20" s="9">
+        <v>-18.179099999999998</v>
+      </c>
+      <c r="E20" s="9">
+        <v>-28.098099999999999</v>
+      </c>
+      <c r="F20" s="34">
+        <v>-38.235599999999998</v>
+      </c>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.79410000000000003</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.7208</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.72609999999999997</v>
+      </c>
+      <c r="F21" s="34">
+        <v>0.83679999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="47">
+        <v>10.011900000000001</v>
+      </c>
+      <c r="C27" s="47">
+        <v>-8.3000000000000001E-3</v>
+      </c>
+      <c r="D27" s="47">
+        <v>-10.004200000000001</v>
+      </c>
+      <c r="E27" s="47">
+        <v>-19.976700000000001</v>
+      </c>
+      <c r="F27" s="47">
+        <v>-30.0029</v>
+      </c>
+      <c r="G27" s="50"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="47">
+        <v>0.39750000000000002</v>
+      </c>
+      <c r="C28" s="47">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="D28" s="47">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="E28" s="47">
+        <v>0.4158</v>
+      </c>
+      <c r="F28" s="47">
+        <v>0.42849999999999999</v>
+      </c>
+      <c r="G28" s="50"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B29" s="9">
         <v>2.7555999999999998</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C29" s="9">
         <v>-7.2537000000000003</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D29" s="9">
         <v>-17.338799999999999</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E29" s="9">
         <v>-27.194199999999999</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F29" s="9">
         <v>-37.323900000000002</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G29" s="34">
         <f>6.41488122940063/200</f>
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="9">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="9">
         <v>1.0863</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C30" s="9">
         <v>1.0122</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D30" s="9">
         <v>0.96650000000000003</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E30" s="9">
         <v>1.0107999999999999</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F30" s="30">
         <v>0.96260000000000001</v>
       </c>
-      <c r="G24" s="35"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B31" s="9">
         <f>-1.7902</f>
         <v>-1.7902</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C31" s="9">
         <v>-11.8467</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D31" s="9">
         <v>-21.738299999999999</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E31" s="9">
         <v>-31.619900000000001</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F31" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G31" s="34">
         <f xml:space="preserve"> 13.3679509162902/200</f>
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="9">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="9">
         <v>1.2419</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C32" s="9">
         <v>1.1898</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D32" s="9">
         <v>1.2814000000000001</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E32" s="9">
         <v>1.1073</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F32" s="30">
         <v>1.2888999999999999</v>
       </c>
-      <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="G32" s="34"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B33" s="9">
         <v>-1.64</v>
       </c>
-      <c r="C27" s="9">
-        <v>-11.7117</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="C33" s="9">
+        <v>-11.7531</v>
+      </c>
+      <c r="D33" s="9">
         <v>-21.543399999999998</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E33" s="9">
         <v>-31.816700000000001</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F33" s="9">
         <v>-41.504600000000003</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G33" s="34">
         <f>56.4998171329498/200</f>
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="36">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="35">
         <v>1.1987000000000001</v>
       </c>
-      <c r="C28" s="36">
-        <v>1.1726000000000001</v>
-      </c>
-      <c r="D28" s="36">
+      <c r="C34" s="35">
+        <v>1.1817</v>
+      </c>
+      <c r="D34" s="35">
         <v>1.2788999999999999</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E34" s="35">
         <v>1.1524000000000001</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F34" s="39">
         <v>1.2285999999999999</v>
       </c>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22">
-        <v>-7.1620999999999997</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="8">
-        <f>19.1064960956573/200</f>
-        <v>9.5532480478286497E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
-        <v>80</v>
-      </c>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="22"/>
       <c r="B35" s="22"/>
-      <c r="C35" s="22">
-        <v>0.3347</v>
-      </c>
+      <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="22"/>
       <c r="B36" s="22"/>
-      <c r="C36" s="22">
-        <v>-11.8101</v>
-      </c>
+      <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="8">
-        <f>39.3029329776763/200</f>
-        <v>0.19651466488838149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
-        <v>81</v>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="B37" s="22"/>
-      <c r="C37" s="22">
-        <v>0.45019999999999999</v>
-      </c>
+      <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>44</v>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="B38" s="22"/>
-      <c r="C38" s="22">
-        <f>(-11.7224-11.7828)/2</f>
-        <v>-11.752600000000001</v>
-      </c>
+      <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="8">
-        <f>297.675692081451/100</f>
-        <v>2.9767569208145104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="22"/>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
+      <c r="C40" s="22">
+        <v>-7.1620999999999997</v>
+      </c>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
-        <v>45</v>
+      <c r="G40" s="8">
+        <f>19.1064960956573/200</f>
+        <v>9.5532480478286497E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
+      <c r="C41" s="22">
+        <v>0.3347</v>
+      </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="22" t="s">
-        <v>47</v>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
+      <c r="C42" s="22">
+        <v>-11.8101</v>
+      </c>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="22" t="s">
-        <v>98</v>
+      <c r="G42" s="8">
+        <f>39.3029329776763/200</f>
+        <v>0.19651466488838149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
+      <c r="C43" s="22">
+        <v>0.45019999999999999</v>
+      </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="26"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22">
+        <f>(-11.7224-11.7828)/2</f>
+        <v>-11.752600000000001</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="8">
+        <f>297.675692081451/100</f>
+        <v>2.9767569208145104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="25"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="27" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="38"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="8">
+      <c r="D50" s="22"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="37"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="8">
+        <v>-7.3005000000000004</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G51" s="57">
         <v>30.081099999999999</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="38"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="8">
+      <c r="H51" s="40"/>
+      <c r="I51" s="37"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="8">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="8">
         <v>26.237500000000001</v>
       </c>
-      <c r="D46" s="22"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="38"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+      <c r="H52" s="40"/>
+      <c r="I52" s="37"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="37"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="37"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B55" s="53"/>
+      <c r="C55" s="54">
+        <v>-11.680099999999999</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="8">
+        <v>9.0884</v>
+      </c>
+      <c r="H55" s="40"/>
+      <c r="I55" s="37"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="45">
-        <v>-11.680099999999999</v>
-      </c>
-      <c r="D47" s="22"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="38"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="45">
+      <c r="B56" s="53"/>
+      <c r="C56" s="54">
         <v>1.2060999999999999</v>
       </c>
-      <c r="D48" s="22"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="38"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="8">
-        <v>9.0884</v>
-      </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="38"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11">
+      <c r="D56" s="22"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G56" s="11">
         <v>2.7212000000000001</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
+      <c r="H56" s="40"/>
+      <c r="I56" s="37"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" s="53"/>
+      <c r="C57" s="55">
+        <v>-11.6053</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="37"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="53"/>
+      <c r="C58" s="55">
+        <v>1.22</v>
+      </c>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="17" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F65" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G65" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B66" s="9">
         <v>0.37009999999999998</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C66" s="9">
         <v>-9.5507000000000009</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D66" s="9">
         <v>-19.614100000000001</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E66" s="9">
         <v>-29.642099999999999</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F66" s="9">
         <v>-39.517699999999998</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G66" s="8">
         <f>6.71297335624694/200</f>
         <v>3.3564866781234701E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B67" s="9">
         <v>-2.0627</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C67" s="9">
         <v>-12.234</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D67" s="9">
         <v>-22.131499999999999</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E67" s="9">
         <v>-32.137099999999997</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F67" s="9">
         <v>-42.033499999999997</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G67" s="8">
         <f>13.8022818565368/200</f>
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="13" t="s">
+    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="23" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="32"/>
+    </row>
+    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D63" s="33"/>
-    </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+      <c r="B72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="32"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64" s="33"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-      <c r="B65" s="3" t="s">
+      <c r="C73" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="D73" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="E73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="34">
+      <c r="B74" s="33">
         <v>-10.795199999999999</v>
       </c>
-      <c r="C66">
+      <c r="C74">
         <f>1.38270020484924/200</f>
         <v>6.9135010242462004E-3</v>
       </c>
-      <c r="D66" s="34">
+      <c r="D74" s="33">
         <v>-11.2011</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E74" s="27">
         <f>1.35998010635375/200</f>
         <v>6.7999005317687499E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="34">
+      <c r="B75" s="33">
         <v>-12.548</v>
       </c>
-      <c r="C67">
+      <c r="C75">
         <f>2.79346585273742/200</f>
         <v>1.39673292636871E-2</v>
       </c>
-      <c r="D67" s="34">
+      <c r="D75" s="33">
         <v>-12.3985</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E75" s="27">
         <f>2.5887804031372/200</f>
         <v>1.2943902015686E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B68" s="29">
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="28">
         <v>-12.0535</v>
       </c>
-      <c r="C68" s="29">
+      <c r="C76" s="28">
         <f>11.7575964927673/200</f>
         <v>5.87879824638365E-2</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D76" s="28">
         <v>-12.076599999999999</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E76" s="29">
         <f>11.3483390808105/200</f>
         <v>5.6741695404052502E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="7" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
+    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="15" t="s">
+      <c r="B83" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C83" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="15" t="s">
+      <c r="D83" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E83" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="F75" s="15" t="s">
+      <c r="F83" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="G83" s="58" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B76" s="22">
+      <c r="B84" s="9">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C84" s="9">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D84" s="9">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E84" s="9">
         <v>-27.2926</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F84" s="9">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G84" s="34">
         <f>1.87291026115417/200</f>
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B77" s="22">
+      <c r="B85" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C85" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="D77" s="22">
+      <c r="D85" s="9">
         <v>0.95669999999999999</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E85" s="9">
         <v>0.96560000000000001</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F85" s="9">
         <v>1.0293000000000001</v>
       </c>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="5"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
+      <c r="G85" s="59"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="5"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="59"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B79" s="22">
+      <c r="B87" s="9">
         <v>11.153700000000001</v>
       </c>
-      <c r="C79" s="22">
+      <c r="C87" s="9">
         <v>0.92630000000000001</v>
       </c>
-      <c r="D79" s="22">
+      <c r="D87" s="9">
         <v>-9.1595999999999993</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E87" s="9">
         <v>-18.4282</v>
       </c>
-      <c r="F79" s="22">
+      <c r="F87" s="9">
         <v>-28.785699999999999</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G87" s="34">
         <f>1.73989057540893/200</f>
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B80" s="22">
+      <c r="B88" s="9">
         <v>3.0234000000000001</v>
       </c>
-      <c r="C80" s="22">
+      <c r="C88" s="9">
         <v>3.0640999999999998</v>
       </c>
-      <c r="D80" s="22">
+      <c r="D88" s="9">
         <v>3.6509</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E88" s="9">
         <v>3.2534000000000001</v>
       </c>
-      <c r="F80" s="22">
+      <c r="F88" s="9">
         <v>3.3008000000000002</v>
       </c>
-      <c r="G80" s="19"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="5"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
+      <c r="G88" s="59"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="5"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="59"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="22">
+      <c r="B90" s="9">
         <v>-1.8754</v>
       </c>
-      <c r="C82" s="22">
+      <c r="C90" s="9">
         <v>-11.879799999999999</v>
       </c>
-      <c r="D82" s="22">
+      <c r="D90" s="9">
         <v>-21.812200000000001</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E90" s="9">
         <v>-31.9605</v>
       </c>
-      <c r="F82" s="22">
+      <c r="F90" s="9">
         <v>-41.809899999999999</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G90" s="34">
         <f>3.64388179779052/200</f>
         <v>1.82194089889526E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B83" s="22">
+      <c r="B91" s="9">
         <v>1.2853000000000001</v>
       </c>
-      <c r="C83" s="22">
+      <c r="C91" s="9">
         <v>1.2719</v>
       </c>
-      <c r="D83" s="22">
+      <c r="D91" s="9">
         <v>1.1487000000000001</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E91" s="9">
         <v>1.2646999999999999</v>
       </c>
-      <c r="F83" s="22">
+      <c r="F91" s="9">
         <v>1.1558999999999999</v>
       </c>
-      <c r="G83" s="8"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="5"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="8"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
+      <c r="G91" s="34"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="34"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="22">
+      <c r="B93" s="9">
         <v>5.5016999999999996</v>
       </c>
-      <c r="C85" s="22">
+      <c r="C93" s="9">
         <v>-4.8254000000000001</v>
       </c>
-      <c r="D85" s="22">
+      <c r="D93" s="9">
         <v>-15.061500000000001</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E93" s="9">
         <v>-24.198</v>
       </c>
-      <c r="F85" s="22">
+      <c r="F93" s="9">
         <v>-34.591799999999999</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G93" s="34">
         <f>3.63707900047302/200</f>
         <v>1.8185395002365098E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B86" s="22">
+      <c r="B94" s="9">
         <v>2.9416000000000002</v>
       </c>
-      <c r="C86" s="22">
+      <c r="C94" s="9">
         <v>3.2046000000000001</v>
       </c>
-      <c r="D86" s="22">
+      <c r="D94" s="9">
         <v>3.4399000000000002</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E94" s="9">
         <v>3.1190000000000002</v>
       </c>
-      <c r="F86" s="22">
+      <c r="F94" s="9">
         <v>3.133</v>
       </c>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="5"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
+      <c r="G94" s="59"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="60"/>
+      <c r="D95" s="60"/>
+      <c r="E95" s="60"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="59"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="22">
-        <v>-1.6909000000000001</v>
-      </c>
-      <c r="C88" s="22">
-        <v>-11.7502</v>
-      </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="8">
+      <c r="B96" s="9">
+        <f>-1.7902</f>
+        <v>-1.7902</v>
+      </c>
+      <c r="C96" s="9">
+        <v>-11.8467</v>
+      </c>
+      <c r="D96" s="9">
+        <v>-21.738299999999999</v>
+      </c>
+      <c r="E96" s="9">
+        <v>-31.619900000000001</v>
+      </c>
+      <c r="F96" s="9">
+        <v>-41.830800000000004</v>
+      </c>
+      <c r="G96" s="34">
         <f>43.5942468643188/200</f>
         <v>0.21797123432159399</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B89" s="22">
-        <v>1.2776000000000001</v>
-      </c>
-      <c r="C89" s="22">
-        <v>1.2426999999999999</v>
-      </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22"/>
-      <c r="G89" s="8"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="5"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="8"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
+      <c r="B97" s="9">
+        <v>1.2419</v>
+      </c>
+      <c r="C97" s="9">
+        <v>1.1898</v>
+      </c>
+      <c r="D97" s="9">
+        <v>1.2814000000000001</v>
+      </c>
+      <c r="E97" s="9">
+        <v>1.1073</v>
+      </c>
+      <c r="F97" s="30">
+        <v>1.2888999999999999</v>
+      </c>
+      <c r="G97" s="34"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="5"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="34"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="22">
+      <c r="B99" s="9">
         <v>-0.77390000000000003</v>
       </c>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22"/>
-      <c r="G91" s="8"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
+      <c r="C99" s="9">
+        <v>-10.8522</v>
+      </c>
+      <c r="D99" s="9">
+        <v>-21.103899999999999</v>
+      </c>
+      <c r="E99" s="9">
+        <v>-29.667200000000001</v>
+      </c>
+      <c r="F99" s="9">
+        <v>-38.0655</v>
+      </c>
+      <c r="G99" s="34"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="22">
+      <c r="B100" s="9">
         <v>1.2433000000000001</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22"/>
-      <c r="G92" s="8"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="5"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22"/>
-      <c r="G93" s="8"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
+      <c r="C100" s="9">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="D100" s="9">
+        <v>1.2155</v>
+      </c>
+      <c r="E100" s="9">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1.1361000000000001</v>
+      </c>
+      <c r="G100" s="34"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="5"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="34"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B94" s="22">
+      <c r="B102" s="9">
         <v>-1.7432000000000001</v>
       </c>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22"/>
-      <c r="G94" s="8"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="6" t="s">
+      <c r="C102" s="9">
+        <v>-11.6966</v>
+      </c>
+      <c r="D102" s="9">
+        <v>-21.720500000000001</v>
+      </c>
+      <c r="E102" s="9">
+        <v>-31.185500000000001</v>
+      </c>
+      <c r="F102" s="9">
+        <v>-40.300899999999999</v>
+      </c>
+      <c r="G102" s="34"/>
+    </row>
+    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B103" s="35">
         <v>1.2693000000000001</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="11"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="26"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="26"/>
-      <c r="B98" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="22"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
+      <c r="C103" s="35">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="D103" s="35">
+        <v>1.1528</v>
+      </c>
+      <c r="E103" s="35">
+        <v>1.2195</v>
+      </c>
+      <c r="F103" s="35">
+        <v>1.1687000000000001</v>
+      </c>
+      <c r="G103" s="36"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="25"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="37"/>
+      <c r="B105" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="25"/>
+      <c r="B106" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="22"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C101" s="23"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="C109" s="23"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="14" t="s">
+    <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="B113" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C113" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D113" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E105" s="15" t="s">
+      <c r="E113" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F105" s="15" t="s">
+      <c r="F113" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G105" s="16" t="s">
+      <c r="G113" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22"/>
-      <c r="G106" s="8"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22"/>
-      <c r="G107" s="19"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="5"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22"/>
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B109" s="22"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="8"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="22"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22"/>
-      <c r="G110" s="19"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="19"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B112" s="22"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="8"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="5"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="22"/>
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
       <c r="E114" s="22"/>
@@ -2340,20 +2530,18 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
-      <c r="G115" s="8"/>
+      <c r="G115" s="19"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B116" s="22"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="22"/>
       <c r="D116" s="22"/>
       <c r="E116" s="22"/>
@@ -2361,100 +2549,184 @@
       <c r="G116" s="19"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="5"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="19"/>
+      <c r="A117" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+      <c r="E117" s="22"/>
+      <c r="F117" s="22"/>
+      <c r="G117" s="8"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+      <c r="E118" s="22"/>
+      <c r="F118" s="22"/>
       <c r="G118" s="19"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A119" s="5"/>
       <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+      <c r="E119" s="22"/>
+      <c r="F119" s="22"/>
       <c r="G119" s="19"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="5"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="19"/>
+      <c r="A120" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B121" s="18"/>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+      <c r="E121" s="22"/>
+      <c r="F121" s="22"/>
+      <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A122" s="5"/>
       <c r="B122" s="18"/>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="19"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="22"/>
+      <c r="G122" s="8"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="5"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="19"/>
+      <c r="A123" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+      <c r="E123" s="22"/>
+      <c r="F123" s="22"/>
+      <c r="G123" s="8"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+      <c r="G124" s="19"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="5"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="19"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="19"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="19"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="5"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="19"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="19"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="19"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="5"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="18"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="19"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="19"/>
-    </row>
-    <row r="125" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="6" t="s">
+      <c r="B132" s="18"/>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="19"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="20"/>
-      <c r="E125" s="20"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="21"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="21"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -2464,7 +2736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -2476,7 +2748,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2485,10 +2757,10 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>54</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
@@ -2502,172 +2774,172 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="26">
+        <v>56</v>
+      </c>
+      <c r="B4" s="25">
         <v>-10.4223</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>-20.546399999999998</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>-30.565899999999999</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>-40.424100000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="26">
+        <v>57</v>
+      </c>
+      <c r="B6" s="25">
         <v>-13.8728</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>-23.9254</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>-34.028799999999997</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>-43.958799999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="26">
+        <v>58</v>
+      </c>
+      <c r="B8" s="25">
         <v>-9.6765000000000008</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>-15.9671</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>-17.5745</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>-17.808599999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="28"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="26">
+        <v>59</v>
+      </c>
+      <c r="B10" s="25">
         <v>-13.1538</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>-19.496200000000002</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>-21.472899999999999</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>-21.748200000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="26">
+        <v>60</v>
+      </c>
+      <c r="B12" s="25">
         <v>-13.4038</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>-23.161000000000001</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>-33.494199999999999</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="27">
         <v>-42.509599999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="29">
+        <v>61</v>
+      </c>
+      <c r="B13" s="28">
         <v>-12.888500000000001</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="28">
         <v>-22.598099999999999</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="28">
         <v>-29.8276</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="29">
         <v>-36.738900000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="28">
+        <v>63</v>
+      </c>
+      <c r="B18" s="27">
         <v>0.30146958000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="28">
+        <v>64</v>
+      </c>
+      <c r="B19" s="27">
         <v>0.61430751900000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="30">
+        <v>65</v>
+      </c>
+      <c r="B20" s="29">
         <v>0.39500000000000002</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E06ADD-07FF-490A-8439-C650EDF16D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424AC929-B96C-4AEB-82E5-47DFD16E0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -324,9 +324,6 @@
   </si>
   <si>
     <t>[30,40]</t>
-  </si>
-  <si>
-    <t>When filters(MB KF and MB RTS) know the initial condition, the test results don't change. So here I show the situation when filters don't know initial condition.</t>
   </si>
   <si>
     <t>Observation [dB]</t>
@@ -909,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -960,7 +957,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="47">
         <v>10.022600000000001</v>
@@ -980,7 +977,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="47">
         <v>0.42399999999999999</v>
@@ -1046,7 +1043,7 @@
         <v>6.2152000000000003</v>
       </c>
       <c r="C9" s="9">
-        <v>-3.6911999999999998</v>
+        <v>-3.7103999999999999</v>
       </c>
       <c r="D9" s="9">
         <v>-13.7761</v>
@@ -1067,7 +1064,7 @@
         <v>0.4869</v>
       </c>
       <c r="C10" s="9">
-        <v>0.53690000000000004</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="D10" s="9">
         <v>0.4657</v>
@@ -1085,10 +1082,10 @@
         <v>44</v>
       </c>
       <c r="B11" s="9">
-        <v>6.1844000000000001</v>
+        <v>6.2251000000000003</v>
       </c>
       <c r="C11" s="9">
-        <v>-3.7410000000000001</v>
+        <v>-3.6951999999999998</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -1100,10 +1097,10 @@
         <v>89</v>
       </c>
       <c r="B12" s="35">
-        <v>0.49259999999999998</v>
+        <v>0.48709999999999998</v>
       </c>
       <c r="C12" s="35">
-        <v>0.53849999999999998</v>
+        <v>0.53669999999999995</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="47">
         <v>10.004300000000001</v>
@@ -1169,7 +1166,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="47">
         <v>0.41909999999999997</v>
@@ -1329,7 +1326,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="47">
         <v>10.011900000000001</v>
@@ -1350,7 +1347,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28" s="47">
         <v>0.39750000000000002</v>
@@ -1668,7 +1665,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="22" t="s">
         <v>47</v>
       </c>
@@ -1680,73 +1677,74 @@
       <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
+      <c r="A49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49" s="24"/>
+      <c r="C49" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="25"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="26" t="s">
-        <v>4</v>
+      <c r="E49" s="40"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="37"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="8">
+        <v>-7.3005000000000004</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="40"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="42"/>
+      <c r="F50" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="G50" s="57">
+        <v>30.081099999999999</v>
+      </c>
+      <c r="H50" s="40"/>
       <c r="I50" s="37"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="8">
-        <v>-7.3005000000000004</v>
+        <v>0.91549999999999998</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="40"/>
-      <c r="F51" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="G51" s="57">
-        <v>30.081099999999999</v>
+      <c r="F51" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="8">
+        <v>26.237500000000001</v>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="37"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B52" s="22"/>
-      <c r="C52" s="8">
-        <v>0.91549999999999998</v>
-      </c>
+      <c r="C52" s="8"/>
       <c r="D52" s="22"/>
       <c r="E52" s="40"/>
-      <c r="F52" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="8">
-        <v>26.237500000000001</v>
-      </c>
+      <c r="F52" s="12"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="40"/>
       <c r="I52" s="37"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B53" s="22"/>
       <c r="C53" s="8"/>
@@ -1758,84 +1756,80 @@
       <c r="I53" s="37"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="8"/>
+      <c r="A54" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54">
+        <v>-11.680099999999999</v>
+      </c>
       <c r="D54" s="22"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="8"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" s="8">
+        <v>9.0884</v>
+      </c>
       <c r="H54" s="40"/>
       <c r="I54" s="37"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="52" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B55" s="53"/>
       <c r="C55" s="54">
-        <v>-11.680099999999999</v>
+        <v>1.2060999999999999</v>
       </c>
       <c r="D55" s="22"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G55" s="8">
-        <v>9.0884</v>
+      <c r="E55" s="40"/>
+      <c r="F55" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="11">
+        <v>2.7212000000000001</v>
       </c>
       <c r="H55" s="40"/>
       <c r="I55" s="37"/>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="52" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="B56" s="53"/>
-      <c r="C56" s="54">
-        <v>1.2060999999999999</v>
+      <c r="C56" s="55">
+        <v>-11.6053</v>
       </c>
       <c r="D56" s="22"/>
       <c r="E56" s="40"/>
-      <c r="F56" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G56" s="11">
-        <v>2.7212000000000001</v>
-      </c>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
       <c r="H56" s="40"/>
       <c r="I56" s="37"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="52" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B57" s="53"/>
       <c r="C57" s="55">
-        <v>-11.6053</v>
+        <v>1.22</v>
       </c>
       <c r="D57" s="22"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-      <c r="I57" s="37"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="53"/>
-      <c r="C58" s="55">
-        <v>1.22</v>
-      </c>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="22"/>
@@ -1847,692 +1841,692 @@
       <c r="G59" s="22"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="17" t="s">
+      <c r="A62" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="1" t="s">
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>12</v>
+      <c r="A65" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="9">
+        <v>0.37009999999999998</v>
+      </c>
+      <c r="C65" s="9">
+        <v>-9.5507000000000009</v>
+      </c>
+      <c r="D65" s="9">
+        <v>-19.614100000000001</v>
+      </c>
+      <c r="E65" s="9">
+        <v>-29.642099999999999</v>
+      </c>
+      <c r="F65" s="9">
+        <v>-39.517699999999998</v>
+      </c>
+      <c r="G65" s="8">
+        <f>6.71297335624694/200</f>
+        <v>3.3564866781234701E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66" s="9">
-        <v>0.37009999999999998</v>
+        <v>-2.0627</v>
       </c>
       <c r="C66" s="9">
-        <v>-9.5507000000000009</v>
+        <v>-12.234</v>
       </c>
       <c r="D66" s="9">
-        <v>-19.614100000000001</v>
+        <v>-22.131499999999999</v>
       </c>
       <c r="E66" s="9">
-        <v>-29.642099999999999</v>
+        <v>-32.137099999999997</v>
       </c>
       <c r="F66" s="9">
-        <v>-39.517699999999998</v>
+        <v>-42.033499999999997</v>
       </c>
       <c r="G66" s="8">
-        <f>6.71297335624694/200</f>
-        <v>3.3564866781234701E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="9">
-        <v>-2.0627</v>
-      </c>
-      <c r="C67" s="9">
-        <v>-12.234</v>
-      </c>
-      <c r="D67" s="9">
-        <v>-22.131499999999999</v>
-      </c>
-      <c r="E67" s="9">
-        <v>-32.137099999999997</v>
-      </c>
-      <c r="F67" s="9">
-        <v>-42.033499999999997</v>
-      </c>
-      <c r="G67" s="8">
         <f>13.8022818565368/200</f>
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="13" t="s">
+    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="23" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D71" s="32"/>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="1" t="s">
+      <c r="D70" s="32"/>
+    </row>
+    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F72" s="32"/>
+      <c r="F71" s="32"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
-      <c r="B73" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>72</v>
+      <c r="A73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="33">
+        <v>-10.795199999999999</v>
+      </c>
+      <c r="C73">
+        <f>1.38270020484924/200</f>
+        <v>6.9135010242462004E-3</v>
+      </c>
+      <c r="D73" s="33">
+        <v>-11.2011</v>
+      </c>
+      <c r="E73" s="27">
+        <f>1.35998010635375/200</f>
+        <v>6.7999005317687499E-3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74" s="33">
-        <v>-10.795199999999999</v>
+        <v>-12.548</v>
       </c>
       <c r="C74">
-        <f>1.38270020484924/200</f>
-        <v>6.9135010242462004E-3</v>
-      </c>
-      <c r="D74" s="33">
-        <v>-11.2011</v>
-      </c>
-      <c r="E74" s="27">
-        <f>1.35998010635375/200</f>
-        <v>6.7999005317687499E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="33">
-        <v>-12.548</v>
-      </c>
-      <c r="C75">
         <f>2.79346585273742/200</f>
         <v>1.39673292636871E-2</v>
       </c>
-      <c r="D75" s="33">
+      <c r="D74" s="33">
         <v>-12.3985</v>
       </c>
-      <c r="E75" s="27">
+      <c r="E74" s="27">
         <f>2.5887804031372/200</f>
         <v>1.2943902015686E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="6" t="s">
+    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B76" s="28">
+      <c r="B75" s="28">
         <v>-12.0535</v>
       </c>
-      <c r="C76" s="28">
+      <c r="C75" s="28">
         <f>11.7575964927673/200</f>
         <v>5.87879824638365E-2</v>
       </c>
-      <c r="D76" s="28">
+      <c r="D75" s="28">
         <v>-12.076599999999999</v>
       </c>
-      <c r="E76" s="29">
+      <c r="E75" s="29">
         <f>11.3483390808105/200</f>
         <v>5.6741695404052502E-2</v>
       </c>
     </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
-        <v>17</v>
+      <c r="A79" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="58" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="D83" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="G83" s="58" t="s">
-        <v>15</v>
+      <c r="A83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="9">
+        <v>2.7021000000000002</v>
+      </c>
+      <c r="C83" s="9">
+        <v>-7.3941999999999997</v>
+      </c>
+      <c r="D83" s="9">
+        <v>-17.366499999999998</v>
+      </c>
+      <c r="E83" s="9">
+        <v>-27.2926</v>
+      </c>
+      <c r="F83" s="9">
+        <v>-37.272500000000001</v>
+      </c>
+      <c r="G83" s="34">
+        <f>1.87291026115417/200</f>
+        <v>9.3645513057708501E-3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B84" s="9">
-        <v>2.7021000000000002</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C84" s="9">
-        <v>-7.3941999999999997</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D84" s="9">
-        <v>-17.366499999999998</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="E84" s="9">
-        <v>-27.2926</v>
+        <v>0.96560000000000001</v>
       </c>
       <c r="F84" s="9">
-        <v>-37.272500000000001</v>
-      </c>
-      <c r="G84" s="34">
-        <f>1.87291026115417/200</f>
-        <v>9.3645513057708501E-3</v>
-      </c>
+        <v>1.0293000000000001</v>
+      </c>
+      <c r="G84" s="59"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B85" s="9">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="C85" s="9">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D85" s="9">
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="E85" s="9">
-        <v>0.96560000000000001</v>
-      </c>
-      <c r="F85" s="9">
-        <v>1.0293000000000001</v>
-      </c>
+      <c r="A85" s="5"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
       <c r="G85" s="59"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="5"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="59"/>
+      <c r="A86" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="9">
+        <v>11.153700000000001</v>
+      </c>
+      <c r="C86" s="9">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="D86" s="9">
+        <v>-9.1595999999999993</v>
+      </c>
+      <c r="E86" s="9">
+        <v>-18.4282</v>
+      </c>
+      <c r="F86" s="9">
+        <v>-28.785699999999999</v>
+      </c>
+      <c r="G86" s="34">
+        <f>1.73989057540893/200</f>
+        <v>8.6994528770446503E-3</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B87" s="9">
-        <v>11.153700000000001</v>
+        <v>3.0234000000000001</v>
       </c>
       <c r="C87" s="9">
-        <v>0.92630000000000001</v>
+        <v>3.0640999999999998</v>
       </c>
       <c r="D87" s="9">
-        <v>-9.1595999999999993</v>
+        <v>3.6509</v>
       </c>
       <c r="E87" s="9">
-        <v>-18.4282</v>
+        <v>3.2534000000000001</v>
       </c>
       <c r="F87" s="9">
-        <v>-28.785699999999999</v>
-      </c>
-      <c r="G87" s="34">
-        <f>1.73989057540893/200</f>
-        <v>8.6994528770446503E-3</v>
-      </c>
+        <v>3.3008000000000002</v>
+      </c>
+      <c r="G87" s="59"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="9">
-        <v>3.0234000000000001</v>
-      </c>
-      <c r="C88" s="9">
-        <v>3.0640999999999998</v>
-      </c>
-      <c r="D88" s="9">
-        <v>3.6509</v>
-      </c>
-      <c r="E88" s="9">
-        <v>3.2534000000000001</v>
-      </c>
-      <c r="F88" s="9">
-        <v>3.3008000000000002</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="59"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="5"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="59"/>
+      <c r="A89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="9">
+        <v>-1.8754</v>
+      </c>
+      <c r="C89" s="9">
+        <v>-11.879799999999999</v>
+      </c>
+      <c r="D89" s="9">
+        <v>-21.812200000000001</v>
+      </c>
+      <c r="E89" s="9">
+        <v>-31.9605</v>
+      </c>
+      <c r="F89" s="9">
+        <v>-41.809899999999999</v>
+      </c>
+      <c r="G89" s="34">
+        <f>3.64388179779052/200</f>
+        <v>1.82194089889526E-2</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B90" s="9">
-        <v>-1.8754</v>
+        <v>1.2853000000000001</v>
       </c>
       <c r="C90" s="9">
-        <v>-11.879799999999999</v>
+        <v>1.2719</v>
       </c>
       <c r="D90" s="9">
-        <v>-21.812200000000001</v>
+        <v>1.1487000000000001</v>
       </c>
       <c r="E90" s="9">
-        <v>-31.9605</v>
+        <v>1.2646999999999999</v>
       </c>
       <c r="F90" s="9">
-        <v>-41.809899999999999</v>
-      </c>
-      <c r="G90" s="34">
-        <f>3.64388179779052/200</f>
-        <v>1.82194089889526E-2</v>
-      </c>
+        <v>1.1558999999999999</v>
+      </c>
+      <c r="G90" s="34"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="9">
-        <v>1.2853000000000001</v>
-      </c>
-      <c r="C91" s="9">
-        <v>1.2719</v>
-      </c>
-      <c r="D91" s="9">
-        <v>1.1487000000000001</v>
-      </c>
-      <c r="E91" s="9">
-        <v>1.2646999999999999</v>
-      </c>
-      <c r="F91" s="9">
-        <v>1.1558999999999999</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="34"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="5"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="34"/>
+      <c r="A92" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="9">
+        <v>5.5016999999999996</v>
+      </c>
+      <c r="C92" s="9">
+        <v>-4.8254000000000001</v>
+      </c>
+      <c r="D92" s="9">
+        <v>-15.061500000000001</v>
+      </c>
+      <c r="E92" s="9">
+        <v>-24.198</v>
+      </c>
+      <c r="F92" s="9">
+        <v>-34.591799999999999</v>
+      </c>
+      <c r="G92" s="34">
+        <f>3.63707900047302/200</f>
+        <v>1.8185395002365098E-2</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B93" s="9">
-        <v>5.5016999999999996</v>
+        <v>2.9416000000000002</v>
       </c>
       <c r="C93" s="9">
-        <v>-4.8254000000000001</v>
+        <v>3.2046000000000001</v>
       </c>
       <c r="D93" s="9">
-        <v>-15.061500000000001</v>
+        <v>3.4399000000000002</v>
       </c>
       <c r="E93" s="9">
-        <v>-24.198</v>
+        <v>3.1190000000000002</v>
       </c>
       <c r="F93" s="9">
-        <v>-34.591799999999999</v>
-      </c>
-      <c r="G93" s="34">
-        <f>3.63707900047302/200</f>
-        <v>1.8185395002365098E-2</v>
-      </c>
+        <v>3.133</v>
+      </c>
+      <c r="G93" s="59"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="9">
-        <v>2.9416000000000002</v>
-      </c>
-      <c r="C94" s="9">
-        <v>3.2046000000000001</v>
-      </c>
-      <c r="D94" s="9">
-        <v>3.4399000000000002</v>
-      </c>
-      <c r="E94" s="9">
-        <v>3.1190000000000002</v>
-      </c>
-      <c r="F94" s="9">
-        <v>3.133</v>
-      </c>
+      <c r="A94" s="5"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="60"/>
+      <c r="D94" s="60"/>
+      <c r="E94" s="60"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="59"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="5"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="59"/>
+      <c r="A95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" s="9">
+        <f>-1.7902</f>
+        <v>-1.7902</v>
+      </c>
+      <c r="C95" s="9">
+        <v>-11.8467</v>
+      </c>
+      <c r="D95" s="9">
+        <v>-21.738299999999999</v>
+      </c>
+      <c r="E95" s="9">
+        <v>-31.619900000000001</v>
+      </c>
+      <c r="F95" s="9">
+        <v>-41.830800000000004</v>
+      </c>
+      <c r="G95" s="34">
+        <f>43.5942468643188/200</f>
+        <v>0.21797123432159399</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B96" s="9">
-        <f>-1.7902</f>
-        <v>-1.7902</v>
+        <v>1.2419</v>
       </c>
       <c r="C96" s="9">
-        <v>-11.8467</v>
+        <v>1.1898</v>
       </c>
       <c r="D96" s="9">
-        <v>-21.738299999999999</v>
+        <v>1.2814000000000001</v>
       </c>
       <c r="E96" s="9">
-        <v>-31.619900000000001</v>
-      </c>
-      <c r="F96" s="9">
-        <v>-41.830800000000004</v>
-      </c>
-      <c r="G96" s="34">
-        <f>43.5942468643188/200</f>
-        <v>0.21797123432159399</v>
-      </c>
+        <v>1.1073</v>
+      </c>
+      <c r="F96" s="30">
+        <v>1.2888999999999999</v>
+      </c>
+      <c r="G96" s="34"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="9">
-        <v>1.2419</v>
-      </c>
-      <c r="C97" s="9">
-        <v>1.1898</v>
-      </c>
-      <c r="D97" s="9">
-        <v>1.2814000000000001</v>
-      </c>
-      <c r="E97" s="9">
-        <v>1.1073</v>
-      </c>
-      <c r="F97" s="30">
-        <v>1.2888999999999999</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
       <c r="G97" s="34"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
+      <c r="A98" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="9">
+        <v>-0.77390000000000003</v>
+      </c>
+      <c r="C98" s="9">
+        <v>-10.8522</v>
+      </c>
+      <c r="D98" s="9">
+        <v>-21.103899999999999</v>
+      </c>
+      <c r="E98" s="9">
+        <v>-29.667200000000001</v>
+      </c>
+      <c r="F98" s="9">
+        <v>-38.0655</v>
+      </c>
       <c r="G98" s="34"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B99" s="9">
-        <v>-0.77390000000000003</v>
+        <v>1.2433000000000001</v>
       </c>
       <c r="C99" s="9">
-        <v>-10.8522</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="D99" s="9">
-        <v>-21.103899999999999</v>
+        <v>1.2155</v>
       </c>
       <c r="E99" s="9">
-        <v>-29.667200000000001</v>
+        <v>1.2145999999999999</v>
       </c>
       <c r="F99" s="9">
-        <v>-38.0655</v>
+        <v>1.1361000000000001</v>
       </c>
       <c r="G99" s="34"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B100" s="9">
-        <v>1.2433000000000001</v>
-      </c>
-      <c r="C100" s="9">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="D100" s="9">
-        <v>1.2155</v>
-      </c>
-      <c r="E100" s="9">
-        <v>1.2145999999999999</v>
-      </c>
-      <c r="F100" s="9">
-        <v>1.1361000000000001</v>
-      </c>
+      <c r="A100" s="5"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
       <c r="G100" s="34"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
+      <c r="A101" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B101" s="9">
+        <v>-1.7432000000000001</v>
+      </c>
+      <c r="C101" s="9">
+        <v>-11.6966</v>
+      </c>
+      <c r="D101" s="9">
+        <v>-21.720500000000001</v>
+      </c>
+      <c r="E101" s="9">
+        <v>-31.185500000000001</v>
+      </c>
+      <c r="F101" s="9">
+        <v>-40.300899999999999</v>
+      </c>
       <c r="G101" s="34"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B102" s="9">
-        <v>-1.7432000000000001</v>
-      </c>
-      <c r="C102" s="9">
-        <v>-11.6966</v>
-      </c>
-      <c r="D102" s="9">
-        <v>-21.720500000000001</v>
-      </c>
-      <c r="E102" s="9">
-        <v>-31.185500000000001</v>
-      </c>
-      <c r="F102" s="9">
-        <v>-40.300899999999999</v>
-      </c>
-      <c r="G102" s="34"/>
-    </row>
-    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="6" t="s">
+    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B103" s="35">
+      <c r="B102" s="35">
         <v>1.2693000000000001</v>
       </c>
-      <c r="C103" s="35">
+      <c r="C102" s="35">
         <v>1.2414000000000001</v>
       </c>
-      <c r="D103" s="35">
+      <c r="D102" s="35">
         <v>1.1528</v>
       </c>
-      <c r="E103" s="35">
+      <c r="E102" s="35">
         <v>1.2195</v>
       </c>
-      <c r="F103" s="35">
+      <c r="F102" s="35">
         <v>1.1687000000000001</v>
       </c>
-      <c r="G103" s="36"/>
+      <c r="G102" s="36"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="25"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="25"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="D104" s="18"/>
       <c r="E104" s="18"/>
       <c r="F104" s="18"/>
       <c r="G104" s="18"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="37"/>
-      <c r="B105" s="37" t="s">
-        <v>83</v>
-      </c>
+      <c r="A105" s="25"/>
+      <c r="B105" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" s="22"/>
       <c r="D105" s="18"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="25"/>
-      <c r="B106" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="22"/>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" s="23"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C109" s="23"/>
+      <c r="A109" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E113" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G113" s="16" t="s">
-        <v>15</v>
-      </c>
+      <c r="A113" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
       <c r="D114" s="22"/>
       <c r="E114" s="22"/>
       <c r="F114" s="22"/>
-      <c r="G114" s="8"/>
+      <c r="G114" s="19"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B115" s="22"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="22"/>
       <c r="D115" s="22"/>
       <c r="E115" s="22"/>
@@ -2540,30 +2534,30 @@
       <c r="G115" s="19"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="5"/>
-      <c r="B116" s="18"/>
+      <c r="A116" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B116" s="22"/>
       <c r="C116" s="22"/>
       <c r="D116" s="22"/>
       <c r="E116" s="22"/>
       <c r="F116" s="22"/>
-      <c r="G116" s="19"/>
+      <c r="G116" s="8"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
       <c r="D117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
-      <c r="G117" s="8"/>
+      <c r="G117" s="19"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B118" s="22"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="22"/>
       <c r="D118" s="22"/>
       <c r="E118" s="22"/>
@@ -2571,17 +2565,19 @@
       <c r="G118" s="19"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="5"/>
-      <c r="B119" s="18"/>
+      <c r="A119" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="22"/>
       <c r="C119" s="22"/>
       <c r="D119" s="22"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
-      <c r="G119" s="19"/>
+      <c r="G119" s="8"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
@@ -2591,10 +2587,8 @@
       <c r="G120" s="8"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B121" s="22"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="22"/>
       <c r="D121" s="22"/>
       <c r="E121" s="22"/>
@@ -2602,8 +2596,10 @@
       <c r="G121" s="8"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="5"/>
-      <c r="B122" s="18"/>
+      <c r="A122" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" s="22"/>
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
       <c r="E122" s="22"/>
@@ -2612,28 +2608,28 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
-      <c r="G123" s="8"/>
+      <c r="G123" s="19"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B124" s="22"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
+      <c r="A124" s="5"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="18"/>
       <c r="G124" s="19"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="5"/>
+      <c r="A125" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
@@ -2643,7 +2639,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -2653,9 +2649,7 @@
       <c r="G126" s="19"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="A127" s="5"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
@@ -2664,7 +2658,9 @@
       <c r="G127" s="19"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="5"/>
+      <c r="A128" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -2674,7 +2670,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -2684,9 +2680,7 @@
       <c r="G129" s="19"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A130" s="5"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
@@ -2695,7 +2689,9 @@
       <c r="G130" s="19"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="5"/>
+      <c r="A131" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
@@ -2703,27 +2699,16 @@
       <c r="F131" s="18"/>
       <c r="G131" s="19"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="19"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="6" t="s">
+    <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="21"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424AC929-B96C-4AEB-82E5-47DFD16E0016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC821074-C249-4320-8B35-9A6515A6708B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -173,9 +173,6 @@
     <t xml:space="preserve">RTSNet true [dB] </t>
   </si>
   <si>
-    <t>Random initial conditions</t>
-  </si>
-  <si>
     <t>N_E=1000, N_CV=100, N_T=200, 2x2, H=I</t>
   </si>
   <si>
@@ -341,10 +338,25 @@
     <t xml:space="preserve">RTSNet mismatch (trained on fixed init state = [0,0], test on random init but feed with false init state = [0,0] still) [dB] </t>
   </si>
   <si>
-    <t>EKF (test on random and known init) [dB]</t>
-  </si>
-  <si>
     <t>RTS (test on random and known init) [dB]</t>
+  </si>
+  <si>
+    <t>Random initial conditions(x1 and x2 both uniformly distributed on [0,100) )</t>
+  </si>
+  <si>
+    <t>RTS (test on random init, feed with init=[50,50], P0 = [100^2/12, 0; 0, 100^2/12]) [dB]</t>
+  </si>
+  <si>
+    <t>KF (test on random init, feed with init=[50,50], P0 = [100^2/12, 0; 0, 100^2/12]) [dB]</t>
+  </si>
+  <si>
+    <t>KF std [dB]</t>
+  </si>
+  <si>
+    <t>KF (test on random and known init) [dB]</t>
+  </si>
+  <si>
+    <t>Gneralization to long sequence (T_train ~ U[100,1000], T_test ~ U[100,1000])</t>
   </si>
 </sst>
 </file>
@@ -402,7 +414,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,12 +424,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -575,14 +581,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,10 +613,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -626,6 +624,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -906,97 +926,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" customWidth="1"/>
-    <col min="2" max="2" width="37.7265625" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="1" max="1" width="22.4609375" customWidth="1"/>
+    <col min="2" max="2" width="19.07421875" customWidth="1"/>
+    <col min="3" max="3" width="8.69140625" customWidth="1"/>
+    <col min="6" max="6" width="23.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="44" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="45">
+        <v>10.022600000000001</v>
+      </c>
+      <c r="C5" s="45">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="D5" s="45">
+        <v>-10.002700000000001</v>
+      </c>
+      <c r="E5" s="45">
+        <v>-19.947399999999998</v>
+      </c>
+      <c r="F5" s="47">
+        <v>-29.9617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="47">
-        <v>10.022600000000001</v>
-      </c>
-      <c r="C5" s="47">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="D5" s="47">
-        <v>-10.002700000000001</v>
-      </c>
-      <c r="E5" s="47">
-        <v>-19.947399999999998</v>
-      </c>
-      <c r="F5" s="49">
-        <v>-29.9617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="47">
+      <c r="B6" s="45">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="45">
         <v>0.4476</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>0.42730000000000001</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="45">
         <v>0.41070000000000001</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="47">
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="9">
@@ -1015,9 +1035,9 @@
         <v>-31.885899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="45" t="s">
-        <v>79</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="B8" s="9">
         <v>0.50170000000000003</v>
@@ -1035,8 +1055,8 @@
         <v>0.51370000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="45" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="43" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="9">
@@ -1056,9 +1076,9 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
-        <v>80</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="9">
         <v>0.4869</v>
@@ -1077,8 +1097,8 @@
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="9">
@@ -1087,14 +1107,18 @@
       <c r="C11" s="9">
         <v>-3.6951999999999998</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="D11" s="9">
+        <v>-13.7377</v>
+      </c>
+      <c r="E11" s="9">
+        <v>-23.7318</v>
+      </c>
       <c r="F11" s="34"/>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="46" t="s">
-        <v>89</v>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="B12" s="35">
         <v>0.48709999999999998</v>
@@ -1102,12 +1126,16 @@
       <c r="C12" s="35">
         <v>0.53669999999999995</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="48"/>
+      <c r="D12" s="35">
+        <v>0.46279999999999999</v>
+      </c>
+      <c r="E12" s="35">
+        <v>0.51170000000000004</v>
+      </c>
+      <c r="F12" s="46"/>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="22"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1116,76 +1144,76 @@
       <c r="F13" s="30"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="22"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="44" t="s">
+      <c r="B16" s="45">
+        <v>10.004300000000001</v>
+      </c>
+      <c r="C16" s="49">
+        <v>-8.4907000000000005E-5</v>
+      </c>
+      <c r="D16" s="45">
+        <v>-10.0288</v>
+      </c>
+      <c r="E16" s="45">
+        <v>-19.9815</v>
+      </c>
+      <c r="F16" s="47">
+        <v>-29.968599999999999</v>
+      </c>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B16" s="47">
-        <v>10.004300000000001</v>
-      </c>
-      <c r="C16" s="51">
-        <v>-8.4907000000000005E-5</v>
-      </c>
-      <c r="D16" s="47">
-        <v>-10.0288</v>
-      </c>
-      <c r="E16" s="47">
-        <v>-19.9815</v>
-      </c>
-      <c r="F16" s="49">
-        <v>-29.968599999999999</v>
-      </c>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="47">
+      <c r="B17" s="45">
         <v>0.41909999999999997</v>
       </c>
-      <c r="C17" s="47">
+      <c r="C17" s="45">
         <v>0.39150000000000001</v>
       </c>
-      <c r="D17" s="47">
+      <c r="D17" s="45">
         <v>0.43099999999999999</v>
       </c>
-      <c r="E17" s="47">
+      <c r="E17" s="45">
         <v>0.40439999999999998</v>
       </c>
-      <c r="F17" s="49">
+      <c r="F17" s="47">
         <v>0.43509999999999999</v>
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
@@ -1206,9 +1234,9 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="9">
         <v>0.70950000000000002</v>
@@ -1227,7 +1255,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>9</v>
       </c>
@@ -1248,9 +1276,9 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="9">
         <v>0.79410000000000003</v>
@@ -1268,27 +1296,47 @@
         <v>0.83679999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="9">
+        <v>1.8805000000000001</v>
+      </c>
+      <c r="C22" s="9">
+        <v>-8.1684999999999999</v>
+      </c>
+      <c r="D22" s="9">
+        <v>-18.091699999999999</v>
+      </c>
+      <c r="E22" s="9">
+        <v>-27.875299999999999</v>
+      </c>
+      <c r="F22" s="34">
+        <v>-37.189599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="B23" s="35">
+        <v>0.79549999999999998</v>
+      </c>
+      <c r="C23" s="35">
+        <v>0.72040000000000004</v>
+      </c>
+      <c r="D23" s="35">
+        <v>0.79720000000000002</v>
+      </c>
+      <c r="E23" s="35">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="F23" s="46">
+        <v>0.84540000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1296,12 +1344,12 @@
       <c r="E24" s="22"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1321,52 +1369,52 @@
         <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="45">
+        <v>10.011900000000001</v>
+      </c>
+      <c r="C27" s="45">
+        <v>-8.3000000000000001E-3</v>
+      </c>
+      <c r="D27" s="45">
+        <v>-10.004200000000001</v>
+      </c>
+      <c r="E27" s="45">
+        <v>-19.976700000000001</v>
+      </c>
+      <c r="F27" s="45">
+        <v>-30.0029</v>
+      </c>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="47">
-        <v>10.011900000000001</v>
-      </c>
-      <c r="C27" s="47">
-        <v>-8.3000000000000001E-3</v>
-      </c>
-      <c r="D27" s="47">
-        <v>-10.004200000000001</v>
-      </c>
-      <c r="E27" s="47">
-        <v>-19.976700000000001</v>
-      </c>
-      <c r="F27" s="47">
-        <v>-30.0029</v>
-      </c>
-      <c r="G27" s="50"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="47">
+      <c r="B28" s="45">
         <v>0.39750000000000002</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="45">
         <v>0.43390000000000001</v>
       </c>
-      <c r="D28" s="47">
+      <c r="D28" s="45">
         <v>0.44819999999999999</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="45">
         <v>0.4158</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="45">
         <v>0.42849999999999999</v>
       </c>
-      <c r="G28" s="50"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
@@ -1390,9 +1438,9 @@
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="9">
         <v>1.0863</v>
@@ -1411,7 +1459,7 @@
       </c>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
         <v>9</v>
       </c>
@@ -1436,9 +1484,9 @@
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B32" s="9">
         <v>1.2419</v>
@@ -1457,7 +1505,7 @@
       </c>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
         <v>10</v>
       </c>
@@ -1481,9 +1529,9 @@
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" s="35">
         <v>1.1987000000000001</v>
@@ -1497,12 +1545,12 @@
       <c r="E34" s="35">
         <v>1.1524000000000001</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="38">
         <v>1.2285999999999999</v>
       </c>
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -1511,7 +1559,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1520,9 +1568,9 @@
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -1531,9 +1579,9 @@
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -1542,7 +1590,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1554,10 +1602,10 @@
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="12" t="s">
         <v>8</v>
       </c>
@@ -1573,9 +1621,9 @@
         <v>9.5532480478286497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22">
@@ -1586,7 +1634,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>9</v>
       </c>
@@ -1602,9 +1650,9 @@
         <v>0.19651466488838149</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="22">
@@ -1615,7 +1663,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
         <v>44</v>
       </c>
@@ -1632,9 +1680,9 @@
         <v>2.9767569208145104</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10">
@@ -1645,7 +1693,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -1654,9 +1702,9 @@
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="18" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -1665,9 +1713,9 @@
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -1676,154 +1724,119 @@
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B49" s="24"/>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="37"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22">
+        <v>-7.2404999999999999</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22">
+        <v>0.54310000000000003</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22">
+        <v>-11.852600000000001</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="8">
-        <v>-7.3005000000000004</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="G50" s="57">
-        <v>30.081099999999999</v>
-      </c>
-      <c r="H50" s="40"/>
-      <c r="I50" s="37"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="8">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="8">
-        <v>26.237500000000001</v>
-      </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="37"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="37"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="37"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" s="53"/>
-      <c r="C54" s="54">
-        <v>-11.680099999999999</v>
-      </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G54" s="8">
-        <v>9.0884</v>
-      </c>
-      <c r="H54" s="40"/>
-      <c r="I54" s="37"/>
-    </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="B55" s="53"/>
-      <c r="C55" s="54">
-        <v>1.2060999999999999</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="G55" s="11">
-        <v>2.7212000000000001</v>
-      </c>
-      <c r="H55" s="40"/>
-      <c r="I55" s="37"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="53"/>
-      <c r="C56" s="55">
-        <v>-11.6053</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-      <c r="I56" s="37"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="55">
-        <v>1.22</v>
-      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="22"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
@@ -1831,884 +1844,1089 @@
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="E59" s="39"/>
+      <c r="F59" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="G59" s="51">
+        <v>30.081099999999999</v>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="37"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="56">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G60" s="8">
+        <v>26.237500000000001</v>
+      </c>
+      <c r="H60" s="40"/>
+      <c r="I60" s="37"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="22"/>
+      <c r="C61" s="56">
+        <v>0.3891</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="37"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="22"/>
+      <c r="C62" s="34">
+        <v>-7.2916999999999996</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="8">
+        <v>-6.7626999999999997</v>
+      </c>
+      <c r="H62" s="9"/>
+      <c r="I62" s="37"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B63" s="22"/>
+      <c r="C63" s="34">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="8">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="H63" s="9"/>
+      <c r="I63" s="37"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="34">
+        <v>-11.7737</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G64" s="8">
+        <v>-11.523199999999999</v>
+      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="37"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="22"/>
+      <c r="C65" s="34">
+        <v>1.2115</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="8">
+        <v>1.1852</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="37"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="39"/>
+      <c r="C66" s="58">
+        <v>-11.471500000000001</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="8">
+        <v>9.0884</v>
+      </c>
+      <c r="H66" s="39"/>
+      <c r="I66" s="37"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67" s="39"/>
+      <c r="C67" s="58">
+        <v>1.2063999999999999</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="11">
+        <v>2.7212000000000001</v>
+      </c>
+      <c r="H67" s="39"/>
+      <c r="I67" s="37"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="39"/>
+      <c r="C68" s="59">
+        <v>-11.5383</v>
+      </c>
+      <c r="D68" s="22"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="37"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" s="61"/>
+      <c r="C69" s="62">
+        <v>1.1716</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="1" t="s">
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E76" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G76" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B77" s="9">
         <v>0.37009999999999998</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C77" s="9">
         <v>-9.5507000000000009</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D77" s="9">
         <v>-19.614100000000001</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E77" s="9">
         <v>-29.642099999999999</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F77" s="9">
         <v>-39.517699999999998</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G77" s="8">
         <f>6.71297335624694/200</f>
         <v>3.3564866781234701E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B78" s="9">
         <v>-2.0627</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C78" s="9">
         <v>-12.234</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D78" s="9">
         <v>-22.131499999999999</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E78" s="9">
         <v>-32.137099999999997</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F78" s="9">
         <v>-42.033499999999997</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G78" s="8">
         <f>13.8022818565368/200</f>
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="13" t="s">
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="23" t="s">
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="11"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="32"/>
+    </row>
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="32"/>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="1" t="s">
+      <c r="B83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="32"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71" s="32"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
-      <c r="B72" s="3" t="s">
+      <c r="C84" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="D84" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="E84" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="33">
+      <c r="B85" s="33">
         <v>-10.795199999999999</v>
       </c>
-      <c r="C73">
+      <c r="C85">
         <f>1.38270020484924/200</f>
         <v>6.9135010242462004E-3</v>
       </c>
-      <c r="D73" s="33">
+      <c r="D85" s="33">
         <v>-11.2011</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E85" s="27">
         <f>1.35998010635375/200</f>
         <v>6.7999005317687499E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="33">
+      <c r="B86" s="33">
         <v>-12.548</v>
       </c>
-      <c r="C74">
+      <c r="C86">
         <f>2.79346585273742/200</f>
         <v>1.39673292636871E-2</v>
       </c>
-      <c r="D74" s="33">
+      <c r="D86" s="33">
         <v>-12.3985</v>
       </c>
-      <c r="E74" s="27">
+      <c r="E86" s="27">
         <f>2.5887804031372/200</f>
         <v>1.2943902015686E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="28">
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="28">
         <v>-12.0535</v>
       </c>
-      <c r="C75" s="28">
+      <c r="C87" s="28">
         <f>11.7575964927673/200</f>
         <v>5.87879824638365E-2</v>
       </c>
-      <c r="D75" s="28">
+      <c r="D87" s="28">
         <v>-12.076599999999999</v>
       </c>
-      <c r="E75" s="29">
+      <c r="E87" s="29">
         <f>11.3483390808105/200</f>
         <v>5.6741695404052502E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="14" t="s">
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A94" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="43" t="s">
+      <c r="B94" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C94" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="43" t="s">
+      <c r="D94" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="43" t="s">
+      <c r="E94" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F82" s="43" t="s">
+      <c r="F94" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G82" s="58" t="s">
+      <c r="G94" s="52" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B95" s="9">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C95" s="9">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D95" s="9">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E95" s="9">
         <v>-27.2926</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F95" s="9">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G83" s="34">
+      <c r="G95" s="34">
         <f>1.87291026115417/200</f>
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B96" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C96" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D96" s="9">
         <v>0.95669999999999999</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E96" s="9">
         <v>0.96560000000000001</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F96" s="9">
         <v>1.0293000000000001</v>
       </c>
-      <c r="G84" s="59"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="59"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B86" s="9">
-        <v>11.153700000000001</v>
-      </c>
-      <c r="C86" s="9">
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="D86" s="9">
-        <v>-9.1595999999999993</v>
-      </c>
-      <c r="E86" s="9">
-        <v>-18.4282</v>
-      </c>
-      <c r="F86" s="9">
-        <v>-28.785699999999999</v>
-      </c>
-      <c r="G86" s="34">
-        <f>1.73989057540893/200</f>
-        <v>8.6994528770446503E-3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B87" s="9">
-        <v>3.0234000000000001</v>
-      </c>
-      <c r="C87" s="9">
-        <v>3.0640999999999998</v>
-      </c>
-      <c r="D87" s="9">
-        <v>3.6509</v>
-      </c>
-      <c r="E87" s="9">
-        <v>3.2534000000000001</v>
-      </c>
-      <c r="F87" s="9">
-        <v>3.3008000000000002</v>
-      </c>
-      <c r="G87" s="59"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="5"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="59"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89" s="9">
-        <v>-1.8754</v>
-      </c>
-      <c r="C89" s="9">
-        <v>-11.879799999999999</v>
-      </c>
-      <c r="D89" s="9">
-        <v>-21.812200000000001</v>
-      </c>
-      <c r="E89" s="9">
-        <v>-31.9605</v>
-      </c>
-      <c r="F89" s="9">
-        <v>-41.809899999999999</v>
-      </c>
-      <c r="G89" s="34">
-        <f>3.64388179779052/200</f>
-        <v>1.82194089889526E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="9">
-        <v>1.2853000000000001</v>
-      </c>
-      <c r="C90" s="9">
-        <v>1.2719</v>
-      </c>
-      <c r="D90" s="9">
-        <v>1.1487000000000001</v>
-      </c>
-      <c r="E90" s="9">
-        <v>1.2646999999999999</v>
-      </c>
-      <c r="F90" s="9">
-        <v>1.1558999999999999</v>
-      </c>
-      <c r="G90" s="34"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="5"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="34"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B92" s="9">
-        <v>5.5016999999999996</v>
-      </c>
-      <c r="C92" s="9">
-        <v>-4.8254000000000001</v>
-      </c>
-      <c r="D92" s="9">
-        <v>-15.061500000000001</v>
-      </c>
-      <c r="E92" s="9">
-        <v>-24.198</v>
-      </c>
-      <c r="F92" s="9">
-        <v>-34.591799999999999</v>
-      </c>
-      <c r="G92" s="34">
-        <f>3.63707900047302/200</f>
-        <v>1.8185395002365098E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" s="9">
-        <v>2.9416000000000002</v>
-      </c>
-      <c r="C93" s="9">
-        <v>3.2046000000000001</v>
-      </c>
-      <c r="D93" s="9">
-        <v>3.4399000000000002</v>
-      </c>
-      <c r="E93" s="9">
-        <v>3.1190000000000002</v>
-      </c>
-      <c r="F93" s="9">
-        <v>3.133</v>
-      </c>
-      <c r="G93" s="59"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="60"/>
-      <c r="E94" s="60"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="59"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B95" s="9">
-        <f>-1.7902</f>
-        <v>-1.7902</v>
-      </c>
-      <c r="C95" s="9">
-        <v>-11.8467</v>
-      </c>
-      <c r="D95" s="9">
-        <v>-21.738299999999999</v>
-      </c>
-      <c r="E95" s="9">
-        <v>-31.619900000000001</v>
-      </c>
-      <c r="F95" s="9">
-        <v>-41.830800000000004</v>
-      </c>
-      <c r="G95" s="34">
-        <f>43.5942468643188/200</f>
-        <v>0.21797123432159399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="9">
-        <v>1.2419</v>
-      </c>
-      <c r="C96" s="9">
-        <v>1.1898</v>
-      </c>
-      <c r="D96" s="9">
-        <v>1.2814000000000001</v>
-      </c>
-      <c r="E96" s="9">
-        <v>1.1073</v>
-      </c>
-      <c r="F96" s="30">
-        <v>1.2888999999999999</v>
-      </c>
-      <c r="G96" s="34"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G96" s="53"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="5"/>
-      <c r="B97" s="9"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="34"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G97" s="53"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B98" s="9">
-        <v>-0.77390000000000003</v>
+        <v>11.153700000000001</v>
       </c>
       <c r="C98" s="9">
-        <v>-10.8522</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="D98" s="9">
-        <v>-21.103899999999999</v>
+        <v>-9.1595999999999993</v>
       </c>
       <c r="E98" s="9">
-        <v>-29.667200000000001</v>
+        <v>-18.4282</v>
       </c>
       <c r="F98" s="9">
-        <v>-38.0655</v>
-      </c>
-      <c r="G98" s="34"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+        <v>-28.785699999999999</v>
+      </c>
+      <c r="G98" s="34">
+        <f>1.73989057540893/200</f>
+        <v>8.6994528770446503E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B99" s="9">
-        <v>1.2433000000000001</v>
+        <v>3.0234000000000001</v>
       </c>
       <c r="C99" s="9">
-        <v>1.1579999999999999</v>
+        <v>3.0640999999999998</v>
       </c>
       <c r="D99" s="9">
-        <v>1.2155</v>
+        <v>3.6509</v>
       </c>
       <c r="E99" s="9">
-        <v>1.2145999999999999</v>
+        <v>3.2534000000000001</v>
       </c>
       <c r="F99" s="9">
-        <v>1.1361000000000001</v>
-      </c>
-      <c r="G99" s="34"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+        <v>3.3008000000000002</v>
+      </c>
+      <c r="G99" s="53"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="5"/>
-      <c r="B100" s="9"/>
+      <c r="B100" s="54"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="34"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G100" s="53"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="9">
+        <v>-1.8754</v>
+      </c>
+      <c r="C101" s="9">
+        <v>-11.879799999999999</v>
+      </c>
+      <c r="D101" s="9">
+        <v>-21.812200000000001</v>
+      </c>
+      <c r="E101" s="9">
+        <v>-31.9605</v>
+      </c>
+      <c r="F101" s="9">
+        <v>-41.809899999999999</v>
+      </c>
+      <c r="G101" s="34">
+        <f>3.64388179779052/200</f>
+        <v>1.82194089889526E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A102" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" s="9">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="C102" s="9">
+        <v>1.2719</v>
+      </c>
+      <c r="D102" s="9">
+        <v>1.1487000000000001</v>
+      </c>
+      <c r="E102" s="9">
+        <v>1.2646999999999999</v>
+      </c>
+      <c r="F102" s="9">
+        <v>1.1558999999999999</v>
+      </c>
+      <c r="G102" s="34"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A103" s="5"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="34"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A104" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" s="9">
+        <v>5.5016999999999996</v>
+      </c>
+      <c r="C104" s="9">
+        <v>-4.8254000000000001</v>
+      </c>
+      <c r="D104" s="9">
+        <v>-15.061500000000001</v>
+      </c>
+      <c r="E104" s="9">
+        <v>-24.198</v>
+      </c>
+      <c r="F104" s="9">
+        <v>-34.591799999999999</v>
+      </c>
+      <c r="G104" s="34">
+        <f>3.63707900047302/200</f>
+        <v>1.8185395002365098E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A105" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B105" s="9">
+        <v>2.9416000000000002</v>
+      </c>
+      <c r="C105" s="9">
+        <v>3.2046000000000001</v>
+      </c>
+      <c r="D105" s="9">
+        <v>3.4399000000000002</v>
+      </c>
+      <c r="E105" s="9">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="F105" s="9">
+        <v>3.133</v>
+      </c>
+      <c r="G105" s="53"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A106" s="5"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="53"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A107" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B107" s="9">
+        <f>-1.7902</f>
+        <v>-1.7902</v>
+      </c>
+      <c r="C107" s="9">
+        <v>-11.8467</v>
+      </c>
+      <c r="D107" s="9">
+        <v>-21.738299999999999</v>
+      </c>
+      <c r="E107" s="9">
+        <v>-31.619900000000001</v>
+      </c>
+      <c r="F107" s="9">
+        <v>-41.830800000000004</v>
+      </c>
+      <c r="G107" s="34">
+        <f>43.5942468643188/200</f>
+        <v>0.21797123432159399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A108" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" s="9">
+        <v>1.2419</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1.1898</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1.2814000000000001</v>
+      </c>
+      <c r="E108" s="9">
+        <v>1.1073</v>
+      </c>
+      <c r="F108" s="30">
+        <v>1.2888999999999999</v>
+      </c>
+      <c r="G108" s="34"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A109" s="5"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="34"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A110" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="9">
+        <v>-0.77390000000000003</v>
+      </c>
+      <c r="C110" s="9">
+        <v>-10.8522</v>
+      </c>
+      <c r="D110" s="9">
+        <v>-21.103899999999999</v>
+      </c>
+      <c r="E110" s="9">
+        <v>-29.667200000000001</v>
+      </c>
+      <c r="F110" s="9">
+        <v>-38.0655</v>
+      </c>
+      <c r="G110" s="34"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A111" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" s="9">
+        <v>1.2433000000000001</v>
+      </c>
+      <c r="C111" s="9">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="D111" s="9">
+        <v>1.2155</v>
+      </c>
+      <c r="E111" s="9">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1.1361000000000001</v>
+      </c>
+      <c r="G111" s="34"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A112" s="5"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="34"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A113" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B113" s="9">
         <v>-1.7432000000000001</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C113" s="9">
         <v>-11.6966</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D113" s="9">
         <v>-21.720500000000001</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E113" s="9">
         <v>-31.185500000000001</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F113" s="9">
         <v>-40.300899999999999</v>
       </c>
-      <c r="G101" s="34"/>
-    </row>
-    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="6" t="s">
+      <c r="G113" s="34"/>
+    </row>
+    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B102" s="35">
+      <c r="B114" s="35">
         <v>1.2693000000000001</v>
       </c>
-      <c r="C102" s="35">
+      <c r="C114" s="35">
         <v>1.2414000000000001</v>
       </c>
-      <c r="D102" s="35">
+      <c r="D114" s="35">
         <v>1.1528</v>
       </c>
-      <c r="E102" s="35">
+      <c r="E114" s="35">
         <v>1.2195</v>
       </c>
-      <c r="F102" s="35">
+      <c r="F114" s="35">
         <v>1.1687000000000001</v>
       </c>
-      <c r="G102" s="36"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="25"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="37"/>
-      <c r="B104" s="37" t="s">
+      <c r="G114" s="36"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A115" s="25"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A116" s="37"/>
+      <c r="B116" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A117" s="25"/>
+      <c r="B117" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="25"/>
-      <c r="B105" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C105" s="22"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="7" t="s">
+      <c r="C117" s="22"/>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A120" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="23"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="C120" s="23"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="14" t="s">
+    <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A124" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="B124" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C112" s="15" t="s">
+      <c r="C124" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D112" s="15" t="s">
+      <c r="D124" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E112" s="15" t="s">
+      <c r="E124" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F112" s="15" t="s">
+      <c r="F124" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G112" s="16" t="s">
+      <c r="G124" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A125" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="8"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+      <c r="E125" s="22"/>
+      <c r="F125" s="22"/>
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A126" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B114" s="22"/>
-      <c r="C114" s="22"/>
-      <c r="D114" s="22"/>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="19"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="5"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="19"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B116" s="22"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="8"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="22"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="19"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="5"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="19"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B119" s="22"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="8"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B120" s="22"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="8"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="5"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22"/>
-      <c r="G121" s="8"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B122" s="22"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22"/>
-      <c r="G122" s="8"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B123" s="22"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22"/>
-      <c r="G123" s="19"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="5"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="19"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="19"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="22"/>
       <c r="G126" s="19"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="5"/>
       <c r="B127" s="18"/>
-      <c r="C127" s="18"/>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="18"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
       <c r="G127" s="19"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="19"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+      <c r="E128" s="22"/>
+      <c r="F128" s="22"/>
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+      <c r="E129" s="22"/>
+      <c r="F129" s="22"/>
       <c r="G129" s="19"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="5"/>
       <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="22"/>
       <c r="G130" s="19"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+      <c r="E131" s="22"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A132" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+      <c r="E132" s="22"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A133" s="5"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+      <c r="E133" s="22"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A134" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="22"/>
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A135" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="22"/>
+      <c r="G135" s="19"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A136" s="5"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="18"/>
+      <c r="G136" s="19"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A137" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="18"/>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="18"/>
+      <c r="F137" s="18"/>
+      <c r="G137" s="19"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A138" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="18"/>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="18"/>
+      <c r="F138" s="18"/>
+      <c r="G138" s="19"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A139" s="5"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="18"/>
+      <c r="F139" s="18"/>
+      <c r="G139" s="19"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A140" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" s="18"/>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="18"/>
+      <c r="G140" s="19"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A141" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B141" s="18"/>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="18"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="19"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A142" s="5"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="18"/>
+      <c r="F142" s="18"/>
+      <c r="G142" s="19"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A143" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="19"/>
-    </row>
-    <row r="132" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="6" t="s">
+      <c r="B143" s="18"/>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="18"/>
+      <c r="F143" s="18"/>
+      <c r="G143" s="19"/>
+    </row>
+    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="21"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2722,30 +2940,30 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
-    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.15234375" customWidth="1"/>
+    <col min="4" max="6" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
@@ -2757,9 +2975,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="25">
         <v>-10.4223</v>
@@ -2774,16 +2992,16 @@
         <v>-40.424100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="25">
         <v>-13.8728</v>
@@ -2798,16 +3016,16 @@
         <v>-43.958799999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="25">
         <v>-9.6765000000000008</v>
@@ -2822,16 +3040,16 @@
         <v>-17.808599999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="25">
         <v>-13.1538</v>
@@ -2846,16 +3064,16 @@
         <v>-21.748200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B12" s="25">
         <v>-13.4038</v>
@@ -2870,9 +3088,9 @@
         <v>-42.509599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="28">
         <v>-12.888500000000001</v>
@@ -2887,42 +3105,42 @@
         <v>-36.738900000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="B18" s="27">
         <v>0.30146958000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="27">
         <v>0.61430751900000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="29">
         <v>0.39500000000000002</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC821074-C249-4320-8B35-9A6515A6708B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DC93D-42F6-466F-8326-00332FA73B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -356,7 +356,19 @@
     <t>KF (test on random and known init) [dB]</t>
   </si>
   <si>
-    <t>Gneralization to long sequence (T_train ~ U[100,1000], T_test ~ U[100,1000])</t>
+    <t>RunTime (s/traj) (colab pro+ CPU, high RAM)</t>
+  </si>
+  <si>
+    <t>Gneralization to long sequence (T_train = 100, T_test ~ U[100,1000])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet train on T=100 [dB] </t>
+  </si>
+  <si>
+    <t>RunTime/traj  (s) (colab pro+ CPU, high RAM for all)</t>
+  </si>
+  <si>
+    <t>RTSNet true [dB] (n_Epochs=1000, n_Batch=10, learningRate=1E-3, weightDecay=1E-3)</t>
   </si>
 </sst>
 </file>
@@ -928,34 +940,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.4609375" customWidth="1"/>
-    <col min="2" max="2" width="19.07421875" customWidth="1"/>
-    <col min="3" max="3" width="8.69140625" customWidth="1"/>
-    <col min="6" max="6" width="23.765625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -975,7 +987,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>95</v>
       </c>
@@ -995,7 +1007,7 @@
         <v>-29.9617</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="42" t="s">
         <v>96</v>
       </c>
@@ -1015,7 +1027,7 @@
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>8</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>-31.885899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="43" t="s">
         <v>78</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>0.51370000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="43" t="s">
         <v>9</v>
       </c>
@@ -1076,7 +1088,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="43" t="s">
         <v>79</v>
       </c>
@@ -1097,7 +1109,7 @@
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="43" t="s">
         <v>44</v>
       </c>
@@ -1113,10 +1125,12 @@
       <c r="E11" s="9">
         <v>-23.7318</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="34">
+        <v>-32.622399999999999</v>
+      </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="44" t="s">
         <v>88</v>
       </c>
@@ -1132,10 +1146,12 @@
       <c r="E12" s="35">
         <v>0.51170000000000004</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="46">
+        <v>0.54410000000000003</v>
+      </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1144,13 +1160,13 @@
       <c r="F13" s="30"/>
       <c r="G13" s="22"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="23" t="s">
         <v>89</v>
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1187,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
         <v>95</v>
       </c>
@@ -1192,7 +1208,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="42" t="s">
         <v>96</v>
       </c>
@@ -1213,7 +1229,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1250,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>78</v>
       </c>
@@ -1255,7 +1271,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>9</v>
       </c>
@@ -1276,7 +1292,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>79</v>
       </c>
@@ -1296,9 +1312,9 @@
         <v>0.83679999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B22" s="9">
         <v>1.8805000000000001</v>
@@ -1316,7 +1332,7 @@
         <v>-37.189599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
@@ -1336,7 +1352,7 @@
         <v>0.84540000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
@@ -1344,12 +1360,12 @@
       <c r="E24" s="22"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="23" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1372,7 +1388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="42" t="s">
         <v>95</v>
       </c>
@@ -1393,7 +1409,7 @@
       </c>
       <c r="G27" s="48"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="42" t="s">
         <v>96</v>
       </c>
@@ -1414,7 +1430,7 @@
       </c>
       <c r="G28" s="48"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>8</v>
       </c>
@@ -1438,7 +1454,7 @@
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>78</v>
       </c>
@@ -1459,7 +1475,7 @@
       </c>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>9</v>
       </c>
@@ -1484,7 +1500,7 @@
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>79</v>
       </c>
@@ -1505,7 +1521,7 @@
       </c>
       <c r="G32" s="34"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>10</v>
       </c>
@@ -1529,7 +1545,7 @@
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
         <v>88</v>
       </c>
@@ -1550,7 +1566,7 @@
       </c>
       <c r="G34" s="36"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="22"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -1559,7 +1575,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="22"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -1568,7 +1584,7 @@
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
@@ -1579,7 +1595,7 @@
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="22" t="s">
         <v>45</v>
       </c>
@@ -1590,7 +1606,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1605,7 +1621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>8</v>
       </c>
@@ -1621,7 +1637,7 @@
         <v>9.5532480478286497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>78</v>
       </c>
@@ -1634,7 +1650,7 @@
       <c r="F41" s="22"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>9</v>
       </c>
@@ -1650,7 +1666,7 @@
         <v>0.19651466488838149</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>79</v>
       </c>
@@ -1663,7 +1679,7 @@
       <c r="F43" s="22"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>44</v>
       </c>
@@ -1676,11 +1692,11 @@
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
       <c r="G44" s="8">
-        <f>297.675692081451/100</f>
-        <v>2.9767569208145104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <f>297.675692081451/200</f>
+        <v>1.4883784604072552</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="13" t="s">
         <v>88</v>
       </c>
@@ -1693,7 +1709,7 @@
       <c r="F45" s="10"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="22"/>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -1702,9 +1718,9 @@
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="22"/>
@@ -1713,7 +1729,7 @@
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
     </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="22" t="s">
         <v>45</v>
       </c>
@@ -1724,7 +1740,7 @@
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -1736,10 +1752,10 @@
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
       <c r="G49" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>8</v>
       </c>
@@ -1750,9 +1766,12 @@
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G50" s="8">
+        <f>9.09574961662292/200</f>
+        <v>4.5478748083114598E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>78</v>
       </c>
@@ -1765,7 +1784,7 @@
       <c r="F51" s="22"/>
       <c r="G51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>9</v>
       </c>
@@ -1776,9 +1795,12 @@
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G52" s="8">
+        <f>19.0591733455657/200</f>
+        <v>9.5295866727828499E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>79</v>
       </c>
@@ -1791,29 +1813,36 @@
       <c r="F53" s="22"/>
       <c r="G53" s="8"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
+      <c r="C54" s="22">
+        <v>-11.773</v>
+      </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G54" s="8">
+        <f>221.406227111816/200</f>
+        <v>1.1070311355590801</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="13" t="s">
         <v>88</v>
       </c>
       <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
+      <c r="C55" s="10">
+        <v>0.68469999999999998</v>
+      </c>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="22"/>
       <c r="B56" s="22"/>
       <c r="C56" s="22"/>
@@ -1822,7 +1851,7 @@
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>101</v>
       </c>
@@ -1833,7 +1862,7 @@
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
     </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="22" t="s">
         <v>46</v>
       </c>
@@ -1844,7 +1873,7 @@
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -1863,7 +1892,7 @@
       <c r="H59" s="40"/>
       <c r="I59" s="37"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="55" t="s">
         <v>95</v>
       </c>
@@ -1882,7 +1911,7 @@
       <c r="H60" s="40"/>
       <c r="I60" s="37"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="55" t="s">
         <v>96</v>
       </c>
@@ -1897,7 +1926,7 @@
       <c r="H61" s="40"/>
       <c r="I61" s="37"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>105</v>
       </c>
@@ -1916,7 +1945,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="37"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>104</v>
       </c>
@@ -1935,7 +1964,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="37"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>100</v>
       </c>
@@ -1954,7 +1983,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="37"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>79</v>
       </c>
@@ -1973,7 +2002,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="37"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="57" t="s">
         <v>97</v>
       </c>
@@ -1992,7 +2021,7 @@
       <c r="H66" s="39"/>
       <c r="I66" s="37"/>
     </row>
-    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="57" t="s">
         <v>81</v>
       </c>
@@ -2011,7 +2040,7 @@
       <c r="H67" s="39"/>
       <c r="I67" s="37"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="57" t="s">
         <v>98</v>
       </c>
@@ -2026,7 +2055,7 @@
       <c r="H68" s="39"/>
       <c r="I68" s="37"/>
     </row>
-    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="60" t="s">
         <v>80</v>
       </c>
@@ -2040,7 +2069,7 @@
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="22"/>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -2049,7 +2078,7 @@
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="22"/>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
@@ -2058,27 +2087,27 @@
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
@@ -2101,7 +2130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>8</v>
       </c>
@@ -2125,7 +2154,7 @@
         <v>3.3564866781234701E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>9</v>
       </c>
@@ -2149,7 +2178,7 @@
         <v>6.9011409282683997E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="13" t="s">
         <v>10</v>
       </c>
@@ -2160,13 +2189,13 @@
       <c r="F79" s="10"/>
       <c r="G79" s="11"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D82" s="32"/>
     </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>67</v>
       </c>
@@ -2175,7 +2204,7 @@
       </c>
       <c r="F83" s="32"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
         <v>68</v>
@@ -2190,7 +2219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +2238,7 @@
         <v>6.7999005317687499E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>9</v>
       </c>
@@ -2228,7 +2257,7 @@
         <v>1.2943902015686E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>72</v>
       </c>
@@ -2247,23 +2276,23 @@
         <v>5.6741695404052502E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="s">
         <v>2</v>
       </c>
@@ -2286,7 +2315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>18</v>
       </c>
@@ -2310,7 +2339,7 @@
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>19</v>
       </c>
@@ -2331,7 +2360,7 @@
       </c>
       <c r="G96" s="53"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
       <c r="B97" s="54"/>
       <c r="C97" s="9"/>
@@ -2340,7 +2369,7 @@
       <c r="F97" s="9"/>
       <c r="G97" s="53"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
         <v>20</v>
       </c>
@@ -2364,7 +2393,7 @@
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>16</v>
       </c>
@@ -2385,7 +2414,7 @@
       </c>
       <c r="G99" s="53"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
       <c r="B100" s="54"/>
       <c r="C100" s="9"/>
@@ -2394,7 +2423,7 @@
       <c r="F100" s="9"/>
       <c r="G100" s="53"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>28</v>
       </c>
@@ -2418,7 +2447,7 @@
         <v>1.82194089889526E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>29</v>
       </c>
@@ -2439,7 +2468,7 @@
       </c>
       <c r="G102" s="34"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="5"/>
       <c r="B103" s="54"/>
       <c r="C103" s="9"/>
@@ -2448,7 +2477,7 @@
       <c r="F103" s="9"/>
       <c r="G103" s="34"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>30</v>
       </c>
@@ -2472,7 +2501,7 @@
         <v>1.8185395002365098E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>31</v>
       </c>
@@ -2493,7 +2522,7 @@
       </c>
       <c r="G105" s="53"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
       <c r="B106" s="54"/>
       <c r="C106" s="54"/>
@@ -2502,7 +2531,7 @@
       <c r="F106" s="54"/>
       <c r="G106" s="53"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>22</v>
       </c>
@@ -2527,7 +2556,7 @@
         <v>0.21797123432159399</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>23</v>
       </c>
@@ -2548,7 +2577,7 @@
       </c>
       <c r="G108" s="34"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -2557,7 +2586,7 @@
       <c r="F109" s="9"/>
       <c r="G109" s="34"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>24</v>
       </c>
@@ -2578,7 +2607,7 @@
       </c>
       <c r="G110" s="34"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
         <v>25</v>
       </c>
@@ -2599,7 +2628,7 @@
       </c>
       <c r="G111" s="34"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -2608,7 +2637,7 @@
       <c r="F112" s="9"/>
       <c r="G112" s="34"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>26</v>
       </c>
@@ -2629,7 +2658,7 @@
       </c>
       <c r="G113" s="34"/>
     </row>
-    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
         <v>27</v>
       </c>
@@ -2650,7 +2679,7 @@
       </c>
       <c r="G114" s="36"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="25"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
@@ -2659,7 +2688,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="37"/>
       <c r="B116" s="37" t="s">
         <v>82</v>
@@ -2669,7 +2698,7 @@
       <c r="F116" s="18"/>
       <c r="G116" s="18"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="25"/>
       <c r="B117" s="22" t="s">
         <v>83</v>
@@ -2680,24 +2709,24 @@
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C120" s="23"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="s">
         <v>2</v>
       </c>
@@ -2717,10 +2746,10 @@
         <v>7</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
         <v>35</v>
       </c>
@@ -2731,7 +2760,7 @@
       <c r="F125" s="22"/>
       <c r="G125" s="8"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>19</v>
       </c>
@@ -2742,7 +2771,7 @@
       <c r="F126" s="22"/>
       <c r="G126" s="19"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
       <c r="B127" s="18"/>
       <c r="C127" s="22"/>
@@ -2751,7 +2780,7 @@
       <c r="F127" s="22"/>
       <c r="G127" s="19"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>36</v>
       </c>
@@ -2762,7 +2791,7 @@
       <c r="F128" s="22"/>
       <c r="G128" s="8"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>37</v>
       </c>
@@ -2773,7 +2802,7 @@
       <c r="F129" s="22"/>
       <c r="G129" s="19"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="5"/>
       <c r="B130" s="18"/>
       <c r="C130" s="22"/>
@@ -2782,7 +2811,7 @@
       <c r="F130" s="22"/>
       <c r="G130" s="19"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>38</v>
       </c>
@@ -2793,7 +2822,7 @@
       <c r="F131" s="22"/>
       <c r="G131" s="8"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
@@ -2804,7 +2833,7 @@
       <c r="F132" s="22"/>
       <c r="G132" s="8"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="5"/>
       <c r="B133" s="18"/>
       <c r="C133" s="22"/>
@@ -2813,7 +2842,7 @@
       <c r="F133" s="22"/>
       <c r="G133" s="8"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>39</v>
       </c>
@@ -2824,7 +2853,7 @@
       <c r="F134" s="22"/>
       <c r="G134" s="8"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>40</v>
       </c>
@@ -2835,7 +2864,7 @@
       <c r="F135" s="22"/>
       <c r="G135" s="19"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="5"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
@@ -2844,7 +2873,7 @@
       <c r="F136" s="18"/>
       <c r="G136" s="19"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>22</v>
       </c>
@@ -2855,7 +2884,7 @@
       <c r="F137" s="18"/>
       <c r="G137" s="19"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>23</v>
       </c>
@@ -2866,7 +2895,7 @@
       <c r="F138" s="18"/>
       <c r="G138" s="19"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="5"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -2875,7 +2904,7 @@
       <c r="F139" s="18"/>
       <c r="G139" s="19"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>41</v>
       </c>
@@ -2886,7 +2915,7 @@
       <c r="F140" s="18"/>
       <c r="G140" s="19"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>42</v>
       </c>
@@ -2897,7 +2926,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="19"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
@@ -2906,7 +2935,7 @@
       <c r="F142" s="18"/>
       <c r="G142" s="19"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>33</v>
       </c>
@@ -2917,7 +2946,7 @@
       <c r="F143" s="18"/>
       <c r="G143" s="19"/>
     </row>
-    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="6" t="s">
         <v>34</v>
       </c>
@@ -2943,13 +2972,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.15234375" customWidth="1"/>
-    <col min="4" max="6" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>65</v>
       </c>
@@ -2957,8 +2986,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>51</v>
       </c>
@@ -2975,7 +3004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
@@ -2992,14 +3021,14 @@
         <v>-40.424100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="27"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
@@ -3016,14 +3045,14 @@
         <v>-43.958799999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="27"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
@@ -3040,14 +3069,14 @@
         <v>-17.808599999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="27"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -3064,14 +3093,14 @@
         <v>-21.748200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="27"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
@@ -3088,7 +3117,7 @@
         <v>-42.509599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
@@ -3105,24 +3134,24 @@
         <v>-36.738900000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
@@ -3130,7 +3159,7 @@
         <v>0.30146958000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -3138,7 +3167,7 @@
         <v>0.61430751900000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>64</v>
       </c>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8DC93D-42F6-466F-8326-00332FA73B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F255A29E-8352-47D7-A447-05E3DFEA8D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -369,6 +369,16 @@
   </si>
   <si>
     <t>RTSNet true [dB] (n_Epochs=1000, n_Batch=10, learningRate=1E-3, weightDecay=1E-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True  F: [[1.1585, 0.8112],[0.1736, 0.9848]]
+</t>
+  </si>
+  <si>
+    <t>Estimated  F: [[1.1598, 0.8093],[0.1755, 0.9803]]</t>
+  </si>
+  <si>
+    <t>T=20 (Trajectory Length) 2x2, N_E=1000, N_CV=100, N_T=1000, v = -20 [dB]</t>
   </si>
 </sst>
 </file>
@@ -562,9 +572,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -658,6 +665,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -938,16 +952,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="23.7265625" customWidth="1"/>
   </cols>
@@ -963,7 +977,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>77</v>
       </c>
     </row>
@@ -983,52 +997,52 @@
       <c r="E4" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="42">
         <v>10.022600000000001</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="42">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="42">
         <v>-10.002700000000001</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="42">
         <v>-19.947399999999998</v>
       </c>
-      <c r="F5" s="47">
+      <c r="F5" s="44">
         <v>-29.9617</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="42">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="42">
         <v>0.4476</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="42">
         <v>0.42730000000000001</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="42">
         <v>0.41070000000000001</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="44">
         <v>0.42949999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="9">
@@ -1043,12 +1057,12 @@
       <c r="E7" s="9">
         <v>-21.902799999999999</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <v>-31.885899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="40" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="9">
@@ -1063,12 +1077,12 @@
       <c r="E8" s="9">
         <v>0.4194</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>0.51370000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="9">
@@ -1083,13 +1097,13 @@
       <c r="E9" s="9">
         <v>-23.750499999999999</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="31">
         <v>-33.749099999999999</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="40" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="9">
@@ -1104,13 +1118,13 @@
       <c r="E10" s="9">
         <v>0.51919999999999999</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <v>0.50760000000000005</v>
       </c>
-      <c r="G10" s="22"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="40" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="9">
@@ -1125,46 +1139,46 @@
       <c r="E11" s="9">
         <v>-23.7318</v>
       </c>
-      <c r="F11" s="34">
-        <v>-32.622399999999999</v>
-      </c>
-      <c r="G11" s="22"/>
+      <c r="F11" s="31">
+        <v>-33.697800000000001</v>
+      </c>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="32">
         <v>0.48709999999999998</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="32">
         <v>0.53669999999999995</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="32">
         <v>0.46279999999999999</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="32">
         <v>0.51170000000000004</v>
       </c>
-      <c r="F12" s="46">
-        <v>0.54410000000000003</v>
-      </c>
-      <c r="G12" s="22"/>
+      <c r="F12" s="43">
+        <v>0.50549999999999995</v>
+      </c>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="22"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1182,52 +1196,52 @@
       <c r="E15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G15" s="22"/>
+      <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="42">
         <v>10.004300000000001</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="46">
         <v>-8.4907000000000005E-5</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="42">
         <v>-10.0288</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="42">
         <v>-19.9815</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="44">
         <v>-29.968599999999999</v>
       </c>
-      <c r="G16" s="22"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="42">
         <v>0.41909999999999997</v>
       </c>
-      <c r="C17" s="45">
+      <c r="C17" s="42">
         <v>0.39150000000000001</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="42">
         <v>0.43099999999999999</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="42">
         <v>0.40439999999999998</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="44">
         <v>0.43509999999999999</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
@@ -1245,10 +1259,10 @@
       <c r="E18" s="9">
         <v>-24.680399999999999</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="31">
         <v>-34.730899999999998</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
@@ -1266,10 +1280,10 @@
       <c r="E19" s="9">
         <v>0.59619999999999995</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="31">
         <v>0.69599999999999995</v>
       </c>
-      <c r="G19" s="22"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
@@ -1287,10 +1301,10 @@
       <c r="E20" s="9">
         <v>-28.098099999999999</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="31">
         <v>-38.235599999999998</v>
       </c>
-      <c r="G20" s="22"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
@@ -1308,7 +1322,7 @@
       <c r="E21" s="9">
         <v>0.72609999999999997</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="31">
         <v>0.83679999999999999</v>
       </c>
     </row>
@@ -1328,40 +1342,40 @@
       <c r="E22" s="9">
         <v>-27.875299999999999</v>
       </c>
-      <c r="F22" s="34">
-        <v>-37.189599999999999</v>
+      <c r="F22" s="31">
+        <v>-38.1828</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="32">
         <v>0.79549999999999998</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="32">
         <v>0.72040000000000004</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="32">
         <v>0.79720000000000002</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="32">
         <v>0.74619999999999997</v>
       </c>
-      <c r="F23" s="46">
-        <v>0.84540000000000004</v>
+      <c r="F23" s="43">
+        <v>0.83630000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="31"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1389,46 +1403,46 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="B27" s="45">
+      <c r="B27" s="42">
         <v>10.011900000000001</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="42">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="42">
         <v>-10.004200000000001</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="42">
         <v>-19.976700000000001</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="42">
         <v>-30.0029</v>
       </c>
-      <c r="G27" s="48"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="42">
         <v>0.39750000000000002</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="42">
         <v>0.43390000000000001</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="42">
         <v>0.44819999999999999</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="42">
         <v>0.4158</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="42">
         <v>0.42849999999999999</v>
       </c>
-      <c r="G28" s="48"/>
+      <c r="G28" s="45"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
@@ -1449,7 +1463,7 @@
       <c r="F29" s="9">
         <v>-37.323900000000002</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="31">
         <f>6.41488122940063/200</f>
         <v>3.2074406147003152E-2</v>
       </c>
@@ -1470,10 +1484,10 @@
       <c r="E30" s="9">
         <v>1.0107999999999999</v>
       </c>
-      <c r="F30" s="30">
+      <c r="F30" s="27">
         <v>0.96260000000000001</v>
       </c>
-      <c r="G30" s="34"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
@@ -1495,7 +1509,7 @@
       <c r="F31" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="31">
         <f xml:space="preserve"> 13.3679509162902/200</f>
         <v>6.6839754581451E-2</v>
       </c>
@@ -1516,10 +1530,10 @@
       <c r="E32" s="9">
         <v>1.1073</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="27">
         <v>1.2888999999999999</v>
       </c>
-      <c r="G32" s="34"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
@@ -1540,7 +1554,7 @@
       <c r="F33" s="9">
         <v>-41.504600000000003</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="31">
         <f>56.4998171329498/200</f>
         <v>0.28249908566474902</v>
       </c>
@@ -1549,74 +1563,74 @@
       <c r="A34" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="32">
         <v>1.1987000000000001</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="32">
         <v>1.1817</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="32">
         <v>1.2788999999999999</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="32">
         <v>1.1524000000000001</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="35">
         <v>1.2285999999999999</v>
       </c>
-      <c r="G34" s="36"/>
+      <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="24"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
       <c r="G39" s="4" t="s">
         <v>48</v>
       </c>
@@ -1625,13 +1639,13 @@
       <c r="A40" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22">
+      <c r="B40" s="19"/>
+      <c r="C40" s="19">
         <v>-7.1620999999999997</v>
       </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="8">
         <f>19.1064960956573/200</f>
         <v>9.5532480478286497E-2</v>
@@ -1641,26 +1655,26 @@
       <c r="A41" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19">
         <v>0.3347</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22">
+      <c r="B42" s="19"/>
+      <c r="C42" s="19">
         <v>-11.8101</v>
       </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
       <c r="G42" s="8">
         <f>39.3029329776763/200</f>
         <v>0.19651466488838149</v>
@@ -1670,27 +1684,27 @@
       <c r="A43" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22">
+      <c r="B43" s="19"/>
+      <c r="C43" s="19">
         <v>0.45019999999999999</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19">
         <f>(-11.7224-11.7828)/2</f>
         <v>-11.752600000000001</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
       <c r="G44" s="8">
         <f>297.675692081451/200</f>
         <v>1.4883784604072552</v>
@@ -1710,47 +1724,47 @@
       <c r="G45" s="11"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B49" s="24"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
       <c r="G49" s="4" t="s">
         <v>106</v>
       </c>
@@ -1759,13 +1773,13 @@
       <c r="A50" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19">
         <v>-7.2404999999999999</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
       <c r="G50" s="8">
         <f>9.09574961662292/200</f>
         <v>4.5478748083114598E-2</v>
@@ -1775,26 +1789,26 @@
       <c r="A51" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22">
+      <c r="B51" s="19"/>
+      <c r="C51" s="19">
         <v>0.54310000000000003</v>
       </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="8"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22">
+      <c r="B52" s="19"/>
+      <c r="C52" s="19">
         <v>-11.852600000000001</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
       <c r="G52" s="8">
         <f>19.0591733455657/200</f>
         <v>9.5295866727828499E-2</v>
@@ -1804,26 +1818,26 @@
       <c r="A53" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19">
         <v>0.68740000000000001</v>
       </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
       <c r="G53" s="8"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22">
+      <c r="B54" s="19"/>
+      <c r="C54" s="19">
         <v>-11.773</v>
       </c>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
       <c r="G54" s="8">
         <f>221.406227111816/200</f>
         <v>1.1070311355590801</v>
@@ -1843,99 +1857,99 @@
       <c r="G55" s="11"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="26" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="50" t="s">
+      <c r="D59" s="19"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="G59" s="51">
+      <c r="G59" s="48">
         <v>30.081099999999999</v>
       </c>
-      <c r="H59" s="40"/>
-      <c r="I59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="34"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="22"/>
-      <c r="C60" s="56">
+      <c r="B60" s="19"/>
+      <c r="C60" s="53">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="39"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="12" t="s">
         <v>49</v>
       </c>
       <c r="G60" s="8">
         <v>26.237500000000001</v>
       </c>
-      <c r="H60" s="40"/>
-      <c r="I60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="34"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B61" s="22"/>
-      <c r="C61" s="56">
+      <c r="B61" s="19"/>
+      <c r="C61" s="53">
         <v>0.3891</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="64"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="37"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="34"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="34">
+      <c r="B62" s="19"/>
+      <c r="C62" s="31">
         <v>-7.2916999999999996</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="39"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="12" t="s">
         <v>103</v>
       </c>
@@ -1943,18 +1957,18 @@
         <v>-6.7626999999999997</v>
       </c>
       <c r="H62" s="9"/>
-      <c r="I62" s="37"/>
+      <c r="I62" s="34"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="22"/>
-      <c r="C63" s="34">
+      <c r="B63" s="19"/>
+      <c r="C63" s="31">
         <v>0.90980000000000005</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="39"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="36"/>
       <c r="F63" s="12" t="s">
         <v>104</v>
       </c>
@@ -1962,18 +1976,18 @@
         <v>0.88480000000000003</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="37"/>
+      <c r="I63" s="34"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="22"/>
-      <c r="C64" s="34">
+      <c r="B64" s="19"/>
+      <c r="C64" s="31">
         <v>-11.7737</v>
       </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="39"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="36"/>
       <c r="F64" s="12" t="s">
         <v>102</v>
       </c>
@@ -1981,18 +1995,18 @@
         <v>-11.523199999999999</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="37"/>
+      <c r="I64" s="34"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="34">
+      <c r="B65" s="19"/>
+      <c r="C65" s="31">
         <v>1.2115</v>
       </c>
-      <c r="D65" s="22"/>
-      <c r="E65" s="39"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="36"/>
       <c r="F65" s="12" t="s">
         <v>79</v>
       </c>
@@ -2000,92 +2014,92 @@
         <v>1.1852</v>
       </c>
       <c r="H65" s="9"/>
-      <c r="I65" s="37"/>
+      <c r="I65" s="34"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="57" t="s">
+      <c r="A66" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="39"/>
-      <c r="C66" s="58">
+      <c r="B66" s="36"/>
+      <c r="C66" s="55">
         <v>-11.471500000000001</v>
       </c>
-      <c r="D66" s="22"/>
-      <c r="E66" s="37"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="34"/>
       <c r="F66" s="12" t="s">
         <v>99</v>
       </c>
       <c r="G66" s="8">
         <v>9.0884</v>
       </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="37"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="34"/>
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="57" t="s">
+      <c r="A67" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="39"/>
-      <c r="C67" s="58">
+      <c r="B67" s="36"/>
+      <c r="C67" s="55">
         <v>1.2063999999999999</v>
       </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="39"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G67" s="11">
         <v>2.7212000000000001</v>
       </c>
-      <c r="H67" s="39"/>
-      <c r="I67" s="37"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="34"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="57" t="s">
+      <c r="A68" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="B68" s="39"/>
-      <c r="C68" s="59">
+      <c r="B68" s="36"/>
+      <c r="C68" s="56">
         <v>-11.5383</v>
       </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="37"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="34"/>
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="61"/>
-      <c r="C69" s="62">
+      <c r="B69" s="58"/>
+      <c r="C69" s="59">
         <v>1.1716</v>
       </c>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
@@ -2190,10 +2204,10 @@
       <c r="G79" s="11"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="23" t="s">
+      <c r="A82" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D82" s="32"/>
+      <c r="D82" s="29"/>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
@@ -2202,7 +2216,7 @@
       <c r="B83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="32"/>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
@@ -2223,17 +2237,17 @@
       <c r="A85" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="33">
+      <c r="B85" s="30">
         <v>-10.795199999999999</v>
       </c>
       <c r="C85">
         <f>1.38270020484924/200</f>
         <v>6.9135010242462004E-3</v>
       </c>
-      <c r="D85" s="33">
+      <c r="D85" s="30">
         <v>-11.2011</v>
       </c>
-      <c r="E85" s="27">
+      <c r="E85" s="24">
         <f>1.35998010635375/200</f>
         <v>6.7999005317687499E-3</v>
       </c>
@@ -2242,17 +2256,17 @@
       <c r="A86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B86" s="33">
+      <c r="B86" s="30">
         <v>-12.548</v>
       </c>
       <c r="C86">
         <f>2.79346585273742/200</f>
         <v>1.39673292636871E-2</v>
       </c>
-      <c r="D86" s="33">
+      <c r="D86" s="30">
         <v>-12.3985</v>
       </c>
-      <c r="E86" s="27">
+      <c r="E86" s="24">
         <f>2.5887804031372/200</f>
         <v>1.2943902015686E-2</v>
       </c>
@@ -2261,17 +2275,17 @@
       <c r="A87" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B87" s="25">
         <v>-12.0535</v>
       </c>
-      <c r="C87" s="28">
+      <c r="C87" s="25">
         <f>11.7575964927673/200</f>
         <v>5.87879824638365E-2</v>
       </c>
-      <c r="D87" s="28">
+      <c r="D87" s="25">
         <v>-12.076599999999999</v>
       </c>
-      <c r="E87" s="29">
+      <c r="E87" s="26">
         <f>11.3483390808105/200</f>
         <v>5.6741695404052502E-2</v>
       </c>
@@ -2296,22 +2310,22 @@
       <c r="A94" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="41" t="s">
+      <c r="D94" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="41" t="s">
+      <c r="E94" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F94" s="41" t="s">
+      <c r="F94" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G94" s="52" t="s">
+      <c r="G94" s="49" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2334,7 +2348,7 @@
       <c r="F95" s="9">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G95" s="34">
+      <c r="G95" s="31">
         <f>1.87291026115417/200</f>
         <v>9.3645513057708501E-3</v>
       </c>
@@ -2358,16 +2372,16 @@
       <c r="F96" s="9">
         <v>1.0293000000000001</v>
       </c>
-      <c r="G96" s="53"/>
+      <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="5"/>
-      <c r="B97" s="54"/>
+      <c r="B97" s="51"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
-      <c r="G97" s="53"/>
+      <c r="G97" s="50"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
@@ -2388,7 +2402,7 @@
       <c r="F98" s="9">
         <v>-28.785699999999999</v>
       </c>
-      <c r="G98" s="34">
+      <c r="G98" s="31">
         <f>1.73989057540893/200</f>
         <v>8.6994528770446503E-3</v>
       </c>
@@ -2412,16 +2426,16 @@
       <c r="F99" s="9">
         <v>3.3008000000000002</v>
       </c>
-      <c r="G99" s="53"/>
+      <c r="G99" s="50"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="5"/>
-      <c r="B100" s="54"/>
+      <c r="B100" s="51"/>
       <c r="C100" s="9"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
       <c r="F100" s="9"/>
-      <c r="G100" s="53"/>
+      <c r="G100" s="50"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
@@ -2442,7 +2456,7 @@
       <c r="F101" s="9">
         <v>-41.809899999999999</v>
       </c>
-      <c r="G101" s="34">
+      <c r="G101" s="31">
         <f>3.64388179779052/200</f>
         <v>1.82194089889526E-2</v>
       </c>
@@ -2466,16 +2480,16 @@
       <c r="F102" s="9">
         <v>1.1558999999999999</v>
       </c>
-      <c r="G102" s="34"/>
+      <c r="G102" s="31"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="5"/>
-      <c r="B103" s="54"/>
+      <c r="B103" s="51"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
       <c r="F103" s="9"/>
-      <c r="G103" s="34"/>
+      <c r="G103" s="31"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
@@ -2496,7 +2510,7 @@
       <c r="F104" s="9">
         <v>-34.591799999999999</v>
       </c>
-      <c r="G104" s="34">
+      <c r="G104" s="31">
         <f>3.63707900047302/200</f>
         <v>1.8185395002365098E-2</v>
       </c>
@@ -2520,16 +2534,16 @@
       <c r="F105" s="9">
         <v>3.133</v>
       </c>
-      <c r="G105" s="53"/>
+      <c r="G105" s="50"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="5"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="53"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="51"/>
+      <c r="E106" s="51"/>
+      <c r="F106" s="51"/>
+      <c r="G106" s="50"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
@@ -2551,7 +2565,7 @@
       <c r="F107" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G107" s="34">
+      <c r="G107" s="31">
         <f>43.5942468643188/200</f>
         <v>0.21797123432159399</v>
       </c>
@@ -2572,10 +2586,10 @@
       <c r="E108" s="9">
         <v>1.1073</v>
       </c>
-      <c r="F108" s="30">
+      <c r="F108" s="27">
         <v>1.2888999999999999</v>
       </c>
-      <c r="G108" s="34"/>
+      <c r="G108" s="31"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5"/>
@@ -2584,7 +2598,7 @@
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
       <c r="F109" s="9"/>
-      <c r="G109" s="34"/>
+      <c r="G109" s="31"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
@@ -2605,7 +2619,7 @@
       <c r="F110" s="9">
         <v>-38.0655</v>
       </c>
-      <c r="G110" s="34"/>
+      <c r="G110" s="31"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
@@ -2626,7 +2640,7 @@
       <c r="F111" s="9">
         <v>1.1361000000000001</v>
       </c>
-      <c r="G111" s="34"/>
+      <c r="G111" s="31"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5"/>
@@ -2635,7 +2649,7 @@
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
       <c r="F112" s="9"/>
-      <c r="G112" s="34"/>
+      <c r="G112" s="31"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
@@ -2656,31 +2670,31 @@
       <c r="F113" s="9">
         <v>-40.300899999999999</v>
       </c>
-      <c r="G113" s="34"/>
+      <c r="G113" s="31"/>
     </row>
     <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B114" s="35">
+      <c r="B114" s="32">
         <v>1.2693000000000001</v>
       </c>
-      <c r="C114" s="35">
+      <c r="C114" s="32">
         <v>1.2414000000000001</v>
       </c>
-      <c r="D114" s="35">
+      <c r="D114" s="32">
         <v>1.1528</v>
       </c>
-      <c r="E114" s="35">
+      <c r="E114" s="32">
         <v>1.2195</v>
       </c>
-      <c r="F114" s="35">
+      <c r="F114" s="32">
         <v>1.1687000000000001</v>
       </c>
-      <c r="G114" s="36"/>
+      <c r="G114" s="33"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="25"/>
+      <c r="A115" s="22"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -2689,8 +2703,8 @@
       <c r="G115" s="18"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="37"/>
-      <c r="B116" s="37" t="s">
+      <c r="A116" s="34"/>
+      <c r="B116" s="34" t="s">
         <v>82</v>
       </c>
       <c r="D116" s="18"/>
@@ -2699,11 +2713,11 @@
       <c r="G116" s="18"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="25"/>
-      <c r="B117" s="22" t="s">
+      <c r="A117" s="22"/>
+      <c r="B117" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C117" s="22"/>
+      <c r="C117" s="19"/>
       <c r="D117" s="18"/>
       <c r="E117" s="18"/>
       <c r="F117" s="18"/>
@@ -2713,7 +2727,7 @@
       <c r="A120" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C120" s="23"/>
+      <c r="C120" s="20"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
@@ -2722,7 +2736,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2753,209 +2767,268 @@
       <c r="A125" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B125" s="22"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22"/>
-      <c r="G125" s="8"/>
+      <c r="B125" s="9">
+        <v>3.4502999999999999</v>
+      </c>
+      <c r="C125" s="9">
+        <v>-6.5942999999999996</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="31">
+        <f>1.81720042228698/1000</f>
+        <v>1.8172004222869801E-3</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B126" s="22"/>
-      <c r="C126" s="22"/>
-      <c r="D126" s="22"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22"/>
-      <c r="G126" s="19"/>
+      <c r="B126" s="9">
+        <v>1.8456999999999999</v>
+      </c>
+      <c r="C126" s="9">
+        <v>1.8831</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="50"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="19"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="50"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B128" s="22"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="8"/>
+      <c r="B128" s="9">
+        <v>33.961399999999998</v>
+      </c>
+      <c r="C128" s="9">
+        <v>23.832799999999999</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="31"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B129" s="22"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22"/>
-      <c r="G129" s="19"/>
+      <c r="B129" s="9">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="C129" s="9">
+        <v>3.8573</v>
+      </c>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="50"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="5"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="19"/>
+      <c r="B130" s="51"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="50"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B131" s="22"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="8"/>
+      <c r="B131" s="9">
+        <v>-3.8433999999999999</v>
+      </c>
+      <c r="C131" s="9">
+        <v>-13.9133</v>
+      </c>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="31">
+        <f>3.73042225837707/1000</f>
+        <v>3.7304222583770699E-3</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B132" s="22"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22"/>
-      <c r="G132" s="8"/>
+      <c r="B132" s="9">
+        <v>2.6547999999999998</v>
+      </c>
+      <c r="C132" s="9">
+        <v>2.7086999999999999</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="31"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="5"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="8"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="31"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B134" s="22"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="8"/>
+      <c r="B134" s="9">
+        <v>32.962600000000002</v>
+      </c>
+      <c r="C134" s="9">
+        <v>22.838000000000001</v>
+      </c>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="31"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B135" s="22"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22"/>
-      <c r="G135" s="19"/>
+      <c r="B135" s="9">
+        <v>3.9333999999999998</v>
+      </c>
+      <c r="C135" s="9">
+        <v>3.859</v>
+      </c>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="50"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="5"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="19"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="51"/>
+      <c r="E136" s="51"/>
+      <c r="F136" s="51"/>
+      <c r="G136" s="50"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="19"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="51"/>
+      <c r="E137" s="51"/>
+      <c r="F137" s="51"/>
+      <c r="G137" s="50"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="19"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="51"/>
+      <c r="E138" s="51"/>
+      <c r="F138" s="51"/>
+      <c r="G138" s="50"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="5"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18"/>
-      <c r="D139" s="18"/>
-      <c r="E139" s="18"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="19"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="51"/>
+      <c r="E139" s="51"/>
+      <c r="F139" s="51"/>
+      <c r="G139" s="50"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B140" s="18"/>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18"/>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="19"/>
+      <c r="B140" s="51">
+        <v>19.531099999999999</v>
+      </c>
+      <c r="C140" s="51"/>
+      <c r="D140" s="51"/>
+      <c r="E140" s="51"/>
+      <c r="F140" s="51"/>
+      <c r="G140" s="50">
+        <f>44.6756930351257/1000</f>
+        <v>4.4675693035125696E-2</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="18"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="19"/>
+      <c r="B141" s="51">
+        <v>3.7469000000000001</v>
+      </c>
+      <c r="C141" s="51"/>
+      <c r="D141" s="51"/>
+      <c r="E141" s="51"/>
+      <c r="F141" s="51"/>
+      <c r="G141" s="50"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
-      <c r="B142" s="18"/>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="19"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="51"/>
+      <c r="E142" s="51"/>
+      <c r="F142" s="51"/>
+      <c r="G142" s="50"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="18"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="19"/>
+      <c r="B143" s="9">
+        <v>-3.4333999999999998</v>
+      </c>
+      <c r="C143" s="51"/>
+      <c r="D143" s="51"/>
+      <c r="E143" s="51"/>
+      <c r="F143" s="51"/>
+      <c r="G143" s="50"/>
     </row>
     <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="20"/>
-      <c r="E144" s="20"/>
-      <c r="F144" s="20"/>
-      <c r="G144" s="21"/>
+      <c r="B144" s="32">
+        <v>2.6326999999999998</v>
+      </c>
+      <c r="C144" s="62"/>
+      <c r="D144" s="62"/>
+      <c r="E144" s="62"/>
+      <c r="F144" s="62"/>
+      <c r="G144" s="63"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="64" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3008,112 +3081,112 @@
       <c r="A4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>-10.4223</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="22">
         <v>-20.546399999999998</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="22">
         <v>-30.565899999999999</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="24">
         <v>-40.424100000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="24"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>-13.8728</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>-23.9254</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>-34.028799999999997</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="24">
         <v>-43.958799999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>-9.6765000000000008</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="22">
         <v>-15.9671</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="22">
         <v>-17.5745</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="24">
         <v>-17.808599999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="22">
         <v>-13.1538</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>-19.496200000000002</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>-21.472899999999999</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="24">
         <v>-21.748200000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="22">
         <v>-13.4038</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>-23.161000000000001</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>-33.494199999999999</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="24">
         <v>-42.509599999999999</v>
       </c>
     </row>
@@ -3121,16 +3194,16 @@
       <c r="A13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="25">
         <v>-12.888500000000001</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="25">
         <v>-22.598099999999999</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="25">
         <v>-29.8276</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="26">
         <v>-36.738900000000001</v>
       </c>
     </row>
@@ -3155,7 +3228,7 @@
       <c r="A18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="24">
         <v>0.30146958000000001</v>
       </c>
     </row>
@@ -3163,7 +3236,7 @@
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="24">
         <v>0.61430751900000002</v>
       </c>
     </row>
@@ -3171,7 +3244,7 @@
       <c r="A20" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="26">
         <v>0.39500000000000002</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F255A29E-8352-47D7-A447-05E3DFEA8D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D4F81-2527-4C97-8BA4-447CA7FC6AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,9 +161,6 @@
     <t>RTS partial std [dB]</t>
   </si>
   <si>
-    <t>RTSNet partial(F rot 10) [dB]</t>
-  </si>
-  <si>
     <t>RTSNet partial std [dB]</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>T=20 (Trajectory Length) 2x2, N_E=1000, N_CV=100, N_T=1000, v = -20 [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet partial(F rot 10) (n_Epochs=2000, n_Batch=1, learningRate=1E-3, weightDecay=1E-9)[dB]</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -665,12 +665,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -954,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -968,17 +962,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -986,24 +980,24 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="23" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="42">
         <v>10.022600000000001</v>
@@ -1023,7 +1017,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="42">
         <v>0.42399999999999999</v>
@@ -1063,7 +1057,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" s="9">
         <v>0.50170000000000003</v>
@@ -1104,7 +1098,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="9">
         <v>0.4869</v>
@@ -1125,7 +1119,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="9">
         <v>6.2251000000000003</v>
@@ -1146,7 +1140,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="32">
         <v>0.48709999999999998</v>
@@ -1176,7 +1170,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="19"/>
     </row>
@@ -1185,25 +1179,25 @@
         <v>2</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="23" t="s">
         <v>93</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>94</v>
       </c>
       <c r="G15" s="19"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="42">
         <v>10.004300000000001</v>
@@ -1224,7 +1218,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="42">
         <v>0.41909999999999997</v>
@@ -1266,7 +1260,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="9">
         <v>0.70950000000000002</v>
@@ -1308,7 +1302,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="9">
         <v>0.79410000000000003</v>
@@ -1328,7 +1322,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="9">
         <v>1.8805000000000001</v>
@@ -1348,7 +1342,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="32">
         <v>0.79549999999999998</v>
@@ -1376,7 +1370,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1399,12 +1393,12 @@
         <v>7</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="42">
         <v>10.011900000000001</v>
@@ -1425,7 +1419,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="42">
         <v>0.39750000000000002</v>
@@ -1470,7 +1464,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="9">
         <v>1.0863</v>
@@ -1516,7 +1510,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="9">
         <v>1.2419</v>
@@ -1561,7 +1555,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="32">
         <v>1.1987000000000001</v>
@@ -1600,7 +1594,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -1611,7 +1605,7 @@
     </row>
     <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -1632,7 +1626,7 @@
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1653,7 +1647,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19">
@@ -1682,7 +1676,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="19"/>
       <c r="C43" s="19">
@@ -1695,7 +1689,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19">
@@ -1712,7 +1706,7 @@
     </row>
     <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10">
@@ -1734,7 +1728,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -1745,7 +1739,7 @@
     </row>
     <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -1766,7 +1760,7 @@
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -1787,7 +1781,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19">
@@ -1816,7 +1810,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19">
@@ -1829,7 +1823,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B54" s="19"/>
       <c r="C54" s="19">
@@ -1845,7 +1839,7 @@
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10">
@@ -1867,7 +1861,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -1878,7 +1872,7 @@
     </row>
     <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
@@ -1898,7 +1892,7 @@
       <c r="D59" s="19"/>
       <c r="E59" s="36"/>
       <c r="F59" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G59" s="48">
         <v>30.081099999999999</v>
@@ -1908,7 +1902,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="19"/>
       <c r="C60" s="53">
@@ -1917,7 +1911,7 @@
       <c r="D60" s="19"/>
       <c r="E60" s="36"/>
       <c r="F60" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G60" s="8">
         <v>26.237500000000001</v>
@@ -1927,7 +1921,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="53">
@@ -1942,7 +1936,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="31">
@@ -1951,7 +1945,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="36"/>
       <c r="F62" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G62" s="8">
         <v>-6.7626999999999997</v>
@@ -1961,7 +1955,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="31">
@@ -1970,7 +1964,7 @@
       <c r="D63" s="19"/>
       <c r="E63" s="36"/>
       <c r="F63" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G63" s="8">
         <v>0.88480000000000003</v>
@@ -1980,7 +1974,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="31">
@@ -1989,7 +1983,7 @@
       <c r="D64" s="19"/>
       <c r="E64" s="36"/>
       <c r="F64" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G64" s="8">
         <v>-11.523199999999999</v>
@@ -1999,7 +1993,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="31">
@@ -2008,7 +2002,7 @@
       <c r="D65" s="19"/>
       <c r="E65" s="36"/>
       <c r="F65" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" s="8">
         <v>1.1852</v>
@@ -2018,7 +2012,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" s="36"/>
       <c r="C66" s="55">
@@ -2027,7 +2021,7 @@
       <c r="D66" s="19"/>
       <c r="E66" s="34"/>
       <c r="F66" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G66" s="8">
         <v>9.0884</v>
@@ -2037,7 +2031,7 @@
     </row>
     <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B67" s="36"/>
       <c r="C67" s="55">
@@ -2046,7 +2040,7 @@
       <c r="D67" s="19"/>
       <c r="E67" s="36"/>
       <c r="F67" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G67" s="11">
         <v>2.7212000000000001</v>
@@ -2056,7 +2050,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68" s="36"/>
       <c r="C68" s="56">
@@ -2071,7 +2065,7 @@
     </row>
     <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69" s="58"/>
       <c r="C69" s="59">
@@ -2205,13 +2199,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D82" s="29"/>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>0</v>
@@ -2221,16 +2215,16 @@
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="D84" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -2273,7 +2267,7 @@
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B87" s="25">
         <v>-12.0535</v>
@@ -2705,7 +2699,7 @@
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="34"/>
       <c r="B116" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
@@ -2715,7 +2709,7 @@
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="22"/>
       <c r="B117" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C117" s="19"/>
       <c r="D117" s="18"/>
@@ -2731,12 +2725,12 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -2760,7 +2754,7 @@
         <v>7</v>
       </c>
       <c r="G124" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -2773,9 +2767,15 @@
       <c r="C125" s="9">
         <v>-6.5942999999999996</v>
       </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
+      <c r="D125" s="9">
+        <v>-16.561499999999999</v>
+      </c>
+      <c r="E125" s="9">
+        <v>-26.6008</v>
+      </c>
+      <c r="F125" s="9">
+        <v>-36.565199999999997</v>
+      </c>
       <c r="G125" s="31">
         <f>1.81720042228698/1000</f>
         <v>1.8172004222869801E-3</v>
@@ -2791,9 +2791,15 @@
       <c r="C126" s="9">
         <v>1.8831</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
+      <c r="D126" s="9">
+        <v>1.8754999999999999</v>
+      </c>
+      <c r="E126" s="9">
+        <v>1.9067000000000001</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1.8309</v>
+      </c>
       <c r="G126" s="50"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -2815,9 +2821,15 @@
       <c r="C128" s="9">
         <v>23.832799999999999</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
+      <c r="D128" s="9">
+        <v>13.8483</v>
+      </c>
+      <c r="E128" s="9">
+        <v>4.1989999999999998</v>
+      </c>
+      <c r="F128" s="9">
+        <v>-6.4336000000000002</v>
+      </c>
       <c r="G128" s="31"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -2830,9 +2842,15 @@
       <c r="C129" s="9">
         <v>3.8573</v>
       </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
+      <c r="D129" s="9">
+        <v>3.6829000000000001</v>
+      </c>
+      <c r="E129" s="9">
+        <v>3.8494999999999999</v>
+      </c>
+      <c r="F129" s="9">
+        <v>3.8119000000000001</v>
+      </c>
       <c r="G129" s="50"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -2854,9 +2872,15 @@
       <c r="C131" s="9">
         <v>-13.9133</v>
       </c>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
+      <c r="D131" s="9">
+        <v>-23.5916</v>
+      </c>
+      <c r="E131" s="9">
+        <v>-33.8613</v>
+      </c>
+      <c r="F131" s="9">
+        <v>-43.593000000000004</v>
+      </c>
       <c r="G131" s="31">
         <f>3.73042225837707/1000</f>
         <v>3.7304222583770699E-3</v>
@@ -2872,9 +2896,15 @@
       <c r="C132" s="9">
         <v>2.7086999999999999</v>
       </c>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
+      <c r="D132" s="9">
+        <v>2.7507000000000001</v>
+      </c>
+      <c r="E132" s="9">
+        <v>2.7532999999999999</v>
+      </c>
+      <c r="F132" s="9">
+        <v>2.7458</v>
+      </c>
       <c r="G132" s="31"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -2896,9 +2926,15 @@
       <c r="C134" s="9">
         <v>22.838000000000001</v>
       </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
+      <c r="D134" s="9">
+        <v>12.853400000000001</v>
+      </c>
+      <c r="E134" s="9">
+        <v>3.2014</v>
+      </c>
+      <c r="F134" s="9">
+        <v>-7.4305000000000003</v>
+      </c>
       <c r="G134" s="31"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -2911,9 +2947,15 @@
       <c r="C135" s="9">
         <v>3.859</v>
       </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
+      <c r="D135" s="9">
+        <v>3.6848999999999998</v>
+      </c>
+      <c r="E135" s="9">
+        <v>3.851</v>
+      </c>
+      <c r="F135" s="9">
+        <v>3.8092000000000001</v>
+      </c>
       <c r="G135" s="50"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -2929,70 +2971,82 @@
       <c r="A137" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B137" s="51"/>
-      <c r="C137" s="51"/>
-      <c r="D137" s="51"/>
-      <c r="E137" s="51"/>
-      <c r="F137" s="51"/>
-      <c r="G137" s="50"/>
+      <c r="B137" s="9">
+        <v>-3.3506</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="31">
+        <f>44.6756930351257/1000</f>
+        <v>4.4675693035125696E-2</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="51"/>
-      <c r="E138" s="51"/>
-      <c r="F138" s="51"/>
-      <c r="G138" s="50"/>
+      <c r="B138" s="9">
+        <v>2.6993</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="31"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="5"/>
-      <c r="B139" s="51"/>
-      <c r="C139" s="51"/>
-      <c r="D139" s="51"/>
-      <c r="E139" s="51"/>
-      <c r="F139" s="51"/>
-      <c r="G139" s="50"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="31"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B140" s="51">
         <v>19.531099999999999</v>
       </c>
-      <c r="C140" s="51"/>
-      <c r="D140" s="51"/>
-      <c r="E140" s="51"/>
-      <c r="F140" s="51"/>
-      <c r="G140" s="50">
-        <f>44.6756930351257/1000</f>
-        <v>4.4675693035125696E-2</v>
-      </c>
+      <c r="C140" s="9">
+        <v>-2.0112999999999999</v>
+      </c>
+      <c r="D140" s="9">
+        <v>-10.688499999999999</v>
+      </c>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="31"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B141" s="51">
         <v>3.7469000000000001</v>
       </c>
-      <c r="C141" s="51"/>
-      <c r="D141" s="51"/>
-      <c r="E141" s="51"/>
-      <c r="F141" s="51"/>
-      <c r="G141" s="50"/>
+      <c r="C141" s="9">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="D141" s="9">
+        <v>1.9343999999999999</v>
+      </c>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="31"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="5"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="51"/>
-      <c r="E142" s="51"/>
-      <c r="F142" s="51"/>
-      <c r="G142" s="50"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="31"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
@@ -3001,11 +3055,17 @@
       <c r="B143" s="9">
         <v>-3.4333999999999998</v>
       </c>
-      <c r="C143" s="51"/>
-      <c r="D143" s="51"/>
-      <c r="E143" s="51"/>
-      <c r="F143" s="51"/>
-      <c r="G143" s="50"/>
+      <c r="C143" s="9">
+        <v>-12.944599999999999</v>
+      </c>
+      <c r="D143" s="9">
+        <v>-23.013100000000001</v>
+      </c>
+      <c r="E143" s="9">
+        <v>-32.932000000000002</v>
+      </c>
+      <c r="F143" s="9"/>
+      <c r="G143" s="31"/>
     </row>
     <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="6" t="s">
@@ -3014,20 +3074,26 @@
       <c r="B144" s="32">
         <v>2.6326999999999998</v>
       </c>
-      <c r="C144" s="62"/>
-      <c r="D144" s="62"/>
-      <c r="E144" s="62"/>
-      <c r="F144" s="62"/>
-      <c r="G144" s="63"/>
+      <c r="C144" s="32">
+        <v>2.6817000000000002</v>
+      </c>
+      <c r="D144" s="32">
+        <v>2.7978000000000001</v>
+      </c>
+      <c r="E144" s="32">
+        <v>2.4706999999999999</v>
+      </c>
+      <c r="F144" s="32"/>
+      <c r="G144" s="33"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="64" t="s">
-        <v>111</v>
+      <c r="B146" s="62" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B147" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +3119,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3062,10 +3128,10 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>52</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>5</v>
@@ -3079,7 +3145,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="22">
         <v>-10.4223</v>
@@ -3103,7 +3169,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="22">
         <v>-13.8728</v>
@@ -3127,7 +3193,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="22">
         <v>-9.6765000000000008</v>
@@ -3151,7 +3217,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="22">
         <v>-13.1538</v>
@@ -3175,7 +3241,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="22">
         <v>-13.4038</v>
@@ -3192,7 +3258,7 @@
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="25">
         <v>-12.888500000000001</v>
@@ -3209,24 +3275,24 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="24">
         <v>0.30146958000000001</v>
@@ -3234,7 +3300,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="24">
         <v>0.61430751900000002</v>
@@ -3242,7 +3308,7 @@
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="26">
         <v>0.39500000000000002</v>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8D4F81-2527-4C97-8BA4-447CA7FC6AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6477EA70-0C8B-4C2A-A472-694C70BE5882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
   <si>
-    <t>v = -20 [dB]</t>
-  </si>
-  <si>
     <t>1/r2 [dB], 1/q2 [dB]</t>
   </si>
   <si>
@@ -71,12 +68,6 @@
     <t>RTSNet true [dB] (n_Epochs=500, n_Batch=30, learningRate=1E-3, weightDecay=1E-9)</t>
   </si>
   <si>
-    <t xml:space="preserve">T=100 (Trajectory Length) </t>
-  </si>
-  <si>
-    <t>RunTime (s) (colab GPU, high RAM)</t>
-  </si>
-  <si>
     <t>H = H_(theta=10)</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>KF H=I std [dB]</t>
   </si>
   <si>
-    <t xml:space="preserve">2) Observation mismatch </t>
-  </si>
-  <si>
     <t>KF full(H=H_rot10) [dB]</t>
   </si>
   <si>
@@ -101,9 +89,6 @@
     <t>KF partial(H=I) [dB]</t>
   </si>
   <si>
-    <t>5x5, H in canonical form</t>
-  </si>
-  <si>
     <t>RTSNet full [dB]</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>RTS H=I std [dB]</t>
   </si>
   <si>
-    <t xml:space="preserve">3) State evolution model mismatch </t>
-  </si>
-  <si>
     <t>RTSNet F_hat [dB]</t>
   </si>
   <si>
@@ -146,18 +128,12 @@
     <t>KF full [dB]</t>
   </si>
   <si>
-    <t>KF partial(F rot 10) [dB]</t>
-  </si>
-  <si>
     <t>KF partial std [dB]</t>
   </si>
   <si>
     <t>RTS full [dB]</t>
   </si>
   <si>
-    <t>RTS partial(F rot 10) [dB]</t>
-  </si>
-  <si>
     <t>RTS partial std [dB]</t>
   </si>
   <si>
@@ -233,24 +209,12 @@
     <t>T=200 (train and test both on T=200)</t>
   </si>
   <si>
-    <t>Generalization to 5x5 and 10x10</t>
-  </si>
-  <si>
-    <t>T=20 (Trajectory Length) [0,20] case</t>
-  </si>
-  <si>
     <t>MSE 5x5</t>
   </si>
   <si>
-    <t>RunTime T=20 for 5x5</t>
-  </si>
-  <si>
     <t>MSE 10x10</t>
   </si>
   <si>
-    <t>RunTime T=20 for 10x10 (s)</t>
-  </si>
-  <si>
     <t>RTSNet true [dB] (n_Epochs=1000, n_Batch=50, learningRate=1E-4, weightDecay=1E-7)</t>
   </si>
   <si>
@@ -336,9 +300,6 @@
   </si>
   <si>
     <t>RTS (test on random and known init) [dB]</t>
-  </si>
-  <si>
-    <t>Random initial conditions(x1 and x2 both uniformly distributed on [0,100) )</t>
   </si>
   <si>
     <t>RTS (test on random init, feed with init=[50,50], P0 = [100^2/12, 0; 0, 100^2/12]) [dB]</t>
@@ -378,7 +339,52 @@
     <t>T=20 (Trajectory Length) 2x2, N_E=1000, N_CV=100, N_T=1000, v = -20 [dB]</t>
   </si>
   <si>
-    <t>RTSNet partial(F rot 10) (n_Epochs=2000, n_Batch=1, learningRate=1E-3, weightDecay=1E-9)[dB]</t>
+    <t>KF partial(F = I) [dB]</t>
+  </si>
+  <si>
+    <t>RTS partial(F = I) [dB]</t>
+  </si>
+  <si>
+    <t>RTSNet partial(F = I) (n_Epochs=2000, n_Batch=1, learningRate=1E-3, weightDecay=1E-9)[dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Gneralization </t>
+  </si>
+  <si>
+    <t>Generalization to Random initial conditions(x1 and x2 both uniformly distributed on [0,100) )</t>
+  </si>
+  <si>
+    <t>3) Scaling towards large models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Model Mismatch and learning parts of the model in a supervised way </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State evolution model mismatch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observation mismatch  </t>
+  </si>
+  <si>
+    <t>5) Decimation for linear</t>
+  </si>
+  <si>
+    <t>Generalization to 5x5, 10x10, 20x20, 40x40</t>
+  </si>
+  <si>
+    <t>RunTime for 10x10 (s)</t>
+  </si>
+  <si>
+    <t>RunTime for 5x5 (s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T=20 (Trajectory Length) 1/r2 [dB], 1/q2 [dB]=[0,20] </t>
+  </si>
+  <si>
+    <t>MSE2x2</t>
+  </si>
+  <si>
+    <t>RunTime for 2x2 (s)</t>
   </si>
 </sst>
 </file>
@@ -542,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -568,9 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,6 +669,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -946,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,82 +976,82 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
-        <v>76</v>
+      <c r="A3" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="41">
+        <v>10.022600000000001</v>
+      </c>
+      <c r="C5" s="41">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="D5" s="41">
+        <v>-10.002700000000001</v>
+      </c>
+      <c r="E5" s="41">
+        <v>-19.947399999999998</v>
+      </c>
+      <c r="F5" s="43">
+        <v>-29.9617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="42">
-        <v>10.022600000000001</v>
-      </c>
-      <c r="C5" s="42">
-        <v>5.4199999999999998E-2</v>
-      </c>
-      <c r="D5" s="42">
-        <v>-10.002700000000001</v>
-      </c>
-      <c r="E5" s="42">
-        <v>-19.947399999999998</v>
-      </c>
-      <c r="F5" s="44">
-        <v>-29.9617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="42">
+      <c r="B6" s="41">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>0.4476</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="41">
         <v>0.42730000000000001</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="41">
         <v>0.41070000000000001</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="43">
         <v>0.42949999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="40" t="s">
-        <v>8</v>
+      <c r="A7" s="39" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="9">
         <v>8.0853999999999999</v>
@@ -1051,13 +1065,13 @@
       <c r="E7" s="9">
         <v>-21.902799999999999</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="30">
         <v>-31.885899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
-        <v>77</v>
+      <c r="A8" s="39" t="s">
+        <v>65</v>
       </c>
       <c r="B8" s="9">
         <v>0.50170000000000003</v>
@@ -1071,13 +1085,13 @@
       <c r="E8" s="9">
         <v>0.4194</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>0.51370000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="40" t="s">
-        <v>9</v>
+      <c r="A9" s="39" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="9">
         <v>6.2152000000000003</v>
@@ -1091,14 +1105,14 @@
       <c r="E9" s="9">
         <v>-23.750499999999999</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="30">
         <v>-33.749099999999999</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
-        <v>78</v>
+      <c r="A10" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="B10" s="9">
         <v>0.4869</v>
@@ -1112,14 +1126,14 @@
       <c r="E10" s="9">
         <v>0.51919999999999999</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>0.50760000000000005</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="40" t="s">
-        <v>43</v>
+      <c r="A11" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="9">
         <v>6.2251000000000003</v>
@@ -1133,113 +1147,113 @@
       <c r="E11" s="9">
         <v>-23.7318</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>-33.697800000000001</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="32">
+      <c r="A12" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="31">
         <v>0.48709999999999998</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>0.53669999999999995</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>0.46279999999999999</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>0.51170000000000004</v>
       </c>
-      <c r="F12" s="43">
+      <c r="F12" s="42">
         <v>0.50549999999999995</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="19"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="19"/>
+      <c r="A14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="19"/>
+        <v>80</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="42">
+      <c r="A16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="41">
         <v>10.004300000000001</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="45">
         <v>-8.4907000000000005E-5</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="41">
         <v>-10.0288</v>
       </c>
-      <c r="E16" s="42">
+      <c r="E16" s="41">
         <v>-19.9815</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="43">
         <v>-29.968599999999999</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="42">
+      <c r="A17" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="41">
         <v>0.41909999999999997</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="41">
         <v>0.39150000000000001</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="41">
         <v>0.43099999999999999</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="41">
         <v>0.40439999999999998</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="43">
         <v>0.43509999999999999</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="9">
         <v>5.2991000000000001</v>
@@ -1253,14 +1267,14 @@
       <c r="E18" s="9">
         <v>-24.680399999999999</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="30">
         <v>-34.730899999999998</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B19" s="9">
         <v>0.70950000000000002</v>
@@ -1274,14 +1288,14 @@
       <c r="E19" s="9">
         <v>0.59619999999999995</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="30">
         <v>0.69599999999999995</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="9">
         <v>1.8344</v>
@@ -1295,14 +1309,14 @@
       <c r="E20" s="9">
         <v>-28.098099999999999</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="30">
         <v>-38.235599999999998</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B21" s="9">
         <v>0.79410000000000003</v>
@@ -1316,13 +1330,13 @@
       <c r="E21" s="9">
         <v>0.72609999999999997</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <v>0.83679999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B22" s="9">
         <v>1.8805000000000001</v>
@@ -1336,111 +1350,111 @@
       <c r="E22" s="9">
         <v>-27.875299999999999</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <v>-38.1828</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="32">
+        <v>75</v>
+      </c>
+      <c r="B23" s="31">
         <v>0.79549999999999998</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="31">
         <v>0.72040000000000004</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="31">
         <v>0.79720000000000002</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>0.74619999999999997</v>
       </c>
-      <c r="F23" s="43">
+      <c r="F23" s="42">
         <v>0.83630000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="28"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="20" t="s">
-        <v>86</v>
+      <c r="A25" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="G26" s="4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="42">
+      <c r="A27" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="41">
         <v>10.011900000000001</v>
       </c>
-      <c r="C27" s="42">
+      <c r="C27" s="41">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="D27" s="42">
+      <c r="D27" s="41">
         <v>-10.004200000000001</v>
       </c>
-      <c r="E27" s="42">
+      <c r="E27" s="41">
         <v>-19.976700000000001</v>
       </c>
-      <c r="F27" s="42">
+      <c r="F27" s="41">
         <v>-30.0029</v>
       </c>
-      <c r="G27" s="45"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="42">
+      <c r="A28" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="41">
         <v>0.39750000000000002</v>
       </c>
-      <c r="C28" s="42">
+      <c r="C28" s="41">
         <v>0.43390000000000001</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="41">
         <v>0.44819999999999999</v>
       </c>
-      <c r="E28" s="42">
+      <c r="E28" s="41">
         <v>0.4158</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <v>0.42849999999999999</v>
       </c>
-      <c r="G28" s="45"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="9">
         <v>2.7555999999999998</v>
@@ -1457,14 +1471,14 @@
       <c r="F29" s="9">
         <v>-37.323900000000002</v>
       </c>
-      <c r="G29" s="31">
+      <c r="G29" s="30">
         <f>6.41488122940063/200</f>
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B30" s="9">
         <v>1.0863</v>
@@ -1478,14 +1492,14 @@
       <c r="E30" s="9">
         <v>1.0107999999999999</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F30" s="26">
         <v>0.96260000000000001</v>
       </c>
-      <c r="G30" s="31"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31" s="9">
         <f>-1.7902</f>
@@ -1503,14 +1517,14 @@
       <c r="F31" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="30">
         <f xml:space="preserve"> 13.3679509162902/200</f>
         <v>6.6839754581451E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B32" s="9">
         <v>1.2419</v>
@@ -1524,14 +1538,14 @@
       <c r="E32" s="9">
         <v>1.1073</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="26">
         <v>1.2888999999999999</v>
       </c>
-      <c r="G32" s="31"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" s="9">
         <v>-1.64</v>
@@ -1548,1552 +1562,1556 @@
       <c r="F33" s="9">
         <v>-41.504600000000003</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="30">
         <f>56.4998171329498/200</f>
         <v>0.28249908566474902</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="32">
+        <v>75</v>
+      </c>
+      <c r="B34" s="31">
         <v>1.1987000000000001</v>
       </c>
-      <c r="C34" s="32">
+      <c r="C34" s="31">
         <v>1.1817</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>1.2788999999999999</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <v>1.1524000000000001</v>
       </c>
-      <c r="F34" s="35">
+      <c r="F34" s="34">
         <v>1.2285999999999999</v>
       </c>
-      <c r="G34" s="33"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A37" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18">
         <v>-7.1620999999999997</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="8">
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="8">
         <f>19.1064960956573/200</f>
         <v>9.5532480478286497E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19">
-        <v>0.3347</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="8"/>
-    </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19">
+        <v>65</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18">
+        <v>0.3347</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18">
         <v>-11.8101</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="8">
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="8">
         <f>39.3029329776763/200</f>
         <v>0.19651466488838149</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19">
-        <v>0.45019999999999999</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="8"/>
-    </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19">
+        <v>66</v>
+      </c>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18">
         <f>(-11.7224-11.7828)/2</f>
         <v>-11.752600000000001</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="8">
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="8">
         <f>297.675692081451/200</f>
         <v>1.4883784604072552</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="11"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18">
         <v>-7.2404999999999999</v>
       </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="8">
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="8">
         <f>9.09574961662292/200</f>
         <v>4.5478748083114598E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19">
-        <v>0.54310000000000003</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="8"/>
-    </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19">
+        <v>65</v>
+      </c>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18">
+        <v>0.54310000000000003</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18">
         <v>-11.852600000000001</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="8">
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="8">
         <f>19.0591733455657/200</f>
         <v>9.5295866727828499E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19">
-        <v>0.68740000000000001</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="8"/>
-    </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19">
+        <v>66</v>
+      </c>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18">
+        <v>0.68740000000000001</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18">
         <v>-11.773</v>
       </c>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="8">
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="8">
         <f>221.406227111816/200</f>
         <v>1.1070311355590801</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10">
         <v>0.68469999999999998</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="11"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="36"/>
-      <c r="F59" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G59" s="48">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="18"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="47">
         <v>30.081099999999999</v>
       </c>
-      <c r="H59" s="37"/>
-      <c r="I59" s="34"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="53">
+      <c r="H60" s="36"/>
+      <c r="I60" s="33"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="18"/>
+      <c r="C61" s="52">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="D60" s="19"/>
-      <c r="E60" s="36"/>
-      <c r="F60" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G60" s="8">
+      <c r="D61" s="18"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="8">
         <v>26.237500000000001</v>
       </c>
-      <c r="H60" s="37"/>
-      <c r="I60" s="34"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="53">
+      <c r="H61" s="36"/>
+      <c r="I61" s="33"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="52">
         <v>0.3891</v>
       </c>
-      <c r="D61" s="19"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="34"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="31">
-        <v>-7.2916999999999996</v>
-      </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="8">
-        <v>-6.7626999999999997</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="34"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="60"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="33"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="31">
-        <v>0.90980000000000005</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="36"/>
+        <v>91</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="30">
+        <v>-7.2916999999999996</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="35"/>
       <c r="F63" s="12" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G63" s="8">
-        <v>0.88480000000000003</v>
+        <v>-6.7626999999999997</v>
       </c>
       <c r="H63" s="9"/>
-      <c r="I63" s="34"/>
+      <c r="I63" s="33"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="31">
-        <v>-11.7737</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="B64" s="18"/>
+      <c r="C64" s="30">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="35"/>
       <c r="F64" s="12" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G64" s="8">
-        <v>-11.523199999999999</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="H64" s="9"/>
-      <c r="I64" s="34"/>
+      <c r="I64" s="33"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="31">
+        <v>87</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="30">
+        <v>-11.7737</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="8">
+        <v>-11.523199999999999</v>
+      </c>
+      <c r="H65" s="9"/>
+      <c r="I65" s="33"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="18"/>
+      <c r="C66" s="30">
         <v>1.2115</v>
       </c>
-      <c r="D65" s="19"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="8">
+      <c r="D66" s="18"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" s="8">
         <v>1.1852</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="34"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="B66" s="36"/>
-      <c r="C66" s="55">
+      <c r="H66" s="9"/>
+      <c r="I66" s="33"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="54">
         <v>-11.471500000000001</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G66" s="8">
+      <c r="D67" s="18"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G67" s="8">
         <v>9.0884</v>
       </c>
-      <c r="H66" s="36"/>
-      <c r="I66" s="34"/>
-    </row>
-    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" s="36"/>
-      <c r="C67" s="55">
+      <c r="H67" s="35"/>
+      <c r="I67" s="33"/>
+    </row>
+    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="54">
         <v>1.2063999999999999</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="11">
+      <c r="D68" s="18"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" s="11">
         <v>2.7212000000000001</v>
       </c>
-      <c r="H67" s="36"/>
-      <c r="I67" s="34"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="B68" s="36"/>
-      <c r="C68" s="56">
+      <c r="H68" s="35"/>
+      <c r="I68" s="33"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="55">
         <v>-11.5383</v>
       </c>
-      <c r="D68" s="19"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="34"/>
-    </row>
-    <row r="69" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" s="58"/>
-      <c r="C69" s="59">
+      <c r="D69" s="18"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="33"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="57"/>
+      <c r="C70" s="58">
         <v>1.1716</v>
       </c>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" s="28"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D74" s="28"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="F75" s="28"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="3" t="s">
+      <c r="A76" s="63"/>
+      <c r="B76" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F76" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="G76" s="65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="9">
-        <v>0.37009999999999998</v>
-      </c>
-      <c r="C77" s="9">
-        <v>-9.5507000000000009</v>
-      </c>
-      <c r="D77" s="9">
-        <v>-19.614100000000001</v>
-      </c>
-      <c r="E77" s="9">
-        <v>-29.642099999999999</v>
-      </c>
-      <c r="F77" s="9">
-        <v>-39.517699999999998</v>
-      </c>
-      <c r="G77" s="8">
-        <f>6.71297335624694/200</f>
-        <v>3.3564866781234701E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="9">
-        <v>-2.0627</v>
-      </c>
-      <c r="C78" s="9">
-        <v>-12.234</v>
-      </c>
-      <c r="D78" s="9">
-        <v>-22.131499999999999</v>
-      </c>
-      <c r="E78" s="9">
-        <v>-32.137099999999997</v>
-      </c>
-      <c r="F78" s="9">
-        <v>-42.033499999999997</v>
-      </c>
-      <c r="G78" s="8">
-        <f>13.8022818565368/200</f>
-        <v>6.9011409282683997E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="29"/>
-    </row>
-    <row r="83" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F83" s="29"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
-      <c r="B84" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="30">
+      <c r="B77" s="66"/>
+      <c r="C77" s="21"/>
+      <c r="D77" s="66">
         <v>-10.795199999999999</v>
       </c>
-      <c r="C85">
+      <c r="E77" s="21">
         <f>1.38270020484924/200</f>
         <v>6.9135010242462004E-3</v>
       </c>
-      <c r="D85" s="30">
+      <c r="F77" s="66">
         <v>-11.2011</v>
       </c>
-      <c r="E85" s="24">
+      <c r="G77" s="21">
         <f>1.35998010635375/200</f>
         <v>6.7999005317687499E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="30">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B78" s="66"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="21"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="66"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="66">
         <v>-12.548</v>
       </c>
-      <c r="C86">
+      <c r="E79" s="21">
         <f>2.79346585273742/200</f>
         <v>1.39673292636871E-2</v>
       </c>
-      <c r="D86" s="30">
+      <c r="F79" s="66">
         <v>-12.3985</v>
       </c>
-      <c r="E86" s="24">
+      <c r="G79" s="21">
         <f>2.5887804031372/200</f>
         <v>1.2943902015686E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" s="66"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="21"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21">
         <v>-12.0535</v>
       </c>
-      <c r="C87" s="25">
+      <c r="E81" s="21">
         <f>11.7575964927673/200</f>
         <v>5.87879824638365E-2</v>
       </c>
-      <c r="D87" s="25">
+      <c r="F81" s="21">
         <v>-12.076599999999999</v>
       </c>
-      <c r="E87" s="26">
+      <c r="G81" s="21">
         <f>11.3483390808105/200</f>
         <v>5.6741695404052502E-2</v>
       </c>
     </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="A90" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B94" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G94" s="49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B95" s="9">
+      <c r="B90" s="9">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C90" s="9">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D90" s="9">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E90" s="9">
         <v>-27.2926</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F90" s="9">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G95" s="31">
+      <c r="G90" s="30">
         <f>1.87291026115417/200</f>
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="C91" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="D91" s="9">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="E91" s="9">
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="F91" s="9">
+        <v>1.0293000000000001</v>
+      </c>
+      <c r="G91" s="49"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="5"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="49"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="9">
+        <v>11.153700000000001</v>
+      </c>
+      <c r="C93" s="9">
+        <v>0.92630000000000001</v>
+      </c>
+      <c r="D93" s="9">
+        <v>-9.1595999999999993</v>
+      </c>
+      <c r="E93" s="9">
+        <v>-18.4282</v>
+      </c>
+      <c r="F93" s="9">
+        <v>-28.785699999999999</v>
+      </c>
+      <c r="G93" s="30">
+        <f>1.73989057540893/200</f>
+        <v>8.6994528770446503E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="9">
+        <v>3.0234000000000001</v>
+      </c>
+      <c r="C94" s="9">
+        <v>3.0640999999999998</v>
+      </c>
+      <c r="D94" s="9">
+        <v>3.6509</v>
+      </c>
+      <c r="E94" s="9">
+        <v>3.2534000000000001</v>
+      </c>
+      <c r="F94" s="9">
+        <v>3.3008000000000002</v>
+      </c>
+      <c r="G94" s="49"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="5"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="49"/>
+    </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B96" s="9">
-        <v>0.88500000000000001</v>
+        <v>-1.8754</v>
       </c>
       <c r="C96" s="9">
-        <v>0.90100000000000002</v>
+        <v>-11.879799999999999</v>
       </c>
       <c r="D96" s="9">
-        <v>0.95669999999999999</v>
+        <v>-21.812200000000001</v>
       </c>
       <c r="E96" s="9">
-        <v>0.96560000000000001</v>
+        <v>-31.9605</v>
       </c>
       <c r="F96" s="9">
-        <v>1.0293000000000001</v>
-      </c>
-      <c r="G96" s="50"/>
+        <v>-41.809899999999999</v>
+      </c>
+      <c r="G96" s="30">
+        <f>3.64388179779052/200</f>
+        <v>1.82194089889526E-2</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="5"/>
-      <c r="B97" s="51"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="50"/>
+      <c r="A97" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="9">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="C97" s="9">
+        <v>1.2719</v>
+      </c>
+      <c r="D97" s="9">
+        <v>1.1487000000000001</v>
+      </c>
+      <c r="E97" s="9">
+        <v>1.2646999999999999</v>
+      </c>
+      <c r="F97" s="9">
+        <v>1.1558999999999999</v>
+      </c>
+      <c r="G97" s="30"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B98" s="9">
-        <v>11.153700000000001</v>
-      </c>
-      <c r="C98" s="9">
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="D98" s="9">
-        <v>-9.1595999999999993</v>
-      </c>
-      <c r="E98" s="9">
-        <v>-18.4282</v>
-      </c>
-      <c r="F98" s="9">
-        <v>-28.785699999999999</v>
-      </c>
-      <c r="G98" s="31">
-        <f>1.73989057540893/200</f>
-        <v>8.6994528770446503E-3</v>
-      </c>
+      <c r="A98" s="5"/>
+      <c r="B98" s="50"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="30"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B99" s="9">
-        <v>3.0234000000000001</v>
+        <v>5.5016999999999996</v>
       </c>
       <c r="C99" s="9">
-        <v>3.0640999999999998</v>
+        <v>-4.8254000000000001</v>
       </c>
       <c r="D99" s="9">
-        <v>3.6509</v>
+        <v>-15.061500000000001</v>
       </c>
       <c r="E99" s="9">
-        <v>3.2534000000000001</v>
+        <v>-24.198</v>
       </c>
       <c r="F99" s="9">
-        <v>3.3008000000000002</v>
-      </c>
-      <c r="G99" s="50"/>
+        <v>-34.591799999999999</v>
+      </c>
+      <c r="G99" s="30">
+        <f>3.63707900047302/200</f>
+        <v>1.8185395002365098E-2</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="50"/>
+      <c r="A100" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B100" s="9">
+        <v>2.9416000000000002</v>
+      </c>
+      <c r="C100" s="9">
+        <v>3.2046000000000001</v>
+      </c>
+      <c r="D100" s="9">
+        <v>3.4399000000000002</v>
+      </c>
+      <c r="E100" s="9">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="F100" s="9">
+        <v>3.133</v>
+      </c>
+      <c r="G100" s="49"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B101" s="9">
-        <v>-1.8754</v>
-      </c>
-      <c r="C101" s="9">
-        <v>-11.879799999999999</v>
-      </c>
-      <c r="D101" s="9">
-        <v>-21.812200000000001</v>
-      </c>
-      <c r="E101" s="9">
-        <v>-31.9605</v>
-      </c>
-      <c r="F101" s="9">
-        <v>-41.809899999999999</v>
-      </c>
-      <c r="G101" s="31">
-        <f>3.64388179779052/200</f>
-        <v>1.82194089889526E-2</v>
-      </c>
+      <c r="A101" s="5"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="49"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B102" s="9">
-        <v>1.2853000000000001</v>
+        <f>-1.7902</f>
+        <v>-1.7902</v>
       </c>
       <c r="C102" s="9">
-        <v>1.2719</v>
+        <v>-11.8467</v>
       </c>
       <c r="D102" s="9">
-        <v>1.1487000000000001</v>
+        <v>-21.738299999999999</v>
       </c>
       <c r="E102" s="9">
-        <v>1.2646999999999999</v>
+        <v>-31.619900000000001</v>
       </c>
       <c r="F102" s="9">
-        <v>1.1558999999999999</v>
-      </c>
-      <c r="G102" s="31"/>
+        <v>-41.830800000000004</v>
+      </c>
+      <c r="G102" s="30">
+        <f>43.5942468643188/200</f>
+        <v>0.21797123432159399</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="5"/>
-      <c r="B103" s="51"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="31"/>
+      <c r="A103" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B103" s="9">
+        <v>1.2419</v>
+      </c>
+      <c r="C103" s="9">
+        <v>1.1898</v>
+      </c>
+      <c r="D103" s="9">
+        <v>1.2814000000000001</v>
+      </c>
+      <c r="E103" s="9">
+        <v>1.1073</v>
+      </c>
+      <c r="F103" s="26">
+        <v>1.2888999999999999</v>
+      </c>
+      <c r="G103" s="30"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B104" s="9">
-        <v>5.5016999999999996</v>
-      </c>
-      <c r="C104" s="9">
-        <v>-4.8254000000000001</v>
-      </c>
-      <c r="D104" s="9">
-        <v>-15.061500000000001</v>
-      </c>
-      <c r="E104" s="9">
-        <v>-24.198</v>
-      </c>
-      <c r="F104" s="9">
-        <v>-34.591799999999999</v>
-      </c>
-      <c r="G104" s="31">
-        <f>3.63707900047302/200</f>
-        <v>1.8185395002365098E-2</v>
-      </c>
+      <c r="A104" s="5"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="30"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B105" s="9">
-        <v>2.9416000000000002</v>
+        <v>-0.77390000000000003</v>
       </c>
       <c r="C105" s="9">
-        <v>3.2046000000000001</v>
+        <v>-10.8522</v>
       </c>
       <c r="D105" s="9">
-        <v>3.4399000000000002</v>
+        <v>-21.103899999999999</v>
       </c>
       <c r="E105" s="9">
-        <v>3.1190000000000002</v>
+        <v>-29.667200000000001</v>
       </c>
       <c r="F105" s="9">
-        <v>3.133</v>
-      </c>
-      <c r="G105" s="50"/>
+        <v>-38.0655</v>
+      </c>
+      <c r="G105" s="30"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="5"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51"/>
-      <c r="E106" s="51"/>
-      <c r="F106" s="51"/>
-      <c r="G106" s="50"/>
+      <c r="A106" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="9">
+        <v>1.2433000000000001</v>
+      </c>
+      <c r="C106" s="9">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="D106" s="9">
+        <v>1.2155</v>
+      </c>
+      <c r="E106" s="9">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="F106" s="9">
+        <v>1.1361000000000001</v>
+      </c>
+      <c r="G106" s="30"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B107" s="9">
-        <f>-1.7902</f>
-        <v>-1.7902</v>
-      </c>
-      <c r="C107" s="9">
-        <v>-11.8467</v>
-      </c>
-      <c r="D107" s="9">
-        <v>-21.738299999999999</v>
-      </c>
-      <c r="E107" s="9">
-        <v>-31.619900000000001</v>
-      </c>
-      <c r="F107" s="9">
-        <v>-41.830800000000004</v>
-      </c>
-      <c r="G107" s="31">
-        <f>43.5942468643188/200</f>
-        <v>0.21797123432159399</v>
-      </c>
+      <c r="A107" s="5"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="30"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B108" s="9">
-        <v>1.2419</v>
+        <v>-1.7432000000000001</v>
       </c>
       <c r="C108" s="9">
-        <v>1.1898</v>
+        <v>-11.6966</v>
       </c>
       <c r="D108" s="9">
-        <v>1.2814000000000001</v>
+        <v>-21.720500000000001</v>
       </c>
       <c r="E108" s="9">
-        <v>1.1073</v>
-      </c>
-      <c r="F108" s="27">
-        <v>1.2888999999999999</v>
-      </c>
-      <c r="G108" s="31"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="31"/>
+        <v>-31.185500000000001</v>
+      </c>
+      <c r="F108" s="9">
+        <v>-40.300899999999999</v>
+      </c>
+      <c r="G108" s="30"/>
+    </row>
+    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B109" s="31">
+        <v>1.2693000000000001</v>
+      </c>
+      <c r="C109" s="31">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="D109" s="31">
+        <v>1.1528</v>
+      </c>
+      <c r="E109" s="31">
+        <v>1.2195</v>
+      </c>
+      <c r="F109" s="31">
+        <v>1.1687000000000001</v>
+      </c>
+      <c r="G109" s="32"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B110" s="9">
-        <v>-0.77390000000000003</v>
-      </c>
-      <c r="C110" s="9">
-        <v>-10.8522</v>
-      </c>
-      <c r="D110" s="9">
-        <v>-21.103899999999999</v>
-      </c>
-      <c r="E110" s="9">
-        <v>-29.667200000000001</v>
-      </c>
-      <c r="F110" s="9">
-        <v>-38.0655</v>
-      </c>
-      <c r="G110" s="31"/>
+      <c r="A110" s="21"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B111" s="9">
-        <v>1.2433000000000001</v>
-      </c>
-      <c r="C111" s="9">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="D111" s="9">
-        <v>1.2155</v>
-      </c>
-      <c r="E111" s="9">
-        <v>1.2145999999999999</v>
-      </c>
-      <c r="F111" s="9">
-        <v>1.1361000000000001</v>
-      </c>
-      <c r="G111" s="31"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="5"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="31"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B113" s="9">
-        <v>-1.7432000000000001</v>
-      </c>
-      <c r="C113" s="9">
-        <v>-11.6966</v>
-      </c>
-      <c r="D113" s="9">
-        <v>-21.720500000000001</v>
-      </c>
-      <c r="E113" s="9">
-        <v>-31.185500000000001</v>
-      </c>
-      <c r="F113" s="9">
-        <v>-40.300899999999999</v>
-      </c>
-      <c r="G113" s="31"/>
-    </row>
-    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A114" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B114" s="32">
-        <v>1.2693000000000001</v>
-      </c>
-      <c r="C114" s="32">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="D114" s="32">
-        <v>1.1528</v>
-      </c>
-      <c r="E114" s="32">
-        <v>1.2195</v>
-      </c>
-      <c r="F114" s="32">
-        <v>1.1687000000000001</v>
-      </c>
-      <c r="G114" s="33"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="22"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="18"/>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
+      <c r="A115" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C115" s="19"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="22"/>
-      <c r="B117" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
+      <c r="A116" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G118" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119" s="9">
+        <v>3.4502999999999999</v>
+      </c>
+      <c r="C119" s="9">
+        <v>-6.5942999999999996</v>
+      </c>
+      <c r="D119" s="9">
+        <v>-16.561499999999999</v>
+      </c>
+      <c r="E119" s="9">
+        <v>-26.6008</v>
+      </c>
+      <c r="F119" s="9">
+        <v>-36.565199999999997</v>
+      </c>
+      <c r="G119" s="30">
+        <f>1.81720042228698/1000</f>
+        <v>1.8172004222869801E-3</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="20"/>
+      <c r="A120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B120" s="9">
+        <v>1.8456999999999999</v>
+      </c>
+      <c r="C120" s="9">
+        <v>1.8831</v>
+      </c>
+      <c r="D120" s="9">
+        <v>1.8754999999999999</v>
+      </c>
+      <c r="E120" s="9">
+        <v>1.9067000000000001</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1.8309</v>
+      </c>
+      <c r="G120" s="49"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>72</v>
-      </c>
+      <c r="A121" s="5"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="49"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+      <c r="A122" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B122" s="9">
+        <v>33.961399999999998</v>
+      </c>
+      <c r="C122" s="9">
+        <v>23.832799999999999</v>
+      </c>
+      <c r="D122" s="9">
+        <v>13.8483</v>
+      </c>
+      <c r="E122" s="9">
+        <v>4.1989999999999998</v>
+      </c>
+      <c r="F122" s="9">
+        <v>-6.4336000000000002</v>
+      </c>
+      <c r="G122" s="30"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="9">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="C123" s="9">
+        <v>3.8573</v>
+      </c>
+      <c r="D123" s="9">
+        <v>3.6829000000000001</v>
+      </c>
+      <c r="E123" s="9">
+        <v>3.8494999999999999</v>
+      </c>
+      <c r="F123" s="9">
+        <v>3.8119000000000001</v>
+      </c>
+      <c r="G123" s="49"/>
+    </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G124" s="16" t="s">
-        <v>108</v>
-      </c>
+      <c r="A124" s="5"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="49"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B125" s="9">
-        <v>3.4502999999999999</v>
+        <v>-3.8433999999999999</v>
       </c>
       <c r="C125" s="9">
-        <v>-6.5942999999999996</v>
+        <v>-13.9133</v>
       </c>
       <c r="D125" s="9">
-        <v>-16.561499999999999</v>
+        <v>-23.5916</v>
       </c>
       <c r="E125" s="9">
-        <v>-26.6008</v>
+        <v>-33.8613</v>
       </c>
       <c r="F125" s="9">
-        <v>-36.565199999999997</v>
-      </c>
-      <c r="G125" s="31">
-        <f>1.81720042228698/1000</f>
-        <v>1.8172004222869801E-3</v>
+        <v>-43.593000000000004</v>
+      </c>
+      <c r="G125" s="30">
+        <f>3.73042225837707/1000</f>
+        <v>3.7304222583770699E-3</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B126" s="9">
-        <v>1.8456999999999999</v>
+        <v>2.6547999999999998</v>
       </c>
       <c r="C126" s="9">
-        <v>1.8831</v>
+        <v>2.7086999999999999</v>
       </c>
       <c r="D126" s="9">
-        <v>1.8754999999999999</v>
+        <v>2.7507000000000001</v>
       </c>
       <c r="E126" s="9">
-        <v>1.9067000000000001</v>
+        <v>2.7532999999999999</v>
       </c>
       <c r="F126" s="9">
-        <v>1.8309</v>
-      </c>
-      <c r="G126" s="50"/>
+        <v>2.7458</v>
+      </c>
+      <c r="G126" s="30"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="5"/>
-      <c r="B127" s="51"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="50"/>
+      <c r="G127" s="30"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B128" s="9">
-        <v>33.961399999999998</v>
+        <v>32.962600000000002</v>
       </c>
       <c r="C128" s="9">
-        <v>23.832799999999999</v>
+        <v>22.838000000000001</v>
       </c>
       <c r="D128" s="9">
-        <v>13.8483</v>
+        <v>12.853400000000001</v>
       </c>
       <c r="E128" s="9">
-        <v>4.1989999999999998</v>
+        <v>3.2014</v>
       </c>
       <c r="F128" s="9">
-        <v>-6.4336000000000002</v>
-      </c>
-      <c r="G128" s="31"/>
+        <v>-7.4305000000000003</v>
+      </c>
+      <c r="G128" s="30"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B129" s="9">
-        <v>3.9329999999999998</v>
+        <v>3.9333999999999998</v>
       </c>
       <c r="C129" s="9">
-        <v>3.8573</v>
+        <v>3.859</v>
       </c>
       <c r="D129" s="9">
-        <v>3.6829000000000001</v>
+        <v>3.6848999999999998</v>
       </c>
       <c r="E129" s="9">
-        <v>3.8494999999999999</v>
+        <v>3.851</v>
       </c>
       <c r="F129" s="9">
-        <v>3.8119000000000001</v>
-      </c>
-      <c r="G129" s="50"/>
+        <v>3.8092000000000001</v>
+      </c>
+      <c r="G129" s="49"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="5"/>
-      <c r="B130" s="51"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="50"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="50"/>
+      <c r="E130" s="50"/>
+      <c r="F130" s="50"/>
+      <c r="G130" s="49"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B131" s="9">
-        <v>-3.8433999999999999</v>
+        <v>-3.3506</v>
       </c>
       <c r="C131" s="9">
-        <v>-13.9133</v>
+        <v>-13.5854</v>
       </c>
       <c r="D131" s="9">
-        <v>-23.5916</v>
+        <v>-23.3325</v>
       </c>
       <c r="E131" s="9">
-        <v>-33.8613</v>
+        <v>-33.126199999999997</v>
       </c>
       <c r="F131" s="9">
-        <v>-43.593000000000004</v>
-      </c>
-      <c r="G131" s="31">
-        <f>3.73042225837707/1000</f>
-        <v>3.7304222583770699E-3</v>
+        <v>-43.1599</v>
+      </c>
+      <c r="G131" s="30">
+        <f>44.6756930351257/1000</f>
+        <v>4.4675693035125696E-2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B132" s="9">
-        <v>2.6547999999999998</v>
+        <v>2.6993</v>
       </c>
       <c r="C132" s="9">
-        <v>2.7086999999999999</v>
+        <v>2.6728000000000001</v>
       </c>
       <c r="D132" s="9">
-        <v>2.7507000000000001</v>
+        <v>2.6707000000000001</v>
       </c>
       <c r="E132" s="9">
-        <v>2.7532999999999999</v>
+        <v>2.6284000000000001</v>
       </c>
       <c r="F132" s="9">
-        <v>2.7458</v>
-      </c>
-      <c r="G132" s="31"/>
+        <v>2.6488</v>
+      </c>
+      <c r="G132" s="30"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="5"/>
-      <c r="B133" s="51"/>
+      <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="31"/>
+      <c r="G133" s="30"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="B134" s="9">
-        <v>32.962600000000002</v>
+        <v>10.5525</v>
       </c>
       <c r="C134" s="9">
-        <v>22.838000000000001</v>
+        <v>-2.0112999999999999</v>
       </c>
       <c r="D134" s="9">
-        <v>12.853400000000001</v>
+        <v>-10.688499999999999</v>
       </c>
       <c r="E134" s="9">
-        <v>3.2014</v>
+        <v>-21.682500000000001</v>
       </c>
       <c r="F134" s="9">
-        <v>-7.4305000000000003</v>
-      </c>
-      <c r="G134" s="31"/>
+        <v>-31.886700000000001</v>
+      </c>
+      <c r="G134" s="30"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B135" s="9">
-        <v>3.9333999999999998</v>
+        <v>3.1505999999999998</v>
       </c>
       <c r="C135" s="9">
-        <v>3.859</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="D135" s="9">
-        <v>3.6848999999999998</v>
+        <v>1.9343999999999999</v>
       </c>
       <c r="E135" s="9">
-        <v>3.851</v>
+        <v>1.6428</v>
       </c>
       <c r="F135" s="9">
-        <v>3.8092000000000001</v>
-      </c>
-      <c r="G135" s="50"/>
+        <v>1.2435</v>
+      </c>
+      <c r="G135" s="30"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="5"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="51"/>
-      <c r="E136" s="51"/>
-      <c r="F136" s="51"/>
-      <c r="G136" s="50"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="30"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B137" s="9">
-        <v>-3.3506</v>
-      </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="31">
-        <f>44.6756930351257/1000</f>
-        <v>4.4675693035125696E-2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="9">
-        <v>2.6993</v>
-      </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="31"/>
+        <v>-3.4333999999999998</v>
+      </c>
+      <c r="C137" s="9">
+        <v>-12.944599999999999</v>
+      </c>
+      <c r="D137" s="9">
+        <v>-23.013100000000001</v>
+      </c>
+      <c r="E137" s="9">
+        <v>-32.932000000000002</v>
+      </c>
+      <c r="F137" s="9">
+        <v>-41.863900000000001</v>
+      </c>
+      <c r="G137" s="30"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="31">
+        <v>2.6326999999999998</v>
+      </c>
+      <c r="C138" s="31">
+        <v>2.6817000000000002</v>
+      </c>
+      <c r="D138" s="31">
+        <v>2.7978000000000001</v>
+      </c>
+      <c r="E138" s="31">
+        <v>2.4706999999999999</v>
+      </c>
+      <c r="F138" s="31">
+        <v>2.6570999999999998</v>
+      </c>
+      <c r="G138" s="32"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="5"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="31"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B140" s="51">
-        <v>19.531099999999999</v>
-      </c>
-      <c r="C140" s="9">
-        <v>-2.0112999999999999</v>
-      </c>
-      <c r="D140" s="9">
-        <v>-10.688499999999999</v>
-      </c>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="31"/>
+      <c r="B140" s="61" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B141" s="51">
-        <v>3.7469000000000001</v>
-      </c>
-      <c r="C141" s="9">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="D141" s="9">
-        <v>1.9343999999999999</v>
-      </c>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="31"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="5"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="31"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B143" s="9">
-        <v>-3.4333999999999998</v>
-      </c>
-      <c r="C143" s="9">
-        <v>-12.944599999999999</v>
-      </c>
-      <c r="D143" s="9">
-        <v>-23.013100000000001</v>
-      </c>
-      <c r="E143" s="9">
-        <v>-32.932000000000002</v>
-      </c>
-      <c r="F143" s="9"/>
-      <c r="G143" s="31"/>
-    </row>
-    <row r="144" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B144" s="32">
-        <v>2.6326999999999998</v>
-      </c>
-      <c r="C144" s="32">
-        <v>2.6817000000000002</v>
-      </c>
-      <c r="D144" s="32">
-        <v>2.7978000000000001</v>
-      </c>
-      <c r="E144" s="32">
-        <v>2.4706999999999999</v>
-      </c>
-      <c r="F144" s="32"/>
-      <c r="G144" s="33"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B146" s="62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B147" t="s">
-        <v>111</v>
+      <c r="B141" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3119,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3128,189 +3146,189 @@
     <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="22">
+        <v>46</v>
+      </c>
+      <c r="B4" s="21">
         <v>-10.4223</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="21">
         <v>-20.546399999999998</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="21">
         <v>-30.565899999999999</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>-40.424100000000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="24"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="22">
+        <v>47</v>
+      </c>
+      <c r="B6" s="21">
         <v>-13.8728</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="21">
         <v>-23.9254</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="21">
         <v>-34.028799999999997</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>-43.958799999999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="24"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="22">
+        <v>48</v>
+      </c>
+      <c r="B8" s="21">
         <v>-9.6765000000000008</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>-15.9671</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>-17.5745</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>-17.808599999999998</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="22">
+        <v>49</v>
+      </c>
+      <c r="B10" s="21">
         <v>-13.1538</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>-19.496200000000002</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>-21.472899999999999</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="23">
         <v>-21.748200000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="22">
+        <v>50</v>
+      </c>
+      <c r="B12" s="21">
         <v>-13.4038</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>-23.161000000000001</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>-33.494199999999999</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>-42.509599999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="25">
+        <v>51</v>
+      </c>
+      <c r="B13" s="24">
         <v>-12.888500000000001</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="24">
         <v>-22.598099999999999</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="24">
         <v>-29.8276</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="25">
         <v>-36.738900000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="24">
+        <v>53</v>
+      </c>
+      <c r="B18" s="23">
         <v>0.30146958000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="24">
+        <v>54</v>
+      </c>
+      <c r="B19" s="23">
         <v>0.61430751900000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="26">
+        <v>55</v>
+      </c>
+      <c r="B20" s="25">
         <v>0.39500000000000002</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6477EA70-0C8B-4C2A-A472-694C70BE5882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFF4C3-051E-4810-ACFE-54A57E9A546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -213,9 +213,6 @@
   </si>
   <si>
     <t>MSE 10x10</t>
-  </si>
-  <si>
-    <t>RTSNet true [dB] (n_Epochs=1000, n_Batch=50, learningRate=1E-4, weightDecay=1E-7)</t>
   </si>
   <si>
     <t>F = F_(theta=10)</t>
@@ -385,6 +382,15 @@
   </si>
   <si>
     <t>RunTime for 2x2 (s)</t>
+  </si>
+  <si>
+    <t>RTSNet true [dB] (n_Epochs=5000, n_Batch=5, learningRate=1E-4, weightDecay=1E-3)</t>
+  </si>
+  <si>
+    <t>MSE 20x20</t>
+  </si>
+  <si>
+    <t>RunTime for 20x20 (s)</t>
   </si>
 </sst>
 </file>
@@ -676,8 +682,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -963,7 +971,7 @@
   <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,12 +989,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -994,24 +1002,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="D4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="41">
         <v>10.022600000000001</v>
@@ -1031,7 +1039,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="41">
         <v>0.42399999999999999</v>
@@ -1071,7 +1079,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="9">
         <v>0.50170000000000003</v>
@@ -1112,7 +1120,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="9">
         <v>0.4869</v>
@@ -1154,7 +1162,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="31">
         <v>0.48709999999999998</v>
@@ -1184,7 +1192,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="18"/>
     </row>
@@ -1193,25 +1201,25 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="41">
         <v>10.004300000000001</v>
@@ -1232,7 +1240,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="41">
         <v>0.41909999999999997</v>
@@ -1274,7 +1282,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="9">
         <v>0.70950000000000002</v>
@@ -1316,7 +1324,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="9">
         <v>0.79410000000000003</v>
@@ -1336,7 +1344,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" s="9">
         <v>1.8805000000000001</v>
@@ -1356,7 +1364,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="31">
         <v>0.79549999999999998</v>
@@ -1384,7 +1392,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1412,7 +1420,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B27" s="41">
         <v>10.011900000000001</v>
@@ -1433,7 +1441,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" s="41">
         <v>0.39750000000000002</v>
@@ -1478,7 +1486,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="9">
         <v>1.0863</v>
@@ -1524,7 +1532,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="9">
         <v>1.2419</v>
@@ -1569,7 +1577,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="31">
         <v>1.1987000000000001</v>
@@ -1608,7 +1616,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1672,7 +1680,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18">
@@ -1701,7 +1709,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18">
@@ -1731,7 +1739,7 @@
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10">
@@ -1753,7 +1761,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -1785,7 +1793,7 @@
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
       <c r="G50" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
@@ -1806,7 +1814,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18">
@@ -1835,7 +1843,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18">
@@ -1848,7 +1856,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18">
@@ -1864,7 +1872,7 @@
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10">
@@ -1886,7 +1894,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -1927,7 +1935,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="52">
@@ -1946,7 +1954,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="52">
@@ -1961,7 +1969,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="30">
@@ -1970,7 +1978,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="35"/>
       <c r="F63" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" s="8">
         <v>-6.7626999999999997</v>
@@ -1980,7 +1988,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="30">
@@ -1989,7 +1997,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="35"/>
       <c r="F64" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G64" s="8">
         <v>0.88480000000000003</v>
@@ -1999,7 +2007,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="30">
@@ -2008,7 +2016,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="35"/>
       <c r="F65" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G65" s="8">
         <v>-11.523199999999999</v>
@@ -2018,7 +2026,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="30">
@@ -2027,7 +2035,7 @@
       <c r="D66" s="18"/>
       <c r="E66" s="35"/>
       <c r="F66" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="8">
         <v>1.1852</v>
@@ -2037,7 +2045,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="54">
@@ -2046,7 +2054,7 @@
       <c r="D67" s="18"/>
       <c r="E67" s="33"/>
       <c r="F67" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G67" s="8">
         <v>9.0884</v>
@@ -2056,7 +2064,7 @@
     </row>
     <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="54">
@@ -2065,7 +2073,7 @@
       <c r="D68" s="18"/>
       <c r="E68" s="35"/>
       <c r="F68" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G68" s="11">
         <v>2.7212000000000001</v>
@@ -2075,7 +2083,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="55">
@@ -2090,7 +2098,7 @@
     </row>
     <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="57"/>
       <c r="C70" s="58">
@@ -2113,7 +2121,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2124,7 +2132,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D73" s="28"/>
     </row>
@@ -2136,7 +2144,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
@@ -2144,141 +2152,195 @@
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="63"/>
       <c r="B76" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>114</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>115</v>
       </c>
       <c r="D76" s="64" t="s">
         <v>57</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F76" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="G76" s="65" t="s">
-        <v>111</v>
+      <c r="G76" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H76" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="I76" s="33" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="66"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="66">
-        <v>-10.795199999999999</v>
-      </c>
-      <c r="E77" s="21">
-        <f>1.38270020484924/200</f>
-        <v>6.9135010242462004E-3</v>
-      </c>
-      <c r="F77" s="66">
-        <v>-11.2011</v>
-      </c>
-      <c r="G77" s="21">
-        <f>1.35998010635375/200</f>
-        <v>6.7999005317687499E-3</v>
+      <c r="B77" s="65">
+        <v>-7.7907000000000002</v>
+      </c>
+      <c r="C77" s="65">
+        <f>0.38149070739746/200</f>
+        <v>1.9074535369873E-3</v>
+      </c>
+      <c r="D77" s="65">
+        <v>-10.930999999999999</v>
+      </c>
+      <c r="E77" s="65">
+        <f>0.393565416336059/200</f>
+        <v>1.967827081680295E-3</v>
+      </c>
+      <c r="F77" s="65">
+        <v>-11.0616</v>
+      </c>
+      <c r="G77" s="65">
+        <f>0.399958848953247/200</f>
+        <v>1.9997942447662351E-3</v>
+      </c>
+      <c r="H77" s="65">
+        <v>-11.5398</v>
+      </c>
+      <c r="I77" s="65">
+        <f>0.682828903198242/200</f>
+        <v>3.4141445159912099E-3</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="66"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="B78" s="65">
+        <v>2.2039</v>
+      </c>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65">
+        <v>1.4112</v>
+      </c>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65">
+        <v>0.95120000000000005</v>
+      </c>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="I78" s="65"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="66"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="66">
-        <v>-12.548</v>
-      </c>
-      <c r="E79" s="21">
-        <f>2.79346585273742/200</f>
-        <v>1.39673292636871E-2</v>
-      </c>
-      <c r="F79" s="66">
-        <v>-12.3985</v>
-      </c>
-      <c r="G79" s="21">
-        <f>2.5887804031372/200</f>
-        <v>1.2943902015686E-2</v>
+      <c r="B79" s="65">
+        <v>-11.7315</v>
+      </c>
+      <c r="C79" s="65">
+        <f>0.743644952774047/200</f>
+        <v>3.7182247638702349E-3</v>
+      </c>
+      <c r="D79" s="65">
+        <v>-12.350300000000001</v>
+      </c>
+      <c r="E79" s="65">
+        <f>0.808241128921508/200</f>
+        <v>4.0412056446075401E-3</v>
+      </c>
+      <c r="F79" s="65">
+        <v>-12.4358</v>
+      </c>
+      <c r="G79" s="65">
+        <f xml:space="preserve"> 0.831526041030883/200</f>
+        <v>4.157630205154415E-3</v>
+      </c>
+      <c r="H79" s="65">
+        <v>-12.7623</v>
+      </c>
+      <c r="I79" s="65">
+        <f>1.39217519760131/200</f>
+        <v>6.9608759880065499E-3</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B80" s="65">
+        <v>2.4887999999999999</v>
+      </c>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65">
+        <v>1.5609</v>
+      </c>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65">
+        <v>1.0578000000000001</v>
+      </c>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65">
+        <v>0.8075</v>
+      </c>
+      <c r="I80" s="65"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65">
+        <v>-11.8744</v>
+      </c>
+      <c r="E81" s="65">
+        <f>8.43400382995605/200</f>
+        <v>4.2170019149780247E-2</v>
+      </c>
+      <c r="F81" s="65">
+        <v>-12.076599999999999</v>
+      </c>
+      <c r="G81" s="65">
+        <f>10.424521446228/200</f>
+        <v>5.2122607231140004E-2</v>
+      </c>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B80" s="66"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="21"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21">
-        <v>-12.0535</v>
-      </c>
-      <c r="E81" s="21">
-        <f>11.7575964927673/200</f>
-        <v>5.87879824638365E-2</v>
-      </c>
-      <c r="F81" s="21">
-        <v>-12.076599999999999</v>
-      </c>
-      <c r="G81" s="21">
-        <f>11.3483390808105/200</f>
-        <v>5.6741695404052502E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="66">
+        <v>1.573</v>
+      </c>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="14" t="s">
         <v>1</v>
       </c>
@@ -2301,7 +2363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>14</v>
       </c>
@@ -2325,7 +2387,7 @@
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>15</v>
       </c>
@@ -2346,7 +2408,7 @@
       </c>
       <c r="G91" s="49"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="5"/>
       <c r="B92" s="50"/>
       <c r="C92" s="9"/>
@@ -2355,7 +2417,7 @@
       <c r="F92" s="9"/>
       <c r="G92" s="49"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>16</v>
       </c>
@@ -2379,7 +2441,7 @@
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>13</v>
       </c>
@@ -2400,7 +2462,7 @@
       </c>
       <c r="G94" s="49"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="5"/>
       <c r="B95" s="50"/>
       <c r="C95" s="9"/>
@@ -2409,7 +2471,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="49"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>23</v>
       </c>
@@ -2677,7 +2739,7 @@
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="33"/>
       <c r="B111" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D111" s="17"/>
       <c r="E111" s="17"/>
@@ -2687,7 +2749,7 @@
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="21"/>
       <c r="B112" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="17"/>
@@ -2697,18 +2759,18 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C115" s="19"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -2731,7 +2793,7 @@
         <v>6</v>
       </c>
       <c r="G118" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -2790,7 +2852,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B122" s="9">
         <v>33.961399999999998</v>
@@ -2895,7 +2957,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B128" s="9">
         <v>32.962600000000002</v>
@@ -3000,7 +3062,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B134" s="9">
         <v>10.5525</v>
@@ -3101,17 +3163,17 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B140" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B141" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAFF4C3-051E-4810-ACFE-54A57E9A546A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381CCD6E-E47C-479D-B394-2DF88CF05E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -391,6 +391,33 @@
   </si>
   <si>
     <t>RunTime for 20x20 (s)</t>
+  </si>
+  <si>
+    <t>RTSNet (reduced parameters) [dB]</t>
+  </si>
+  <si>
+    <t>dB: -11.7285 #parameters: 3636450</t>
+  </si>
+  <si>
+    <t>dB: -12.2755 #parameter: 6428140</t>
+  </si>
+  <si>
+    <t>too much parameters, can't train</t>
+  </si>
+  <si>
+    <t>dB: -11.9725 #parameters: 28285</t>
+  </si>
+  <si>
+    <t>dB: -12.0231 #parameters: 416070</t>
+  </si>
+  <si>
+    <t>MSE 40x40</t>
+  </si>
+  <si>
+    <t>RunTime for 40x40 (s)</t>
+  </si>
+  <si>
+    <t>#parameters:101264280</t>
   </si>
 </sst>
 </file>
@@ -554,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -677,17 +704,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -968,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2005,7 +2036,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="33"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>86</v>
       </c>
@@ -2024,7 +2055,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="33"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>65</v>
       </c>
@@ -2043,7 +2074,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="33"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="53" t="s">
         <v>83</v>
       </c>
@@ -2062,7 +2093,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="33"/>
     </row>
-    <row r="68" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="53" t="s">
         <v>67</v>
       </c>
@@ -2081,7 +2112,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
         <v>84</v>
       </c>
@@ -2096,7 +2127,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="33"/>
     </row>
-    <row r="70" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="56" t="s">
         <v>66</v>
       </c>
@@ -2110,7 +2141,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2119,7 +2150,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="s">
         <v>104</v>
       </c>
@@ -2130,1049 +2161,1150 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="63"/>
-      <c r="B76" s="64" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="B76" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="E76" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F76" s="64" t="s">
+      <c r="F76" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G76" s="33" t="s">
+      <c r="G76" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="H76" s="64" t="s">
+      <c r="H76" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I76" s="33" t="s">
+      <c r="I76" s="64" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="21" t="s">
+      <c r="J76" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="K76" s="65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B77" s="65">
+      <c r="B77" s="63">
         <v>-7.7907000000000002</v>
       </c>
-      <c r="C77" s="65">
+      <c r="C77" s="63">
         <f>0.38149070739746/200</f>
         <v>1.9074535369873E-3</v>
       </c>
-      <c r="D77" s="65">
+      <c r="D77" s="63">
         <v>-10.930999999999999</v>
       </c>
-      <c r="E77" s="65">
+      <c r="E77" s="63">
         <f>0.393565416336059/200</f>
         <v>1.967827081680295E-3</v>
       </c>
-      <c r="F77" s="65">
+      <c r="F77" s="63">
         <v>-11.0616</v>
       </c>
-      <c r="G77" s="65">
+      <c r="G77" s="63">
         <f>0.399958848953247/200</f>
         <v>1.9997942447662351E-3</v>
       </c>
-      <c r="H77" s="65">
+      <c r="H77" s="63">
         <v>-11.5398</v>
       </c>
-      <c r="I77" s="65">
+      <c r="I77" s="63">
         <f>0.682828903198242/200</f>
         <v>3.4141445159912099E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="21" t="s">
+      <c r="J77" s="63">
+        <v>-11.533899999999999</v>
+      </c>
+      <c r="K77" s="66">
+        <f>1.83847570419311/200</f>
+        <v>9.1923785209655495E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B78" s="65">
+      <c r="B78" s="63">
         <v>2.2039</v>
       </c>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65">
+      <c r="C78" s="63"/>
+      <c r="D78" s="63">
         <v>1.4112</v>
       </c>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65">
+      <c r="E78" s="63"/>
+      <c r="F78" s="63">
         <v>0.95120000000000005</v>
       </c>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65">
+      <c r="G78" s="63"/>
+      <c r="H78" s="63">
         <v>0.77070000000000005</v>
       </c>
-      <c r="I78" s="65"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="21" t="s">
+      <c r="I78" s="63"/>
+      <c r="J78" s="63">
+        <v>0.59950000000000003</v>
+      </c>
+      <c r="K78" s="66"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="65">
+      <c r="B79" s="63">
         <v>-11.7315</v>
       </c>
-      <c r="C79" s="65">
+      <c r="C79" s="63">
         <f>0.743644952774047/200</f>
         <v>3.7182247638702349E-3</v>
       </c>
-      <c r="D79" s="65">
+      <c r="D79" s="63">
         <v>-12.350300000000001</v>
       </c>
-      <c r="E79" s="65">
+      <c r="E79" s="63">
         <f>0.808241128921508/200</f>
         <v>4.0412056446075401E-3</v>
       </c>
-      <c r="F79" s="65">
+      <c r="F79" s="63">
         <v>-12.4358</v>
       </c>
-      <c r="G79" s="65">
+      <c r="G79" s="63">
         <f xml:space="preserve"> 0.831526041030883/200</f>
         <v>4.157630205154415E-3</v>
       </c>
-      <c r="H79" s="65">
+      <c r="H79" s="63">
         <v>-12.7623</v>
       </c>
-      <c r="I79" s="65">
+      <c r="I79" s="63">
         <f>1.39217519760131/200</f>
         <v>6.9608759880065499E-3</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="21" t="s">
+      <c r="J79" s="63">
+        <v>-12.7544</v>
+      </c>
+      <c r="K79" s="66">
+        <f>3.5751347541809/200</f>
+        <v>1.7875673770904502E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B80" s="65">
+      <c r="B80" s="63">
         <v>2.4887999999999999</v>
       </c>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65">
+      <c r="C80" s="63"/>
+      <c r="D80" s="63">
         <v>1.5609</v>
       </c>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65">
+      <c r="E80" s="63"/>
+      <c r="F80" s="63">
         <v>1.0578000000000001</v>
       </c>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65">
+      <c r="G80" s="63"/>
+      <c r="H80" s="63">
         <v>0.8075</v>
       </c>
-      <c r="I80" s="65"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="21" t="s">
+      <c r="I80" s="63"/>
+      <c r="J80" s="63">
+        <v>0.63580000000000003</v>
+      </c>
+      <c r="K80" s="66"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65">
+      <c r="B81" s="63">
+        <v>-11.2082</v>
+      </c>
+      <c r="C81" s="63">
+        <f>8.5537621974945/200</f>
+        <v>4.2768810987472497E-2</v>
+      </c>
+      <c r="D81" s="63">
         <v>-11.8744</v>
       </c>
-      <c r="E81" s="65">
+      <c r="E81" s="63">
         <f>8.43400382995605/200</f>
         <v>4.2170019149780247E-2</v>
       </c>
-      <c r="F81" s="65">
-        <v>-12.076599999999999</v>
-      </c>
-      <c r="G81" s="65">
+      <c r="F81" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="G81" s="63">
         <f>10.424521446228/200</f>
         <v>5.2122607231140004E-2</v>
       </c>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="21" t="s">
+      <c r="H81" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="I81" s="63">
+        <f>28.3335559368133/200</f>
+        <v>0.14166777968406652</v>
+      </c>
+      <c r="J81" s="63"/>
+      <c r="K81" s="66"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="66">
+      <c r="B82" s="63">
+        <v>2.4382999999999999</v>
+      </c>
+      <c r="C82" s="63"/>
+      <c r="D82" s="68">
         <v>1.573</v>
       </c>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
+      <c r="E82" s="63"/>
+      <c r="F82" s="63">
+        <v>1.0568</v>
+      </c>
+      <c r="G82" s="63"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="23"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E83" s="21">
+        <f>8.48960757255554/200</f>
+        <v>4.2448037862777704E-2</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G83" s="21">
+        <f>9.56008505821228/200</f>
+        <v>4.7800425291061405E-2</v>
+      </c>
+      <c r="H83" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="I83" s="21">
+        <f>11.0999789237976/200</f>
+        <v>5.5499894618988001E-2</v>
+      </c>
+      <c r="J83" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="K83" s="23"/>
+    </row>
+    <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="24"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="67">
+        <v>1.597</v>
+      </c>
+      <c r="E84" s="24"/>
+      <c r="F84" s="67">
+        <v>1.0552999999999999</v>
+      </c>
+      <c r="G84" s="24"/>
+      <c r="H84" s="67">
+        <v>0.82789999999999997</v>
+      </c>
+      <c r="I84" s="24"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="25"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="19" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="28" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="14" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B91" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C91" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="37" t="s">
+      <c r="D91" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="37" t="s">
+      <c r="E91" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="37" t="s">
+      <c r="F91" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="48" t="s">
+      <c r="G91" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B92" s="9">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C92" s="9">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D92" s="9">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E92" s="9">
         <v>-27.2926</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F92" s="9">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G90" s="30">
+      <c r="G92" s="30">
         <f>1.87291026115417/200</f>
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B93" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C93" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D93" s="9">
         <v>0.95669999999999999</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E93" s="9">
         <v>0.96560000000000001</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F93" s="9">
         <v>1.0293000000000001</v>
       </c>
-      <c r="G91" s="49"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="5"/>
-      <c r="B92" s="50"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="49"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
+      <c r="G93" s="49"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="5"/>
+      <c r="B94" s="50"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="49"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B95" s="9">
         <v>11.153700000000001</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C95" s="9">
         <v>0.92630000000000001</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D95" s="9">
         <v>-9.1595999999999993</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E95" s="9">
         <v>-18.4282</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F95" s="9">
         <v>-28.785699999999999</v>
       </c>
-      <c r="G93" s="30">
+      <c r="G95" s="30">
         <f>1.73989057540893/200</f>
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B96" s="9">
         <v>3.0234000000000001</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C96" s="9">
         <v>3.0640999999999998</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D96" s="9">
         <v>3.6509</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E96" s="9">
         <v>3.2534000000000001</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F96" s="9">
         <v>3.3008000000000002</v>
       </c>
-      <c r="G94" s="49"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="5"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="49"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
+      <c r="G96" s="49"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="5"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="49"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B98" s="9">
         <v>-1.8754</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C98" s="9">
         <v>-11.879799999999999</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D98" s="9">
         <v>-21.812200000000001</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E98" s="9">
         <v>-31.9605</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F98" s="9">
         <v>-41.809899999999999</v>
       </c>
-      <c r="G96" s="30">
+      <c r="G98" s="30">
         <f>3.64388179779052/200</f>
         <v>1.82194089889526E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B97" s="9">
-        <v>1.2853000000000001</v>
-      </c>
-      <c r="C97" s="9">
-        <v>1.2719</v>
-      </c>
-      <c r="D97" s="9">
-        <v>1.1487000000000001</v>
-      </c>
-      <c r="E97" s="9">
-        <v>1.2646999999999999</v>
-      </c>
-      <c r="F97" s="9">
-        <v>1.1558999999999999</v>
-      </c>
-      <c r="G97" s="30"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="5"/>
-      <c r="B98" s="50"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="30"/>
-    </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="9">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="C99" s="9">
+        <v>1.2719</v>
+      </c>
+      <c r="D99" s="9">
+        <v>1.1487000000000001</v>
+      </c>
+      <c r="E99" s="9">
+        <v>1.2646999999999999</v>
+      </c>
+      <c r="F99" s="9">
+        <v>1.1558999999999999</v>
+      </c>
+      <c r="G99" s="30"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="5"/>
+      <c r="B100" s="50"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="30"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B101" s="9">
         <v>5.5016999999999996</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C101" s="9">
         <v>-4.8254000000000001</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D101" s="9">
         <v>-15.061500000000001</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E101" s="9">
         <v>-24.198</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F101" s="9">
         <v>-34.591799999999999</v>
       </c>
-      <c r="G99" s="30">
+      <c r="G101" s="30">
         <f>3.63707900047302/200</f>
         <v>1.8185395002365098E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B100" s="9">
-        <v>2.9416000000000002</v>
-      </c>
-      <c r="C100" s="9">
-        <v>3.2046000000000001</v>
-      </c>
-      <c r="D100" s="9">
-        <v>3.4399000000000002</v>
-      </c>
-      <c r="E100" s="9">
-        <v>3.1190000000000002</v>
-      </c>
-      <c r="F100" s="9">
-        <v>3.133</v>
-      </c>
-      <c r="G100" s="49"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="5"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="49"/>
-    </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B102" s="9">
+        <v>2.9416000000000002</v>
+      </c>
+      <c r="C102" s="9">
+        <v>3.2046000000000001</v>
+      </c>
+      <c r="D102" s="9">
+        <v>3.4399000000000002</v>
+      </c>
+      <c r="E102" s="9">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="F102" s="9">
+        <v>3.133</v>
+      </c>
+      <c r="G102" s="49"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="5"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="49"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B104" s="9">
         <f>-1.7902</f>
         <v>-1.7902</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C104" s="9">
         <v>-11.8467</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D104" s="9">
         <v>-21.738299999999999</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E104" s="9">
         <v>-31.619900000000001</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F104" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G102" s="30">
+      <c r="G104" s="30">
         <f>43.5942468643188/200</f>
         <v>0.21797123432159399</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="9">
-        <v>1.2419</v>
-      </c>
-      <c r="C103" s="9">
-        <v>1.1898</v>
-      </c>
-      <c r="D103" s="9">
-        <v>1.2814000000000001</v>
-      </c>
-      <c r="E103" s="9">
-        <v>1.1073</v>
-      </c>
-      <c r="F103" s="26">
-        <v>1.2888999999999999</v>
-      </c>
-      <c r="G103" s="30"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="5"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="30"/>
-    </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="9">
+        <v>1.2419</v>
+      </c>
+      <c r="C105" s="9">
+        <v>1.1898</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1.2814000000000001</v>
+      </c>
+      <c r="E105" s="9">
+        <v>1.1073</v>
+      </c>
+      <c r="F105" s="26">
+        <v>1.2888999999999999</v>
+      </c>
+      <c r="G105" s="30"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="5"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="30"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B107" s="9">
         <v>-0.77390000000000003</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C107" s="9">
         <v>-10.8522</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D107" s="9">
         <v>-21.103899999999999</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E107" s="9">
         <v>-29.667200000000001</v>
       </c>
-      <c r="F105" s="9">
+      <c r="F107" s="9">
         <v>-38.0655</v>
       </c>
-      <c r="G105" s="30"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B106" s="9">
-        <v>1.2433000000000001</v>
-      </c>
-      <c r="C106" s="9">
-        <v>1.1579999999999999</v>
-      </c>
-      <c r="D106" s="9">
-        <v>1.2155</v>
-      </c>
-      <c r="E106" s="9">
-        <v>1.2145999999999999</v>
-      </c>
-      <c r="F106" s="9">
-        <v>1.1361000000000001</v>
-      </c>
-      <c r="G106" s="30"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="5"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
       <c r="G107" s="30"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="9">
+        <v>1.2433000000000001</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1.2155</v>
+      </c>
+      <c r="E108" s="9">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="F108" s="9">
+        <v>1.1361000000000001</v>
+      </c>
+      <c r="G108" s="30"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="5"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="30"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B110" s="9">
         <v>-1.7432000000000001</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C110" s="9">
         <v>-11.6966</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D110" s="9">
         <v>-21.720500000000001</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E110" s="9">
         <v>-31.185500000000001</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F110" s="9">
         <v>-40.300899999999999</v>
       </c>
-      <c r="G108" s="30"/>
-    </row>
-    <row r="109" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="6" t="s">
+      <c r="G110" s="30"/>
+    </row>
+    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="31">
+      <c r="B111" s="31">
         <v>1.2693000000000001</v>
       </c>
-      <c r="C109" s="31">
+      <c r="C111" s="31">
         <v>1.2414000000000001</v>
       </c>
-      <c r="D109" s="31">
+      <c r="D111" s="31">
         <v>1.1528</v>
       </c>
-      <c r="E109" s="31">
+      <c r="E111" s="31">
         <v>1.2195</v>
       </c>
-      <c r="F109" s="31">
+      <c r="F111" s="31">
         <v>1.1687000000000001</v>
       </c>
-      <c r="G109" s="32"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="21"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="33"/>
-      <c r="B111" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
+      <c r="G111" s="32"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="21"/>
-      <c r="B112" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C112" s="18"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="17"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="19" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="33"/>
+      <c r="B113" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="21"/>
+      <c r="B114" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" s="18"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C115" s="19"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="C117" s="19"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
+    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="14" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B118" s="37" t="s">
+      <c r="B120" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="37" t="s">
+      <c r="C120" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D118" s="37" t="s">
+      <c r="D120" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E118" s="37" t="s">
+      <c r="E120" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F118" s="37" t="s">
+      <c r="F120" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G118" s="48" t="s">
+      <c r="G120" s="48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B121" s="9">
         <v>3.4502999999999999</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C121" s="9">
         <v>-6.5942999999999996</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D121" s="9">
         <v>-16.561499999999999</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E121" s="9">
         <v>-26.6008</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F121" s="9">
         <v>-36.565199999999997</v>
       </c>
-      <c r="G119" s="30">
+      <c r="G121" s="30">
         <f>1.81720042228698/1000</f>
         <v>1.8172004222869801E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B120" s="9">
-        <v>1.8456999999999999</v>
-      </c>
-      <c r="C120" s="9">
-        <v>1.8831</v>
-      </c>
-      <c r="D120" s="9">
-        <v>1.8754999999999999</v>
-      </c>
-      <c r="E120" s="9">
-        <v>1.9067000000000001</v>
-      </c>
-      <c r="F120" s="9">
-        <v>1.8309</v>
-      </c>
-      <c r="G120" s="49"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="5"/>
-      <c r="B121" s="50"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="49"/>
-    </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B122" s="9">
+        <v>1.8456999999999999</v>
+      </c>
+      <c r="C122" s="9">
+        <v>1.8831</v>
+      </c>
+      <c r="D122" s="9">
+        <v>1.8754999999999999</v>
+      </c>
+      <c r="E122" s="9">
+        <v>1.9067000000000001</v>
+      </c>
+      <c r="F122" s="9">
+        <v>1.8309</v>
+      </c>
+      <c r="G122" s="49"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="5"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="49"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B124" s="9">
         <v>33.961399999999998</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C124" s="9">
         <v>23.832799999999999</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D124" s="9">
         <v>13.8483</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E124" s="9">
         <v>4.1989999999999998</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F124" s="9">
         <v>-6.4336000000000002</v>
       </c>
-      <c r="G122" s="30"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B123" s="9">
-        <v>3.9329999999999998</v>
-      </c>
-      <c r="C123" s="9">
-        <v>3.8573</v>
-      </c>
-      <c r="D123" s="9">
-        <v>3.6829000000000001</v>
-      </c>
-      <c r="E123" s="9">
-        <v>3.8494999999999999</v>
-      </c>
-      <c r="F123" s="9">
-        <v>3.8119000000000001</v>
-      </c>
-      <c r="G123" s="49"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="5"/>
-      <c r="B124" s="50"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="49"/>
+      <c r="G124" s="30"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="9">
+        <v>3.9329999999999998</v>
+      </c>
+      <c r="C125" s="9">
+        <v>3.8573</v>
+      </c>
+      <c r="D125" s="9">
+        <v>3.6829000000000001</v>
+      </c>
+      <c r="E125" s="9">
+        <v>3.8494999999999999</v>
+      </c>
+      <c r="F125" s="9">
+        <v>3.8119000000000001</v>
+      </c>
+      <c r="G125" s="49"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="5"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="49"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B127" s="9">
         <v>-3.8433999999999999</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C127" s="9">
         <v>-13.9133</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D127" s="9">
         <v>-23.5916</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E127" s="9">
         <v>-33.8613</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F127" s="9">
         <v>-43.593000000000004</v>
       </c>
-      <c r="G125" s="30">
+      <c r="G127" s="30">
         <f>3.73042225837707/1000</f>
         <v>3.7304222583770699E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B126" s="9">
-        <v>2.6547999999999998</v>
-      </c>
-      <c r="C126" s="9">
-        <v>2.7086999999999999</v>
-      </c>
-      <c r="D126" s="9">
-        <v>2.7507000000000001</v>
-      </c>
-      <c r="E126" s="9">
-        <v>2.7532999999999999</v>
-      </c>
-      <c r="F126" s="9">
-        <v>2.7458</v>
-      </c>
-      <c r="G126" s="30"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="5"/>
-      <c r="B127" s="50"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="30"/>
-    </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="9">
+        <v>2.6547999999999998</v>
+      </c>
+      <c r="C128" s="9">
+        <v>2.7086999999999999</v>
+      </c>
+      <c r="D128" s="9">
+        <v>2.7507000000000001</v>
+      </c>
+      <c r="E128" s="9">
+        <v>2.7532999999999999</v>
+      </c>
+      <c r="F128" s="9">
+        <v>2.7458</v>
+      </c>
+      <c r="G128" s="30"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="5"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="30"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B130" s="9">
         <v>32.962600000000002</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C130" s="9">
         <v>22.838000000000001</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D130" s="9">
         <v>12.853400000000001</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E130" s="9">
         <v>3.2014</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F130" s="9">
         <v>-7.4305000000000003</v>
       </c>
-      <c r="G128" s="30"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" s="9">
-        <v>3.9333999999999998</v>
-      </c>
-      <c r="C129" s="9">
-        <v>3.859</v>
-      </c>
-      <c r="D129" s="9">
-        <v>3.6848999999999998</v>
-      </c>
-      <c r="E129" s="9">
-        <v>3.851</v>
-      </c>
-      <c r="F129" s="9">
-        <v>3.8092000000000001</v>
-      </c>
-      <c r="G129" s="49"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="5"/>
-      <c r="B130" s="50"/>
-      <c r="C130" s="50"/>
-      <c r="D130" s="50"/>
-      <c r="E130" s="50"/>
-      <c r="F130" s="50"/>
-      <c r="G130" s="49"/>
+      <c r="G130" s="30"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B131" s="9">
+        <v>3.9333999999999998</v>
+      </c>
+      <c r="C131" s="9">
+        <v>3.859</v>
+      </c>
+      <c r="D131" s="9">
+        <v>3.6848999999999998</v>
+      </c>
+      <c r="E131" s="9">
+        <v>3.851</v>
+      </c>
+      <c r="F131" s="9">
+        <v>3.8092000000000001</v>
+      </c>
+      <c r="G131" s="49"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="5"/>
+      <c r="B132" s="50"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="49"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B133" s="9">
         <v>-3.3506</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C133" s="9">
         <v>-13.5854</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D133" s="9">
         <v>-23.3325</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E133" s="9">
         <v>-33.126199999999997</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F133" s="9">
         <v>-43.1599</v>
       </c>
-      <c r="G131" s="30">
+      <c r="G133" s="30">
         <f>44.6756930351257/1000</f>
         <v>4.4675693035125696E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B132" s="9">
-        <v>2.6993</v>
-      </c>
-      <c r="C132" s="9">
-        <v>2.6728000000000001</v>
-      </c>
-      <c r="D132" s="9">
-        <v>2.6707000000000001</v>
-      </c>
-      <c r="E132" s="9">
-        <v>2.6284000000000001</v>
-      </c>
-      <c r="F132" s="9">
-        <v>2.6488</v>
-      </c>
-      <c r="G132" s="30"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="5"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="30"/>
-    </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="9">
+        <v>2.6993</v>
+      </c>
+      <c r="C134" s="9">
+        <v>2.6728000000000001</v>
+      </c>
+      <c r="D134" s="9">
+        <v>2.6707000000000001</v>
+      </c>
+      <c r="E134" s="9">
+        <v>2.6284000000000001</v>
+      </c>
+      <c r="F134" s="9">
+        <v>2.6488</v>
+      </c>
+      <c r="G134" s="30"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="5"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="30"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B136" s="9">
         <v>10.5525</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C136" s="9">
         <v>-2.0112999999999999</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D136" s="9">
         <v>-10.688499999999999</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E136" s="9">
         <v>-21.682500000000001</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F136" s="9">
         <v>-31.886700000000001</v>
       </c>
-      <c r="G134" s="30"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B135" s="9">
-        <v>3.1505999999999998</v>
-      </c>
-      <c r="C135" s="9">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="D135" s="9">
-        <v>1.9343999999999999</v>
-      </c>
-      <c r="E135" s="9">
-        <v>1.6428</v>
-      </c>
-      <c r="F135" s="9">
-        <v>1.2435</v>
-      </c>
-      <c r="G135" s="30"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="5"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
       <c r="G136" s="30"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" s="9">
+        <v>3.1505999999999998</v>
+      </c>
+      <c r="C137" s="9">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="D137" s="9">
+        <v>1.9343999999999999</v>
+      </c>
+      <c r="E137" s="9">
+        <v>1.6428</v>
+      </c>
+      <c r="F137" s="9">
+        <v>1.2435</v>
+      </c>
+      <c r="G137" s="30"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="5"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="30"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B139" s="9">
         <v>-3.4333999999999998</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C139" s="9">
         <v>-12.944599999999999</v>
       </c>
-      <c r="D137" s="9">
+      <c r="D139" s="9">
         <v>-23.013100000000001</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E139" s="9">
         <v>-32.932000000000002</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F139" s="9">
         <v>-41.863900000000001</v>
       </c>
-      <c r="G137" s="30"/>
-    </row>
-    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="6" t="s">
+      <c r="G139" s="30"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B138" s="31">
+      <c r="B140" s="31">
         <v>2.6326999999999998</v>
       </c>
-      <c r="C138" s="31">
+      <c r="C140" s="31">
         <v>2.6817000000000002</v>
       </c>
-      <c r="D138" s="31">
+      <c r="D140" s="31">
         <v>2.7978000000000001</v>
       </c>
-      <c r="E138" s="31">
+      <c r="E140" s="31">
         <v>2.4706999999999999</v>
       </c>
-      <c r="F138" s="31">
+      <c r="F140" s="31">
         <v>2.6570999999999998</v>
       </c>
-      <c r="G138" s="32"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
-      <c r="D139" s="29"/>
-      <c r="E139" s="29"/>
-      <c r="F139" s="29"/>
-      <c r="G139" s="29"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B140" s="61" t="s">
+      <c r="G140" s="32"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B142" s="61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B141" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="7" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="7" t="s">
         <v>108</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{381CCD6E-E47C-479D-B394-2DF88CF05E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8382B13-3899-422E-9FB2-698750320772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -417,7 +417,73 @@
     <t>RunTime for 40x40 (s)</t>
   </si>
   <si>
-    <t>#parameters:101264280</t>
+    <t>N_CV=5, N_T = 10, all decimated from T=6E6 with q=0&amp;delta_t=1E-5, add observation noise r</t>
+  </si>
+  <si>
+    <t>traj length T=3000, delta_t=0.02</t>
+  </si>
+  <si>
+    <t>1/r2[dB]</t>
+  </si>
+  <si>
+    <t>EKF J=5, optimized q [dB]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTS J=5, optimized q [dB]</t>
+  </si>
+  <si>
+    <t>optimal 1/q2 [dB]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EKF J=2, optimized q [dB]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTS J=2, optimized q [dB]</t>
+  </si>
+  <si>
+    <t>PF J=5 [dB]</t>
+  </si>
+  <si>
+    <t>PF J=2 [dB]</t>
+  </si>
+  <si>
+    <t>KNet new arch J=2 [dB], train on T=3000 (n_Epochs=100, n_Batch=10, learningRate=1e-3, weightDecay=1e-6)</t>
+  </si>
+  <si>
+    <t>KNet new arch J=2 [dB], train on T=30 (n_Epochs=1000, n_Batch=150, learningRate=1e-3, weightDecay=1e-6)</t>
+  </si>
+  <si>
+    <t>RTSNet new arch J=2 [dB], train on T=3000 (n_Epochs=1000, n_Batch=1, learningRate=1e-3, weightDecay=1e-4)</t>
+  </si>
+  <si>
+    <t>On our dataset: -15.5314, On Welling's dataset: -15.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-gain RTSNet </t>
+  </si>
+  <si>
+    <t>On our dataset: -16.2564,On Welling's -15.1758</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>On Welling's dataset: -15.346</t>
+  </si>
+  <si>
+    <t>this column is the MSE for the traj drawing (both hybrid and RTSNet converge to their optimal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Decimation </t>
+  </si>
+  <si>
+    <t>1) Discrete-Time</t>
+  </si>
+  <si>
+    <t>dB: -11.0532 #parameters:101264280</t>
   </si>
 </sst>
 </file>
@@ -475,7 +541,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +551,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -719,6 +797,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1002,7 +1091,7 @@
   <dimension ref="A1:K146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+      <selection activeCell="K84" sqref="K84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2427,9 +2516,12 @@
         <v>5.5499894618988001E-2</v>
       </c>
       <c r="J83" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="K83" s="23"/>
+        <v>147</v>
+      </c>
+      <c r="K83" s="23">
+        <f>13.4362983703613/200</f>
+        <v>6.7181491851806496E-2</v>
+      </c>
     </row>
     <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="70" t="s">
@@ -2449,7 +2541,9 @@
         <v>0.82789999999999997</v>
       </c>
       <c r="I84" s="24"/>
-      <c r="J84" s="67"/>
+      <c r="J84" s="67">
+        <v>0.60440000000000005</v>
+      </c>
       <c r="K84" s="25"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -3317,10 +3411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3330,203 +3424,429 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B5" s="21">
         <v>-10.4223</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C5" s="21">
         <v>-20.546399999999998</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D5" s="21">
         <v>-30.565899999999999</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E5" s="23">
         <v>-40.424100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="23"/>
-    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B7" s="21">
         <v>-13.8728</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C7" s="21">
         <v>-23.9254</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D7" s="21">
         <v>-34.028799999999997</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E7" s="23">
         <v>-43.958799999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
-    </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="23"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B9" s="21">
         <v>-9.6765000000000008</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C9" s="21">
         <v>-15.9671</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D9" s="21">
         <v>-17.5745</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E9" s="23">
         <v>-17.808599999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-    </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="23"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B11" s="21">
         <v>-13.1538</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C11" s="21">
         <v>-19.496200000000002</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D11" s="21">
         <v>-21.472899999999999</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E11" s="23">
         <v>-21.748200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B13" s="21">
         <v>-13.4038</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C13" s="21">
         <v>-23.161000000000001</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D13" s="21">
         <v>-33.494199999999999</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E13" s="23">
         <v>-42.509599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B14" s="24">
         <v>-12.888500000000001</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C14" s="24">
         <v>-22.598099999999999</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D14" s="24">
         <v>-29.8276</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E14" s="25">
         <v>-36.738900000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="23">
+      <c r="B19" s="23">
         <v>0.30146958000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B20" s="23">
         <v>0.61430751900000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B21" s="25">
         <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="72">
+        <v>-10</v>
+      </c>
+      <c r="C27" s="72">
+        <v>0</v>
+      </c>
+      <c r="D27" s="72">
+        <v>10</v>
+      </c>
+      <c r="E27" s="72">
+        <v>20</v>
+      </c>
+      <c r="F27" s="72">
+        <v>30</v>
+      </c>
+      <c r="G27" s="73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="C28">
+        <v>-6.6333000000000002</v>
+      </c>
+      <c r="D28">
+        <v>-13.3081</v>
+      </c>
+      <c r="E28">
+        <v>-21.162199999999999</v>
+      </c>
+      <c r="F28">
+        <v>-30.135000000000002</v>
+      </c>
+      <c r="G28" s="23">
+        <v>-39.999699999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29">
+        <v>-10.303504943847599</v>
+      </c>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="75">
+        <v>3.8721999999999999</v>
+      </c>
+      <c r="C30" s="75">
+        <v>8.2391000000000005</v>
+      </c>
+      <c r="D30" s="75">
+        <v>11.548999999999999</v>
+      </c>
+      <c r="E30" s="75">
+        <v>15.2288</v>
+      </c>
+      <c r="F30" s="75">
+        <v>16.989699999999999</v>
+      </c>
+      <c r="G30" s="76">
+        <v>15.2288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="C31">
+        <v>-6.6078925132751403</v>
+      </c>
+      <c r="D31">
+        <v>-13.2858</v>
+      </c>
+      <c r="E31">
+        <v>-21.145</v>
+      </c>
+      <c r="F31">
+        <v>-30.131799999999998</v>
+      </c>
+      <c r="G31" s="23">
+        <v>-39.999499999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32">
+        <v>-10.2645196914672</v>
+      </c>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="75">
+        <v>3.9794</v>
+      </c>
+      <c r="C33" s="75">
+        <v>8.2391000000000005</v>
+      </c>
+      <c r="D33" s="75">
+        <v>11.548999999999999</v>
+      </c>
+      <c r="E33" s="75">
+        <v>15.2288</v>
+      </c>
+      <c r="F33" s="75">
+        <v>16.989699999999999</v>
+      </c>
+      <c r="G33" s="76">
+        <v>15.2288</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34">
+        <v>-5.3365</v>
+      </c>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35">
+        <v>-5.3365</v>
+      </c>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="28">
+        <v>-11.2842</v>
+      </c>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37">
+        <v>-7.2462999999999997</v>
+      </c>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8382B13-3899-422E-9FB2-698750320772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E041D52A-20F8-4070-A65D-C2829D165513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="150">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -351,9 +351,6 @@
     <t>Generalization to Random initial conditions(x1 and x2 both uniformly distributed on [0,100) )</t>
   </si>
   <si>
-    <t>3) Scaling towards large models</t>
-  </si>
-  <si>
     <t xml:space="preserve">4) Model Mismatch and learning parts of the model in a supervised way </t>
   </si>
   <si>
@@ -375,18 +372,12 @@
     <t>RunTime for 5x5 (s)</t>
   </si>
   <si>
-    <t xml:space="preserve">T=20 (Trajectory Length) 1/r2 [dB], 1/q2 [dB]=[0,20] </t>
-  </si>
-  <si>
     <t>MSE2x2</t>
   </si>
   <si>
     <t>RunTime for 2x2 (s)</t>
   </si>
   <si>
-    <t>RTSNet true [dB] (n_Epochs=5000, n_Batch=5, learningRate=1E-4, weightDecay=1E-3)</t>
-  </si>
-  <si>
     <t>MSE 20x20</t>
   </si>
   <si>
@@ -400,9 +391,6 @@
   </si>
   <si>
     <t>dB: -12.2755 #parameter: 6428140</t>
-  </si>
-  <si>
-    <t>too much parameters, can't train</t>
   </si>
   <si>
     <t>dB: -11.9725 #parameters: 28285</t>
@@ -483,14 +471,32 @@
     <t>1) Discrete-Time</t>
   </si>
   <si>
-    <t>dB: -11.0532 #parameters:101264280</t>
+    <t>dB: -11.1840 #parameters:101264280</t>
+  </si>
+  <si>
+    <t>dB:-11.8744 #parameters:237950</t>
+  </si>
+  <si>
+    <t>#parameters:57085100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T=20, T_test=20 (Trajectory Length) 1/r2 [dB], 1/q2 [dB]=[0,20] </t>
+  </si>
+  <si>
+    <t>T_train=20, T_test=200</t>
+  </si>
+  <si>
+    <t>RTSNet [dB] (n_Epochs=5000, n_Batch=5, learningRate=1E-4, weightDecay=1E-3)</t>
+  </si>
+  <si>
+    <t>3) Scaling towards large models (Change date:5.15 colored in red)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +542,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -659,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -808,6 +822,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1088,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K146"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="K84" sqref="K84"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1100,6 +1136,9 @@
     <col min="2" max="2" width="27.08984375" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="23.7265625" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="35.08984375" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -2241,7 +2280,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2252,7 +2291,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D73" s="28"/>
     </row>
@@ -2264,7 +2303,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
@@ -2272,34 +2311,34 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>58</v>
       </c>
       <c r="G76" s="64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I76" s="64" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K76" s="65" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -2407,7 +2446,7 @@
         <v>1.7875673770904502E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>65</v>
       </c>
@@ -2434,7 +2473,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B81" s="63">
         <v>-11.2082</v>
@@ -2443,22 +2482,22 @@
         <f>8.5537621974945/200</f>
         <v>4.2768810987472497E-2</v>
       </c>
-      <c r="D81" s="63">
-        <v>-11.8744</v>
+      <c r="D81" s="50" t="s">
+        <v>144</v>
       </c>
       <c r="E81" s="63">
         <f>8.43400382995605/200</f>
         <v>4.2170019149780247E-2</v>
       </c>
-      <c r="F81" s="63" t="s">
-        <v>119</v>
+      <c r="F81" s="50" t="s">
+        <v>116</v>
       </c>
       <c r="G81" s="63">
         <f>10.424521446228/200</f>
         <v>5.2122607231140004E-2</v>
       </c>
-      <c r="H81" s="63" t="s">
-        <v>121</v>
+      <c r="H81" s="50" t="s">
+        <v>145</v>
       </c>
       <c r="I81" s="63">
         <f>28.3335559368133/200</f>
@@ -2475,52 +2514,52 @@
         <v>2.4382999999999999</v>
       </c>
       <c r="C82" s="63"/>
-      <c r="D82" s="68">
+      <c r="D82" s="78">
         <v>1.573</v>
       </c>
       <c r="E82" s="63"/>
-      <c r="F82" s="63">
+      <c r="F82" s="50">
         <v>1.0568</v>
       </c>
       <c r="G82" s="63"/>
-      <c r="H82" s="21"/>
+      <c r="H82" s="17"/>
       <c r="I82" s="21"/>
       <c r="J82" s="21"/>
       <c r="K82" s="23"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" s="69" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E83" s="21">
         <f>8.48960757255554/200</f>
         <v>4.2448037862777704E-2</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G83" s="21">
         <f>9.56008505821228/200</f>
         <v>4.7800425291061405E-2</v>
       </c>
       <c r="H83" s="68" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I83" s="21">
         <f>11.0999789237976/200</f>
         <v>5.5499894618988001E-2</v>
       </c>
       <c r="J83" s="68" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K83" s="23">
-        <f>13.4362983703613/200</f>
-        <v>6.7181491851806496E-2</v>
+        <f>12.9774138927459/200</f>
+        <v>6.4887069463729505E-2</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2542,864 +2581,1009 @@
       </c>
       <c r="I84" s="24"/>
       <c r="J84" s="67">
-        <v>0.60440000000000005</v>
+        <v>0.61240000000000006</v>
       </c>
       <c r="K84" s="25"/>
     </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="33"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="68"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="68"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+    </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="A87" s="80"/>
+      <c r="B87" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="E87" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G87" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="H87" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="I87" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="J87" s="36"/>
+      <c r="K87" s="33"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="19" t="s">
-        <v>107</v>
-      </c>
+      <c r="A88" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="50"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="63"/>
+      <c r="K88" s="63"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="63"/>
+      <c r="K89" s="63"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="50"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="50"/>
+      <c r="H90" s="50"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="63"/>
+      <c r="K90" s="63"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="50"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="63"/>
+      <c r="K91" s="63"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92" s="50"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+      <c r="H92" s="50"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="63"/>
+    </row>
+    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="87"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="88"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="87"/>
+      <c r="G93" s="87"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="89"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="28" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="14" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B91" s="37" t="s">
+      <c r="B102" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="37" t="s">
+      <c r="C102" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="37" t="s">
+      <c r="D102" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="37" t="s">
+      <c r="E102" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="37" t="s">
+      <c r="F102" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G91" s="48" t="s">
+      <c r="G102" s="48" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B103" s="9">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C103" s="9">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D103" s="9">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E103" s="9">
         <v>-27.2926</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F103" s="9">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G92" s="30">
+      <c r="G103" s="30">
         <f>1.87291026115417/200</f>
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B104" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="C93" s="9">
+      <c r="C104" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D104" s="9">
         <v>0.95669999999999999</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E104" s="9">
         <v>0.96560000000000001</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F104" s="9">
         <v>1.0293000000000001</v>
       </c>
-      <c r="G93" s="49"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="5"/>
-      <c r="B94" s="50"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="49"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
+      <c r="G104" s="49"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="5"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="49"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B106" s="9">
         <v>11.153700000000001</v>
       </c>
-      <c r="C95" s="9">
+      <c r="C106" s="9">
         <v>0.92630000000000001</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D106" s="9">
         <v>-9.1595999999999993</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E106" s="9">
         <v>-18.4282</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F106" s="9">
         <v>-28.785699999999999</v>
       </c>
-      <c r="G95" s="30">
+      <c r="G106" s="30">
         <f>1.73989057540893/200</f>
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B107" s="9">
         <v>3.0234000000000001</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C107" s="9">
         <v>3.0640999999999998</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D107" s="9">
         <v>3.6509</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E107" s="9">
         <v>3.2534000000000001</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F107" s="9">
         <v>3.3008000000000002</v>
       </c>
-      <c r="G96" s="49"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="5"/>
-      <c r="B97" s="50"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="49"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
+      <c r="G107" s="49"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="5"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="49"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B109" s="9">
         <v>-1.8754</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C109" s="9">
         <v>-11.879799999999999</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D109" s="9">
         <v>-21.812200000000001</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E109" s="9">
         <v>-31.9605</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F109" s="9">
         <v>-41.809899999999999</v>
       </c>
-      <c r="G98" s="30">
+      <c r="G109" s="30">
         <f>3.64388179779052/200</f>
         <v>1.82194089889526E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B110" s="9">
         <v>1.2853000000000001</v>
       </c>
-      <c r="C99" s="9">
+      <c r="C110" s="9">
         <v>1.2719</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D110" s="9">
         <v>1.1487000000000001</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E110" s="9">
         <v>1.2646999999999999</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F110" s="9">
         <v>1.1558999999999999</v>
       </c>
-      <c r="G99" s="30"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="5"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="30"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
+      <c r="G110" s="30"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="5"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="30"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B112" s="9">
         <v>5.5016999999999996</v>
       </c>
-      <c r="C101" s="9">
+      <c r="C112" s="9">
         <v>-4.8254000000000001</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D112" s="9">
         <v>-15.061500000000001</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E112" s="9">
         <v>-24.198</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F112" s="9">
         <v>-34.591799999999999</v>
       </c>
-      <c r="G101" s="30">
+      <c r="G112" s="30">
         <f>3.63707900047302/200</f>
         <v>1.8185395002365098E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B113" s="9">
         <v>2.9416000000000002</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C113" s="9">
         <v>3.2046000000000001</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D113" s="9">
         <v>3.4399000000000002</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E113" s="9">
         <v>3.1190000000000002</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F113" s="9">
         <v>3.133</v>
       </c>
-      <c r="G102" s="49"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="5"/>
-      <c r="B103" s="50"/>
-      <c r="C103" s="50"/>
-      <c r="D103" s="50"/>
-      <c r="E103" s="50"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="49"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
+      <c r="G113" s="49"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="5"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="50"/>
+      <c r="E114" s="50"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="49"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B115" s="9">
         <f>-1.7902</f>
         <v>-1.7902</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C115" s="9">
         <v>-11.8467</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D115" s="9">
         <v>-21.738299999999999</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E115" s="9">
         <v>-31.619900000000001</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F115" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G104" s="30">
+      <c r="G115" s="30">
         <f>43.5942468643188/200</f>
         <v>0.21797123432159399</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B105" s="9">
+      <c r="B116" s="9">
         <v>1.2419</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C116" s="9">
         <v>1.1898</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D116" s="9">
         <v>1.2814000000000001</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E116" s="9">
         <v>1.1073</v>
       </c>
-      <c r="F105" s="26">
+      <c r="F116" s="26">
         <v>1.2888999999999999</v>
       </c>
-      <c r="G105" s="30"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="5"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="30"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
+      <c r="G116" s="30"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="5"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="30"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B118" s="9">
         <v>-0.77390000000000003</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C118" s="9">
         <v>-10.8522</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D118" s="9">
         <v>-21.103899999999999</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E118" s="9">
         <v>-29.667200000000001</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F118" s="9">
         <v>-38.0655</v>
       </c>
-      <c r="G107" s="30"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
+      <c r="G118" s="30"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="9">
+      <c r="B119" s="9">
         <v>1.2433000000000001</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C119" s="9">
         <v>1.1579999999999999</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D119" s="9">
         <v>1.2155</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E119" s="9">
         <v>1.2145999999999999</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F119" s="9">
         <v>1.1361000000000001</v>
       </c>
-      <c r="G108" s="30"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="30"/>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B110" s="9">
-        <v>-1.7432000000000001</v>
-      </c>
-      <c r="C110" s="9">
-        <v>-11.6966</v>
-      </c>
-      <c r="D110" s="9">
-        <v>-21.720500000000001</v>
-      </c>
-      <c r="E110" s="9">
-        <v>-31.185500000000001</v>
-      </c>
-      <c r="F110" s="9">
-        <v>-40.300899999999999</v>
-      </c>
-      <c r="G110" s="30"/>
-    </row>
-    <row r="111" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B111" s="31">
-        <v>1.2693000000000001</v>
-      </c>
-      <c r="C111" s="31">
-        <v>1.2414000000000001</v>
-      </c>
-      <c r="D111" s="31">
-        <v>1.1528</v>
-      </c>
-      <c r="E111" s="31">
-        <v>1.2195</v>
-      </c>
-      <c r="F111" s="31">
-        <v>1.1687000000000001</v>
-      </c>
-      <c r="G111" s="32"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="21"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="33"/>
-      <c r="B113" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="17"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="21"/>
-      <c r="B114" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C114" s="18"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C117" s="19"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>98</v>
-      </c>
+      <c r="G119" s="30"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B120" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="C120" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E120" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F120" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="48" t="s">
-        <v>94</v>
-      </c>
+      <c r="A120" s="5"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="30"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B121" s="9">
+        <v>-1.7432000000000001</v>
+      </c>
+      <c r="C121" s="9">
+        <v>-11.6966</v>
+      </c>
+      <c r="D121" s="9">
+        <v>-21.720500000000001</v>
+      </c>
+      <c r="E121" s="9">
+        <v>-31.185500000000001</v>
+      </c>
+      <c r="F121" s="9">
+        <v>-40.300899999999999</v>
+      </c>
+      <c r="G121" s="30"/>
+    </row>
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="31">
+        <v>1.2693000000000001</v>
+      </c>
+      <c r="C122" s="31">
+        <v>1.2414000000000001</v>
+      </c>
+      <c r="D122" s="31">
+        <v>1.1528</v>
+      </c>
+      <c r="E122" s="31">
+        <v>1.2195</v>
+      </c>
+      <c r="F122" s="31">
+        <v>1.1687000000000001</v>
+      </c>
+      <c r="G122" s="32"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="21"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="33"/>
+      <c r="B124" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="21"/>
+      <c r="B125" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C125" s="18"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="19"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="F131" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G131" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B132" s="9">
         <v>3.4502999999999999</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C132" s="9">
         <v>-6.5942999999999996</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D132" s="9">
         <v>-16.561499999999999</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E132" s="9">
         <v>-26.6008</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F132" s="9">
         <v>-36.565199999999997</v>
       </c>
-      <c r="G121" s="30">
+      <c r="G132" s="30">
         <f>1.81720042228698/1000</f>
         <v>1.8172004222869801E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B133" s="9">
         <v>1.8456999999999999</v>
       </c>
-      <c r="C122" s="9">
+      <c r="C133" s="9">
         <v>1.8831</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D133" s="9">
         <v>1.8754999999999999</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E133" s="9">
         <v>1.9067000000000001</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F133" s="9">
         <v>1.8309</v>
       </c>
-      <c r="G122" s="49"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="5"/>
-      <c r="B123" s="50"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="49"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
+      <c r="G133" s="49"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="5"/>
+      <c r="B134" s="50"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="49"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B135" s="9">
         <v>33.961399999999998</v>
       </c>
-      <c r="C124" s="9">
+      <c r="C135" s="9">
         <v>23.832799999999999</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D135" s="9">
         <v>13.8483</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E135" s="9">
         <v>4.1989999999999998</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F135" s="9">
         <v>-6.4336000000000002</v>
       </c>
-      <c r="G124" s="30"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
+      <c r="G135" s="30"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B136" s="9">
         <v>3.9329999999999998</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C136" s="9">
         <v>3.8573</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D136" s="9">
         <v>3.6829000000000001</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E136" s="9">
         <v>3.8494999999999999</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F136" s="9">
         <v>3.8119000000000001</v>
       </c>
-      <c r="G125" s="49"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="5"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="49"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
+      <c r="G136" s="49"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="5"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="49"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B138" s="9">
         <v>-3.8433999999999999</v>
       </c>
-      <c r="C127" s="9">
+      <c r="C138" s="9">
         <v>-13.9133</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D138" s="9">
         <v>-23.5916</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E138" s="9">
         <v>-33.8613</v>
       </c>
-      <c r="F127" s="9">
+      <c r="F138" s="9">
         <v>-43.593000000000004</v>
       </c>
-      <c r="G127" s="30">
+      <c r="G138" s="30">
         <f>3.73042225837707/1000</f>
         <v>3.7304222583770699E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="5" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B139" s="9">
         <v>2.6547999999999998</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C139" s="9">
         <v>2.7086999999999999</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D139" s="9">
         <v>2.7507000000000001</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E139" s="9">
         <v>2.7532999999999999</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F139" s="9">
         <v>2.7458</v>
       </c>
-      <c r="G128" s="30"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="5"/>
-      <c r="B129" s="50"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="30"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
+      <c r="G139" s="30"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="5"/>
+      <c r="B140" s="50"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="30"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B141" s="9">
         <v>32.962600000000002</v>
       </c>
-      <c r="C130" s="9">
+      <c r="C141" s="9">
         <v>22.838000000000001</v>
       </c>
-      <c r="D130" s="9">
+      <c r="D141" s="9">
         <v>12.853400000000001</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E141" s="9">
         <v>3.2014</v>
       </c>
-      <c r="F130" s="9">
+      <c r="F141" s="9">
         <v>-7.4305000000000003</v>
       </c>
-      <c r="G130" s="30"/>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="5" t="s">
+      <c r="G141" s="30"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B142" s="9">
         <v>3.9333999999999998</v>
       </c>
-      <c r="C131" s="9">
+      <c r="C142" s="9">
         <v>3.859</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D142" s="9">
         <v>3.6848999999999998</v>
       </c>
-      <c r="E131" s="9">
+      <c r="E142" s="9">
         <v>3.851</v>
       </c>
-      <c r="F131" s="9">
+      <c r="F142" s="9">
         <v>3.8092000000000001</v>
       </c>
-      <c r="G131" s="49"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="5"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="49"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
+      <c r="G142" s="49"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="5"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="50"/>
+      <c r="D143" s="50"/>
+      <c r="E143" s="50"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="49"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B144" s="9">
         <v>-3.3506</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C144" s="9">
         <v>-13.5854</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D144" s="9">
         <v>-23.3325</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E144" s="9">
         <v>-33.126199999999997</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F144" s="9">
         <v>-43.1599</v>
       </c>
-      <c r="G133" s="30">
+      <c r="G144" s="30">
         <f>44.6756930351257/1000</f>
         <v>4.4675693035125696E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B145" s="9">
         <v>2.6993</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C145" s="9">
         <v>2.6728000000000001</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D145" s="9">
         <v>2.6707000000000001</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E145" s="9">
         <v>2.6284000000000001</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F145" s="9">
         <v>2.6488</v>
       </c>
-      <c r="G134" s="30"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="5"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="30"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
+      <c r="G145" s="30"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="5"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="30"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B147" s="9">
         <v>10.5525</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C147" s="9">
         <v>-2.0112999999999999</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D147" s="9">
         <v>-10.688499999999999</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E147" s="9">
         <v>-21.682500000000001</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F147" s="9">
         <v>-31.886700000000001</v>
       </c>
-      <c r="G136" s="30"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
+      <c r="G147" s="30"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B148" s="9">
         <v>3.1505999999999998</v>
       </c>
-      <c r="C137" s="9">
+      <c r="C148" s="9">
         <v>1.9450000000000001</v>
       </c>
-      <c r="D137" s="9">
+      <c r="D148" s="9">
         <v>1.9343999999999999</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E148" s="9">
         <v>1.6428</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F148" s="9">
         <v>1.2435</v>
       </c>
-      <c r="G137" s="30"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="5"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="30"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
+      <c r="G148" s="30"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="5"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="30"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B150" s="9">
         <v>-3.4333999999999998</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C150" s="9">
         <v>-12.944599999999999</v>
       </c>
-      <c r="D139" s="9">
+      <c r="D150" s="9">
         <v>-23.013100000000001</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E150" s="9">
         <v>-32.932000000000002</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F150" s="9">
         <v>-41.863900000000001</v>
       </c>
-      <c r="G139" s="30"/>
-    </row>
-    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="6" t="s">
+      <c r="G150" s="30"/>
+    </row>
+    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B140" s="31">
+      <c r="B151" s="31">
         <v>2.6326999999999998</v>
       </c>
-      <c r="C140" s="31">
+      <c r="C151" s="31">
         <v>2.6817000000000002</v>
       </c>
-      <c r="D140" s="31">
+      <c r="D151" s="31">
         <v>2.7978000000000001</v>
       </c>
-      <c r="E140" s="31">
+      <c r="E151" s="31">
         <v>2.4706999999999999</v>
       </c>
-      <c r="F140" s="31">
+      <c r="F151" s="31">
         <v>2.6570999999999998</v>
       </c>
-      <c r="G140" s="32"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
-      <c r="D141" s="29"/>
-      <c r="E141" s="29"/>
-      <c r="F141" s="29"/>
-      <c r="G141" s="29"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B142" s="61" t="s">
+      <c r="G151" s="32"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B152" s="29"/>
+      <c r="C152" s="29"/>
+      <c r="D152" s="29"/>
+      <c r="E152" s="29"/>
+      <c r="F152" s="29"/>
+      <c r="G152" s="29"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B153" s="61" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B143" t="s">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B154" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="7" t="s">
-        <v>108</v>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3413,8 +3597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3425,7 +3609,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3627,22 +3811,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="71" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B27" s="72">
         <v>-10</v>
@@ -3665,7 +3849,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B28">
         <v>0.64659999999999995</v>
@@ -3688,7 +3872,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C29">
         <v>-10.303504943847599</v>
@@ -3697,7 +3881,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B30" s="75">
         <v>3.8721999999999999</v>
@@ -3720,7 +3904,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B31">
         <v>0.68859999999999999</v>
@@ -3743,7 +3927,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C32">
         <v>-10.2645196914672</v>
@@ -3752,7 +3936,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="74" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B33" s="75">
         <v>3.9794</v>
@@ -3775,7 +3959,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C34">
         <v>-5.3365</v>
@@ -3784,7 +3968,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C35">
         <v>-5.3365</v>
@@ -3793,7 +3977,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C36" s="28">
         <v>-11.2842</v>
@@ -3802,7 +3986,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C37">
         <v>-7.2462999999999997</v>
@@ -3811,29 +3995,29 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G39" s="23"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -3842,7 +4026,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E041D52A-20F8-4070-A65D-C2829D165513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D1C26F-2364-4765-86D6-BE2FC0B02BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="151">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -387,9 +387,6 @@
     <t>RTSNet (reduced parameters) [dB]</t>
   </si>
   <si>
-    <t>dB: -11.7285 #parameters: 3636450</t>
-  </si>
-  <si>
     <t>dB: -12.2755 #parameter: 6428140</t>
   </si>
   <si>
@@ -474,12 +471,6 @@
     <t>dB: -11.1840 #parameters:101264280</t>
   </si>
   <si>
-    <t>dB:-11.8744 #parameters:237950</t>
-  </si>
-  <si>
-    <t>#parameters:57085100</t>
-  </si>
-  <si>
     <t xml:space="preserve">T=20, T_test=20 (Trajectory Length) 1/r2 [dB], 1/q2 [dB]=[0,20] </t>
   </si>
   <si>
@@ -490,6 +481,18 @@
   </si>
   <si>
     <t>3) Scaling towards large models (Change date:5.15 colored in red)</t>
+  </si>
+  <si>
+    <t>dB:-12.0443 #parameters:57085100</t>
+  </si>
+  <si>
+    <t>dB:-11.9546 #parameters:237950</t>
+  </si>
+  <si>
+    <t>dB: -11.9332 #parameters: 3636450</t>
+  </si>
+  <si>
+    <t>second-pass, train on obs noise -15.5dB</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2280,7 +2283,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2303,7 +2306,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
@@ -2335,10 +2338,10 @@
         <v>114</v>
       </c>
       <c r="J76" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K76" s="65" t="s">
         <v>120</v>
-      </c>
-      <c r="K76" s="65" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -2362,16 +2365,16 @@
       <c r="F77" s="63">
         <v>-11.0616</v>
       </c>
-      <c r="G77" s="63">
-        <f>0.399958848953247/200</f>
-        <v>1.9997942447662351E-3</v>
+      <c r="G77" s="50">
+        <f>1.41515588760375/200</f>
+        <v>7.0757794380187497E-3</v>
       </c>
       <c r="H77" s="63">
         <v>-11.5398</v>
       </c>
-      <c r="I77" s="63">
-        <f>0.682828903198242/200</f>
-        <v>3.4141445159912099E-3</v>
+      <c r="I77" s="50">
+        <f>1.7515857219696/200</f>
+        <v>8.7579286098480001E-3</v>
       </c>
       <c r="J77" s="63">
         <v>-11.533899999999999</v>
@@ -2396,11 +2399,11 @@
       <c r="F78" s="63">
         <v>0.95120000000000005</v>
       </c>
-      <c r="G78" s="63"/>
+      <c r="G78" s="50"/>
       <c r="H78" s="63">
         <v>0.77070000000000005</v>
       </c>
-      <c r="I78" s="63"/>
+      <c r="I78" s="50"/>
       <c r="J78" s="63">
         <v>0.59950000000000003</v>
       </c>
@@ -2427,16 +2430,16 @@
       <c r="F79" s="63">
         <v>-12.4358</v>
       </c>
-      <c r="G79" s="63">
-        <f xml:space="preserve"> 0.831526041030883/200</f>
-        <v>4.157630205154415E-3</v>
+      <c r="G79" s="50">
+        <f xml:space="preserve"> 2.81512689590454/200</f>
+        <v>1.4075634479522701E-2</v>
       </c>
       <c r="H79" s="63">
         <v>-12.7623</v>
       </c>
-      <c r="I79" s="63">
-        <f>1.39217519760131/200</f>
-        <v>6.9608759880065499E-3</v>
+      <c r="I79" s="50">
+        <f>3.38718914985656/200</f>
+        <v>1.69359457492828E-2</v>
       </c>
       <c r="J79" s="63">
         <v>-12.7544</v>
@@ -2465,7 +2468,7 @@
       <c r="H80" s="63">
         <v>0.8075</v>
       </c>
-      <c r="I80" s="63"/>
+      <c r="I80" s="50"/>
       <c r="J80" s="63">
         <v>0.63580000000000003</v>
       </c>
@@ -2473,7 +2476,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B81" s="63">
         <v>-11.2082</v>
@@ -2483,25 +2486,25 @@
         <v>4.2768810987472497E-2</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E81" s="63">
         <f>8.43400382995605/200</f>
         <v>4.2170019149780247E-2</v>
       </c>
       <c r="F81" s="50" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="G81" s="63">
         <f>10.424521446228/200</f>
         <v>5.2122607231140004E-2</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="I81" s="63">
-        <f>28.3335559368133/200</f>
-        <v>0.14166777968406652</v>
+        <v>147</v>
+      </c>
+      <c r="I81" s="50">
+        <f>13.5266025066375/200</f>
+        <v>6.76330125331875E-2</v>
       </c>
       <c r="J81" s="63"/>
       <c r="K81" s="66"/>
@@ -2515,11 +2518,11 @@
       </c>
       <c r="C82" s="63"/>
       <c r="D82" s="78">
-        <v>1.573</v>
+        <v>1.5701000000000001</v>
       </c>
       <c r="E82" s="63"/>
       <c r="F82" s="50">
-        <v>1.0568</v>
+        <v>1.0585</v>
       </c>
       <c r="G82" s="63"/>
       <c r="H82" s="17"/>
@@ -2534,28 +2537,28 @@
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
       <c r="D83" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E83" s="21">
         <f>8.48960757255554/200</f>
         <v>4.2448037862777704E-2</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G83" s="21">
         <f>9.56008505821228/200</f>
         <v>4.7800425291061405E-2</v>
       </c>
       <c r="H83" s="68" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I83" s="21">
         <f>11.0999789237976/200</f>
         <v>5.5499894618988001E-2</v>
       </c>
       <c r="J83" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K83" s="23">
         <f>12.9774138927459/200</f>
@@ -2600,7 +2603,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -3595,10 +3598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3609,7 +3612,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3811,22 +3814,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="72">
         <v>-10</v>
@@ -3849,7 +3852,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28">
         <v>0.64659999999999995</v>
@@ -3872,7 +3875,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C29">
         <v>-10.303504943847599</v>
@@ -3881,7 +3884,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B30" s="75">
         <v>3.8721999999999999</v>
@@ -3904,7 +3907,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31">
         <v>0.68859999999999999</v>
@@ -3927,7 +3930,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32">
         <v>-10.2645196914672</v>
@@ -3936,7 +3939,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="75">
         <v>3.9794</v>
@@ -3959,7 +3962,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C34">
         <v>-5.3365</v>
@@ -3968,7 +3971,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35">
         <v>-5.3365</v>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="28">
         <v>-11.2842</v>
@@ -3986,7 +3989,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C37">
         <v>-7.2462999999999997</v>
@@ -3995,29 +3998,29 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>135</v>
       </c>
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>136</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>137</v>
       </c>
       <c r="G39" s="23"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -4026,7 +4029,20 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>140</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43">
+        <v>-26.867899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C44">
+        <v>0.214</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D1C26F-2364-4765-86D6-BE2FC0B02BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BDBB5E-3975-4E63-95FE-95479EB17149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="161">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -462,9 +462,6 @@
     <t>this column is the MSE for the traj drawing (both hybrid and RTSNet converge to their optimal)</t>
   </si>
   <si>
-    <t xml:space="preserve">2) Decimation </t>
-  </si>
-  <si>
     <t>1) Discrete-Time</t>
   </si>
   <si>
@@ -486,13 +483,46 @@
     <t>dB:-12.0443 #parameters:57085100</t>
   </si>
   <si>
-    <t>dB:-11.9546 #parameters:237950</t>
-  </si>
-  <si>
     <t>dB: -11.9332 #parameters: 3636450</t>
   </si>
   <si>
-    <t>second-pass, train on obs noise -15.5dB</t>
+    <t>2) Decimation (change data:5.17)</t>
+  </si>
+  <si>
+    <t>concat two trained RTSNets</t>
+  </si>
+  <si>
+    <t>first-pass</t>
+  </si>
+  <si>
+    <t>dataset's observation for second pass</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>second-pass(train on dataset with obs noise -15.5dB)</t>
+  </si>
+  <si>
+    <t>±0.0299</t>
+  </si>
+  <si>
+    <t>±0.1831</t>
+  </si>
+  <si>
+    <t>±0.276</t>
+  </si>
+  <si>
+    <t>try second pass train on results of first pass</t>
+  </si>
+  <si>
+    <t>±0.3289</t>
+  </si>
+  <si>
+    <t>dB:-11.9427 #parameters:237950</t>
+  </si>
+  <si>
+    <t>second-pass(train on output from first pass)</t>
   </si>
 </sst>
 </file>
@@ -676,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -847,6 +877,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1129,7 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K157"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
@@ -2283,7 +2334,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2306,7 +2357,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
@@ -2476,7 +2527,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B81" s="63">
         <v>-11.2082</v>
@@ -2486,21 +2537,21 @@
         <v>4.2768810987472497E-2</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="E81" s="63">
         <f>8.43400382995605/200</f>
         <v>4.2170019149780247E-2</v>
       </c>
       <c r="F81" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G81" s="63">
         <f>10.424521446228/200</f>
         <v>5.2122607231140004E-2</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I81" s="50">
         <f>13.5266025066375/200</f>
@@ -2518,7 +2569,7 @@
       </c>
       <c r="C82" s="63"/>
       <c r="D82" s="78">
-        <v>1.5701000000000001</v>
+        <v>1.5407</v>
       </c>
       <c r="E82" s="63"/>
       <c r="F82" s="50">
@@ -2558,7 +2609,7 @@
         <v>5.5499894618988001E-2</v>
       </c>
       <c r="J83" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K83" s="23">
         <f>12.9774138927459/200</f>
@@ -2603,7 +2654,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
@@ -3598,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3612,7 +3663,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3814,7 +3865,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -4032,18 +4083,115 @@
         <v>139</v>
       </c>
     </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" t="s">
+      <c r="B43" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="91">
+        <v>-15.4787</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B44" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B45" s="92"/>
+      <c r="C45" s="93"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B46" s="92" t="s">
         <v>150</v>
       </c>
-      <c r="C43">
-        <v>-26.867899999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C44">
-        <v>0.214</v>
-      </c>
+      <c r="C46" s="93">
+        <v>-15.4361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B47" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B48" s="92"/>
+      <c r="C48" s="93"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B49" s="92" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="93">
+        <v>-26.090299999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B50" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B51" s="92"/>
+      <c r="C51" s="93"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B52" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" s="93">
+        <v>-15.9239</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="95" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B56" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="91"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B57" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C57" s="93"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B58" s="92"/>
+      <c r="C58" s="93"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B59" s="92" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="93"/>
+    </row>
+    <row r="60" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="94" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BDBB5E-3975-4E63-95FE-95479EB17149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BB58D-3EFC-4B0B-8A6E-D0A9C483AD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -59,9 +59,6 @@
     <t>30,50</t>
   </si>
   <si>
-    <t>EKF true [dB]</t>
-  </si>
-  <si>
     <t>RTS true [dB]</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>RTS mismatch(fed with false init state [0,0] and false init variance=0) [dB]</t>
   </si>
   <si>
-    <t>EKF mismatch(fed with false init state [0,0] and false init variance=0) [dB]</t>
-  </si>
-  <si>
     <t>[1/r2 [dB], 1/q^2 [dB]]</t>
   </si>
   <si>
@@ -179,15 +173,9 @@
     <t xml:space="preserve">EKF full [dB] </t>
   </si>
   <si>
-    <t>RTS full[dB]</t>
-  </si>
-  <si>
     <t>EKF  Dtheta=1 [dB]</t>
   </si>
   <si>
-    <t>RTS Dtheta=1 [dB]</t>
-  </si>
-  <si>
     <t xml:space="preserve">RTSNet full, train on T=200(n_Epochs=1000, n_Batch=10, learningRate=1e-4, weightDecay=1e-6)[dB] </t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t>EKF</t>
   </si>
   <si>
-    <t>RTS</t>
-  </si>
-  <si>
     <t>RTSNet</t>
   </si>
   <si>
@@ -228,9 +213,6 @@
   </si>
   <si>
     <t>v = 0 dB</t>
-  </si>
-  <si>
-    <t>EKF std [dB]</t>
   </si>
   <si>
     <t>RTS std [dB]</t>
@@ -415,9 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RTS J=5, optimized q [dB]</t>
-  </si>
-  <si>
     <t>optimal 1/q2 [dB]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,9 +405,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RTS J=2, optimized q [dB]</t>
-  </si>
-  <si>
     <t>PF J=5 [dB]</t>
   </si>
   <si>
@@ -471,65 +447,104 @@
     <t xml:space="preserve">T=20, T_test=20 (Trajectory Length) 1/r2 [dB], 1/q2 [dB]=[0,20] </t>
   </si>
   <si>
-    <t>T_train=20, T_test=200</t>
-  </si>
-  <si>
     <t>RTSNet [dB] (n_Epochs=5000, n_Batch=5, learningRate=1E-4, weightDecay=1E-3)</t>
   </si>
   <si>
-    <t>3) Scaling towards large models (Change date:5.15 colored in red)</t>
-  </si>
-  <si>
-    <t>dB:-12.0443 #parameters:57085100</t>
-  </si>
-  <si>
     <t>dB: -11.9332 #parameters: 3636450</t>
   </si>
   <si>
+    <t>concat two trained RTSNets</t>
+  </si>
+  <si>
+    <t>first-pass</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>±0.0299</t>
+  </si>
+  <si>
+    <t>±0.1831</t>
+  </si>
+  <si>
+    <t>±0.276</t>
+  </si>
+  <si>
+    <t>±0.3289</t>
+  </si>
+  <si>
+    <t>dB:-11.9427 #parameters:237950</t>
+  </si>
+  <si>
+    <t>±0.3006</t>
+  </si>
+  <si>
+    <t>dataset with obs noise -15.5dB</t>
+  </si>
+  <si>
+    <t>The std of first pass varies much more than the dataset with obs noise manually added, that's why the performance drop from -26 to -15.9</t>
+  </si>
+  <si>
+    <t>train second pass on outputs of first pass, performance improves</t>
+  </si>
+  <si>
+    <t>second-pass(train and test on dataset with obs noise -15.5dB)</t>
+  </si>
+  <si>
+    <t>T_train=20, T_test=200(N_T=200）</t>
+  </si>
+  <si>
+    <t>dB:-12.0894 #parameters:57085100</t>
+  </si>
+  <si>
+    <t>3) Scaling towards large models (Change date:5.18 colored in red)</t>
+  </si>
+  <si>
     <t>2) Decimation (change data:5.17)</t>
   </si>
   <si>
-    <t>concat two trained RTSNets</t>
-  </si>
-  <si>
-    <t>first-pass</t>
-  </si>
-  <si>
-    <t>dataset's observation for second pass</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>second-pass(train on dataset with obs noise -15.5dB)</t>
-  </si>
-  <si>
-    <t>±0.0299</t>
-  </si>
-  <si>
-    <t>±0.1831</t>
-  </si>
-  <si>
-    <t>±0.276</t>
-  </si>
-  <si>
-    <t>try second pass train on results of first pass</t>
-  </si>
-  <si>
-    <t>±0.3289</t>
-  </si>
-  <si>
-    <t>dB:-11.9427 #parameters:237950</t>
-  </si>
-  <si>
-    <t>second-pass(train on output from first pass)</t>
+    <t>2x2, H=I, Trajectory Length T=100, Dataset size: N_T=1000</t>
+  </si>
+  <si>
+    <t>1/r2 [dB]</t>
+  </si>
+  <si>
+    <t>6) fixed q^2 (change date:5.19 colored red)</t>
+  </si>
+  <si>
+    <t>1/q^2 = -10 dB</t>
+  </si>
+  <si>
+    <t>1/q^2 = 10 dB</t>
+  </si>
+  <si>
+    <t>KF true [dB]</t>
+  </si>
+  <si>
+    <t>KF mismatch(fed with false init state [0,0] and false init variance=0) [dB]</t>
+  </si>
+  <si>
+    <t>ERTS J=5, optimized q [dB]</t>
+  </si>
+  <si>
+    <t>ERTS J=2, optimized q [dB]</t>
+  </si>
+  <si>
+    <t>ERTS full[dB]</t>
+  </si>
+  <si>
+    <t>ERTS Dtheta=1 [dB]</t>
+  </si>
+  <si>
+    <t>ERTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +590,28 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -706,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -831,19 +868,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -854,49 +881,89 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,10 +1245,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K182"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="D184" sqref="D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1197,17 +1264,17 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1215,24 +1282,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B5" s="41">
         <v>10.022600000000001</v>
@@ -1252,7 +1319,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B6" s="41">
         <v>0.42399999999999999</v>
@@ -1272,7 +1339,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="B7" s="9">
         <v>8.0853999999999999</v>
@@ -1292,7 +1359,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B8" s="9">
         <v>0.50170000000000003</v>
@@ -1312,7 +1379,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="9">
         <v>6.2152000000000003</v>
@@ -1333,7 +1400,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B10" s="9">
         <v>0.4869</v>
@@ -1354,7 +1421,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="9">
         <v>6.2251000000000003</v>
@@ -1375,7 +1442,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="40" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B12" s="31">
         <v>0.48709999999999998</v>
@@ -1405,7 +1472,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G14" s="18"/>
     </row>
@@ -1414,25 +1481,25 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B16" s="41">
         <v>10.004300000000001</v>
@@ -1453,7 +1520,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B17" s="41">
         <v>0.41909999999999997</v>
@@ -1474,7 +1541,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="B18" s="9">
         <v>5.2991000000000001</v>
@@ -1495,7 +1562,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B19" s="9">
         <v>0.70950000000000002</v>
@@ -1516,7 +1583,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="9">
         <v>1.8344</v>
@@ -1537,7 +1604,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B21" s="9">
         <v>0.79410000000000003</v>
@@ -1557,7 +1624,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B22" s="9">
         <v>1.8805000000000001</v>
@@ -1577,7 +1644,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B23" s="31">
         <v>0.79549999999999998</v>
@@ -1605,7 +1672,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1628,12 +1695,12 @@
         <v>6</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B27" s="41">
         <v>10.011900000000001</v>
@@ -1654,7 +1721,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B28" s="41">
         <v>0.39750000000000002</v>
@@ -1675,7 +1742,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="B29" s="9">
         <v>2.7555999999999998</v>
@@ -1699,7 +1766,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B30" s="9">
         <v>1.0863</v>
@@ -1720,7 +1787,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31" s="9">
         <f>-1.7902</f>
@@ -1745,7 +1812,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B32" s="9">
         <v>1.2419</v>
@@ -1766,7 +1833,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="9">
         <v>-1.64</v>
@@ -1790,7 +1857,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B34" s="31">
         <v>1.1987000000000001</v>
@@ -1829,7 +1896,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="62" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1840,7 +1907,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1851,7 +1918,7 @@
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1872,12 +1939,12 @@
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18">
@@ -1893,7 +1960,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18">
@@ -1906,7 +1973,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" s="18"/>
       <c r="C43" s="18">
@@ -1922,7 +1989,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18">
@@ -1935,7 +2002,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B45" s="18"/>
       <c r="C45" s="18">
@@ -1952,7 +2019,7 @@
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10">
@@ -1974,7 +2041,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -1985,7 +2052,7 @@
     </row>
     <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2006,12 +2073,12 @@
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
       <c r="G50" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18">
@@ -2027,7 +2094,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18">
@@ -2040,7 +2107,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="18">
@@ -2056,7 +2123,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18">
@@ -2069,7 +2136,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18">
@@ -2085,7 +2152,7 @@
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10">
@@ -2107,7 +2174,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -2118,7 +2185,7 @@
     </row>
     <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -2138,7 +2205,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="35"/>
       <c r="F60" s="46" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="G60" s="47">
         <v>30.081099999999999</v>
@@ -2148,7 +2215,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="51" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="52">
@@ -2157,7 +2224,7 @@
       <c r="D61" s="18"/>
       <c r="E61" s="35"/>
       <c r="F61" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G61" s="8">
         <v>26.237500000000001</v>
@@ -2167,7 +2234,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="51" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="52">
@@ -2182,7 +2249,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="30">
@@ -2191,7 +2258,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="35"/>
       <c r="F63" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G63" s="8">
         <v>-6.7626999999999997</v>
@@ -2201,7 +2268,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="30">
@@ -2210,7 +2277,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="35"/>
       <c r="F64" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G64" s="8">
         <v>0.88480000000000003</v>
@@ -2220,7 +2287,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="30">
@@ -2229,7 +2296,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="35"/>
       <c r="F65" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G65" s="8">
         <v>-11.523199999999999</v>
@@ -2239,7 +2306,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="30">
@@ -2248,7 +2315,7 @@
       <c r="D66" s="18"/>
       <c r="E66" s="35"/>
       <c r="F66" s="12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G66" s="8">
         <v>1.1852</v>
@@ -2258,7 +2325,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="53" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="54">
@@ -2267,7 +2334,7 @@
       <c r="D67" s="18"/>
       <c r="E67" s="33"/>
       <c r="F67" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G67" s="8">
         <v>9.0884</v>
@@ -2277,7 +2344,7 @@
     </row>
     <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="53" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="54">
@@ -2286,7 +2353,7 @@
       <c r="D68" s="18"/>
       <c r="E68" s="35"/>
       <c r="F68" s="13" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G68" s="11">
         <v>2.7212000000000001</v>
@@ -2296,7 +2363,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="55">
@@ -2311,7 +2378,7 @@
     </row>
     <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="56" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B70" s="57"/>
       <c r="C70" s="58">
@@ -2334,7 +2401,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2345,7 +2412,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D73" s="28"/>
     </row>
@@ -2357,451 +2424,562 @@
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
-      <c r="B76" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G76" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="H76" s="3" t="s">
+      <c r="A76" s="72"/>
+      <c r="B76" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F76" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="I76" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="J76" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="I76" s="64" t="s">
+      <c r="K76" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K76" s="65" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="63">
+      <c r="A77" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B77" s="9">
         <v>-7.7907000000000002</v>
       </c>
-      <c r="C77" s="63">
+      <c r="C77" s="9">
         <f>0.38149070739746/200</f>
         <v>1.9074535369873E-3</v>
       </c>
-      <c r="D77" s="63">
+      <c r="D77" s="9">
         <v>-10.930999999999999</v>
       </c>
-      <c r="E77" s="63">
+      <c r="E77" s="9">
         <f>0.393565416336059/200</f>
         <v>1.967827081680295E-3</v>
       </c>
-      <c r="F77" s="63">
+      <c r="F77" s="9">
         <v>-11.0616</v>
       </c>
-      <c r="G77" s="50">
+      <c r="G77" s="9">
         <f>1.41515588760375/200</f>
         <v>7.0757794380187497E-3</v>
       </c>
-      <c r="H77" s="63">
+      <c r="H77" s="9">
         <v>-11.5398</v>
       </c>
-      <c r="I77" s="50">
+      <c r="I77" s="9">
         <f>1.7515857219696/200</f>
         <v>8.7579286098480001E-3</v>
       </c>
-      <c r="J77" s="63">
+      <c r="J77" s="9">
         <v>-11.533899999999999</v>
       </c>
-      <c r="K77" s="66">
+      <c r="K77" s="30">
         <f>1.83847570419311/200</f>
         <v>9.1923785209655495E-3</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B78" s="63">
+      <c r="A78" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" s="9">
         <v>2.2039</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63">
+      <c r="C78" s="9"/>
+      <c r="D78" s="9">
         <v>1.4112</v>
       </c>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63">
+      <c r="E78" s="9"/>
+      <c r="F78" s="9">
         <v>0.95120000000000005</v>
       </c>
-      <c r="G78" s="50"/>
-      <c r="H78" s="63">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9">
         <v>0.77070000000000005</v>
       </c>
-      <c r="I78" s="50"/>
-      <c r="J78" s="63">
+      <c r="I78" s="9"/>
+      <c r="J78" s="9">
         <v>0.59950000000000003</v>
       </c>
-      <c r="K78" s="66"/>
+      <c r="K78" s="30"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="63">
+      <c r="A79" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="9">
         <v>-11.7315</v>
       </c>
-      <c r="C79" s="63">
+      <c r="C79" s="9">
         <f>0.743644952774047/200</f>
         <v>3.7182247638702349E-3</v>
       </c>
-      <c r="D79" s="63">
+      <c r="D79" s="9">
         <v>-12.350300000000001</v>
       </c>
-      <c r="E79" s="63">
+      <c r="E79" s="9">
         <f>0.808241128921508/200</f>
         <v>4.0412056446075401E-3</v>
       </c>
-      <c r="F79" s="63">
+      <c r="F79" s="9">
         <v>-12.4358</v>
       </c>
-      <c r="G79" s="50">
+      <c r="G79" s="9">
         <f xml:space="preserve"> 2.81512689590454/200</f>
         <v>1.4075634479522701E-2</v>
       </c>
-      <c r="H79" s="63">
+      <c r="H79" s="9">
         <v>-12.7623</v>
       </c>
-      <c r="I79" s="50">
+      <c r="I79" s="9">
         <f>3.38718914985656/200</f>
         <v>1.69359457492828E-2</v>
       </c>
-      <c r="J79" s="63">
+      <c r="J79" s="9">
         <v>-12.7544</v>
       </c>
-      <c r="K79" s="66">
+      <c r="K79" s="30">
         <f>3.5751347541809/200</f>
         <v>1.7875673770904502E-2</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="63">
+      <c r="A80" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="9">
         <v>2.4887999999999999</v>
       </c>
-      <c r="C80" s="63"/>
-      <c r="D80" s="63">
+      <c r="C80" s="9"/>
+      <c r="D80" s="9">
         <v>1.5609</v>
       </c>
-      <c r="E80" s="63"/>
-      <c r="F80" s="63">
+      <c r="E80" s="9"/>
+      <c r="F80" s="9">
         <v>1.0578000000000001</v>
       </c>
-      <c r="G80" s="63"/>
-      <c r="H80" s="63">
+      <c r="G80" s="9"/>
+      <c r="H80" s="9">
         <v>0.8075</v>
       </c>
-      <c r="I80" s="50"/>
-      <c r="J80" s="63">
+      <c r="I80" s="9"/>
+      <c r="J80" s="9">
         <v>0.63580000000000003</v>
       </c>
-      <c r="K80" s="66"/>
+      <c r="K80" s="30"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B81" s="63">
+      <c r="A81" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B81" s="9">
         <v>-11.2082</v>
       </c>
-      <c r="C81" s="63">
+      <c r="C81" s="9">
         <f>8.5537621974945/200</f>
         <v>4.2768810987472497E-2</v>
       </c>
-      <c r="D81" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="E81" s="63">
+      <c r="D81" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" s="9">
         <f>8.43400382995605/200</f>
         <v>4.2170019149780247E-2</v>
       </c>
-      <c r="F81" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="G81" s="63">
+      <c r="F81" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="G81" s="9">
         <f>10.424521446228/200</f>
         <v>5.2122607231140004E-2</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="I81" s="50">
+        <v>151</v>
+      </c>
+      <c r="I81" s="9">
         <f>13.5266025066375/200</f>
         <v>6.76330125331875E-2</v>
       </c>
-      <c r="J81" s="63"/>
-      <c r="K81" s="66"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="30"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="63">
+      <c r="A82" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B82" s="9">
         <v>2.4382999999999999</v>
       </c>
-      <c r="C82" s="63"/>
-      <c r="D82" s="78">
+      <c r="C82" s="9"/>
+      <c r="D82" s="76">
         <v>1.5407</v>
       </c>
-      <c r="E82" s="63"/>
-      <c r="F82" s="50">
+      <c r="E82" s="9"/>
+      <c r="F82" s="9">
         <v>1.0585</v>
       </c>
-      <c r="G82" s="63"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="23"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E83" s="21">
+      <c r="G82" s="9"/>
+      <c r="H82" s="50">
+        <v>0.79690000000000005</v>
+      </c>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="8"/>
+    </row>
+    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="78"/>
+      <c r="C83" s="78"/>
+      <c r="D83" s="78" t="s">
+        <v>111</v>
+      </c>
+      <c r="E83" s="78">
         <f>8.48960757255554/200</f>
         <v>4.2448037862777704E-2</v>
       </c>
-      <c r="F83" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G83" s="21">
+      <c r="F83" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" s="78">
         <f>9.56008505821228/200</f>
         <v>4.7800425291061405E-2</v>
       </c>
-      <c r="H83" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="I83" s="21">
+      <c r="H83" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="I83" s="78">
         <f>11.0999789237976/200</f>
         <v>5.5499894618988001E-2</v>
       </c>
-      <c r="J83" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="K83" s="23">
+      <c r="J83" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="K83" s="80">
         <f>12.9774138927459/200</f>
         <v>6.4887069463729505E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="67">
+    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="82"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="83">
         <v>1.597</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="67">
+      <c r="E84" s="82"/>
+      <c r="F84" s="83">
         <v>1.0552999999999999</v>
       </c>
-      <c r="G84" s="24"/>
-      <c r="H84" s="67">
+      <c r="G84" s="82"/>
+      <c r="H84" s="83">
         <v>0.82789999999999997</v>
       </c>
-      <c r="I84" s="24"/>
-      <c r="J84" s="67">
+      <c r="I84" s="82"/>
+      <c r="J84" s="83">
         <v>0.61240000000000006</v>
       </c>
-      <c r="K84" s="25"/>
+      <c r="K84" s="84"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="33"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
-      <c r="D85" s="68"/>
+      <c r="D85" s="64"/>
       <c r="E85" s="21"/>
-      <c r="F85" s="68"/>
+      <c r="F85" s="64"/>
       <c r="G85" s="21"/>
-      <c r="H85" s="68"/>
+      <c r="H85" s="64"/>
       <c r="I85" s="21"/>
-      <c r="J85" s="68"/>
+      <c r="J85" s="64"/>
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="79" t="s">
-        <v>143</v>
-      </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
+      <c r="A86" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
+      <c r="J86" s="28"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="80"/>
-      <c r="B87" s="81" t="s">
-        <v>111</v>
-      </c>
-      <c r="C87" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D87" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="E87" s="82" t="s">
-        <v>110</v>
-      </c>
-      <c r="F87" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="H87" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="I87" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="J87" s="36"/>
+      <c r="A87" s="72"/>
+      <c r="B87" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E87" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="I87" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="J87" s="85"/>
       <c r="K87" s="33"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="85" t="s">
+      <c r="A88" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="86">
+        <v>-7.2732999999999999</v>
+      </c>
+      <c r="C88" s="86">
+        <f>3.30510807037353/200</f>
+        <v>1.6525540351867648E-2</v>
+      </c>
+      <c r="D88" s="86">
+        <v>-9.4646000000000008</v>
+      </c>
+      <c r="E88" s="86">
+        <f>3.73610782623291/200</f>
+        <v>1.8680539131164551E-2</v>
+      </c>
+      <c r="F88" s="86">
+        <v>-9.5103000000000009</v>
+      </c>
+      <c r="G88" s="86">
+        <f>3.9412202835083/200</f>
+        <v>1.9706101417541498E-2</v>
+      </c>
+      <c r="H88" s="86">
+        <v>-9.6827000000000005</v>
+      </c>
+      <c r="I88" s="87">
+        <f>4.63441228866577/200</f>
+        <v>2.317206144332885E-2</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="63"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="86">
+        <v>0.66759999999999997</v>
+      </c>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86">
+        <v>0.6905</v>
+      </c>
+      <c r="E89" s="86"/>
+      <c r="F89" s="86">
+        <v>0.68589999999999995</v>
+      </c>
+      <c r="G89" s="86"/>
+      <c r="H89" s="86">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="I89" s="87"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="63"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="50"/>
-      <c r="C88" s="50"/>
-      <c r="D88" s="50"/>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="50"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="63"/>
-      <c r="K88" s="63"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="49"/>
-      <c r="J89" s="63"/>
-      <c r="K89" s="63"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="B90" s="50"/>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="50"/>
-      <c r="I90" s="49"/>
-      <c r="J90" s="63"/>
+      <c r="B90" s="86">
+        <v>-11.763400000000001</v>
+      </c>
+      <c r="C90" s="86">
+        <f>6.93132138252258/200</f>
+        <v>3.4656606912612901E-2</v>
+      </c>
+      <c r="D90" s="86">
+        <v>-12.1273</v>
+      </c>
+      <c r="E90" s="86">
+        <f>8.01621603965759/200</f>
+        <v>4.0081080198287947E-2</v>
+      </c>
+      <c r="F90" s="86">
+        <v>-12.002599999999999</v>
+      </c>
+      <c r="G90" s="86">
+        <f>8.17840385437011/200</f>
+        <v>4.0892019271850551E-2</v>
+      </c>
+      <c r="H90" s="86">
+        <v>-12.107100000000001</v>
+      </c>
+      <c r="I90" s="87">
+        <f>9.89218688011169/200</f>
+        <v>4.9460934400558453E-2</v>
+      </c>
+      <c r="J90" s="9"/>
       <c r="K90" s="63"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="B91" s="50"/>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="50"/>
-      <c r="I91" s="49"/>
-      <c r="J91" s="63"/>
+      <c r="A91" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B91" s="86">
+        <v>0.9052</v>
+      </c>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86">
+        <v>0.71509999999999996</v>
+      </c>
+      <c r="E91" s="86"/>
+      <c r="F91" s="86">
+        <v>0.66969999999999996</v>
+      </c>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="I91" s="87"/>
+      <c r="J91" s="9"/>
       <c r="K91" s="63"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="50"/>
-      <c r="C92" s="50"/>
-      <c r="D92" s="50"/>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="50"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="63"/>
+      <c r="A92" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" s="86">
+        <v>-11.6623</v>
+      </c>
+      <c r="C92" s="86">
+        <f>80.5346596240997/200</f>
+        <v>0.40267329812049851</v>
+      </c>
+      <c r="D92" s="86">
+        <v>-11.852600000000001</v>
+      </c>
+      <c r="E92" s="86">
+        <f>85.9917159080505/200</f>
+        <v>0.42995857954025246</v>
+      </c>
+      <c r="F92" s="86">
+        <v>-11.3972</v>
+      </c>
+      <c r="G92" s="86">
+        <f xml:space="preserve"> 102.554239511489/200</f>
+        <v>0.51277119755744505</v>
+      </c>
+      <c r="H92" s="86">
+        <v>-10.0825</v>
+      </c>
+      <c r="I92" s="87">
+        <f xml:space="preserve"> 135.115339517593/200</f>
+        <v>0.6755766975879649</v>
+      </c>
+      <c r="J92" s="9"/>
       <c r="K92" s="63"/>
     </row>
     <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="87"/>
-      <c r="C93" s="87"/>
-      <c r="D93" s="88"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="87"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="89"/>
-      <c r="J93" s="21"/>
+      <c r="A93" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" s="88">
+        <v>0.89839999999999998</v>
+      </c>
+      <c r="C93" s="88"/>
+      <c r="D93" s="89">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="E93" s="88"/>
+      <c r="F93" s="88">
+        <v>0.80679999999999996</v>
+      </c>
+      <c r="G93" s="88"/>
+      <c r="H93" s="88">
+        <v>1.3221000000000001</v>
+      </c>
+      <c r="I93" s="90"/>
+      <c r="J93" s="18"/>
       <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
+      <c r="J94" s="28"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="28"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="28"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -2824,12 +3002,12 @@
         <v>6</v>
       </c>
       <c r="G102" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B103" s="9">
         <v>2.7021000000000002</v>
@@ -2853,7 +3031,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B104" s="9">
         <v>0.88500000000000001</v>
@@ -2883,7 +3061,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106" s="9">
         <v>11.153700000000001</v>
@@ -2907,7 +3085,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107" s="9">
         <v>3.0234000000000001</v>
@@ -2937,7 +3115,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B109" s="9">
         <v>-1.8754</v>
@@ -2961,7 +3139,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B110" s="9">
         <v>1.2853000000000001</v>
@@ -2991,7 +3169,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B112" s="9">
         <v>5.5016999999999996</v>
@@ -3015,7 +3193,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B113" s="9">
         <v>2.9416000000000002</v>
@@ -3045,7 +3223,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B115" s="9">
         <f>-1.7902</f>
@@ -3070,7 +3248,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B116" s="9">
         <v>1.2419</v>
@@ -3100,7 +3278,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B118" s="9">
         <v>-0.77390000000000003</v>
@@ -3121,7 +3299,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B119" s="9">
         <v>1.2433000000000001</v>
@@ -3151,7 +3329,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B121" s="9">
         <v>-1.7432000000000001</v>
@@ -3172,7 +3350,7 @@
     </row>
     <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B122" s="31">
         <v>1.2693000000000001</v>
@@ -3203,7 +3381,7 @@
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="33"/>
       <c r="B124" s="33" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
@@ -3213,7 +3391,7 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="21"/>
       <c r="B125" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="17"/>
@@ -3223,18 +3401,18 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="19" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -3257,12 +3435,12 @@
         <v>6</v>
       </c>
       <c r="G131" s="48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B132" s="9">
         <v>3.4502999999999999</v>
@@ -3286,7 +3464,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B133" s="9">
         <v>1.8456999999999999</v>
@@ -3316,7 +3494,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B135" s="9">
         <v>33.961399999999998</v>
@@ -3337,7 +3515,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B136" s="9">
         <v>3.9329999999999998</v>
@@ -3367,7 +3545,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138" s="9">
         <v>-3.8433999999999999</v>
@@ -3391,7 +3569,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B139" s="9">
         <v>2.6547999999999998</v>
@@ -3421,7 +3599,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B141" s="9">
         <v>32.962600000000002</v>
@@ -3442,7 +3620,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B142" s="9">
         <v>3.9333999999999998</v>
@@ -3472,7 +3650,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B144" s="9">
         <v>-3.3506</v>
@@ -3496,7 +3674,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B145" s="9">
         <v>2.6993</v>
@@ -3526,7 +3704,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B147" s="9">
         <v>10.5525</v>
@@ -3547,7 +3725,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B148" s="9">
         <v>3.1505999999999998</v>
@@ -3577,7 +3755,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B150" s="9">
         <v>-3.4333999999999998</v>
@@ -3598,7 +3776,7 @@
     </row>
     <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B151" s="31">
         <v>2.6326999999999998</v>
@@ -3627,17 +3805,333 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B153" s="61" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B164" s="19"/>
+      <c r="C164" s="19"/>
+      <c r="D164" s="19"/>
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A165" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B165" s="19"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" s="95">
+        <v>-10</v>
+      </c>
+      <c r="C166" s="95">
+        <v>0</v>
+      </c>
+      <c r="D166" s="95">
+        <v>10</v>
+      </c>
+      <c r="E166" s="96">
+        <v>20</v>
+      </c>
+      <c r="F166" s="104"/>
+      <c r="G166" s="104"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B167" s="98">
+        <v>10.021800000000001</v>
+      </c>
+      <c r="C167" s="98">
+        <v>-1E-4</v>
+      </c>
+      <c r="D167" s="98">
+        <v>-10.0009</v>
+      </c>
+      <c r="E167" s="99">
+        <v>-20.009399999999999</v>
+      </c>
+      <c r="F167" s="98"/>
+      <c r="G167" s="33"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B168" s="98">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="C168" s="98">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="D168" s="98">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="E168" s="99">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="F168" s="98"/>
+      <c r="G168" s="33"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A169" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B169" s="50">
+        <v>8.0785</v>
+      </c>
+      <c r="C169" s="50">
+        <v>-0.36620000000000003</v>
+      </c>
+      <c r="D169" s="50">
+        <v>-10.040800000000001</v>
+      </c>
+      <c r="E169" s="49">
+        <v>-20.0139</v>
+      </c>
+      <c r="F169" s="50"/>
+      <c r="G169" s="33"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B170" s="50">
+        <v>0.4738</v>
+      </c>
+      <c r="C170" s="50">
+        <v>0.41570000000000001</v>
+      </c>
+      <c r="D170" s="50">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="E170" s="49">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="F170" s="50"/>
+      <c r="G170" s="33"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="50">
+        <v>6.2323000000000004</v>
+      </c>
+      <c r="C171" s="50">
+        <v>-0.8518</v>
+      </c>
+      <c r="D171" s="50">
+        <v>-10.102499999999999</v>
+      </c>
+      <c r="E171" s="49">
+        <v>-20.0198</v>
+      </c>
+      <c r="F171" s="50"/>
+      <c r="G171" s="33"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A172" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B172" s="102">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="C172" s="102">
+        <v>0.41720000000000002</v>
+      </c>
+      <c r="D172" s="102">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="E172" s="103">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="F172" s="50"/>
+      <c r="G172" s="33"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="19"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A175" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="B175" s="19"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" s="94" t="s">
+        <v>155</v>
+      </c>
+      <c r="B176" s="95">
+        <v>-10</v>
+      </c>
+      <c r="C176" s="95">
+        <v>0</v>
+      </c>
+      <c r="D176" s="95">
+        <v>10</v>
+      </c>
+      <c r="E176" s="95">
+        <v>20</v>
+      </c>
+      <c r="F176" s="96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B177" s="98">
+        <v>9.9992999999999999</v>
+      </c>
+      <c r="C177" s="98">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="D177" s="98">
+        <v>-9.9928000000000008</v>
+      </c>
+      <c r="E177" s="98">
+        <v>-20.0136</v>
+      </c>
+      <c r="F177" s="99">
+        <v>-30.004000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B178" s="98">
+        <v>0.41639999999999999</v>
+      </c>
+      <c r="C178" s="98">
+        <v>0.4022</v>
+      </c>
+      <c r="D178" s="98">
+        <v>0.4098</v>
+      </c>
+      <c r="E178" s="98">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F178" s="99">
+        <v>0.39079999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="B179" s="50">
+        <v>2.6894</v>
+      </c>
+      <c r="C179" s="50">
+        <v>-4.6473000000000004</v>
+      </c>
+      <c r="D179" s="50">
+        <v>-11.911799999999999</v>
+      </c>
+      <c r="E179" s="50">
+        <v>-20.385999999999999</v>
+      </c>
+      <c r="F179" s="49">
+        <v>-30.0456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B180" s="50">
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="C180" s="50">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="D180" s="50">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="E180" s="50">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="F180" s="49">
+        <v>0.39340000000000003</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="50">
+        <v>-1.7606999999999999</v>
+      </c>
+      <c r="C181" s="50">
+        <v>-8.1674000000000007</v>
+      </c>
+      <c r="D181" s="50">
+        <v>-13.776999999999999</v>
+      </c>
+      <c r="E181" s="50">
+        <v>-20.873999999999999</v>
+      </c>
+      <c r="F181" s="49">
+        <v>-30.104199999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182" s="102">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="C182" s="102">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="D182" s="102">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="E182" s="102">
+        <v>0.41810000000000003</v>
+      </c>
+      <c r="F182" s="103">
+        <v>0.3926</v>
       </c>
     </row>
   </sheetData>
@@ -3649,10 +4143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3663,12 +4157,12 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -3677,10 +4171,10 @@
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>4</v>
@@ -3694,7 +4188,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="21">
         <v>-10.4223</v>
@@ -3718,7 +4212,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="B7" s="21">
         <v>-13.8728</v>
@@ -3742,7 +4236,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" s="21">
         <v>-9.6765000000000008</v>
@@ -3766,7 +4260,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="B11" s="21">
         <v>-13.1538</v>
@@ -3790,7 +4284,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B13" s="21">
         <v>-13.4038</v>
@@ -3807,7 +4301,7 @@
     </row>
     <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="24">
         <v>-12.888500000000001</v>
@@ -3824,24 +4318,24 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="16" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="23">
         <v>0.30146958000000001</v>
@@ -3849,7 +4343,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>54</v>
+        <v>165</v>
       </c>
       <c r="B20" s="23">
         <v>0.61430751900000002</v>
@@ -3857,7 +4351,7 @@
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B21" s="25">
         <v>0.39500000000000002</v>
@@ -3865,45 +4359,45 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="72">
+      <c r="A27" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="66">
         <v>-10</v>
       </c>
-      <c r="C27" s="72">
+      <c r="C27" s="66">
         <v>0</v>
       </c>
-      <c r="D27" s="72">
+      <c r="D27" s="66">
         <v>10</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="66">
         <v>20</v>
       </c>
-      <c r="F27" s="72">
+      <c r="F27" s="66">
         <v>30</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="67">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B28">
         <v>0.64659999999999995</v>
@@ -3926,7 +4420,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C29">
         <v>-10.303504943847599</v>
@@ -3934,31 +4428,31 @@
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="B30" s="75">
+      <c r="A30" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="69">
         <v>3.8721999999999999</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="69">
         <v>8.2391000000000005</v>
       </c>
-      <c r="D30" s="75">
+      <c r="D30" s="69">
         <v>11.548999999999999</v>
       </c>
-      <c r="E30" s="75">
+      <c r="E30" s="69">
         <v>15.2288</v>
       </c>
-      <c r="F30" s="75">
+      <c r="F30" s="69">
         <v>16.989699999999999</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="70">
         <v>15.2288</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B31">
         <v>0.68859999999999999</v>
@@ -3981,7 +4475,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="C32">
         <v>-10.2645196914672</v>
@@ -3989,31 +4483,31 @@
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33" s="75">
+      <c r="A33" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="69">
         <v>3.9794</v>
       </c>
-      <c r="C33" s="75">
+      <c r="C33" s="69">
         <v>8.2391000000000005</v>
       </c>
-      <c r="D33" s="75">
+      <c r="D33" s="69">
         <v>11.548999999999999</v>
       </c>
-      <c r="E33" s="75">
+      <c r="E33" s="69">
         <v>15.2288</v>
       </c>
-      <c r="F33" s="75">
+      <c r="F33" s="69">
         <v>16.989699999999999</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="70">
         <v>15.2288</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C34">
         <v>-5.3365</v>
@@ -4022,7 +4516,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C35">
         <v>-5.3365</v>
@@ -4031,7 +4525,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C36" s="28">
         <v>-11.2842</v>
@@ -4040,7 +4534,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C37">
         <v>-7.2462999999999997</v>
@@ -4049,29 +4543,29 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>126</v>
       </c>
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>128</v>
       </c>
       <c r="G39" s="23"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B40" s="24"/>
-      <c r="C40" s="77" t="s">
-        <v>138</v>
+      <c r="C40" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="D40" s="24"/>
       <c r="E40" s="24"/>
@@ -4080,118 +4574,149 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="91">
+      <c r="B43" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="92">
         <v>-15.4787</v>
       </c>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B44" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="93" t="s">
-        <v>154</v>
-      </c>
+      <c r="B44" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B45" s="92"/>
-      <c r="C45" s="93"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B46" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="93">
+      <c r="B46" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="87">
         <v>-15.4361</v>
       </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B47" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="93" t="s">
-        <v>158</v>
-      </c>
+      <c r="B47" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B48" s="92"/>
-      <c r="C48" s="93"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B49" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="93">
+      <c r="B48" s="39"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="87">
         <v>-26.090299999999999</v>
       </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B50" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="C50" s="93" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B51" s="92"/>
-      <c r="C51" s="93"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B52" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="93">
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="39"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="87">
         <v>-15.9239</v>
       </c>
-    </row>
-    <row r="53" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="95" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="96" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B56" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="91"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B57" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="93"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B58" s="92"/>
-      <c r="C58" s="93"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B59" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="93"/>
-    </row>
-    <row r="60" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="94" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="95"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="86" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="86"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="93" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C56" s="87">
+        <v>-16.803100000000001</v>
+      </c>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246BB58D-3EFC-4B0B-8A6E-D0A9C483AD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93723B5-F816-4655-9843-9D8C34C853A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="168">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -538,13 +538,19 @@
   </si>
   <si>
     <t>ERTS</t>
+  </si>
+  <si>
+    <t>RTS on dataset [dB]</t>
+  </si>
+  <si>
+    <t>concat RTS(using the -8.1674 as input) [dB]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -612,14 +618,6 @@
     <font>
       <strike/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -743,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -932,38 +930,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1245,39 +1228,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K182"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="D184" sqref="D184"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.4609375" customWidth="1"/>
+    <col min="2" max="2" width="27.07421875" customWidth="1"/>
+    <col min="3" max="3" width="8.69140625" customWidth="1"/>
+    <col min="6" max="6" width="23.69140625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="35.08984375" customWidth="1"/>
+    <col min="8" max="8" width="35.07421875" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1280,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
         <v>75</v>
       </c>
@@ -1317,7 +1300,7 @@
         <v>-29.9617</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="38" t="s">
         <v>76</v>
       </c>
@@ -1337,7 +1320,7 @@
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
         <v>159</v>
       </c>
@@ -1357,7 +1340,7 @@
         <v>-31.885899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
         <v>83</v>
       </c>
@@ -1377,7 +1360,7 @@
         <v>0.51370000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
@@ -1398,7 +1381,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="39" t="s">
         <v>59</v>
       </c>
@@ -1419,7 +1402,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
@@ -1440,7 +1423,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
         <v>68</v>
       </c>
@@ -1461,7 +1444,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1470,13 +1453,13 @@
       <c r="F13" s="26"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>69</v>
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1497,7 +1480,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="38" t="s">
         <v>75</v>
       </c>
@@ -1518,7 +1501,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="38" t="s">
         <v>76</v>
       </c>
@@ -1539,7 +1522,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>159</v>
       </c>
@@ -1560,7 +1543,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>83</v>
       </c>
@@ -1581,7 +1564,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
@@ -1602,7 +1585,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>59</v>
       </c>
@@ -1622,7 +1605,7 @@
         <v>0.83679999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>89</v>
       </c>
@@ -1642,7 +1625,7 @@
         <v>-38.1828</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>68</v>
       </c>
@@ -1662,7 +1645,7 @@
         <v>0.83630000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1670,12 +1653,12 @@
       <c r="E24" s="18"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1698,7 +1681,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="38" t="s">
         <v>75</v>
       </c>
@@ -1719,7 +1702,7 @@
       </c>
       <c r="G27" s="44"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="38" t="s">
         <v>76</v>
       </c>
@@ -1740,7 +1723,7 @@
       </c>
       <c r="G28" s="44"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>159</v>
       </c>
@@ -1764,7 +1747,7 @@
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>83</v>
       </c>
@@ -1785,7 +1768,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
@@ -1810,7 +1793,7 @@
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
         <v>59</v>
       </c>
@@ -1831,7 +1814,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1838,7 @@
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>68</v>
       </c>
@@ -1876,7 +1859,7 @@
       </c>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1885,7 +1868,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1894,7 +1877,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="62" t="s">
         <v>96</v>
       </c>
@@ -1905,7 +1888,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="17" t="s">
         <v>37</v>
       </c>
@@ -1916,7 +1899,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="18" t="s">
         <v>35</v>
       </c>
@@ -1927,7 +1910,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1942,7 +1925,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
         <v>159</v>
       </c>
@@ -1958,7 +1941,7 @@
         <v>9.5532480478286497E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>83</v>
       </c>
@@ -1971,7 +1954,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="12" t="s">
         <v>7</v>
       </c>
@@ -1987,7 +1970,7 @@
         <v>0.19651466488838149</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
         <v>59</v>
       </c>
@@ -2000,7 +1983,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="12" t="s">
         <v>34</v>
       </c>
@@ -2017,7 +2000,7 @@
         <v>1.4883784604072552</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>68</v>
       </c>
@@ -2030,7 +2013,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2039,7 +2022,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="17" t="s">
         <v>86</v>
       </c>
@@ -2050,7 +2033,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="18" t="s">
         <v>35</v>
       </c>
@@ -2061,7 +2044,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
@@ -2076,7 +2059,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="12" t="s">
         <v>159</v>
       </c>
@@ -2092,7 +2075,7 @@
         <v>4.5478748083114598E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="12" t="s">
         <v>83</v>
       </c>
@@ -2105,7 +2088,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="12" t="s">
         <v>7</v>
       </c>
@@ -2121,7 +2104,7 @@
         <v>9.5295866727828499E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="12" t="s">
         <v>59</v>
       </c>
@@ -2134,7 +2117,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="12" t="s">
         <v>87</v>
       </c>
@@ -2150,7 +2133,7 @@
         <v>1.1070311355590801</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>68</v>
       </c>
@@ -2163,7 +2146,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2172,7 +2155,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="17" t="s">
         <v>97</v>
       </c>
@@ -2183,7 +2166,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="18" t="s">
         <v>36</v>
       </c>
@@ -2194,7 +2177,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
@@ -2213,7 +2196,7 @@
       <c r="H60" s="36"/>
       <c r="I60" s="33"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="51" t="s">
         <v>75</v>
       </c>
@@ -2232,7 +2215,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="33"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="51" t="s">
         <v>76</v>
       </c>
@@ -2247,7 +2230,7 @@
       <c r="H62" s="36"/>
       <c r="I62" s="33"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="12" t="s">
         <v>84</v>
       </c>
@@ -2266,7 +2249,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="33"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="12" t="s">
         <v>83</v>
       </c>
@@ -2285,7 +2268,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="33"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
         <v>80</v>
       </c>
@@ -2304,7 +2287,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="33"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
         <v>59</v>
       </c>
@@ -2323,7 +2306,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="33"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="53" t="s">
         <v>77</v>
       </c>
@@ -2342,7 +2325,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="53" t="s">
         <v>61</v>
       </c>
@@ -2361,7 +2344,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="53" t="s">
         <v>78</v>
       </c>
@@ -2376,7 +2359,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="56" t="s">
         <v>60</v>
       </c>
@@ -2390,7 +2373,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2399,7 +2382,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="62" t="s">
         <v>152</v>
       </c>
@@ -2410,26 +2393,26 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="72"/>
       <c r="B76" s="73" t="s">
         <v>105</v>
@@ -2462,7 +2445,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="12" t="s">
         <v>159</v>
       </c>
@@ -2502,7 +2485,7 @@
         <v>9.1923785209655495E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="12" t="s">
         <v>83</v>
       </c>
@@ -2527,7 +2510,7 @@
       </c>
       <c r="K78" s="30"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="12" t="s">
         <v>7</v>
       </c>
@@ -2567,7 +2550,7 @@
         <v>1.7875673770904502E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="12" t="s">
         <v>59</v>
       </c>
@@ -2592,7 +2575,7 @@
       </c>
       <c r="K80" s="30"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="12" t="s">
         <v>135</v>
       </c>
@@ -2627,7 +2610,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="30"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="12" t="s">
         <v>60</v>
       </c>
@@ -2650,7 +2633,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="77" t="s">
         <v>109</v>
       </c>
@@ -2685,7 +2668,7 @@
         <v>6.4887069463729505E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="81" t="s">
         <v>68</v>
       </c>
@@ -2708,7 +2691,7 @@
       </c>
       <c r="K84" s="84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="33"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -2721,7 +2704,7 @@
       <c r="J85" s="64"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="35" t="s">
         <v>150</v>
       </c>
@@ -2735,7 +2718,7 @@
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="72"/>
       <c r="B87" s="73" t="s">
         <v>105</v>
@@ -2764,7 +2747,7 @@
       <c r="J87" s="85"/>
       <c r="K87" s="33"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="12" t="s">
         <v>159</v>
       </c>
@@ -2799,7 +2782,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="63"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="12" t="s">
         <v>83</v>
       </c>
@@ -2822,7 +2805,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="63"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="12" t="s">
         <v>7</v>
       </c>
@@ -2857,7 +2840,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="63"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="12" t="s">
         <v>59</v>
       </c>
@@ -2880,7 +2863,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="63"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="12" t="s">
         <v>34</v>
       </c>
@@ -2915,7 +2898,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="63"/>
     </row>
-    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>60</v>
       </c>
@@ -2938,7 +2921,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -2950,7 +2933,7 @@
       <c r="I94" s="28"/>
       <c r="J94" s="28"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -2962,27 +2945,27 @@
       <c r="I95" s="28"/>
       <c r="J95" s="28"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="14" t="s">
         <v>1</v>
       </c>
@@ -3005,7 +2988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
         <v>13</v>
       </c>
@@ -3029,7 +3012,7 @@
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
         <v>14</v>
       </c>
@@ -3050,7 +3033,7 @@
       </c>
       <c r="G104" s="49"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="5"/>
       <c r="B105" s="50"/>
       <c r="C105" s="9"/>
@@ -3059,7 +3042,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="49"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
         <v>15</v>
       </c>
@@ -3083,7 +3066,7 @@
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
@@ -3104,7 +3087,7 @@
       </c>
       <c r="G107" s="49"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="5"/>
       <c r="B108" s="50"/>
       <c r="C108" s="9"/>
@@ -3113,7 +3096,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="49"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
         <v>22</v>
       </c>
@@ -3137,7 +3120,7 @@
         <v>1.82194089889526E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -3158,7 +3141,7 @@
       </c>
       <c r="G110" s="30"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="5"/>
       <c r="B111" s="50"/>
       <c r="C111" s="9"/>
@@ -3167,7 +3150,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="30"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
         <v>24</v>
       </c>
@@ -3191,7 +3174,7 @@
         <v>1.8185395002365098E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
         <v>25</v>
       </c>
@@ -3212,7 +3195,7 @@
       </c>
       <c r="G113" s="49"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="5"/>
       <c r="B114" s="50"/>
       <c r="C114" s="50"/>
@@ -3221,7 +3204,7 @@
       <c r="F114" s="50"/>
       <c r="G114" s="49"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
         <v>16</v>
       </c>
@@ -3246,7 +3229,7 @@
         <v>0.21797123432159399</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
         <v>17</v>
       </c>
@@ -3267,7 +3250,7 @@
       </c>
       <c r="G116" s="30"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="5"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -3276,7 +3259,7 @@
       <c r="F117" s="9"/>
       <c r="G117" s="30"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
         <v>18</v>
       </c>
@@ -3297,7 +3280,7 @@
       </c>
       <c r="G118" s="30"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
         <v>19</v>
       </c>
@@ -3318,7 +3301,7 @@
       </c>
       <c r="G119" s="30"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="5"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -3327,7 +3310,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="30"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
         <v>20</v>
       </c>
@@ -3348,7 +3331,7 @@
       </c>
       <c r="G121" s="30"/>
     </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="6" t="s">
         <v>21</v>
       </c>
@@ -3369,7 +3352,7 @@
       </c>
       <c r="G122" s="32"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="21"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -3378,7 +3361,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="33"/>
       <c r="B124" s="33" t="s">
         <v>62</v>
@@ -3388,7 +3371,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="21"/>
       <c r="B125" s="18" t="s">
         <v>63</v>
@@ -3399,23 +3382,23 @@
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C128" s="19"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="14" t="s">
         <v>1</v>
       </c>
@@ -3438,7 +3421,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
         <v>28</v>
       </c>
@@ -3462,7 +3445,7 @@
         <v>1.8172004222869801E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
         <v>14</v>
       </c>
@@ -3483,7 +3466,7 @@
       </c>
       <c r="G133" s="49"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="5"/>
       <c r="B134" s="50"/>
       <c r="C134" s="9"/>
@@ -3492,7 +3475,7 @@
       <c r="F134" s="9"/>
       <c r="G134" s="49"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="s">
         <v>93</v>
       </c>
@@ -3513,7 +3496,7 @@
       </c>
       <c r="G135" s="30"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="s">
         <v>29</v>
       </c>
@@ -3534,7 +3517,7 @@
       </c>
       <c r="G136" s="49"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="5"/>
       <c r="B137" s="50"/>
       <c r="C137" s="9"/>
@@ -3543,7 +3526,7 @@
       <c r="F137" s="9"/>
       <c r="G137" s="49"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
         <v>30</v>
       </c>
@@ -3567,7 +3550,7 @@
         <v>3.7304222583770699E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="s">
         <v>23</v>
       </c>
@@ -3588,7 +3571,7 @@
       </c>
       <c r="G139" s="30"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="5"/>
       <c r="B140" s="50"/>
       <c r="C140" s="9"/>
@@ -3597,7 +3580,7 @@
       <c r="F140" s="9"/>
       <c r="G140" s="30"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="s">
         <v>94</v>
       </c>
@@ -3618,7 +3601,7 @@
       </c>
       <c r="G141" s="30"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
         <v>31</v>
       </c>
@@ -3639,7 +3622,7 @@
       </c>
       <c r="G142" s="49"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="5"/>
       <c r="B143" s="50"/>
       <c r="C143" s="50"/>
@@ -3648,7 +3631,7 @@
       <c r="F143" s="50"/>
       <c r="G143" s="49"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="s">
         <v>16</v>
       </c>
@@ -3672,7 +3655,7 @@
         <v>4.4675693035125696E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="s">
         <v>17</v>
       </c>
@@ -3693,7 +3676,7 @@
       </c>
       <c r="G145" s="30"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="5"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -3702,7 +3685,7 @@
       <c r="F146" s="9"/>
       <c r="G146" s="30"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
         <v>95</v>
       </c>
@@ -3723,7 +3706,7 @@
       </c>
       <c r="G147" s="30"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="5" t="s">
         <v>32</v>
       </c>
@@ -3744,7 +3727,7 @@
       </c>
       <c r="G148" s="30"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="5"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -3753,7 +3736,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="30"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="5" t="s">
         <v>26</v>
       </c>
@@ -3774,7 +3757,7 @@
       </c>
       <c r="G150" s="30"/>
     </row>
-    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="6" t="s">
         <v>27</v>
       </c>
@@ -3795,7 +3778,7 @@
       </c>
       <c r="G151" s="32"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
       <c r="D152" s="29"/>
@@ -3803,336 +3786,425 @@
       <c r="F152" s="29"/>
       <c r="G152" s="29"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B153" s="61" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="19" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A164" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B164" s="19"/>
-      <c r="C164" s="19"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="19"/>
-    </row>
-    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="19" t="s">
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="28"/>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
+    </row>
+    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A165" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B165" s="19"/>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="94" t="s">
+      <c r="B165" s="28"/>
+      <c r="C165" s="28"/>
+      <c r="D165" s="28"/>
+      <c r="E165" s="28"/>
+      <c r="F165" s="28"/>
+      <c r="G165" s="28"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A166" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="B166" s="95">
+      <c r="B166" s="73">
         <v>-10</v>
       </c>
-      <c r="C166" s="95">
+      <c r="C166" s="73">
         <v>0</v>
       </c>
-      <c r="D166" s="95">
+      <c r="D166" s="73">
         <v>10</v>
       </c>
-      <c r="E166" s="96">
+      <c r="E166" s="94">
         <v>20</v>
       </c>
-      <c r="F166" s="104"/>
-      <c r="G166" s="104"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="97" t="s">
+      <c r="F166" s="85"/>
+      <c r="G166" s="85"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A167" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B167" s="98">
+      <c r="B167" s="76">
         <v>10.021800000000001</v>
       </c>
-      <c r="C167" s="98">
+      <c r="C167" s="76">
         <v>-1E-4</v>
       </c>
-      <c r="D167" s="98">
+      <c r="D167" s="76">
         <v>-10.0009</v>
       </c>
-      <c r="E167" s="99">
+      <c r="E167" s="55">
         <v>-20.009399999999999</v>
       </c>
-      <c r="F167" s="98"/>
-      <c r="G167" s="33"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="97" t="s">
+      <c r="F167" s="76"/>
+      <c r="G167" s="35"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A168" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B168" s="98">
+      <c r="B168" s="76">
         <v>0.40789999999999998</v>
       </c>
-      <c r="C168" s="98">
+      <c r="C168" s="76">
         <v>0.41980000000000001</v>
       </c>
-      <c r="D168" s="98">
+      <c r="D168" s="76">
         <v>0.42220000000000002</v>
       </c>
-      <c r="E168" s="99">
+      <c r="E168" s="55">
         <v>0.41310000000000002</v>
       </c>
-      <c r="F168" s="98"/>
-      <c r="G168" s="33"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="100" t="s">
+      <c r="F168" s="76"/>
+      <c r="G168" s="35"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A169" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B169" s="50">
+      <c r="B169" s="9">
         <v>8.0785</v>
       </c>
-      <c r="C169" s="50">
+      <c r="C169" s="9">
         <v>-0.36620000000000003</v>
       </c>
-      <c r="D169" s="50">
+      <c r="D169" s="9">
         <v>-10.040800000000001</v>
       </c>
-      <c r="E169" s="49">
+      <c r="E169" s="30">
         <v>-20.0139</v>
       </c>
-      <c r="F169" s="50"/>
-      <c r="G169" s="33"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="100" t="s">
+      <c r="F169" s="9"/>
+      <c r="G169" s="35"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A170" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B170" s="50">
+      <c r="B170" s="9">
         <v>0.4738</v>
       </c>
-      <c r="C170" s="50">
+      <c r="C170" s="9">
         <v>0.41570000000000001</v>
       </c>
-      <c r="D170" s="50">
+      <c r="D170" s="9">
         <v>0.42080000000000001</v>
       </c>
-      <c r="E170" s="49">
+      <c r="E170" s="30">
         <v>0.41360000000000002</v>
       </c>
-      <c r="F170" s="50"/>
-      <c r="G170" s="33"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="100" t="s">
+      <c r="F170" s="9"/>
+      <c r="G170" s="35"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A171" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B171" s="50">
+      <c r="B171" s="9">
         <v>6.2323000000000004</v>
       </c>
-      <c r="C171" s="50">
+      <c r="C171" s="9">
         <v>-0.8518</v>
       </c>
-      <c r="D171" s="50">
+      <c r="D171" s="9">
         <v>-10.102499999999999</v>
       </c>
-      <c r="E171" s="49">
+      <c r="E171" s="30">
         <v>-20.0198</v>
       </c>
-      <c r="F171" s="50"/>
-      <c r="G171" s="33"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="101" t="s">
+      <c r="F171" s="9"/>
+      <c r="G171" s="35"/>
+    </row>
+    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A172" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B172" s="102">
+      <c r="B172" s="31">
         <v>0.49349999999999999</v>
       </c>
-      <c r="C172" s="102">
+      <c r="C172" s="31">
         <v>0.41720000000000002</v>
       </c>
-      <c r="D172" s="102">
+      <c r="D172" s="31">
         <v>0.42209999999999998</v>
       </c>
-      <c r="E172" s="103">
+      <c r="E172" s="32">
         <v>0.41389999999999999</v>
       </c>
-      <c r="F172" s="50"/>
-      <c r="G172" s="33"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="19"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="19" t="s">
+      <c r="F172" s="9"/>
+      <c r="G172" s="35"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A173" s="28"/>
+      <c r="B173" s="28"/>
+      <c r="C173" s="28"/>
+      <c r="D173" s="28"/>
+      <c r="E173" s="28"/>
+      <c r="F173" s="28"/>
+      <c r="G173" s="28"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A174" s="28"/>
+      <c r="B174" s="28"/>
+      <c r="C174" s="28"/>
+      <c r="D174" s="28"/>
+      <c r="E174" s="28"/>
+      <c r="F174" s="28"/>
+      <c r="G174" s="28"/>
+    </row>
+    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A175" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B175" s="19"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="94" t="s">
+      <c r="B175" s="28"/>
+      <c r="C175" s="28"/>
+      <c r="D175" s="28"/>
+      <c r="E175" s="28"/>
+      <c r="F175" s="28"/>
+      <c r="G175" s="28"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A176" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="B176" s="95">
+      <c r="B176" s="73">
         <v>-10</v>
       </c>
-      <c r="C176" s="95">
+      <c r="C176" s="73">
         <v>0</v>
       </c>
-      <c r="D176" s="95">
+      <c r="D176" s="73">
         <v>10</v>
       </c>
-      <c r="E176" s="95">
+      <c r="E176" s="73">
         <v>20</v>
       </c>
-      <c r="F176" s="96">
+      <c r="F176" s="94">
         <v>30</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="97" t="s">
+      <c r="G176" s="28"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A177" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="B177" s="98">
+      <c r="B177" s="76">
         <v>9.9992999999999999</v>
       </c>
-      <c r="C177" s="98">
+      <c r="C177" s="76">
         <v>9.2999999999999992E-3</v>
       </c>
-      <c r="D177" s="98">
+      <c r="D177" s="76">
         <v>-9.9928000000000008</v>
       </c>
-      <c r="E177" s="98">
+      <c r="E177" s="76">
         <v>-20.0136</v>
       </c>
-      <c r="F177" s="99">
+      <c r="F177" s="55">
         <v>-30.004000000000001</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="97" t="s">
+      <c r="G177" s="28"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A178" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="B178" s="98">
+      <c r="B178" s="76">
         <v>0.41639999999999999</v>
       </c>
-      <c r="C178" s="98">
+      <c r="C178" s="76">
         <v>0.4022</v>
       </c>
-      <c r="D178" s="98">
+      <c r="D178" s="76">
         <v>0.4098</v>
       </c>
-      <c r="E178" s="98">
+      <c r="E178" s="76">
         <v>0.42599999999999999</v>
       </c>
-      <c r="F178" s="99">
+      <c r="F178" s="55">
         <v>0.39079999999999998</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="100" t="s">
+      <c r="G178" s="28"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A179" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B179" s="50">
+      <c r="B179" s="9">
         <v>2.6894</v>
       </c>
-      <c r="C179" s="50">
+      <c r="C179" s="9">
         <v>-4.6473000000000004</v>
       </c>
-      <c r="D179" s="50">
+      <c r="D179" s="9">
         <v>-11.911799999999999</v>
       </c>
-      <c r="E179" s="50">
+      <c r="E179" s="9">
         <v>-20.385999999999999</v>
       </c>
-      <c r="F179" s="49">
+      <c r="F179" s="30">
         <v>-30.0456</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="100" t="s">
+      <c r="G179" s="28"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A180" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B180" s="50">
+      <c r="B180" s="9">
         <v>0.94330000000000003</v>
       </c>
-      <c r="C180" s="50">
+      <c r="C180" s="9">
         <v>0.70750000000000002</v>
       </c>
-      <c r="D180" s="50">
+      <c r="D180" s="9">
         <v>0.48320000000000002</v>
       </c>
-      <c r="E180" s="50">
+      <c r="E180" s="9">
         <v>0.42049999999999998</v>
       </c>
-      <c r="F180" s="49">
+      <c r="F180" s="30">
         <v>0.39340000000000003</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="100" t="s">
+      <c r="G180" s="28"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A181" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B181" s="50">
+      <c r="B181" s="9">
         <v>-1.7606999999999999</v>
       </c>
-      <c r="C181" s="50">
+      <c r="C181" s="9">
         <v>-8.1674000000000007</v>
       </c>
-      <c r="D181" s="50">
+      <c r="D181" s="9">
         <v>-13.776999999999999</v>
       </c>
-      <c r="E181" s="50">
+      <c r="E181" s="9">
         <v>-20.873999999999999</v>
       </c>
-      <c r="F181" s="49">
+      <c r="F181" s="30">
         <v>-30.104199999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="101" t="s">
+      <c r="G181" s="28"/>
+    </row>
+    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B182" s="102">
+      <c r="B182" s="31">
         <v>1.2151000000000001</v>
       </c>
-      <c r="C182" s="102">
+      <c r="C182" s="31">
         <v>0.77839999999999998</v>
       </c>
-      <c r="D182" s="102">
+      <c r="D182" s="31">
         <v>0.49209999999999998</v>
       </c>
-      <c r="E182" s="102">
+      <c r="E182" s="31">
         <v>0.41810000000000003</v>
       </c>
-      <c r="F182" s="103">
+      <c r="F182" s="32">
         <v>0.3926</v>
       </c>
+      <c r="G182" s="28"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A183" s="28"/>
+      <c r="B183" s="28"/>
+      <c r="C183" s="28"/>
+      <c r="D183" s="28"/>
+      <c r="E183" s="28"/>
+      <c r="F183" s="28"/>
+      <c r="G183" s="28"/>
+    </row>
+    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A185" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="B185" s="15"/>
+      <c r="C185" s="97">
+        <v>-8.1576000000000004</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A186" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B186" s="21"/>
+      <c r="C186" s="98">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A187" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B187" s="21"/>
+      <c r="C187" s="98">
+        <v>-12.7606</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A188" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" s="21"/>
+      <c r="C188" s="98">
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A189" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B189" s="21"/>
+      <c r="C189" s="98">
+        <v>-8.1062999999999992</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A190" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B190" s="24"/>
+      <c r="C190" s="99">
+        <v>0.77159999999999995</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A191" s="21"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4145,22 +4217,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
-    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.15234375" customWidth="1"/>
+    <col min="4" max="6" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4168,8 +4240,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -4186,7 +4258,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>44</v>
       </c>
@@ -4203,14 +4275,14 @@
         <v>-40.424100000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>163</v>
       </c>
@@ -4227,14 +4299,14 @@
         <v>-43.958799999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>45</v>
       </c>
@@ -4251,14 +4323,14 @@
         <v>-17.808599999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="5"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>164</v>
       </c>
@@ -4275,14 +4347,14 @@
         <v>-21.748200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
       <c r="E12" s="23"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -4299,7 +4371,7 @@
         <v>-42.509599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
@@ -4316,24 +4388,24 @@
         <v>-36.738900000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>49</v>
       </c>
@@ -4341,7 +4413,7 @@
         <v>0.30146958000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
         <v>165</v>
       </c>
@@ -4349,7 +4421,7 @@
         <v>0.61430751900000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
@@ -4357,22 +4429,22 @@
         <v>0.39500000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="65" t="s">
         <v>117</v>
       </c>
@@ -4395,7 +4467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="5" t="s">
         <v>118</v>
       </c>
@@ -4418,7 +4490,7 @@
         <v>-39.999699999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="5" t="s">
         <v>161</v>
       </c>
@@ -4427,7 +4499,7 @@
       </c>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="68" t="s">
         <v>119</v>
       </c>
@@ -4450,7 +4522,7 @@
         <v>15.2288</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>120</v>
       </c>
@@ -4473,7 +4545,7 @@
         <v>-39.999499999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="5" t="s">
         <v>162</v>
       </c>
@@ -4482,7 +4554,7 @@
       </c>
       <c r="G32" s="23"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="68" t="s">
         <v>119</v>
       </c>
@@ -4505,7 +4577,7 @@
         <v>15.2288</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
         <v>121</v>
       </c>
@@ -4514,7 +4586,7 @@
       </c>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="5" t="s">
         <v>122</v>
       </c>
@@ -4523,7 +4595,7 @@
       </c>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
         <v>123</v>
       </c>
@@ -4532,7 +4604,7 @@
       </c>
       <c r="G36" s="23"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
         <v>124</v>
       </c>
@@ -4541,7 +4613,7 @@
       </c>
       <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="5" t="s">
         <v>125</v>
       </c>
@@ -4550,7 +4622,7 @@
       </c>
       <c r="G38" s="23"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
         <v>127</v>
       </c>
@@ -4559,7 +4631,7 @@
       </c>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>129</v>
       </c>
@@ -4572,13 +4644,13 @@
       <c r="F40" s="24"/>
       <c r="G40" s="25"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B43" s="91" t="s">
         <v>146</v>
       </c>
@@ -4588,7 +4660,7 @@
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B44" s="39" t="s">
         <v>139</v>
       </c>
@@ -4598,13 +4670,13 @@
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B45" s="39"/>
       <c r="C45" s="87"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B46" s="39" t="s">
         <v>138</v>
       </c>
@@ -4614,7 +4686,7 @@
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B47" s="39" t="s">
         <v>139</v>
       </c>
@@ -4624,13 +4696,13 @@
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B48" s="39"/>
       <c r="C48" s="87"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="39" t="s">
         <v>149</v>
       </c>
@@ -4640,7 +4712,7 @@
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B50" s="39" t="s">
         <v>139</v>
       </c>
@@ -4650,13 +4722,13 @@
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B51" s="39"/>
       <c r="C51" s="87"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="39" t="s">
         <v>137</v>
       </c>
@@ -4666,7 +4738,7 @@
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B53" s="40" t="s">
         <v>139</v>
       </c>
@@ -4676,7 +4748,7 @@
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B54" s="86" t="s">
         <v>147</v>
       </c>
@@ -4684,7 +4756,7 @@
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B55" s="93" t="s">
         <v>148</v>
       </c>
@@ -4692,7 +4764,7 @@
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B56" s="39" t="s">
         <v>137</v>
       </c>
@@ -4702,7 +4774,7 @@
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B57" s="40" t="s">
         <v>139</v>
       </c>
@@ -4712,7 +4784,7 @@
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93723B5-F816-4655-9843-9D8C34C853A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B41643E-CF83-4AA6-93E1-9A6DFAED7BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9892" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="171">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -164,24 +164,9 @@
     <t>[0, 20]</t>
   </si>
   <si>
-    <t>RTSNet 2-fold J=5 std [linear]</t>
-  </si>
-  <si>
-    <t>RTSNet 2-fold J=5, train on T=100(n_Epochs=5000, n_Batch=10, learningRate=1e-4, weightDecay=1e-3) [dB]</t>
-  </si>
-  <si>
     <t xml:space="preserve">EKF full [dB] </t>
   </si>
   <si>
-    <t>EKF  Dtheta=1 [dB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTSNet full, train on T=200(n_Epochs=1000, n_Batch=10, learningRate=1e-4, weightDecay=1e-6)[dB] </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTSNet Dtheta=1, train on T=200(n_Epochs=1000, n_Batch=10, learningRate=5e-4 weightDecay=1e-6) [dB] </t>
-  </si>
-  <si>
     <t>Inference Time(s) T=200 (colab pro's CPU, high RAM )</t>
   </si>
   <si>
@@ -189,9 +174,6 @@
   </si>
   <si>
     <t>RTSNet</t>
-  </si>
-  <si>
-    <t>T=200 (train and test both on T=200)</t>
   </si>
   <si>
     <t>MSE 5x5</t>
@@ -438,9 +420,6 @@
     <t>this column is the MSE for the traj drawing (both hybrid and RTSNet converge to their optimal)</t>
   </si>
   <si>
-    <t>1) Discrete-Time</t>
-  </si>
-  <si>
     <t>dB: -11.1840 #parameters:101264280</t>
   </si>
   <si>
@@ -534,9 +513,6 @@
     <t>ERTS full[dB]</t>
   </si>
   <si>
-    <t>ERTS Dtheta=1 [dB]</t>
-  </si>
-  <si>
     <t>ERTS</t>
   </si>
   <si>
@@ -544,6 +520,44 @@
   </si>
   <si>
     <t>concat RTS(using the -8.1674 as input) [dB]</t>
+  </si>
+  <si>
+    <t>H = H_rot1</t>
+  </si>
+  <si>
+    <t>1) Discrete-Time (change date 6.2)</t>
+  </si>
+  <si>
+    <t>EKF  partial(H=I) [dB]</t>
+  </si>
+  <si>
+    <t>ERTS  partial(H=I) [dB]</t>
+  </si>
+  <si>
+    <t>std [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet partial [dB] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet full [dB] </t>
+  </si>
+  <si>
+    <t>RTSNet estimated H  [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True Observation matrix H: ([[ 0.9997, -0.0171,  0.0178],
+        [ 0.0174,  0.9997, -0.0171],
+        [-0.0175,  0.0174,  0.9997]])
+</t>
+  </si>
+  <si>
+    <t>T=100 (train and test both on T=100)</t>
+  </si>
+  <si>
+    <t>Estimated Observation matrix H: ([[ 0.9999, -0.0170,  0.0177],
+        [ 0.0172,  0.9996, -0.0171],
+        [-0.0170,  0.0170,  0.9997]])</t>
   </si>
 </sst>
 </file>
@@ -741,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -947,6 +961,31 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1230,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
@@ -1252,12 +1291,12 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1265,24 +1304,24 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B5" s="41">
         <v>10.022600000000001</v>
@@ -1302,7 +1341,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B6" s="41">
         <v>0.42399999999999999</v>
@@ -1322,7 +1361,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B7" s="9">
         <v>8.0853999999999999</v>
@@ -1342,7 +1381,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B8" s="9">
         <v>0.50170000000000003</v>
@@ -1383,7 +1422,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B10" s="9">
         <v>0.4869</v>
@@ -1425,7 +1464,7 @@
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B12" s="31">
         <v>0.48709999999999998</v>
@@ -1455,7 +1494,7 @@
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G14" s="18"/>
     </row>
@@ -1464,25 +1503,25 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B16" s="41">
         <v>10.004300000000001</v>
@@ -1503,7 +1542,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B17" s="41">
         <v>0.41909999999999997</v>
@@ -1524,7 +1563,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B18" s="9">
         <v>5.2991000000000001</v>
@@ -1545,7 +1584,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B19" s="9">
         <v>0.70950000000000002</v>
@@ -1587,7 +1626,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B21" s="9">
         <v>0.79410000000000003</v>
@@ -1607,7 +1646,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B22" s="9">
         <v>1.8805000000000001</v>
@@ -1627,7 +1666,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B23" s="31">
         <v>0.79549999999999998</v>
@@ -1655,7 +1694,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1683,7 +1722,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B27" s="41">
         <v>10.011900000000001</v>
@@ -1704,7 +1743,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B28" s="41">
         <v>0.39750000000000002</v>
@@ -1725,7 +1764,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B29" s="9">
         <v>2.7555999999999998</v>
@@ -1749,7 +1788,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B30" s="9">
         <v>1.0863</v>
@@ -1795,7 +1834,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B32" s="9">
         <v>1.2419</v>
@@ -1840,7 +1879,7 @@
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B34" s="31">
         <v>1.1987000000000001</v>
@@ -1879,7 +1918,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="62" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1927,7 +1966,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18">
@@ -1943,7 +1982,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B42" s="18"/>
       <c r="C42" s="18">
@@ -1972,7 +2011,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B44" s="18"/>
       <c r="C44" s="18">
@@ -2002,7 +2041,7 @@
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10">
@@ -2024,7 +2063,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -2056,12 +2095,12 @@
       <c r="E50" s="20"/>
       <c r="F50" s="20"/>
       <c r="G50" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18">
@@ -2077,7 +2116,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B52" s="18"/>
       <c r="C52" s="18">
@@ -2106,7 +2145,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B54" s="18"/>
       <c r="C54" s="18">
@@ -2119,7 +2158,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18">
@@ -2135,7 +2174,7 @@
     </row>
     <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="10">
@@ -2157,7 +2196,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="17" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -2188,7 +2227,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="35"/>
       <c r="F60" s="46" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G60" s="47">
         <v>30.081099999999999</v>
@@ -2198,7 +2237,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="51" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B61" s="18"/>
       <c r="C61" s="52">
@@ -2217,7 +2256,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="51" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B62" s="18"/>
       <c r="C62" s="52">
@@ -2232,7 +2271,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B63" s="18"/>
       <c r="C63" s="30">
@@ -2241,7 +2280,7 @@
       <c r="D63" s="18"/>
       <c r="E63" s="35"/>
       <c r="F63" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G63" s="8">
         <v>-6.7626999999999997</v>
@@ -2251,7 +2290,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B64" s="18"/>
       <c r="C64" s="30">
@@ -2260,7 +2299,7 @@
       <c r="D64" s="18"/>
       <c r="E64" s="35"/>
       <c r="F64" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G64" s="8">
         <v>0.88480000000000003</v>
@@ -2270,7 +2309,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B65" s="18"/>
       <c r="C65" s="30">
@@ -2279,7 +2318,7 @@
       <c r="D65" s="18"/>
       <c r="E65" s="35"/>
       <c r="F65" s="12" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G65" s="8">
         <v>-11.523199999999999</v>
@@ -2289,7 +2328,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B66" s="18"/>
       <c r="C66" s="30">
@@ -2298,7 +2337,7 @@
       <c r="D66" s="18"/>
       <c r="E66" s="35"/>
       <c r="F66" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G66" s="8">
         <v>1.1852</v>
@@ -2308,7 +2347,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="53" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="54">
@@ -2317,7 +2356,7 @@
       <c r="D67" s="18"/>
       <c r="E67" s="33"/>
       <c r="F67" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G67" s="8">
         <v>9.0884</v>
@@ -2327,7 +2366,7 @@
     </row>
     <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="53" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="54">
@@ -2336,7 +2375,7 @@
       <c r="D68" s="18"/>
       <c r="E68" s="35"/>
       <c r="F68" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G68" s="11">
         <v>2.7212000000000001</v>
@@ -2346,7 +2385,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="53" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="55">
@@ -2361,7 +2400,7 @@
     </row>
     <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="56" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B70" s="57"/>
       <c r="C70" s="58">
@@ -2384,7 +2423,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="62" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2395,7 +2434,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D73" s="28"/>
     </row>
@@ -2407,7 +2446,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
@@ -2415,39 +2454,39 @@
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="72"/>
       <c r="B76" s="73" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D76" s="73" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E76" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F76" s="73" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G76" s="74" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H76" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="I76" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="J76" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="I76" s="74" t="s">
+      <c r="K76" s="75" t="s">
         <v>108</v>
-      </c>
-      <c r="J76" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="K76" s="75" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B77" s="9">
         <v>-7.7907000000000002</v>
@@ -2487,7 +2526,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B78" s="9">
         <v>2.2039</v>
@@ -2552,7 +2591,7 @@
     </row>
     <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B80" s="9">
         <v>2.4887999999999999</v>
@@ -2577,7 +2616,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B81" s="9">
         <v>-11.2082</v>
@@ -2587,21 +2626,21 @@
         <v>4.2768810987472497E-2</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E81" s="9">
         <f>8.43400382995605/200</f>
         <v>4.2170019149780247E-2</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G81" s="9">
         <f>10.424521446228/200</f>
         <v>5.2122607231140004E-2</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I81" s="9">
         <f>13.5266025066375/200</f>
@@ -2612,7 +2651,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B82" s="9">
         <v>2.4382999999999999</v>
@@ -2635,33 +2674,33 @@
     </row>
     <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="77" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B83" s="78"/>
       <c r="C83" s="78"/>
       <c r="D83" s="78" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E83" s="78">
         <f>8.48960757255554/200</f>
         <v>4.2448037862777704E-2</v>
       </c>
       <c r="F83" s="78" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G83" s="78">
         <f>9.56008505821228/200</f>
         <v>4.7800425291061405E-2</v>
       </c>
       <c r="H83" s="79" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I83" s="78">
         <f>11.0999789237976/200</f>
         <v>5.5499894618988001E-2</v>
       </c>
       <c r="J83" s="79" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K83" s="80">
         <f>12.9774138927459/200</f>
@@ -2670,7 +2709,7 @@
     </row>
     <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="81" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B84" s="82"/>
       <c r="C84" s="82"/>
@@ -2706,7 +2745,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="35" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -2721,35 +2760,35 @@
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="72"/>
       <c r="B87" s="73" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D87" s="73" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E87" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F87" s="73" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G87" s="74" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H87" s="73" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I87" s="75" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J87" s="85"/>
       <c r="K87" s="33"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B88" s="86">
         <v>-7.2732999999999999</v>
@@ -2784,7 +2823,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B89" s="86">
         <v>0.66759999999999997</v>
@@ -2842,7 +2881,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B91" s="86">
         <v>0.9052</v>
@@ -2900,7 +2939,7 @@
     </row>
     <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B93" s="88">
         <v>0.89839999999999998</v>
@@ -2947,12 +2986,12 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.4">
@@ -3364,7 +3403,7 @@
     <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="33"/>
       <c r="B124" s="33" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D124" s="17"/>
       <c r="E124" s="17"/>
@@ -3374,7 +3413,7 @@
     <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="21"/>
       <c r="B125" s="18" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="17"/>
@@ -3384,18 +3423,18 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="19" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C128" s="19"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.4">
@@ -3418,7 +3457,7 @@
         <v>6</v>
       </c>
       <c r="G131" s="48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.4">
@@ -3477,7 +3516,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B135" s="9">
         <v>33.961399999999998</v>
@@ -3582,7 +3621,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B141" s="9">
         <v>32.962600000000002</v>
@@ -3687,7 +3726,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B147" s="9">
         <v>10.5525</v>
@@ -3788,27 +3827,27 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B153" s="61" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="28" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
@@ -3819,7 +3858,7 @@
     </row>
     <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A165" s="28" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
@@ -3830,7 +3869,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="72" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B166" s="73">
         <v>-10</v>
@@ -3849,7 +3888,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="95" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B167" s="76">
         <v>10.021800000000001</v>
@@ -3868,7 +3907,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="95" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B168" s="76">
         <v>0.40789999999999998</v>
@@ -3887,7 +3926,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B169" s="9">
         <v>8.0785</v>
@@ -3906,7 +3945,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="39" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B170" s="9">
         <v>0.4738</v>
@@ -3944,7 +3983,7 @@
     </row>
     <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B172" s="31">
         <v>0.49349999999999999</v>
@@ -3981,7 +4020,7 @@
     </row>
     <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="28" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
@@ -3992,7 +4031,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="72" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B176" s="73">
         <v>-10</v>
@@ -4013,7 +4052,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="95" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B177" s="76">
         <v>9.9992999999999999</v>
@@ -4034,7 +4073,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="95" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B178" s="76">
         <v>0.41639999999999999</v>
@@ -4055,7 +4094,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="39" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B179" s="9">
         <v>2.6894</v>
@@ -4076,7 +4115,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="39" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B180" s="9">
         <v>0.94330000000000003</v>
@@ -4118,7 +4157,7 @@
     </row>
     <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B182" s="31">
         <v>1.2151000000000001</v>
@@ -4149,7 +4188,7 @@
     <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="96" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B185" s="15"/>
       <c r="C185" s="97">
@@ -4158,7 +4197,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="95" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B186" s="21"/>
       <c r="C186" s="98">
@@ -4167,7 +4206,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="39" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B187" s="21"/>
       <c r="C187" s="98">
@@ -4176,7 +4215,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="39" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B188" s="21"/>
       <c r="C188" s="98">
@@ -4185,7 +4224,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="39" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B189" s="21"/>
       <c r="C189" s="98">
@@ -4194,7 +4233,7 @@
     </row>
     <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A190" s="40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B190" s="24"/>
       <c r="C190" s="99">
@@ -4215,32 +4254,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="37.15234375" customWidth="1"/>
+    <col min="2" max="2" width="25.84375" customWidth="1"/>
     <col min="4" max="6" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>40</v>
@@ -4260,535 +4304,598 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="21">
-        <v>-10.4223</v>
-      </c>
-      <c r="C5" s="21">
+        <v>42</v>
+      </c>
+      <c r="B5" s="102">
+        <v>-10.5335</v>
+      </c>
+      <c r="C5" s="103">
         <v>-20.546399999999998</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="103">
         <v>-30.565899999999999</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="104">
         <v>-40.424100000000003</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
+      <c r="A6" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="102">
+        <v>1.0145</v>
+      </c>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="21">
-        <v>-13.8728</v>
-      </c>
-      <c r="C7" s="21">
+        <v>156</v>
+      </c>
+      <c r="B7" s="102">
+        <v>-13.7525</v>
+      </c>
+      <c r="C7" s="103">
         <v>-23.9254</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="103">
         <v>-34.028799999999997</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="104">
         <v>-43.958799999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="102">
+        <v>1.1612</v>
+      </c>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="21">
-        <v>-9.6765000000000008</v>
-      </c>
-      <c r="C9" s="21">
+        <v>162</v>
+      </c>
+      <c r="B9" s="102">
+        <v>-9.7469999999999999</v>
+      </c>
+      <c r="C9" s="103">
         <v>-15.9671</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="103">
         <v>-17.5745</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="104">
         <v>-17.808599999999998</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23"/>
+      <c r="A10" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="102">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="102">
+        <v>-12.9322</v>
+      </c>
+      <c r="C11" s="103">
+        <v>-19.496200000000002</v>
+      </c>
+      <c r="D11" s="103">
+        <v>-21.472899999999999</v>
+      </c>
+      <c r="E11" s="104">
+        <v>-21.748200000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="21">
-        <v>-13.1538</v>
-      </c>
-      <c r="C11" s="21">
-        <v>-19.496200000000002</v>
-      </c>
-      <c r="D11" s="21">
-        <v>-21.472899999999999</v>
-      </c>
-      <c r="E11" s="23">
-        <v>-21.748200000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
+      <c r="B12" s="102">
+        <v>1.1217999999999999</v>
+      </c>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="21">
-        <v>-13.4038</v>
-      </c>
-      <c r="C13" s="21">
+        <v>166</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="103">
         <v>-23.161000000000001</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="103">
         <v>-33.494199999999999</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="104">
         <v>-42.509599999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="24">
-        <v>-12.888500000000001</v>
-      </c>
-      <c r="C14" s="24">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="104"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103">
         <v>-22.598099999999999</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D15" s="103">
         <v>-29.8276</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E15" s="104">
         <v>-36.738900000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="104"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="106"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.4">
+      <c r="A20" s="21"/>
+      <c r="B20" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:7" ht="102" x14ac:dyDescent="0.4">
+      <c r="A21" s="21"/>
+      <c r="B21" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="23">
-        <v>0.30146958000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="23">
-        <v>0.61430751900000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="25">
-        <v>0.39500000000000002</v>
-      </c>
-    </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>153</v>
+      <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="8">
+        <f>34.523822069168/200</f>
+        <v>0.17261911034583999</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="A25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="8">
+        <f>68.7835264205932/200</f>
+        <v>0.343917632102966</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="66">
+      <c r="A26" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="100"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="66">
         <v>-10</v>
       </c>
-      <c r="C27" s="66">
+      <c r="C32" s="66">
         <v>0</v>
       </c>
-      <c r="D27" s="66">
+      <c r="D32" s="66">
         <v>10</v>
       </c>
-      <c r="E27" s="66">
+      <c r="E32" s="66">
         <v>20</v>
       </c>
-      <c r="F27" s="66">
+      <c r="F32" s="66">
         <v>30</v>
       </c>
-      <c r="G27" s="67">
+      <c r="G32" s="67">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="B28">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33">
         <v>0.64659999999999995</v>
       </c>
-      <c r="C28">
+      <c r="C33">
         <v>-6.6333000000000002</v>
       </c>
-      <c r="D28">
+      <c r="D33">
         <v>-13.3081</v>
       </c>
-      <c r="E28">
+      <c r="E33">
         <v>-21.162199999999999</v>
       </c>
-      <c r="F28">
+      <c r="F33">
         <v>-30.135000000000002</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G33" s="23">
         <v>-39.999699999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29">
-        <v>-10.303504943847599</v>
-      </c>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="69">
-        <v>3.8721999999999999</v>
-      </c>
-      <c r="C30" s="69">
-        <v>8.2391000000000005</v>
-      </c>
-      <c r="D30" s="69">
-        <v>11.548999999999999</v>
-      </c>
-      <c r="E30" s="69">
-        <v>15.2288</v>
-      </c>
-      <c r="F30" s="69">
-        <v>16.989699999999999</v>
-      </c>
-      <c r="G30" s="70">
-        <v>15.2288</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31">
-        <v>0.68859999999999999</v>
-      </c>
-      <c r="C31">
-        <v>-6.6078925132751403</v>
-      </c>
-      <c r="D31">
-        <v>-13.2858</v>
-      </c>
-      <c r="E31">
-        <v>-21.145</v>
-      </c>
-      <c r="F31">
-        <v>-30.131799999999998</v>
-      </c>
-      <c r="G31" s="23">
-        <v>-39.999499999999998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32">
-        <v>-10.2645196914672</v>
-      </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="69">
-        <v>3.9794</v>
-      </c>
-      <c r="C33" s="69">
-        <v>8.2391000000000005</v>
-      </c>
-      <c r="D33" s="69">
-        <v>11.548999999999999</v>
-      </c>
-      <c r="E33" s="69">
-        <v>15.2288</v>
-      </c>
-      <c r="F33" s="69">
-        <v>16.989699999999999</v>
-      </c>
-      <c r="G33" s="70">
-        <v>15.2288</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="5" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C34">
-        <v>-5.3365</v>
+        <v>-10.303504943847599</v>
       </c>
       <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35">
-        <v>-5.3365</v>
-      </c>
-      <c r="G35" s="23"/>
+      <c r="A35" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="69">
+        <v>3.8721999999999999</v>
+      </c>
+      <c r="C35" s="69">
+        <v>8.2391000000000005</v>
+      </c>
+      <c r="D35" s="69">
+        <v>11.548999999999999</v>
+      </c>
+      <c r="E35" s="69">
+        <v>15.2288</v>
+      </c>
+      <c r="F35" s="69">
+        <v>16.989699999999999</v>
+      </c>
+      <c r="G35" s="70">
+        <v>15.2288</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="28">
-        <v>-11.2842</v>
-      </c>
-      <c r="G36" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="B36">
+        <v>0.68859999999999999</v>
+      </c>
+      <c r="C36">
+        <v>-6.6078925132751403</v>
+      </c>
+      <c r="D36">
+        <v>-13.2858</v>
+      </c>
+      <c r="E36">
+        <v>-21.145</v>
+      </c>
+      <c r="F36">
+        <v>-30.131799999999998</v>
+      </c>
+      <c r="G36" s="23">
+        <v>-39.999499999999998</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="5" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C37">
-        <v>-7.2462999999999997</v>
+        <v>-10.2645196914672</v>
       </c>
       <c r="G37" s="23"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38" s="23"/>
+      <c r="A38" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="69">
+        <v>3.9794</v>
+      </c>
+      <c r="C38" s="69">
+        <v>8.2391000000000005</v>
+      </c>
+      <c r="D38" s="69">
+        <v>11.548999999999999</v>
+      </c>
+      <c r="E38" s="69">
+        <v>15.2288</v>
+      </c>
+      <c r="F38" s="69">
+        <v>16.989699999999999</v>
+      </c>
+      <c r="G38" s="70">
+        <v>15.2288</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>128</v>
+        <v>115</v>
+      </c>
+      <c r="C39">
+        <v>-5.3365</v>
       </c>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40">
+        <v>-5.3365</v>
+      </c>
+      <c r="G40" s="23"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+      <c r="A41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="28">
+        <v>-11.2842</v>
+      </c>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42">
+        <v>-7.2462999999999997</v>
+      </c>
+      <c r="G42" s="23"/>
+    </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="91" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="92">
+      <c r="A43" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="24"/>
+      <c r="C45" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="91" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="92">
         <v>-15.4787</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="39"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="87">
-        <v>-15.4361</v>
-      </c>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="39"/>
-      <c r="C48" s="87"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B49" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C49" s="87">
-        <v>-26.090299999999999</v>
+        <v>132</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>133</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="87" t="s">
-        <v>141</v>
-      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="87"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="39"/>
-      <c r="C51" s="87"/>
+      <c r="B51" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="87">
+        <v>-15.4361</v>
+      </c>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B52" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="87">
-        <v>-15.9239</v>
+        <v>132</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>136</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="90" t="s">
-        <v>142</v>
-      </c>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B53" s="39"/>
+      <c r="C53" s="87"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="86" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="86"/>
+      <c r="B54" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="87">
+        <v>-26.090299999999999</v>
+      </c>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B55" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="28"/>
+      <c r="B55" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="87" t="s">
+        <v>134</v>
+      </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C56" s="87">
-        <v>-16.803100000000001</v>
-      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="87"/>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="90" t="s">
-        <v>145</v>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B57" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="87">
+        <v>-15.9239</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
+    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C58" s="90" t="s">
+        <v>135</v>
+      </c>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B59" s="86" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="86"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B60" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B61" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="87">
+        <v>-16.803100000000001</v>
+      </c>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+    </row>
+    <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="90" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B41643E-CF83-4AA6-93E1-9A6DFAED7BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5A74C7-B9BD-4FE3-A272-C550C16B2DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9892" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4257,7 +4257,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4309,11 +4309,11 @@
       <c r="B5" s="102">
         <v>-10.5335</v>
       </c>
-      <c r="C5" s="103">
-        <v>-20.546399999999998</v>
-      </c>
-      <c r="D5" s="103">
-        <v>-30.565899999999999</v>
+      <c r="C5" s="102">
+        <v>-20.49</v>
+      </c>
+      <c r="D5" s="102">
+        <v>-30.348199999999999</v>
       </c>
       <c r="E5" s="104">
         <v>-40.424100000000003</v>
@@ -4326,8 +4326,12 @@
       <c r="B6" s="102">
         <v>1.0145</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
+      <c r="C6" s="102">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D6" s="102">
+        <v>1.0161</v>
+      </c>
       <c r="E6" s="104"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -4337,11 +4341,11 @@
       <c r="B7" s="102">
         <v>-13.7525</v>
       </c>
-      <c r="C7" s="103">
-        <v>-23.9254</v>
-      </c>
-      <c r="D7" s="103">
-        <v>-34.028799999999997</v>
+      <c r="C7" s="102">
+        <v>-23.865300000000001</v>
+      </c>
+      <c r="D7" s="102">
+        <v>-33.743299999999998</v>
       </c>
       <c r="E7" s="104">
         <v>-43.958799999999997</v>
@@ -4354,8 +4358,12 @@
       <c r="B8" s="102">
         <v>1.1612</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
+      <c r="C8" s="102">
+        <v>1.0238</v>
+      </c>
+      <c r="D8" s="102">
+        <v>1.0127999999999999</v>
+      </c>
       <c r="E8" s="104"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -4365,11 +4373,11 @@
       <c r="B9" s="102">
         <v>-9.7469999999999999</v>
       </c>
-      <c r="C9" s="103">
-        <v>-15.9671</v>
-      </c>
-      <c r="D9" s="103">
-        <v>-17.5745</v>
+      <c r="C9" s="102">
+        <v>-15.945</v>
+      </c>
+      <c r="D9" s="102">
+        <v>-17.548500000000001</v>
       </c>
       <c r="E9" s="104">
         <v>-17.808599999999998</v>
@@ -4382,8 +4390,12 @@
       <c r="B10" s="102">
         <v>0.98750000000000004</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
+      <c r="C10" s="102">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="D10" s="102">
+        <v>0.32450000000000001</v>
+      </c>
       <c r="E10" s="104"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -4393,11 +4405,11 @@
       <c r="B11" s="102">
         <v>-12.9322</v>
       </c>
-      <c r="C11" s="103">
-        <v>-19.496200000000002</v>
-      </c>
-      <c r="D11" s="103">
-        <v>-21.472899999999999</v>
+      <c r="C11" s="102">
+        <v>-18.9573</v>
+      </c>
+      <c r="D11" s="102">
+        <v>-20.362500000000001</v>
       </c>
       <c r="E11" s="104">
         <v>-21.748200000000001</v>
@@ -4410,8 +4422,12 @@
       <c r="B12" s="102">
         <v>1.1217999999999999</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="102">
+        <v>0.85319999999999996</v>
+      </c>
+      <c r="D12" s="102">
+        <v>0.36549999999999999</v>
+      </c>
       <c r="E12" s="104"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -4419,23 +4435,17 @@
         <v>166</v>
       </c>
       <c r="B13" s="102"/>
-      <c r="C13" s="103">
-        <v>-23.161000000000001</v>
-      </c>
-      <c r="D13" s="103">
-        <v>-33.494199999999999</v>
-      </c>
-      <c r="E13" s="104">
-        <v>-42.509599999999999</v>
-      </c>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B14" s="103"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="103"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
       <c r="E14" s="104"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -4443,15 +4453,9 @@
         <v>165</v>
       </c>
       <c r="B15" s="103"/>
-      <c r="C15" s="103">
-        <v>-22.598099999999999</v>
-      </c>
-      <c r="D15" s="103">
-        <v>-29.8276</v>
-      </c>
-      <c r="E15" s="104">
-        <v>-36.738900000000001</v>
-      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="104"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5A74C7-B9BD-4FE3-A272-C550C16B2DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204DEF11-8572-4DCD-ABF8-4E3EEBAD0578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9892" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="174">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -402,24 +402,9 @@
     <t>RTSNet new arch J=2 [dB], train on T=3000 (n_Epochs=1000, n_Batch=1, learningRate=1e-3, weightDecay=1e-4)</t>
   </si>
   <si>
-    <t>On our dataset: -15.5314, On Welling's dataset: -15.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-gain RTSNet </t>
-  </si>
-  <si>
-    <t>On our dataset: -16.2564,On Welling's -15.1758</t>
-  </si>
-  <si>
     <t>Hybrid</t>
   </si>
   <si>
-    <t>On Welling's dataset: -15.346</t>
-  </si>
-  <si>
-    <t>this column is the MSE for the traj drawing (both hybrid and RTSNet converge to their optimal)</t>
-  </si>
-  <si>
     <t>dB: -11.1840 #parameters:101264280</t>
   </si>
   <si>
@@ -478,9 +463,6 @@
   </si>
   <si>
     <t>3) Scaling towards large models (Change date:5.18 colored in red)</t>
-  </si>
-  <si>
-    <t>2) Decimation (change data:5.17)</t>
   </si>
   <si>
     <t>2x2, H=I, Trajectory Length T=100, Dataset size: N_T=1000</t>
@@ -558,6 +540,33 @@
     <t>Estimated Observation matrix H: ([[ 0.9999, -0.0170,  0.0177],
         [ 0.0172,  0.9996, -0.0171],
         [-0.0170,  0.0170,  0.9997]])</t>
+  </si>
+  <si>
+    <t>2) Decimation (change data:6.7 mark red)</t>
+  </si>
+  <si>
+    <t>On our dataset: (On Welling's dataset: -15.346)</t>
+  </si>
+  <si>
+    <t>ERTS J=5 std, optimized q [dB]</t>
+  </si>
+  <si>
+    <t>ERTS J=2 std, optimized q [dB]</t>
+  </si>
+  <si>
+    <t>On our dataset: -15.4361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet 2 pass </t>
+  </si>
+  <si>
+    <t>Inference Time s/traj</t>
+  </si>
+  <si>
+    <t>On our dataset: -16.8031</t>
+  </si>
+  <si>
+    <t>训练时间：6.7晚6点开始</t>
   </si>
 </sst>
 </file>
@@ -755,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -962,7 +971,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -987,6 +995,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1273,33 +1285,33 @@
       <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.4609375" customWidth="1"/>
-    <col min="2" max="2" width="27.07421875" customWidth="1"/>
-    <col min="3" max="3" width="8.69140625" customWidth="1"/>
-    <col min="6" max="6" width="23.69140625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="35.07421875" customWidth="1"/>
+    <col min="8" max="8" width="35.08984375" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1319,7 +1331,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>69</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>-29.9617</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>70</v>
       </c>
@@ -1359,9 +1371,9 @@
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B7" s="9">
         <v>8.0853999999999999</v>
@@ -1379,7 +1391,7 @@
         <v>-31.885899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>77</v>
       </c>
@@ -1399,7 +1411,7 @@
         <v>0.51370000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1432,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>53</v>
       </c>
@@ -1441,7 +1453,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
@@ -1462,7 +1474,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="40" t="s">
         <v>62</v>
       </c>
@@ -1483,7 +1495,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1492,13 +1504,13 @@
       <c r="F13" s="26"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1519,7 +1531,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>69</v>
       </c>
@@ -1540,7 +1552,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>70</v>
       </c>
@@ -1561,9 +1573,9 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B18" s="9">
         <v>5.2991000000000001</v>
@@ -1582,7 +1594,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
@@ -1603,7 +1615,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
@@ -1624,7 +1636,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
@@ -1644,7 +1656,7 @@
         <v>0.83679999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>83</v>
       </c>
@@ -1664,7 +1676,7 @@
         <v>-38.1828</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>0.83630000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1692,12 +1704,12 @@
       <c r="E24" s="18"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1720,7 +1732,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
         <v>69</v>
       </c>
@@ -1741,7 +1753,7 @@
       </c>
       <c r="G27" s="44"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
         <v>70</v>
       </c>
@@ -1762,9 +1774,9 @@
       </c>
       <c r="G28" s="44"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B29" s="9">
         <v>2.7555999999999998</v>
@@ -1786,7 +1798,7 @@
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>77</v>
       </c>
@@ -1807,7 +1819,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
@@ -1832,7 +1844,7 @@
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>53</v>
       </c>
@@ -1853,7 +1865,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
@@ -1877,7 +1889,7 @@
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
         <v>62</v>
       </c>
@@ -1898,7 +1910,7 @@
       </c>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1907,7 +1919,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1916,7 +1928,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="62" t="s">
         <v>90</v>
       </c>
@@ -1927,7 +1939,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>37</v>
       </c>
@@ -1938,7 +1950,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
         <v>35</v>
       </c>
@@ -1949,7 +1961,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1964,9 +1976,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18">
@@ -1980,7 +1992,7 @@
         <v>9.5532480478286497E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>77</v>
       </c>
@@ -1993,7 +2005,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>7</v>
       </c>
@@ -2009,7 +2021,7 @@
         <v>0.19651466488838149</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>53</v>
       </c>
@@ -2022,7 +2034,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>34</v>
       </c>
@@ -2039,7 +2051,7 @@
         <v>1.4883784604072552</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
         <v>62</v>
       </c>
@@ -2052,7 +2064,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2061,7 +2073,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>80</v>
       </c>
@@ -2072,7 +2084,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18" t="s">
         <v>35</v>
       </c>
@@ -2083,7 +2095,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
@@ -2098,9 +2110,9 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B51" s="18"/>
       <c r="C51" s="18">
@@ -2114,7 +2126,7 @@
         <v>4.5478748083114598E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>77</v>
       </c>
@@ -2127,7 +2139,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>7</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>9.5295866727828499E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>53</v>
       </c>
@@ -2156,7 +2168,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>81</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>1.1070311355590801</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -2185,7 +2197,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2194,7 +2206,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>91</v>
       </c>
@@ -2205,7 +2217,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18" t="s">
         <v>36</v>
       </c>
@@ -2216,7 +2228,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
@@ -2227,7 +2239,7 @@
       <c r="D60" s="18"/>
       <c r="E60" s="35"/>
       <c r="F60" s="46" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G60" s="47">
         <v>30.081099999999999</v>
@@ -2235,7 +2247,7 @@
       <c r="H60" s="36"/>
       <c r="I60" s="33"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="51" t="s">
         <v>69</v>
       </c>
@@ -2254,7 +2266,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="33"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="51" t="s">
         <v>70</v>
       </c>
@@ -2269,7 +2281,7 @@
       <c r="H62" s="36"/>
       <c r="I62" s="33"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>78</v>
       </c>
@@ -2288,7 +2300,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="33"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>77</v>
       </c>
@@ -2307,7 +2319,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="33"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>74</v>
       </c>
@@ -2326,7 +2338,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="33"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>53</v>
       </c>
@@ -2345,7 +2357,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="33"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="53" t="s">
         <v>71</v>
       </c>
@@ -2364,7 +2376,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="53" t="s">
         <v>55</v>
       </c>
@@ -2383,7 +2395,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
         <v>72</v>
       </c>
@@ -2398,7 +2410,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="56" t="s">
         <v>54</v>
       </c>
@@ -2412,7 +2424,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2421,9 +2433,9 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2432,26 +2444,26 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="72"/>
       <c r="B76" s="73" t="s">
         <v>99</v>
@@ -2484,9 +2496,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B77" s="9">
         <v>-7.7907000000000002</v>
@@ -2524,7 +2536,7 @@
         <v>9.1923785209655495E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>77</v>
       </c>
@@ -2549,7 +2561,7 @@
       </c>
       <c r="K78" s="30"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>7</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>1.7875673770904502E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>53</v>
       </c>
@@ -2614,9 +2626,9 @@
       </c>
       <c r="K80" s="30"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B81" s="9">
         <v>-11.2082</v>
@@ -2626,21 +2638,21 @@
         <v>4.2768810987472497E-2</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E81" s="9">
         <f>8.43400382995605/200</f>
         <v>4.2170019149780247E-2</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G81" s="9">
         <f>10.424521446228/200</f>
         <v>5.2122607231140004E-2</v>
       </c>
       <c r="H81" s="50" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I81" s="9">
         <f>13.5266025066375/200</f>
@@ -2649,7 +2661,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="30"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>54</v>
       </c>
@@ -2672,7 +2684,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="77" t="s">
         <v>103</v>
       </c>
@@ -2700,14 +2712,14 @@
         <v>5.5499894618988001E-2</v>
       </c>
       <c r="J83" s="79" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K83" s="80">
         <f>12.9774138927459/200</f>
         <v>6.4887069463729505E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="81" t="s">
         <v>62</v>
       </c>
@@ -2730,7 +2742,7 @@
       </c>
       <c r="K84" s="84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="33"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -2743,9 +2755,9 @@
       <c r="J85" s="64"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B86" s="28"/>
       <c r="C86" s="28"/>
@@ -2757,7 +2769,7 @@
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="72"/>
       <c r="B87" s="73" t="s">
         <v>99</v>
@@ -2786,9 +2798,9 @@
       <c r="J87" s="85"/>
       <c r="K87" s="33"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B88" s="86">
         <v>-7.2732999999999999</v>
@@ -2821,7 +2833,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="63"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>77</v>
       </c>
@@ -2844,7 +2856,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="63"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>7</v>
       </c>
@@ -2879,7 +2891,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="63"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>53</v>
       </c>
@@ -2902,7 +2914,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="63"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>34</v>
       </c>
@@ -2937,7 +2949,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="63"/>
     </row>
-    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="13" t="s">
         <v>54</v>
       </c>
@@ -2960,7 +2972,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -2972,7 +2984,7 @@
       <c r="I94" s="28"/>
       <c r="J94" s="28"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -2984,27 +2996,27 @@
       <c r="I95" s="28"/>
       <c r="J95" s="28"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="14" t="s">
         <v>1</v>
       </c>
@@ -3027,7 +3039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>13</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>14</v>
       </c>
@@ -3072,7 +3084,7 @@
       </c>
       <c r="G104" s="49"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
       <c r="B105" s="50"/>
       <c r="C105" s="9"/>
@@ -3081,7 +3093,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="49"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>15</v>
       </c>
@@ -3105,7 +3117,7 @@
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
@@ -3126,7 +3138,7 @@
       </c>
       <c r="G107" s="49"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5"/>
       <c r="B108" s="50"/>
       <c r="C108" s="9"/>
@@ -3135,7 +3147,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="49"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>22</v>
       </c>
@@ -3159,7 +3171,7 @@
         <v>1.82194089889526E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -3180,7 +3192,7 @@
       </c>
       <c r="G110" s="30"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="50"/>
       <c r="C111" s="9"/>
@@ -3189,7 +3201,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="30"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>24</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>1.8185395002365098E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>25</v>
       </c>
@@ -3234,7 +3246,7 @@
       </c>
       <c r="G113" s="49"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
       <c r="B114" s="50"/>
       <c r="C114" s="50"/>
@@ -3243,7 +3255,7 @@
       <c r="F114" s="50"/>
       <c r="G114" s="49"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>16</v>
       </c>
@@ -3268,7 +3280,7 @@
         <v>0.21797123432159399</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>17</v>
       </c>
@@ -3289,7 +3301,7 @@
       </c>
       <c r="G116" s="30"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="5"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -3298,7 +3310,7 @@
       <c r="F117" s="9"/>
       <c r="G117" s="30"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>18</v>
       </c>
@@ -3319,7 +3331,7 @@
       </c>
       <c r="G118" s="30"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>19</v>
       </c>
@@ -3340,7 +3352,7 @@
       </c>
       <c r="G119" s="30"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="5"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -3349,7 +3361,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="30"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>20</v>
       </c>
@@ -3370,7 +3382,7 @@
       </c>
       <c r="G121" s="30"/>
     </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
         <v>21</v>
       </c>
@@ -3391,7 +3403,7 @@
       </c>
       <c r="G122" s="32"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="21"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -3400,7 +3412,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="33"/>
       <c r="B124" s="33" t="s">
         <v>56</v>
@@ -3410,7 +3422,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="21"/>
       <c r="B125" s="18" t="s">
         <v>57</v>
@@ -3421,23 +3433,23 @@
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C128" s="19"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="14" t="s">
         <v>1</v>
       </c>
@@ -3460,7 +3472,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>28</v>
       </c>
@@ -3484,7 +3496,7 @@
         <v>1.8172004222869801E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>14</v>
       </c>
@@ -3505,7 +3517,7 @@
       </c>
       <c r="G133" s="49"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="5"/>
       <c r="B134" s="50"/>
       <c r="C134" s="9"/>
@@ -3514,7 +3526,7 @@
       <c r="F134" s="9"/>
       <c r="G134" s="49"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>87</v>
       </c>
@@ -3535,7 +3547,7 @@
       </c>
       <c r="G135" s="30"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>29</v>
       </c>
@@ -3556,7 +3568,7 @@
       </c>
       <c r="G136" s="49"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="5"/>
       <c r="B137" s="50"/>
       <c r="C137" s="9"/>
@@ -3565,7 +3577,7 @@
       <c r="F137" s="9"/>
       <c r="G137" s="49"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>30</v>
       </c>
@@ -3589,7 +3601,7 @@
         <v>3.7304222583770699E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>23</v>
       </c>
@@ -3610,7 +3622,7 @@
       </c>
       <c r="G139" s="30"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="5"/>
       <c r="B140" s="50"/>
       <c r="C140" s="9"/>
@@ -3619,7 +3631,7 @@
       <c r="F140" s="9"/>
       <c r="G140" s="30"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>88</v>
       </c>
@@ -3640,7 +3652,7 @@
       </c>
       <c r="G141" s="30"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>31</v>
       </c>
@@ -3661,7 +3673,7 @@
       </c>
       <c r="G142" s="49"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="5"/>
       <c r="B143" s="50"/>
       <c r="C143" s="50"/>
@@ -3670,7 +3682,7 @@
       <c r="F143" s="50"/>
       <c r="G143" s="49"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>16</v>
       </c>
@@ -3694,7 +3706,7 @@
         <v>4.4675693035125696E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>17</v>
       </c>
@@ -3715,7 +3727,7 @@
       </c>
       <c r="G145" s="30"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="5"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -3724,7 +3736,7 @@
       <c r="F146" s="9"/>
       <c r="G146" s="30"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>89</v>
       </c>
@@ -3745,7 +3757,7 @@
       </c>
       <c r="G147" s="30"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>32</v>
       </c>
@@ -3766,7 +3778,7 @@
       </c>
       <c r="G148" s="30"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="5"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -3775,7 +3787,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="30"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>26</v>
       </c>
@@ -3796,7 +3808,7 @@
       </c>
       <c r="G150" s="30"/>
     </row>
-    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="6" t="s">
         <v>27</v>
       </c>
@@ -3817,7 +3829,7 @@
       </c>
       <c r="G151" s="32"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
       <c r="D152" s="29"/>
@@ -3825,29 +3837,29 @@
       <c r="F152" s="29"/>
       <c r="G152" s="29"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B153" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B164" s="28"/>
       <c r="C164" s="28"/>
@@ -3856,9 +3868,9 @@
       <c r="F164" s="28"/>
       <c r="G164" s="28"/>
     </row>
-    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="28" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B165" s="28"/>
       <c r="C165" s="28"/>
@@ -3867,9 +3879,9 @@
       <c r="F165" s="28"/>
       <c r="G165" s="28"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="72" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B166" s="73">
         <v>-10</v>
@@ -3886,7 +3898,7 @@
       <c r="F166" s="85"/>
       <c r="G166" s="85"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="95" t="s">
         <v>69</v>
       </c>
@@ -3905,7 +3917,7 @@
       <c r="F167" s="76"/>
       <c r="G167" s="35"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="95" t="s">
         <v>70</v>
       </c>
@@ -3924,9 +3936,9 @@
       <c r="F168" s="76"/>
       <c r="G168" s="35"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="39" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B169" s="9">
         <v>8.0785</v>
@@ -3943,7 +3955,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="35"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
         <v>77</v>
       </c>
@@ -3962,7 +3974,7 @@
       <c r="F170" s="9"/>
       <c r="G170" s="35"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>7</v>
       </c>
@@ -3981,7 +3993,7 @@
       <c r="F171" s="9"/>
       <c r="G171" s="35"/>
     </row>
-    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="40" t="s">
         <v>53</v>
       </c>
@@ -4000,7 +4012,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="35"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -4009,7 +4021,7 @@
       <c r="F173" s="28"/>
       <c r="G173" s="28"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -4018,9 +4030,9 @@
       <c r="F174" s="28"/>
       <c r="G174" s="28"/>
     </row>
-    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="28" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B175" s="28"/>
       <c r="C175" s="28"/>
@@ -4029,9 +4041,9 @@
       <c r="F175" s="28"/>
       <c r="G175" s="28"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="72" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B176" s="73">
         <v>-10</v>
@@ -4050,7 +4062,7 @@
       </c>
       <c r="G176" s="28"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="95" t="s">
         <v>69</v>
       </c>
@@ -4071,7 +4083,7 @@
       </c>
       <c r="G177" s="28"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="95" t="s">
         <v>70</v>
       </c>
@@ -4092,9 +4104,9 @@
       </c>
       <c r="G178" s="28"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B179" s="9">
         <v>2.6894</v>
@@ -4113,7 +4125,7 @@
       </c>
       <c r="G179" s="28"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
         <v>77</v>
       </c>
@@ -4134,7 +4146,7 @@
       </c>
       <c r="G180" s="28"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
         <v>7</v>
       </c>
@@ -4155,7 +4167,7 @@
       </c>
       <c r="G181" s="28"/>
     </row>
-    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="40" t="s">
         <v>53</v>
       </c>
@@ -4176,7 +4188,7 @@
       </c>
       <c r="G182" s="28"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="28"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
@@ -4185,8 +4197,8 @@
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
     </row>
-    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="96" t="s">
         <v>69</v>
       </c>
@@ -4195,7 +4207,7 @@
         <v>-8.1576000000000004</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="95" t="s">
         <v>70</v>
       </c>
@@ -4204,16 +4216,16 @@
         <v>0.40889999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="39" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B187" s="21"/>
       <c r="C187" s="98">
         <v>-12.7606</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="39" t="s">
         <v>53</v>
       </c>
@@ -4222,16 +4234,16 @@
         <v>0.50029999999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="39" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B189" s="21"/>
       <c r="C189" s="98">
         <v>-8.1062999999999992</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="40" t="s">
         <v>53</v>
       </c>
@@ -4240,7 +4252,7 @@
         <v>0.77159999999999995</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
@@ -4254,38 +4266,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.15234375" customWidth="1"/>
-    <col min="2" max="2" width="25.84375" customWidth="1"/>
-    <col min="4" max="6" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -4302,221 +4314,229 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="102">
-        <v>-10.5335</v>
-      </c>
-      <c r="C5" s="102">
+      <c r="B5" s="101">
+        <v>-10.532999999999999</v>
+      </c>
+      <c r="C5" s="101">
         <v>-20.49</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="101">
         <v>-30.348199999999999</v>
       </c>
-      <c r="E5" s="104">
+      <c r="E5" s="103">
         <v>-40.424100000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="102">
-        <v>1.0145</v>
-      </c>
-      <c r="C6" s="102">
+        <v>158</v>
+      </c>
+      <c r="B6" s="101">
+        <v>1.016</v>
+      </c>
+      <c r="C6" s="101">
         <v>0.97299999999999998</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="101">
         <v>1.0161</v>
       </c>
-      <c r="E6" s="104"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E6" s="103"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="101">
+        <v>-13.7515</v>
+      </c>
+      <c r="C7" s="101">
+        <v>-23.865300000000001</v>
+      </c>
+      <c r="D7" s="101">
+        <v>-33.743299999999998</v>
+      </c>
+      <c r="E7" s="103">
+        <v>-43.958799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="101">
+        <v>1.161</v>
+      </c>
+      <c r="C8" s="101">
+        <v>1.0238</v>
+      </c>
+      <c r="D8" s="101">
+        <v>1.0127999999999999</v>
+      </c>
+      <c r="E8" s="103"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="102">
-        <v>-13.7525</v>
-      </c>
-      <c r="C7" s="102">
-        <v>-23.865300000000001</v>
-      </c>
-      <c r="D7" s="102">
-        <v>-33.743299999999998</v>
-      </c>
-      <c r="E7" s="104">
-        <v>-43.958799999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="102">
-        <v>1.1612</v>
-      </c>
-      <c r="C8" s="102">
-        <v>1.0238</v>
-      </c>
-      <c r="D8" s="102">
-        <v>1.0127999999999999</v>
-      </c>
-      <c r="E8" s="104"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="102">
+      <c r="B9" s="101">
         <v>-9.7469999999999999</v>
       </c>
-      <c r="C9" s="102">
+      <c r="C9" s="101">
         <v>-15.945</v>
       </c>
-      <c r="D9" s="102">
+      <c r="D9" s="101">
         <v>-17.548500000000001</v>
       </c>
-      <c r="E9" s="104">
+      <c r="E9" s="103">
         <v>-17.808599999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="102">
+        <v>158</v>
+      </c>
+      <c r="B10" s="101">
         <v>0.98750000000000004</v>
       </c>
-      <c r="C10" s="102">
+      <c r="C10" s="101">
         <v>0.76859999999999995</v>
       </c>
-      <c r="D10" s="102">
+      <c r="D10" s="101">
         <v>0.32450000000000001</v>
       </c>
-      <c r="E10" s="104"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E10" s="103"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="102">
+        <v>157</v>
+      </c>
+      <c r="B11" s="101">
         <v>-12.9322</v>
       </c>
-      <c r="C11" s="102">
+      <c r="C11" s="101">
         <v>-18.9573</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="101">
         <v>-20.362500000000001</v>
       </c>
-      <c r="E11" s="104">
+      <c r="E11" s="103">
         <v>-21.748200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B12" s="102">
+        <v>158</v>
+      </c>
+      <c r="B12" s="101">
         <v>1.1217999999999999</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="101">
         <v>0.85319999999999996</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="101">
         <v>0.36549999999999999</v>
       </c>
-      <c r="E12" s="104"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E12" s="103"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="102"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="104"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>160</v>
+      </c>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="103"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="103"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="104"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+      <c r="B14" s="102"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="103"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="104"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+      <c r="B15" s="102"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="103"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104">
+        <v>-21.863700000000001</v>
+      </c>
+      <c r="D17" s="104">
+        <v>-30.985299999999999</v>
+      </c>
+      <c r="E17" s="105"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="107"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106">
+        <v>1.0770999999999999</v>
+      </c>
+      <c r="D18" s="106">
+        <v>1.1258999999999999</v>
+      </c>
+      <c r="E18" s="107"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
     </row>
-    <row r="20" spans="1:7" ht="102" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
-      <c r="B20" s="101" t="s">
-        <v>168</v>
+      <c r="B20" s="100" t="s">
+        <v>162</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
     </row>
-    <row r="21" spans="1:7" ht="102" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
-      <c r="B21" s="101" t="s">
-        <v>170</v>
+      <c r="B21" s="100" t="s">
+        <v>164</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -4525,37 +4545,40 @@
         <v>0.17261911034583999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B25" s="8">
         <f>68.7835264205932/200</f>
         <v>0.343917632102966</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="100"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B26" s="11">
+        <f>55.7775883674621/200</f>
+        <v>0.27888794183731053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="65" t="s">
         <v>111</v>
       </c>
@@ -4577,8 +4600,11 @@
       <c r="G32" s="67">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>112</v>
       </c>
@@ -4601,305 +4627,353 @@
         <v>-39.999699999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34">
-        <v>-10.303504943847599</v>
+        <v>148</v>
+      </c>
+      <c r="C34" s="19">
+        <v>-10.0745</v>
       </c>
       <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="68" t="s">
+      <c r="H34" s="19">
+        <f>103.243407487869/10</f>
+        <v>10.3243407487869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="19">
+        <v>0.19120000000000001</v>
+      </c>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B35" s="69">
+      <c r="B36" s="69">
         <v>3.8721999999999999</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C36" s="69">
         <v>8.2391000000000005</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D36" s="69">
         <v>11.548999999999999</v>
       </c>
-      <c r="E35" s="69">
+      <c r="E36" s="69">
         <v>15.2288</v>
       </c>
-      <c r="F35" s="69">
+      <c r="F36" s="69">
         <v>16.989699999999999</v>
       </c>
-      <c r="G35" s="70">
+      <c r="G36" s="70">
         <v>15.2288</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.68859999999999999</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>-6.6078925132751403</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>-13.2858</v>
       </c>
-      <c r="E36">
+      <c r="E37">
         <v>-21.145</v>
       </c>
-      <c r="F36">
+      <c r="F37">
         <v>-30.131799999999998</v>
       </c>
-      <c r="G36" s="23">
+      <c r="G37" s="23">
         <v>-39.999499999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37">
-        <v>-10.2645196914672</v>
-      </c>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A38" s="68" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="19">
+        <v>-10.035600000000001</v>
+      </c>
+      <c r="G38" s="23"/>
+      <c r="H38" s="19">
+        <f>65.1636457443237/10</f>
+        <v>6.5163645744323704</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="69">
+      <c r="B40" s="69">
         <v>3.9794</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C40" s="69">
         <v>8.2391000000000005</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D40" s="69">
         <v>11.548999999999999</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E40" s="69">
         <v>15.2288</v>
       </c>
-      <c r="F38" s="69">
+      <c r="F40" s="69">
         <v>16.989699999999999</v>
       </c>
-      <c r="G38" s="70">
+      <c r="G40" s="70">
         <v>15.2288</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C39">
+      <c r="C41">
         <v>-5.3365</v>
       </c>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C40">
+      <c r="C42">
         <v>-5.3365</v>
       </c>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C43" s="28">
         <v>-11.2842</v>
       </c>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>-7.2462999999999997</v>
       </c>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C45" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G45" s="23"/>
+      <c r="H45" s="19">
+        <f>73.5869255065917/10</f>
+        <v>7.35869255065918</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C46" s="19">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="19">
+        <f>146.174109458923/10</f>
+        <v>14.617410945892299</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="C48" s="19">
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="C46" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="91" t="s">
-        <v>139</v>
-      </c>
-      <c r="C48" s="92">
+      <c r="B49" s="24"/>
+      <c r="C49" s="109" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
+      <c r="I49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B52" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="92">
         <v>-15.4787</v>
-      </c>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B49" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="87" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B50" s="39"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B51" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="87">
-        <v>-15.4361</v>
-      </c>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B52" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="87" t="s">
-        <v>136</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B53" s="39"/>
-      <c r="C53" s="87"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>128</v>
+      </c>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B54" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="87">
-        <v>-26.090299999999999</v>
-      </c>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="39"/>
+      <c r="C54" s="87"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B55" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="C55" s="87" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="C55" s="87">
+        <v>-15.4361</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="39"/>
-      <c r="C56" s="87"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B56" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="87" t="s">
+        <v>131</v>
+      </c>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B57" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="87">
-        <v>-15.9239</v>
-      </c>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="39"/>
+      <c r="C57" s="87"/>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
     </row>
-    <row r="58" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="90" t="s">
-        <v>135</v>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="87">
+        <v>-26.090299999999999</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B59" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="86"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="87" t="s">
+        <v>129</v>
+      </c>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B60" s="93" t="s">
-        <v>141</v>
-      </c>
-      <c r="C60" s="28"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="39"/>
+      <c r="C60" s="87"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B61" s="39" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C61" s="87">
-        <v>-16.803100000000001</v>
+        <v>-15.9239</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B62" s="40" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="86"/>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B65" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="108">
+        <v>-16.803100000000001</v>
+      </c>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+    </row>
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204DEF11-8572-4DCD-ABF8-4E3EEBAD0578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4023FEEA-FF5C-4B69-B058-2C9A133DE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -566,7 +566,10 @@
     <t>On our dataset: -16.8031</t>
   </si>
   <si>
-    <t>训练时间：6.7晚6点开始</t>
+    <t>Training time：start at 6.8 10a.m.</t>
+  </si>
+  <si>
+    <t>RNN J=2 [dB]</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K191"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A85" workbookViewId="0">
       <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
@@ -4266,10 +4269,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4778,15 +4781,15 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="C45" s="19">
+        <v>-2.3424</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="19">
-        <f>73.5869255065917/10</f>
-        <v>7.35869255065918</v>
+        <f>37.5523734092712/10</f>
+        <v>3.7552373409271196</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
@@ -4794,186 +4797,214 @@
         <v>127</v>
       </c>
       <c r="C46" s="19">
-        <v>0.32890000000000003</v>
+        <v>9.2100000000000001E-2</v>
       </c>
       <c r="G46" s="23"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G47" s="23"/>
       <c r="H47" s="19">
+        <f>73.5869255065917/10</f>
+        <v>7.3586925506591694</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="19">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="19">
         <f>146.174109458923/10</f>
         <v>14.617410945892299</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="C48" s="19">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="19">
         <v>0.30059999999999998</v>
       </c>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="109" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="109" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="I49" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="19">
+        <f>122.040362358093/5</f>
+        <v>24.408072471618603</v>
+      </c>
+      <c r="I51" s="19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B52" s="91" t="s">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B54" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="92">
+      <c r="C54" s="92">
         <v>-15.4787</v>
       </c>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B53" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="39"/>
-      <c r="C54" s="87"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B55" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="87">
-        <v>-15.4361</v>
+        <v>127</v>
+      </c>
+      <c r="C55" s="87" t="s">
+        <v>128</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="87" t="s">
-        <v>131</v>
-      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="87"/>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="39"/>
-      <c r="C57" s="87"/>
+      <c r="B57" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="87">
+        <v>-15.4361</v>
+      </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B58" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="87">
-        <v>-26.090299999999999</v>
+        <v>127</v>
+      </c>
+      <c r="C58" s="87" t="s">
+        <v>131</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="87" t="s">
-        <v>129</v>
-      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B60" s="39"/>
-      <c r="C60" s="87"/>
+      <c r="B60" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="87">
+        <v>-26.090299999999999</v>
+      </c>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B61" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="87">
-        <v>-15.9239</v>
+        <v>127</v>
+      </c>
+      <c r="C61" s="87" t="s">
+        <v>129</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="90" t="s">
-        <v>130</v>
-      </c>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="39"/>
+      <c r="C62" s="87"/>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="86"/>
+      <c r="B63" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="87">
+        <v>-15.9239</v>
+      </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="28"/>
+    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="90" t="s">
+        <v>130</v>
+      </c>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C65" s="108">
-        <v>-16.803100000000001</v>
-      </c>
+      <c r="B65" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="86"/>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
     </row>
-    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="90" t="s">
-        <v>133</v>
-      </c>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B66" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
+      <c r="B67" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="108">
+        <v>-16.803100000000001</v>
+      </c>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
+    </row>
+    <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4023FEEA-FF5C-4B69-B058-2C9A133DE1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9262C8-95BC-4B43-A166-085B110CBA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="176">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -505,9 +505,6 @@
   </si>
   <si>
     <t>H = H_rot1</t>
-  </si>
-  <si>
-    <t>1) Discrete-Time (change date 6.2)</t>
   </si>
   <si>
     <t>EKF  partial(H=I) [dB]</t>
@@ -570,6 +567,12 @@
   </si>
   <si>
     <t>RNN J=2 [dB]</t>
+  </si>
+  <si>
+    <t>1) Discrete-Time (change date 6.8)</t>
+  </si>
+  <si>
+    <t>upper bound (observation * H_inv) [dB]</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -983,25 +986,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1288,33 +1294,33 @@
       <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.08984375" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="23.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.4609375" customWidth="1"/>
+    <col min="2" max="2" width="27.07421875" customWidth="1"/>
+    <col min="3" max="3" width="8.69140625" customWidth="1"/>
+    <col min="6" max="6" width="23.69140625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="35.08984375" customWidth="1"/>
+    <col min="8" max="8" width="35.07421875" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
         <v>69</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>-29.9617</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="38" t="s">
         <v>70</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="39" t="s">
         <v>146</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>-31.885899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
         <v>77</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>0.51370000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
@@ -1435,7 +1441,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="39" t="s">
         <v>53</v>
       </c>
@@ -1456,7 +1462,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
@@ -1477,7 +1483,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
         <v>62</v>
       </c>
@@ -1498,7 +1504,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="18"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1507,13 +1513,13 @@
       <c r="F13" s="26"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1534,7 +1540,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="38" t="s">
         <v>69</v>
       </c>
@@ -1555,7 +1561,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="38" t="s">
         <v>70</v>
       </c>
@@ -1576,7 +1582,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
         <v>146</v>
       </c>
@@ -1597,7 +1603,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
@@ -1618,7 +1624,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1645,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>0.83679999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
         <v>83</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>-38.1828</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>0.83630000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1707,12 +1713,12 @@
       <c r="E24" s="18"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="38" t="s">
         <v>69</v>
       </c>
@@ -1756,7 +1762,7 @@
       </c>
       <c r="G27" s="44"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="38" t="s">
         <v>70</v>
       </c>
@@ -1777,7 +1783,7 @@
       </c>
       <c r="G28" s="44"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
         <v>146</v>
       </c>
@@ -1801,7 +1807,7 @@
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
         <v>77</v>
       </c>
@@ -1822,7 +1828,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1853,7 @@
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
         <v>53</v>
       </c>
@@ -1868,7 +1874,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="13" t="s">
         <v>62</v>
       </c>
@@ -1913,7 +1919,7 @@
       </c>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1922,7 +1928,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1931,7 +1937,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="62" t="s">
         <v>90</v>
       </c>
@@ -1942,7 +1948,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="17" t="s">
         <v>37</v>
       </c>
@@ -1953,7 +1959,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="18" t="s">
         <v>35</v>
       </c>
@@ -1964,7 +1970,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
         <v>146</v>
       </c>
@@ -1995,7 +2001,7 @@
         <v>9.5532480478286497E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
         <v>77</v>
       </c>
@@ -2008,7 +2014,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="12" t="s">
         <v>7</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>0.19651466488838149</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
         <v>53</v>
       </c>
@@ -2037,7 +2043,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="12" t="s">
         <v>34</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>1.4883784604072552</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="13" t="s">
         <v>62</v>
       </c>
@@ -2067,7 +2073,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2076,7 +2082,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="17" t="s">
         <v>80</v>
       </c>
@@ -2087,7 +2093,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="18" t="s">
         <v>35</v>
       </c>
@@ -2098,7 +2104,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="12" t="s">
         <v>146</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>4.5478748083114598E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="12" t="s">
         <v>77</v>
       </c>
@@ -2142,7 +2148,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="12" t="s">
         <v>7</v>
       </c>
@@ -2158,7 +2164,7 @@
         <v>9.5295866727828499E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="12" t="s">
         <v>53</v>
       </c>
@@ -2171,7 +2177,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="12" t="s">
         <v>81</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>1.1070311355590801</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -2200,7 +2206,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2209,7 +2215,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="17" t="s">
         <v>91</v>
       </c>
@@ -2220,7 +2226,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="18" t="s">
         <v>36</v>
       </c>
@@ -2231,7 +2237,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
@@ -2250,7 +2256,7 @@
       <c r="H60" s="36"/>
       <c r="I60" s="33"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="51" t="s">
         <v>69</v>
       </c>
@@ -2269,7 +2275,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="33"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="51" t="s">
         <v>70</v>
       </c>
@@ -2284,7 +2290,7 @@
       <c r="H62" s="36"/>
       <c r="I62" s="33"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="12" t="s">
         <v>78</v>
       </c>
@@ -2303,7 +2309,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="33"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="12" t="s">
         <v>77</v>
       </c>
@@ -2322,7 +2328,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="33"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="12" t="s">
         <v>74</v>
       </c>
@@ -2341,7 +2347,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="33"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" s="12" t="s">
         <v>53</v>
       </c>
@@ -2360,7 +2366,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="33"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" s="53" t="s">
         <v>71</v>
       </c>
@@ -2379,7 +2385,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="53" t="s">
         <v>55</v>
       </c>
@@ -2398,7 +2404,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" s="53" t="s">
         <v>72</v>
       </c>
@@ -2413,7 +2419,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="56" t="s">
         <v>54</v>
       </c>
@@ -2427,7 +2433,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2436,7 +2442,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" s="62" t="s">
         <v>140</v>
       </c>
@@ -2447,26 +2453,26 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" s="72"/>
       <c r="B76" s="73" t="s">
         <v>99</v>
@@ -2499,7 +2505,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" s="12" t="s">
         <v>146</v>
       </c>
@@ -2539,7 +2545,7 @@
         <v>9.1923785209655495E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" s="12" t="s">
         <v>77</v>
       </c>
@@ -2564,7 +2570,7 @@
       </c>
       <c r="K78" s="30"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" s="12" t="s">
         <v>7</v>
       </c>
@@ -2604,7 +2610,7 @@
         <v>1.7875673770904502E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="12" t="s">
         <v>53</v>
       </c>
@@ -2629,7 +2635,7 @@
       </c>
       <c r="K80" s="30"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" s="12" t="s">
         <v>123</v>
       </c>
@@ -2664,7 +2670,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="30"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" s="12" t="s">
         <v>54</v>
       </c>
@@ -2687,7 +2693,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="77" t="s">
         <v>103</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>6.4887069463729505E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="81" t="s">
         <v>62</v>
       </c>
@@ -2745,7 +2751,7 @@
       </c>
       <c r="K84" s="84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" s="33"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -2758,7 +2764,7 @@
       <c r="J85" s="64"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="35" t="s">
         <v>138</v>
       </c>
@@ -2772,7 +2778,7 @@
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" s="72"/>
       <c r="B87" s="73" t="s">
         <v>99</v>
@@ -2801,7 +2807,7 @@
       <c r="J87" s="85"/>
       <c r="K87" s="33"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="12" t="s">
         <v>146</v>
       </c>
@@ -2836,7 +2842,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="63"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="12" t="s">
         <v>77</v>
       </c>
@@ -2859,7 +2865,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="63"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="12" t="s">
         <v>7</v>
       </c>
@@ -2894,7 +2900,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="63"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="12" t="s">
         <v>53</v>
       </c>
@@ -2917,7 +2923,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="63"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="12" t="s">
         <v>34</v>
       </c>
@@ -2952,7 +2958,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="63"/>
     </row>
-    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="13" t="s">
         <v>54</v>
       </c>
@@ -2975,7 +2981,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -2987,7 +2993,7 @@
       <c r="I94" s="28"/>
       <c r="J94" s="28"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -2999,27 +3005,27 @@
       <c r="I95" s="28"/>
       <c r="J95" s="28"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="14" t="s">
         <v>1</v>
       </c>
@@ -3042,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="5" t="s">
         <v>13</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="5" t="s">
         <v>14</v>
       </c>
@@ -3087,7 +3093,7 @@
       </c>
       <c r="G104" s="49"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="5"/>
       <c r="B105" s="50"/>
       <c r="C105" s="9"/>
@@ -3096,7 +3102,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="49"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="5" t="s">
         <v>15</v>
       </c>
@@ -3120,7 +3126,7 @@
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
@@ -3141,7 +3147,7 @@
       </c>
       <c r="G107" s="49"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="5"/>
       <c r="B108" s="50"/>
       <c r="C108" s="9"/>
@@ -3150,7 +3156,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="49"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="5" t="s">
         <v>22</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>1.82194089889526E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -3195,7 +3201,7 @@
       </c>
       <c r="G110" s="30"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="5"/>
       <c r="B111" s="50"/>
       <c r="C111" s="9"/>
@@ -3204,7 +3210,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="30"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="5" t="s">
         <v>24</v>
       </c>
@@ -3228,7 +3234,7 @@
         <v>1.8185395002365098E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="5" t="s">
         <v>25</v>
       </c>
@@ -3249,7 +3255,7 @@
       </c>
       <c r="G113" s="49"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="5"/>
       <c r="B114" s="50"/>
       <c r="C114" s="50"/>
@@ -3258,7 +3264,7 @@
       <c r="F114" s="50"/>
       <c r="G114" s="49"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="5" t="s">
         <v>16</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>0.21797123432159399</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="5" t="s">
         <v>17</v>
       </c>
@@ -3304,7 +3310,7 @@
       </c>
       <c r="G116" s="30"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="5"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -3313,7 +3319,7 @@
       <c r="F117" s="9"/>
       <c r="G117" s="30"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="5" t="s">
         <v>18</v>
       </c>
@@ -3334,7 +3340,7 @@
       </c>
       <c r="G118" s="30"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="5" t="s">
         <v>19</v>
       </c>
@@ -3355,7 +3361,7 @@
       </c>
       <c r="G119" s="30"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="5"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -3364,7 +3370,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="30"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="5" t="s">
         <v>20</v>
       </c>
@@ -3385,7 +3391,7 @@
       </c>
       <c r="G121" s="30"/>
     </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="6" t="s">
         <v>21</v>
       </c>
@@ -3406,7 +3412,7 @@
       </c>
       <c r="G122" s="32"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="21"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -3415,7 +3421,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="33"/>
       <c r="B124" s="33" t="s">
         <v>56</v>
@@ -3425,7 +3431,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="21"/>
       <c r="B125" s="18" t="s">
         <v>57</v>
@@ -3436,23 +3442,23 @@
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C128" s="19"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="14" t="s">
         <v>1</v>
       </c>
@@ -3475,7 +3481,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="5" t="s">
         <v>28</v>
       </c>
@@ -3499,7 +3505,7 @@
         <v>1.8172004222869801E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="5" t="s">
         <v>14</v>
       </c>
@@ -3520,7 +3526,7 @@
       </c>
       <c r="G133" s="49"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="5"/>
       <c r="B134" s="50"/>
       <c r="C134" s="9"/>
@@ -3529,7 +3535,7 @@
       <c r="F134" s="9"/>
       <c r="G134" s="49"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="5" t="s">
         <v>87</v>
       </c>
@@ -3550,7 +3556,7 @@
       </c>
       <c r="G135" s="30"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="5" t="s">
         <v>29</v>
       </c>
@@ -3571,7 +3577,7 @@
       </c>
       <c r="G136" s="49"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="5"/>
       <c r="B137" s="50"/>
       <c r="C137" s="9"/>
@@ -3580,7 +3586,7 @@
       <c r="F137" s="9"/>
       <c r="G137" s="49"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="5" t="s">
         <v>30</v>
       </c>
@@ -3604,7 +3610,7 @@
         <v>3.7304222583770699E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="5" t="s">
         <v>23</v>
       </c>
@@ -3625,7 +3631,7 @@
       </c>
       <c r="G139" s="30"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="5"/>
       <c r="B140" s="50"/>
       <c r="C140" s="9"/>
@@ -3634,7 +3640,7 @@
       <c r="F140" s="9"/>
       <c r="G140" s="30"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="5" t="s">
         <v>88</v>
       </c>
@@ -3655,7 +3661,7 @@
       </c>
       <c r="G141" s="30"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="5" t="s">
         <v>31</v>
       </c>
@@ -3676,7 +3682,7 @@
       </c>
       <c r="G142" s="49"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="5"/>
       <c r="B143" s="50"/>
       <c r="C143" s="50"/>
@@ -3685,7 +3691,7 @@
       <c r="F143" s="50"/>
       <c r="G143" s="49"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="5" t="s">
         <v>16</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>4.4675693035125696E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="5" t="s">
         <v>17</v>
       </c>
@@ -3730,7 +3736,7 @@
       </c>
       <c r="G145" s="30"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="5"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -3739,7 +3745,7 @@
       <c r="F146" s="9"/>
       <c r="G146" s="30"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="5" t="s">
         <v>89</v>
       </c>
@@ -3760,7 +3766,7 @@
       </c>
       <c r="G147" s="30"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="5" t="s">
         <v>32</v>
       </c>
@@ -3781,7 +3787,7 @@
       </c>
       <c r="G148" s="30"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="5"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -3790,7 +3796,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="30"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="5" t="s">
         <v>26</v>
       </c>
@@ -3811,7 +3817,7 @@
       </c>
       <c r="G150" s="30"/>
     </row>
-    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="6" t="s">
         <v>27</v>
       </c>
@@ -3832,7 +3838,7 @@
       </c>
       <c r="G151" s="32"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
       <c r="D152" s="29"/>
@@ -3840,27 +3846,27 @@
       <c r="F152" s="29"/>
       <c r="G152" s="29"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B153" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B154" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="28" t="s">
         <v>144</v>
       </c>
@@ -3871,7 +3877,7 @@
       <c r="F164" s="28"/>
       <c r="G164" s="28"/>
     </row>
-    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A165" s="28" t="s">
         <v>141</v>
       </c>
@@ -3882,7 +3888,7 @@
       <c r="F165" s="28"/>
       <c r="G165" s="28"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="72" t="s">
         <v>142</v>
       </c>
@@ -3901,7 +3907,7 @@
       <c r="F166" s="85"/>
       <c r="G166" s="85"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="95" t="s">
         <v>69</v>
       </c>
@@ -3920,7 +3926,7 @@
       <c r="F167" s="76"/>
       <c r="G167" s="35"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="95" t="s">
         <v>70</v>
       </c>
@@ -3939,7 +3945,7 @@
       <c r="F168" s="76"/>
       <c r="G168" s="35"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="39" t="s">
         <v>146</v>
       </c>
@@ -3958,7 +3964,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="35"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="39" t="s">
         <v>77</v>
       </c>
@@ -3977,7 +3983,7 @@
       <c r="F170" s="9"/>
       <c r="G170" s="35"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="39" t="s">
         <v>7</v>
       </c>
@@ -3996,7 +4002,7 @@
       <c r="F171" s="9"/>
       <c r="G171" s="35"/>
     </row>
-    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="40" t="s">
         <v>53</v>
       </c>
@@ -4015,7 +4021,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="35"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -4024,7 +4030,7 @@
       <c r="F173" s="28"/>
       <c r="G173" s="28"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -4033,7 +4039,7 @@
       <c r="F174" s="28"/>
       <c r="G174" s="28"/>
     </row>
-    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="28" t="s">
         <v>145</v>
       </c>
@@ -4044,7 +4050,7 @@
       <c r="F175" s="28"/>
       <c r="G175" s="28"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="72" t="s">
         <v>142</v>
       </c>
@@ -4065,7 +4071,7 @@
       </c>
       <c r="G176" s="28"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="95" t="s">
         <v>69</v>
       </c>
@@ -4086,7 +4092,7 @@
       </c>
       <c r="G177" s="28"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="95" t="s">
         <v>70</v>
       </c>
@@ -4107,7 +4113,7 @@
       </c>
       <c r="G178" s="28"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="39" t="s">
         <v>146</v>
       </c>
@@ -4128,7 +4134,7 @@
       </c>
       <c r="G179" s="28"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="39" t="s">
         <v>77</v>
       </c>
@@ -4149,7 +4155,7 @@
       </c>
       <c r="G180" s="28"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="39" t="s">
         <v>7</v>
       </c>
@@ -4170,7 +4176,7 @@
       </c>
       <c r="G181" s="28"/>
     </row>
-    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="40" t="s">
         <v>53</v>
       </c>
@@ -4191,7 +4197,7 @@
       </c>
       <c r="G182" s="28"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="28"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
@@ -4200,8 +4206,8 @@
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
     </row>
-    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="96" t="s">
         <v>69</v>
       </c>
@@ -4210,7 +4216,7 @@
         <v>-8.1576000000000004</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="95" t="s">
         <v>70</v>
       </c>
@@ -4219,7 +4225,7 @@
         <v>0.40889999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="39" t="s">
         <v>152</v>
       </c>
@@ -4228,7 +4234,7 @@
         <v>-12.7606</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="39" t="s">
         <v>53</v>
       </c>
@@ -4237,7 +4243,7 @@
         <v>0.50029999999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="39" t="s">
         <v>153</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>-8.1062999999999992</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A190" s="40" t="s">
         <v>53</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>0.77159999999999995</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
@@ -4269,742 +4275,834 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.15234375" customWidth="1"/>
+    <col min="2" max="2" width="25.84375" customWidth="1"/>
+    <col min="4" max="6" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="F4" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="63">
+        <v>10.016999999999999</v>
+      </c>
+      <c r="C5" s="63">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D5" s="63">
+        <v>-10.0108</v>
+      </c>
+      <c r="E5" s="63">
+        <v>-19.941700000000001</v>
+      </c>
+      <c r="F5" s="107">
+        <v>-29.985800000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="63">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="C6" s="63">
+        <v>0.37640000000000001</v>
+      </c>
+      <c r="D6" s="63">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="E6" s="63">
+        <v>0.34689999999999999</v>
+      </c>
+      <c r="F6" s="107">
+        <v>0.35389999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="101">
+      <c r="B7" s="63">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="C7" s="101">
         <v>-10.532999999999999</v>
       </c>
-      <c r="C5" s="101">
-        <v>-20.49</v>
-      </c>
-      <c r="D5" s="101">
+      <c r="D7" s="101">
+        <v>-20.492699999999999</v>
+      </c>
+      <c r="E7" s="101">
         <v>-30.348199999999999</v>
       </c>
-      <c r="E5" s="103">
-        <v>-40.424100000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B6" s="101">
+      <c r="F7" s="109">
+        <v>-40.4833</v>
+      </c>
+      <c r="G7">
+        <f>34.036031961441/200</f>
+        <v>0.17018015980720499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="63">
+        <v>1.0844</v>
+      </c>
+      <c r="C8" s="101">
         <v>1.016</v>
       </c>
-      <c r="C6" s="101">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="D6" s="101">
+      <c r="D8" s="101">
+        <v>0.96919999999999995</v>
+      </c>
+      <c r="E8" s="101">
         <v>1.0161</v>
       </c>
-      <c r="E6" s="103"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="F8" s="109">
+        <v>0.99170000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" s="63">
+        <v>-0.25769999999999998</v>
+      </c>
+      <c r="C9" s="101">
+        <v>-9.7469999999999999</v>
+      </c>
+      <c r="D9" s="101">
+        <v>-15.945</v>
+      </c>
+      <c r="E9" s="101">
+        <v>-17.548500000000001</v>
+      </c>
+      <c r="F9" s="109">
+        <v>-17.7516</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="63">
+        <v>1.0732999999999999</v>
+      </c>
+      <c r="C10" s="101">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="D10" s="101">
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="E10" s="101">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="F10" s="109">
+        <v>0.1086</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="101">
+      <c r="B11" s="63">
+        <v>-3.8923999999999999</v>
+      </c>
+      <c r="C11" s="101">
         <v>-13.7515</v>
       </c>
-      <c r="C7" s="101">
-        <v>-23.865300000000001</v>
-      </c>
-      <c r="D7" s="101">
+      <c r="D11" s="101">
+        <v>-23.868400000000001</v>
+      </c>
+      <c r="E11" s="101">
         <v>-33.743299999999998</v>
       </c>
-      <c r="E7" s="103">
-        <v>-43.958799999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="101">
+      <c r="F11" s="109">
+        <v>-43.755000000000003</v>
+      </c>
+      <c r="G11">
+        <f>67.6733615398406/200</f>
+        <v>0.33836680769920346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="63">
+        <v>0.99550000000000005</v>
+      </c>
+      <c r="C12" s="101">
         <v>1.161</v>
       </c>
-      <c r="C8" s="101">
-        <v>1.0238</v>
-      </c>
-      <c r="D8" s="101">
+      <c r="D12" s="101">
+        <v>1.0254000000000001</v>
+      </c>
+      <c r="E12" s="101">
         <v>1.0127999999999999</v>
       </c>
-      <c r="E8" s="103"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="F12" s="109">
+        <v>1.1445000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="101">
-        <v>-9.7469999999999999</v>
-      </c>
-      <c r="C9" s="101">
-        <v>-15.945</v>
-      </c>
-      <c r="D9" s="101">
-        <v>-17.548500000000001</v>
-      </c>
-      <c r="E9" s="103">
-        <v>-17.808599999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B10" s="101">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="C10" s="101">
-        <v>0.76859999999999995</v>
-      </c>
-      <c r="D10" s="101">
-        <v>0.32450000000000001</v>
-      </c>
-      <c r="E10" s="103"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="B13" s="63">
+        <v>-3.8243</v>
+      </c>
+      <c r="C13" s="101">
+        <v>-12.9322</v>
+      </c>
+      <c r="D13" s="101">
+        <v>-18.9573</v>
+      </c>
+      <c r="E13" s="101">
+        <v>-20.362500000000001</v>
+      </c>
+      <c r="F13" s="109">
+        <v>-20.562799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="101">
-        <v>-12.9322</v>
-      </c>
-      <c r="C11" s="101">
-        <v>-18.9573</v>
-      </c>
-      <c r="D11" s="101">
-        <v>-20.362500000000001</v>
-      </c>
-      <c r="E11" s="103">
-        <v>-21.748200000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="101">
+      <c r="B14" s="63">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="C14" s="101">
         <v>1.1217999999999999</v>
       </c>
-      <c r="C12" s="101">
+      <c r="D14" s="101">
         <v>0.85319999999999996</v>
       </c>
-      <c r="D12" s="101">
+      <c r="E14" s="101">
         <v>0.36549999999999999</v>
       </c>
-      <c r="E12" s="103"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B13" s="101"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="103"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="103"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" s="109">
+        <v>0.12570000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
-      <c r="E15" s="103"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="101"/>
+      <c r="F15" s="109"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="63"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="109"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104">
+      <c r="B17" s="63"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="109"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="109"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="103">
         <v>-21.863700000000001</v>
       </c>
-      <c r="D17" s="104">
+      <c r="E19" s="103">
         <v>-30.985299999999999</v>
       </c>
-      <c r="E17" s="105"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106">
+      <c r="F19" s="109"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="108"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104">
         <v>1.0770999999999999</v>
       </c>
-      <c r="D18" s="106">
+      <c r="E20" s="104">
         <v>1.1258999999999999</v>
       </c>
-      <c r="E18" s="107"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="100" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="F20" s="110"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="21"/>
-      <c r="B21" s="100" t="s">
-        <v>164</v>
-      </c>
+      <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16" t="s">
+    <row r="22" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+      <c r="A23" s="21"/>
+      <c r="B23" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="14"/>
+      <c r="B25" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B26" s="8">
         <f>34.523822069168/200</f>
         <v>0.17261911034583999</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B27" s="8">
         <f>68.7835264205932/200</f>
         <v>0.343917632102966</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B28" s="11">
         <f>55.7775883674621/200</f>
         <v>0.27888794183731053</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="65" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="66">
+      <c r="B34" s="66">
         <v>-10</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C34" s="66">
         <v>0</v>
       </c>
-      <c r="D32" s="66">
+      <c r="D34" s="66">
         <v>10</v>
       </c>
-      <c r="E32" s="66">
+      <c r="E34" s="66">
         <v>20</v>
       </c>
-      <c r="F32" s="66">
+      <c r="F34" s="66">
         <v>30</v>
       </c>
-      <c r="G32" s="67">
+      <c r="G34" s="67">
         <v>40</v>
       </c>
-      <c r="H32" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+      <c r="H34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B33">
+      <c r="B35">
         <v>0.64659999999999995</v>
       </c>
-      <c r="C33">
+      <c r="C35">
         <v>-6.6333000000000002</v>
       </c>
-      <c r="D33">
+      <c r="D35">
         <v>-13.3081</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>-21.162199999999999</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <v>-30.135000000000002</v>
       </c>
-      <c r="G33" s="23">
+      <c r="G35" s="23">
         <v>-39.999699999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C36" s="19">
         <v>-10.0745</v>
       </c>
-      <c r="G34" s="23"/>
-      <c r="H34" s="19">
+      <c r="G36" s="23"/>
+      <c r="H36" s="19">
         <f>103.243407487869/10</f>
         <v>10.3243407487869</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C35" s="19">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C37" s="19">
         <v>0.19120000000000001</v>
       </c>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="68" t="s">
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="69">
+      <c r="B38" s="69">
         <v>3.8721999999999999</v>
       </c>
-      <c r="C36" s="69">
+      <c r="C38" s="69">
         <v>8.2391000000000005</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D38" s="69">
         <v>11.548999999999999</v>
       </c>
-      <c r="E36" s="69">
+      <c r="E38" s="69">
         <v>15.2288</v>
       </c>
-      <c r="F36" s="69">
+      <c r="F38" s="69">
         <v>16.989699999999999</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G38" s="70">
         <v>15.2288</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B37">
+      <c r="B39">
         <v>0.68859999999999999</v>
       </c>
-      <c r="C37">
+      <c r="C39">
         <v>-6.6078925132751403</v>
       </c>
-      <c r="D37">
+      <c r="D39">
         <v>-13.2858</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>-21.145</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>-30.131799999999998</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G39" s="23">
         <v>-39.999499999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C40" s="19">
         <v>-10.035600000000001</v>
       </c>
-      <c r="G38" s="23"/>
-      <c r="H38" s="19">
+      <c r="G40" s="23"/>
+      <c r="H40" s="19">
         <f>65.1636457443237/10</f>
         <v>6.5163645744323704</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C39" s="19">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="19">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="68" t="s">
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="69">
+      <c r="B42" s="69">
         <v>3.9794</v>
       </c>
-      <c r="C40" s="69">
+      <c r="C42" s="69">
         <v>8.2391000000000005</v>
       </c>
-      <c r="D40" s="69">
+      <c r="D42" s="69">
         <v>11.548999999999999</v>
       </c>
-      <c r="E40" s="69">
+      <c r="E42" s="69">
         <v>15.2288</v>
       </c>
-      <c r="F40" s="69">
+      <c r="F42" s="69">
         <v>16.989699999999999</v>
       </c>
-      <c r="G40" s="70">
+      <c r="G42" s="70">
         <v>15.2288</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C41">
+      <c r="C43">
         <v>-5.3365</v>
       </c>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C42">
+      <c r="C44">
         <v>-5.3365</v>
       </c>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C45" s="28">
         <v>-11.2842</v>
       </c>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C44">
+      <c r="C46">
         <v>-7.2462999999999997</v>
       </c>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C45" s="19">
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="19">
         <v>-2.3424</v>
       </c>
-      <c r="G45" s="23"/>
-      <c r="H45" s="19">
+      <c r="G47" s="23"/>
+      <c r="H47" s="19">
         <f>37.5523734092712/10</f>
         <v>3.7552373409271196</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C48" s="19">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="19">
+      <c r="C49" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="19">
         <f>73.5869255065917/10</f>
         <v>7.3586925506591694</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C50" s="19">
         <v>0.32890000000000003</v>
       </c>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="19">
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="23"/>
+      <c r="H51" s="19">
         <f>146.174109458923/10</f>
         <v>14.617410945892299</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C52" s="19">
         <v>0.30059999999999998</v>
       </c>
-      <c r="G50" s="23"/>
-    </row>
-    <row r="51" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="6" t="s">
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="109" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="19">
+      <c r="B53" s="24"/>
+      <c r="C53" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="19">
         <f>122.040362358093/5</f>
         <v>24.408072471618603</v>
       </c>
-      <c r="I51" s="19" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B54" s="91" t="s">
+      <c r="I53" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B56" s="91" t="s">
         <v>134</v>
       </c>
-      <c r="C54" s="92">
+      <c r="C56" s="92">
         <v>-15.4787</v>
       </c>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B55" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="39"/>
-      <c r="C56" s="87"/>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B57" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="87">
-        <v>-15.4361</v>
+        <v>127</v>
+      </c>
+      <c r="C57" s="87" t="s">
+        <v>128</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="87" t="s">
-        <v>131</v>
-      </c>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B58" s="39"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="39"/>
-      <c r="C59" s="87"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B59" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="87">
+        <v>-15.4361</v>
+      </c>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B60" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="87">
-        <v>-26.090299999999999</v>
+        <v>127</v>
+      </c>
+      <c r="C60" s="87" t="s">
+        <v>131</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="87" t="s">
-        <v>129</v>
-      </c>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B61" s="39"/>
+      <c r="C61" s="87"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="39"/>
-      <c r="C62" s="87"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B62" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" s="87">
+        <v>-26.090299999999999</v>
+      </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B63" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C63" s="87">
-        <v>-15.9239</v>
+        <v>127</v>
+      </c>
+      <c r="C63" s="87" t="s">
+        <v>129</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
     </row>
-    <row r="64" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="90" t="s">
-        <v>130</v>
-      </c>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B64" s="39"/>
+      <c r="C64" s="87"/>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B65" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="86"/>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B65" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="87">
+        <v>-15.9239</v>
+      </c>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B66" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" s="28"/>
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="90" t="s">
+        <v>130</v>
+      </c>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B67" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C67" s="108">
-        <v>-16.803100000000001</v>
-      </c>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B67" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="86"/>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
     </row>
-    <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="C68" s="90" t="s">
-        <v>133</v>
-      </c>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B68" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" s="28"/>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B69" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="105">
+        <v>-16.803100000000001</v>
+      </c>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
+    </row>
+    <row r="70" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9262C8-95BC-4B43-A166-085B110CBA1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675CDFD-2636-437F-851A-7CF30EBF87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="182">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -569,10 +569,28 @@
     <t>RNN J=2 [dB]</t>
   </si>
   <si>
-    <t>1) Discrete-Time (change date 6.8)</t>
-  </si>
-  <si>
     <t>upper bound (observation * H_inv) [dB]</t>
+  </si>
+  <si>
+    <t>3) NL observation (change date 6.13)</t>
+  </si>
+  <si>
+    <t>1) Observation mismatch Discrete-Time (change date 6.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H = </t>
+  </si>
+  <si>
+    <t>lower bound: ERTS with H=I [dB]</t>
+  </si>
+  <si>
+    <t>URTS full [dB]</t>
+  </si>
+  <si>
+    <t>PS full [dB]</t>
+  </si>
+  <si>
+    <t>Hybrid full [dB]</t>
   </si>
 </sst>
 </file>
@@ -770,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -983,15 +1001,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -999,13 +1008,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1294,33 +1303,33 @@
       <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.4609375" customWidth="1"/>
-    <col min="2" max="2" width="27.07421875" customWidth="1"/>
-    <col min="3" max="3" width="8.69140625" customWidth="1"/>
-    <col min="6" max="6" width="23.69140625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="23.7265625" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="35.07421875" customWidth="1"/>
+    <col min="8" max="8" width="35.08984375" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="38" t="s">
         <v>69</v>
       </c>
@@ -1360,7 +1369,7 @@
         <v>-29.9617</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="38" t="s">
         <v>70</v>
       </c>
@@ -1380,7 +1389,7 @@
         <v>0.42949999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
         <v>146</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>-31.885899999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
         <v>77</v>
       </c>
@@ -1420,7 +1429,7 @@
         <v>0.51370000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>7</v>
       </c>
@@ -1441,7 +1450,7 @@
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="39" t="s">
         <v>53</v>
       </c>
@@ -1462,7 +1471,7 @@
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="39" t="s">
         <v>34</v>
       </c>
@@ -1483,7 +1492,7 @@
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="40" t="s">
         <v>62</v>
       </c>
@@ -1504,7 +1513,7 @@
       </c>
       <c r="G12" s="18"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="18"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1513,13 +1522,13 @@
       <c r="F13" s="26"/>
       <c r="G13" s="18"/>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
         <v>63</v>
       </c>
       <c r="G14" s="18"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1549,7 @@
       </c>
       <c r="G15" s="18"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="38" t="s">
         <v>69</v>
       </c>
@@ -1561,7 +1570,7 @@
       </c>
       <c r="G16" s="18"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="38" t="s">
         <v>70</v>
       </c>
@@ -1582,7 +1591,7 @@
       </c>
       <c r="G17" s="18"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>146</v>
       </c>
@@ -1603,7 +1612,7 @@
       </c>
       <c r="G18" s="18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>77</v>
       </c>
@@ -1624,7 +1633,7 @@
       </c>
       <c r="G19" s="18"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1654,7 @@
       </c>
       <c r="G20" s="18"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
@@ -1665,7 +1674,7 @@
         <v>0.83679999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>83</v>
       </c>
@@ -1685,7 +1694,7 @@
         <v>-38.1828</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
@@ -1705,7 +1714,7 @@
         <v>0.83630000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -1713,12 +1722,12 @@
       <c r="E24" s="18"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1741,7 +1750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="38" t="s">
         <v>69</v>
       </c>
@@ -1762,7 +1771,7 @@
       </c>
       <c r="G27" s="44"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="38" t="s">
         <v>70</v>
       </c>
@@ -1783,7 +1792,7 @@
       </c>
       <c r="G28" s="44"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>146</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>77</v>
       </c>
@@ -1828,7 +1837,7 @@
       </c>
       <c r="G30" s="30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +1862,7 @@
         <v>6.6839754581451E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>53</v>
       </c>
@@ -1874,7 +1883,7 @@
       </c>
       <c r="G32" s="30"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +1907,7 @@
         <v>0.28249908566474902</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="13" t="s">
         <v>62</v>
       </c>
@@ -1919,7 +1928,7 @@
       </c>
       <c r="G34" s="32"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1928,7 +1937,7 @@
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1937,7 +1946,7 @@
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="62" t="s">
         <v>90</v>
       </c>
@@ -1948,7 +1957,7 @@
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1968,7 @@
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
     </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
         <v>35</v>
       </c>
@@ -1970,7 +1979,7 @@
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>146</v>
       </c>
@@ -2001,7 +2010,7 @@
         <v>9.5532480478286497E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>77</v>
       </c>
@@ -2014,7 +2023,7 @@
       <c r="F42" s="18"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +2039,7 @@
         <v>0.19651466488838149</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>53</v>
       </c>
@@ -2043,7 +2052,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>34</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>1.4883784604072552</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="13" t="s">
         <v>62</v>
       </c>
@@ -2073,7 +2082,7 @@
       <c r="F46" s="10"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2082,7 +2091,7 @@
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
         <v>80</v>
       </c>
@@ -2093,7 +2102,7 @@
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="18" t="s">
         <v>35</v>
       </c>
@@ -2104,7 +2113,7 @@
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>1</v>
       </c>
@@ -2119,7 +2128,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="12" t="s">
         <v>146</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>4.5478748083114598E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>77</v>
       </c>
@@ -2148,7 +2157,7 @@
       <c r="F52" s="18"/>
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>7</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>9.5295866727828499E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>53</v>
       </c>
@@ -2177,7 +2186,7 @@
       <c r="F54" s="18"/>
       <c r="G54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>81</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>1.1070311355590801</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="13" t="s">
         <v>62</v>
       </c>
@@ -2206,7 +2215,7 @@
       <c r="F56" s="10"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2215,7 +2224,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
         <v>91</v>
       </c>
@@ -2226,7 +2235,7 @@
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="18" t="s">
         <v>36</v>
       </c>
@@ -2237,7 +2246,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>1</v>
       </c>
@@ -2256,7 +2265,7 @@
       <c r="H60" s="36"/>
       <c r="I60" s="33"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="51" t="s">
         <v>69</v>
       </c>
@@ -2275,7 +2284,7 @@
       <c r="H61" s="36"/>
       <c r="I61" s="33"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="51" t="s">
         <v>70</v>
       </c>
@@ -2290,7 +2299,7 @@
       <c r="H62" s="36"/>
       <c r="I62" s="33"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>78</v>
       </c>
@@ -2309,7 +2318,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="33"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>77</v>
       </c>
@@ -2328,7 +2337,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="33"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>74</v>
       </c>
@@ -2347,7 +2356,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="33"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>53</v>
       </c>
@@ -2366,7 +2375,7 @@
       <c r="H66" s="9"/>
       <c r="I66" s="33"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="53" t="s">
         <v>71</v>
       </c>
@@ -2385,7 +2394,7 @@
       <c r="H67" s="35"/>
       <c r="I67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="53" t="s">
         <v>55</v>
       </c>
@@ -2404,7 +2413,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="33"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" s="53" t="s">
         <v>72</v>
       </c>
@@ -2419,7 +2428,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="56" t="s">
         <v>54</v>
       </c>
@@ -2433,7 +2442,7 @@
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2442,7 +2451,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="62" t="s">
         <v>140</v>
       </c>
@@ -2453,26 +2462,26 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D73" s="28"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" s="28" t="s">
         <v>0</v>
       </c>
       <c r="D74" s="28"/>
     </row>
-    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B75" s="1"/>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="72"/>
       <c r="B76" s="73" t="s">
         <v>99</v>
@@ -2505,7 +2514,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>146</v>
       </c>
@@ -2545,7 +2554,7 @@
         <v>9.1923785209655495E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>77</v>
       </c>
@@ -2570,7 +2579,7 @@
       </c>
       <c r="K78" s="30"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>7</v>
       </c>
@@ -2610,7 +2619,7 @@
         <v>1.7875673770904502E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>53</v>
       </c>
@@ -2635,7 +2644,7 @@
       </c>
       <c r="K80" s="30"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>123</v>
       </c>
@@ -2670,7 +2679,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="30"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>54</v>
       </c>
@@ -2693,7 +2702,7 @@
       <c r="J82" s="18"/>
       <c r="K82" s="8"/>
     </row>
-    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="77" t="s">
         <v>103</v>
       </c>
@@ -2728,7 +2737,7 @@
         <v>6.4887069463729505E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="81" t="s">
         <v>62</v>
       </c>
@@ -2751,7 +2760,7 @@
       </c>
       <c r="K84" s="84"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" s="33"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -2764,7 +2773,7 @@
       <c r="J85" s="64"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="35" t="s">
         <v>138</v>
       </c>
@@ -2778,7 +2787,7 @@
       <c r="I86" s="28"/>
       <c r="J86" s="28"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" s="72"/>
       <c r="B87" s="73" t="s">
         <v>99</v>
@@ -2807,7 +2816,7 @@
       <c r="J87" s="85"/>
       <c r="K87" s="33"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>146</v>
       </c>
@@ -2842,7 +2851,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="63"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>77</v>
       </c>
@@ -2865,7 +2874,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="63"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>7</v>
       </c>
@@ -2900,7 +2909,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="63"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>53</v>
       </c>
@@ -2923,7 +2932,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="63"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>34</v>
       </c>
@@ -2958,7 +2967,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="63"/>
     </row>
-    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="13" t="s">
         <v>54</v>
       </c>
@@ -2981,7 +2990,7 @@
       <c r="J93" s="18"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" s="28"/>
       <c r="B94" s="28"/>
       <c r="C94" s="28"/>
@@ -2993,7 +3002,7 @@
       <c r="I94" s="28"/>
       <c r="J94" s="28"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -3005,27 +3014,27 @@
       <c r="I95" s="28"/>
       <c r="J95" s="28"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="14" t="s">
         <v>1</v>
       </c>
@@ -3048,7 +3057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>13</v>
       </c>
@@ -3072,7 +3081,7 @@
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>14</v>
       </c>
@@ -3093,7 +3102,7 @@
       </c>
       <c r="G104" s="49"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="5"/>
       <c r="B105" s="50"/>
       <c r="C105" s="9"/>
@@ -3102,7 +3111,7 @@
       <c r="F105" s="9"/>
       <c r="G105" s="49"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>15</v>
       </c>
@@ -3126,7 +3135,7 @@
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>12</v>
       </c>
@@ -3147,7 +3156,7 @@
       </c>
       <c r="G107" s="49"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5"/>
       <c r="B108" s="50"/>
       <c r="C108" s="9"/>
@@ -3156,7 +3165,7 @@
       <c r="F108" s="9"/>
       <c r="G108" s="49"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>22</v>
       </c>
@@ -3180,7 +3189,7 @@
         <v>1.82194089889526E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5" t="s">
         <v>23</v>
       </c>
@@ -3201,7 +3210,7 @@
       </c>
       <c r="G110" s="30"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5"/>
       <c r="B111" s="50"/>
       <c r="C111" s="9"/>
@@ -3210,7 +3219,7 @@
       <c r="F111" s="9"/>
       <c r="G111" s="30"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>24</v>
       </c>
@@ -3234,7 +3243,7 @@
         <v>1.8185395002365098E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>25</v>
       </c>
@@ -3255,7 +3264,7 @@
       </c>
       <c r="G113" s="49"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="5"/>
       <c r="B114" s="50"/>
       <c r="C114" s="50"/>
@@ -3264,7 +3273,7 @@
       <c r="F114" s="50"/>
       <c r="G114" s="49"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
         <v>16</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>0.21797123432159399</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="5" t="s">
         <v>17</v>
       </c>
@@ -3310,7 +3319,7 @@
       </c>
       <c r="G116" s="30"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="5"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -3319,7 +3328,7 @@
       <c r="F117" s="9"/>
       <c r="G117" s="30"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>18</v>
       </c>
@@ -3340,7 +3349,7 @@
       </c>
       <c r="G118" s="30"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="5" t="s">
         <v>19</v>
       </c>
@@ -3361,7 +3370,7 @@
       </c>
       <c r="G119" s="30"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="5"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -3370,7 +3379,7 @@
       <c r="F120" s="9"/>
       <c r="G120" s="30"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>20</v>
       </c>
@@ -3391,7 +3400,7 @@
       </c>
       <c r="G121" s="30"/>
     </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="6" t="s">
         <v>21</v>
       </c>
@@ -3412,7 +3421,7 @@
       </c>
       <c r="G122" s="32"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="21"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -3421,7 +3430,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="33"/>
       <c r="B124" s="33" t="s">
         <v>56</v>
@@ -3431,7 +3440,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="21"/>
       <c r="B125" s="18" t="s">
         <v>57</v>
@@ -3442,23 +3451,23 @@
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C128" s="19"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="14" t="s">
         <v>1</v>
       </c>
@@ -3481,7 +3490,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="5" t="s">
         <v>28</v>
       </c>
@@ -3505,7 +3514,7 @@
         <v>1.8172004222869801E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="5" t="s">
         <v>14</v>
       </c>
@@ -3526,7 +3535,7 @@
       </c>
       <c r="G133" s="49"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="5"/>
       <c r="B134" s="50"/>
       <c r="C134" s="9"/>
@@ -3535,7 +3544,7 @@
       <c r="F134" s="9"/>
       <c r="G134" s="49"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="5" t="s">
         <v>87</v>
       </c>
@@ -3556,7 +3565,7 @@
       </c>
       <c r="G135" s="30"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="5" t="s">
         <v>29</v>
       </c>
@@ -3577,7 +3586,7 @@
       </c>
       <c r="G136" s="49"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="5"/>
       <c r="B137" s="50"/>
       <c r="C137" s="9"/>
@@ -3586,7 +3595,7 @@
       <c r="F137" s="9"/>
       <c r="G137" s="49"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="5" t="s">
         <v>30</v>
       </c>
@@ -3610,7 +3619,7 @@
         <v>3.7304222583770699E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
         <v>23</v>
       </c>
@@ -3631,7 +3640,7 @@
       </c>
       <c r="G139" s="30"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="5"/>
       <c r="B140" s="50"/>
       <c r="C140" s="9"/>
@@ -3640,7 +3649,7 @@
       <c r="F140" s="9"/>
       <c r="G140" s="30"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
         <v>88</v>
       </c>
@@ -3661,7 +3670,7 @@
       </c>
       <c r="G141" s="30"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
         <v>31</v>
       </c>
@@ -3682,7 +3691,7 @@
       </c>
       <c r="G142" s="49"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="5"/>
       <c r="B143" s="50"/>
       <c r="C143" s="50"/>
@@ -3691,7 +3700,7 @@
       <c r="F143" s="50"/>
       <c r="G143" s="49"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>16</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>4.4675693035125696E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>17</v>
       </c>
@@ -3736,7 +3745,7 @@
       </c>
       <c r="G145" s="30"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="5"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -3745,7 +3754,7 @@
       <c r="F146" s="9"/>
       <c r="G146" s="30"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>89</v>
       </c>
@@ -3766,7 +3775,7 @@
       </c>
       <c r="G147" s="30"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>32</v>
       </c>
@@ -3787,7 +3796,7 @@
       </c>
       <c r="G148" s="30"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="5"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -3796,7 +3805,7 @@
       <c r="F149" s="9"/>
       <c r="G149" s="30"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>26</v>
       </c>
@@ -3817,7 +3826,7 @@
       </c>
       <c r="G150" s="30"/>
     </row>
-    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="6" t="s">
         <v>27</v>
       </c>
@@ -3838,7 +3847,7 @@
       </c>
       <c r="G151" s="32"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
       <c r="D152" s="29"/>
@@ -3846,27 +3855,27 @@
       <c r="F152" s="29"/>
       <c r="G152" s="29"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B153" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B154" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="28" t="s">
         <v>144</v>
       </c>
@@ -3877,7 +3886,7 @@
       <c r="F164" s="28"/>
       <c r="G164" s="28"/>
     </row>
-    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="28" t="s">
         <v>141</v>
       </c>
@@ -3888,7 +3897,7 @@
       <c r="F165" s="28"/>
       <c r="G165" s="28"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="72" t="s">
         <v>142</v>
       </c>
@@ -3907,7 +3916,7 @@
       <c r="F166" s="85"/>
       <c r="G166" s="85"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="95" t="s">
         <v>69</v>
       </c>
@@ -3926,7 +3935,7 @@
       <c r="F167" s="76"/>
       <c r="G167" s="35"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="95" t="s">
         <v>70</v>
       </c>
@@ -3945,7 +3954,7 @@
       <c r="F168" s="76"/>
       <c r="G168" s="35"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="39" t="s">
         <v>146</v>
       </c>
@@ -3964,7 +3973,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="35"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
         <v>77</v>
       </c>
@@ -3983,7 +3992,7 @@
       <c r="F170" s="9"/>
       <c r="G170" s="35"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="39" t="s">
         <v>7</v>
       </c>
@@ -4002,7 +4011,7 @@
       <c r="F171" s="9"/>
       <c r="G171" s="35"/>
     </row>
-    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="40" t="s">
         <v>53</v>
       </c>
@@ -4021,7 +4030,7 @@
       <c r="F172" s="9"/>
       <c r="G172" s="35"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="28"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
@@ -4030,7 +4039,7 @@
       <c r="F173" s="28"/>
       <c r="G173" s="28"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="28"/>
       <c r="B174" s="28"/>
       <c r="C174" s="28"/>
@@ -4039,7 +4048,7 @@
       <c r="F174" s="28"/>
       <c r="G174" s="28"/>
     </row>
-    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="28" t="s">
         <v>145</v>
       </c>
@@ -4050,7 +4059,7 @@
       <c r="F175" s="28"/>
       <c r="G175" s="28"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="72" t="s">
         <v>142</v>
       </c>
@@ -4071,7 +4080,7 @@
       </c>
       <c r="G176" s="28"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="95" t="s">
         <v>69</v>
       </c>
@@ -4092,7 +4101,7 @@
       </c>
       <c r="G177" s="28"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="95" t="s">
         <v>70</v>
       </c>
@@ -4113,7 +4122,7 @@
       </c>
       <c r="G178" s="28"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="39" t="s">
         <v>146</v>
       </c>
@@ -4134,7 +4143,7 @@
       </c>
       <c r="G179" s="28"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="39" t="s">
         <v>77</v>
       </c>
@@ -4155,7 +4164,7 @@
       </c>
       <c r="G180" s="28"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="39" t="s">
         <v>7</v>
       </c>
@@ -4176,7 +4185,7 @@
       </c>
       <c r="G181" s="28"/>
     </row>
-    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="40" t="s">
         <v>53</v>
       </c>
@@ -4197,7 +4206,7 @@
       </c>
       <c r="G182" s="28"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="28"/>
       <c r="B183" s="28"/>
       <c r="C183" s="28"/>
@@ -4206,8 +4215,8 @@
       <c r="F183" s="28"/>
       <c r="G183" s="28"/>
     </row>
-    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="96" t="s">
         <v>69</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>-8.1576000000000004</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="95" t="s">
         <v>70</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>0.40889999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="39" t="s">
         <v>152</v>
       </c>
@@ -4234,7 +4243,7 @@
         <v>-12.7606</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="39" t="s">
         <v>53</v>
       </c>
@@ -4243,7 +4252,7 @@
         <v>0.50029999999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="39" t="s">
         <v>153</v>
       </c>
@@ -4252,7 +4261,7 @@
         <v>-8.1062999999999992</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="40" t="s">
         <v>53</v>
       </c>
@@ -4261,7 +4270,7 @@
         <v>0.77159999999999995</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="21"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
@@ -4275,25 +4284,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.15234375" customWidth="1"/>
-    <col min="2" max="2" width="25.84375" customWidth="1"/>
-    <col min="4" max="6" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -4301,12 +4310,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -4329,9 +4338,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="63">
         <v>10.016999999999999</v>
@@ -4345,11 +4354,11 @@
       <c r="E5" s="63">
         <v>-19.941700000000001</v>
       </c>
-      <c r="F5" s="107">
+      <c r="F5" s="104">
         <v>-29.985800000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>157</v>
       </c>
@@ -4365,11 +4374,11 @@
       <c r="E6" s="63">
         <v>0.34689999999999999</v>
       </c>
-      <c r="F6" s="107">
+      <c r="F6" s="104">
         <v>0.35389999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -4385,7 +4394,7 @@
       <c r="E7" s="101">
         <v>-30.348199999999999</v>
       </c>
-      <c r="F7" s="109">
+      <c r="F7" s="105">
         <v>-40.4833</v>
       </c>
       <c r="G7">
@@ -4393,7 +4402,7 @@
         <v>0.17018015980720499</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>157</v>
       </c>
@@ -4409,11 +4418,11 @@
       <c r="E8" s="101">
         <v>1.0161</v>
       </c>
-      <c r="F8" s="109">
+      <c r="F8" s="105">
         <v>0.99170000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>155</v>
       </c>
@@ -4429,11 +4438,11 @@
       <c r="E9" s="101">
         <v>-17.548500000000001</v>
       </c>
-      <c r="F9" s="109">
+      <c r="F9" s="105">
         <v>-17.7516</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>157</v>
       </c>
@@ -4449,11 +4458,11 @@
       <c r="E10" s="101">
         <v>0.32450000000000001</v>
       </c>
-      <c r="F10" s="109">
+      <c r="F10" s="105">
         <v>0.1086</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>150</v>
       </c>
@@ -4469,15 +4478,15 @@
       <c r="E11" s="101">
         <v>-33.743299999999998</v>
       </c>
-      <c r="F11" s="109">
+      <c r="F11" s="105">
         <v>-43.755000000000003</v>
       </c>
       <c r="G11">
         <f>67.6733615398406/200</f>
-        <v>0.33836680769920346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+        <v>0.33836680769920302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>157</v>
       </c>
@@ -4493,11 +4502,11 @@
       <c r="E12" s="101">
         <v>1.0127999999999999</v>
       </c>
-      <c r="F12" s="109">
+      <c r="F12" s="105">
         <v>1.1445000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>156</v>
       </c>
@@ -4513,15 +4522,15 @@
       <c r="E13" s="101">
         <v>-20.362500000000001</v>
       </c>
-      <c r="F13" s="109">
+      <c r="F13" s="105">
         <v>-20.562799999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="9">
         <v>0.97599999999999998</v>
       </c>
       <c r="C14" s="101">
@@ -4533,86 +4542,142 @@
       <c r="E14" s="101">
         <v>0.36549999999999999</v>
       </c>
-      <c r="F14" s="109">
+      <c r="F14" s="105">
         <v>0.12570000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="109"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="9">
+        <v>-2.3456000000000001</v>
+      </c>
+      <c r="C15" s="101">
+        <v>-13.049799999999999</v>
+      </c>
+      <c r="D15" s="101">
+        <v>-22.5517</v>
+      </c>
+      <c r="E15" s="101">
+        <v>-32.542200000000001</v>
+      </c>
+      <c r="F15" s="105">
+        <v>-42.238599999999998</v>
+      </c>
+      <c r="G15">
+        <f>58.9917361736297/200</f>
+        <v>0.29495868086814847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="109"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="9">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="C16" s="101">
+        <v>1.1852</v>
+      </c>
+      <c r="D16" s="101">
+        <v>1.0452999999999999</v>
+      </c>
+      <c r="E16" s="101">
+        <v>1.0355000000000001</v>
+      </c>
+      <c r="F16" s="105">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="109"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B17" s="9">
+        <v>-2.1879</v>
+      </c>
+      <c r="C17" s="101">
+        <v>-12.495900000000001</v>
+      </c>
+      <c r="D17" s="101">
+        <v>-22.084499999999998</v>
+      </c>
+      <c r="E17" s="101">
+        <v>-30.325099999999999</v>
+      </c>
+      <c r="F17" s="105">
+        <v>-36.4617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="109"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="9">
+        <v>1.0165999999999999</v>
+      </c>
+      <c r="C18" s="101">
+        <v>1.0869</v>
+      </c>
+      <c r="D18" s="101">
+        <v>1.0253000000000001</v>
+      </c>
+      <c r="E18" s="101">
+        <v>1.0752999999999999</v>
+      </c>
+      <c r="F18" s="105">
+        <v>0.84219999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="103">
-        <v>-21.863700000000001</v>
-      </c>
-      <c r="E19" s="103">
-        <v>-30.985299999999999</v>
-      </c>
-      <c r="F19" s="109"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9">
+        <v>-2.3359999999999999</v>
+      </c>
+      <c r="C19" s="101">
+        <v>-12.340199999999999</v>
+      </c>
+      <c r="D19" s="101">
+        <v>-23.157599999999999</v>
+      </c>
+      <c r="E19" s="101">
+        <v>-31.374500000000001</v>
+      </c>
+      <c r="F19" s="105">
+        <v>-40.850499999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104">
-        <v>1.0770999999999999</v>
-      </c>
-      <c r="E20" s="104">
-        <v>1.1258999999999999</v>
-      </c>
-      <c r="F20" s="110"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="31">
+        <v>1.0219</v>
+      </c>
+      <c r="C20" s="107">
+        <v>1.1998</v>
+      </c>
+      <c r="D20" s="107">
+        <v>1.0428999999999999</v>
+      </c>
+      <c r="E20" s="107">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="F20" s="106">
+        <v>1.0668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="100" t="s">
         <v>161</v>
@@ -4621,7 +4686,7 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="100" t="s">
         <v>163</v>
@@ -4630,14 +4695,14 @@
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
     </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>44</v>
       </c>
@@ -4646,7 +4711,7 @@
         <v>0.17261911034583999</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>151</v>
       </c>
@@ -4655,7 +4720,7 @@
         <v>0.343917632102966</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
         <v>45</v>
       </c>
@@ -4664,22 +4729,22 @@
         <v>0.27888794183731053</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
         <v>111</v>
       </c>
@@ -4705,7 +4770,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>112</v>
       </c>
@@ -4728,7 +4793,7 @@
         <v>-39.999699999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>148</v>
       </c>
@@ -4741,7 +4806,7 @@
         <v>10.3243407487869</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>166</v>
       </c>
@@ -4750,7 +4815,7 @@
       </c>
       <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="68" t="s">
         <v>113</v>
       </c>
@@ -4773,7 +4838,7 @@
         <v>15.2288</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>114</v>
       </c>
@@ -4796,7 +4861,7 @@
         <v>-39.999499999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>149</v>
       </c>
@@ -4809,7 +4874,7 @@
         <v>6.5163645744323704</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>167</v>
       </c>
@@ -4818,7 +4883,7 @@
       </c>
       <c r="G41" s="23"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="68" t="s">
         <v>113</v>
       </c>
@@ -4841,7 +4906,7 @@
         <v>15.2288</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>115</v>
       </c>
@@ -4850,7 +4915,7 @@
       </c>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>116</v>
       </c>
@@ -4859,7 +4924,7 @@
       </c>
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>117</v>
       </c>
@@ -4868,7 +4933,7 @@
       </c>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>118</v>
       </c>
@@ -4877,7 +4942,7 @@
       </c>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>173</v>
       </c>
@@ -4890,7 +4955,7 @@
         <v>3.7552373409271196</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>127</v>
       </c>
@@ -4899,7 +4964,7 @@
       </c>
       <c r="G48" s="23"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>119</v>
       </c>
@@ -4912,7 +4977,7 @@
         <v>7.3586925506591694</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>127</v>
       </c>
@@ -4921,7 +4986,7 @@
       </c>
       <c r="G50" s="23"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>169</v>
       </c>
@@ -4934,7 +4999,7 @@
         <v>14.617410945892299</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>127</v>
       </c>
@@ -4943,12 +5008,12 @@
       </c>
       <c r="G52" s="23"/>
     </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B53" s="24"/>
-      <c r="C53" s="106" t="s">
+      <c r="C53" s="103" t="s">
         <v>165</v>
       </c>
       <c r="D53" s="24"/>
@@ -4963,8 +5028,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B56" s="91" t="s">
         <v>134</v>
       </c>
@@ -4974,7 +5039,7 @@
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B57" s="39" t="s">
         <v>127</v>
       </c>
@@ -4984,13 +5049,13 @@
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B58" s="39"/>
       <c r="C58" s="87"/>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B59" s="39" t="s">
         <v>126</v>
       </c>
@@ -5000,7 +5065,7 @@
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B60" s="39" t="s">
         <v>127</v>
       </c>
@@ -5010,13 +5075,13 @@
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B61" s="39"/>
       <c r="C61" s="87"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B62" s="39" t="s">
         <v>137</v>
       </c>
@@ -5026,7 +5091,7 @@
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B63" s="39" t="s">
         <v>127</v>
       </c>
@@ -5036,13 +5101,13 @@
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B64" s="39"/>
       <c r="C64" s="87"/>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B65" s="39" t="s">
         <v>125</v>
       </c>
@@ -5052,7 +5117,7 @@
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
     </row>
-    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="40" t="s">
         <v>127</v>
       </c>
@@ -5062,7 +5127,7 @@
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B67" s="86" t="s">
         <v>135</v>
       </c>
@@ -5070,7 +5135,7 @@
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B68" s="93" t="s">
         <v>136</v>
       </c>
@@ -5078,17 +5143,17 @@
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B69" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C69" s="105">
+      <c r="C69" s="102">
         <v>-16.803100000000001</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
     </row>
-    <row r="70" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B70" s="40" t="s">
         <v>127</v>
       </c>
@@ -5098,11 +5163,199 @@
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B71" s="28"/>
       <c r="C71" s="28"/>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="63"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="104"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="63"/>
+      <c r="C79" s="63"/>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="104"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="63"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="105"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="63"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="105"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="63"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
+      <c r="F82" s="105"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="63"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="105"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="63"/>
+      <c r="C84" s="101"/>
+      <c r="D84" s="101"/>
+      <c r="E84" s="101"/>
+      <c r="F84" s="105"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="101"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="101"/>
+      <c r="F85" s="105"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="63"/>
+      <c r="C86" s="101"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="101"/>
+      <c r="F86" s="105"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="101"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="101"/>
+      <c r="F87" s="105"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="101"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="101"/>
+      <c r="F88" s="105"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="101"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="101"/>
+      <c r="F89" s="105"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="101"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="101"/>
+      <c r="F90" s="105"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="31"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="106"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A675CDFD-2636-437F-851A-7CF30EBF87EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6143111C-B044-4AEB-946B-06AC1BFBBC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,9 +578,6 @@
     <t>1) Observation mismatch Discrete-Time (change date 6.12)</t>
   </si>
   <si>
-    <t xml:space="preserve">H = </t>
-  </si>
-  <si>
     <t>lower bound: ERTS with H=I [dB]</t>
   </si>
   <si>
@@ -591,6 +588,9 @@
   </si>
   <si>
     <t>Hybrid full [dB]</t>
+  </si>
+  <si>
+    <t>h(x) returns spherical coordinates of x</t>
   </si>
 </sst>
 </file>
@@ -4286,8 +4286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -5212,20 +5212,32 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B78" s="63"/>
-      <c r="C78" s="63"/>
+        <v>177</v>
+      </c>
+      <c r="B78" s="63">
+        <v>-3.8759999999999999</v>
+      </c>
+      <c r="C78" s="63">
+        <v>-13.7377</v>
+      </c>
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="104"/>
+      <c r="G78">
+        <f>71/200</f>
+        <v>0.35499999999999998</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="63"/>
-      <c r="C79" s="63"/>
+      <c r="B79" s="63">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="C79" s="63">
+        <v>1.0562</v>
+      </c>
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="104"/>
@@ -5234,45 +5246,69 @@
       <c r="A80" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="63"/>
-      <c r="C80" s="101"/>
+      <c r="B80" s="63">
+        <v>10.1493</v>
+      </c>
+      <c r="C80" s="101">
+        <v>-8.2746999999999993</v>
+      </c>
       <c r="D80" s="101"/>
       <c r="E80" s="101"/>
       <c r="F80" s="105"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G80">
+        <f>48.445565700531/200</f>
+        <v>0.24222782850265501</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="63"/>
-      <c r="C81" s="101"/>
+      <c r="B81" s="63">
+        <v>5.7751999999999999</v>
+      </c>
+      <c r="C81" s="101">
+        <v>1.4814000000000001</v>
+      </c>
       <c r="D81" s="101"/>
       <c r="E81" s="101"/>
       <c r="F81" s="105"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="63"/>
-      <c r="C82" s="101"/>
+      <c r="B82" s="63">
+        <v>9.7728000000000002</v>
+      </c>
+      <c r="C82" s="101">
+        <v>-11.5334</v>
+      </c>
       <c r="D82" s="101"/>
       <c r="E82" s="101"/>
       <c r="F82" s="105"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G82">
+        <f>94.5/200</f>
+        <v>0.47249999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="63"/>
-      <c r="C83" s="101"/>
+      <c r="B83" s="63">
+        <v>6.0221</v>
+      </c>
+      <c r="C83" s="101">
+        <v>1.4859</v>
+      </c>
       <c r="D83" s="101"/>
       <c r="E83" s="101"/>
       <c r="F83" s="105"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B84" s="63"/>
       <c r="C84" s="101"/>
@@ -5280,7 +5316,7 @@
       <c r="E84" s="101"/>
       <c r="F84" s="105"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>157</v>
       </c>
@@ -5290,9 +5326,9 @@
       <c r="E85" s="101"/>
       <c r="F85" s="105"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B86" s="63"/>
       <c r="C86" s="101"/>
@@ -5300,7 +5336,7 @@
       <c r="E86" s="101"/>
       <c r="F86" s="105"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>157</v>
       </c>
@@ -5310,7 +5346,7 @@
       <c r="E87" s="101"/>
       <c r="F87" s="105"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>159</v>
       </c>
@@ -5320,7 +5356,7 @@
       <c r="E88" s="101"/>
       <c r="F88" s="105"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>157</v>
       </c>
@@ -5330,9 +5366,9 @@
       <c r="E89" s="101"/>
       <c r="F89" s="105"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="101"/>
@@ -5340,7 +5376,7 @@
       <c r="E90" s="101"/>
       <c r="F90" s="105"/>
     </row>
-    <row r="91" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="6" t="s">
         <v>157</v>
       </c>
@@ -5350,7 +5386,7 @@
       <c r="E91" s="107"/>
       <c r="F91" s="106"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="21"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6143111C-B044-4AEB-946B-06AC1BFBBC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323F5F9-A6EE-4B7A-88D9-C4ABC64013C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="187">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -563,18 +563,12 @@
     <t>On our dataset: -16.8031</t>
   </si>
   <si>
-    <t>Training time：start at 6.8 10a.m.</t>
-  </si>
-  <si>
     <t>RNN J=2 [dB]</t>
   </si>
   <si>
     <t>upper bound (observation * H_inv) [dB]</t>
   </si>
   <si>
-    <t>3) NL observation (change date 6.13)</t>
-  </si>
-  <si>
     <t>1) Observation mismatch Discrete-Time (change date 6.12)</t>
   </si>
   <si>
@@ -591,6 +585,27 @@
   </si>
   <si>
     <t>h(x) returns spherical coordinates of x</t>
+  </si>
+  <si>
+    <t>Training time：</t>
+  </si>
+  <si>
+    <t>3) NL observation (change date 6.22)</t>
+  </si>
+  <si>
+    <t>[0, 0]</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>20,20</t>
+  </si>
+  <si>
+    <t>30,30</t>
+  </si>
+  <si>
+    <t>T=20, v = 0 dB</t>
   </si>
 </sst>
 </file>
@@ -4287,7 +4302,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4299,7 +4314,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4340,7 +4355,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="63">
         <v>10.016999999999999</v>
@@ -4944,7 +4959,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C47" s="19">
         <v>-2.3424</v>
@@ -5025,7 +5040,7 @@
         <v>24.408072471618603</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -5171,12 +5186,12 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -5184,27 +5199,27 @@
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B77" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>6</v>
+      <c r="B77" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77" s="48" t="s">
+        <v>185</v>
       </c>
       <c r="G77" s="33" t="s">
         <v>170</v>
@@ -5212,103 +5227,141 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B78" s="63">
-        <v>-3.8759999999999999</v>
+        <v>175</v>
+      </c>
+      <c r="B78" s="9">
+        <v>6.5773000000000001</v>
       </c>
       <c r="C78" s="63">
-        <v>-13.7377</v>
-      </c>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="104"/>
-      <c r="G78">
-        <f>71/200</f>
-        <v>0.35499999999999998</v>
+        <v>-3.4483999999999999</v>
+      </c>
+      <c r="D78" s="63">
+        <v>-13.467700000000001</v>
+      </c>
+      <c r="E78" s="63">
+        <v>-23.496300000000002</v>
+      </c>
+      <c r="F78" s="104">
+        <v>-33.437199999999997</v>
+      </c>
+      <c r="G78" s="28">
+        <f>14.5102045536041/200</f>
+        <v>7.2551022768020501E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="63">
-        <v>0.92730000000000001</v>
+      <c r="B79" s="9">
+        <v>0.76670000000000005</v>
       </c>
       <c r="C79" s="63">
-        <v>1.0562</v>
-      </c>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="104"/>
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="D79" s="63">
+        <v>0.85460000000000003</v>
+      </c>
+      <c r="E79" s="63">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="F79" s="104">
+        <v>0.88029999999999997</v>
+      </c>
+      <c r="G79" s="28"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="63">
-        <v>10.1493</v>
+      <c r="B80" s="9">
+        <v>24.692499999999999</v>
       </c>
       <c r="C80" s="101">
-        <v>-8.2746999999999993</v>
-      </c>
-      <c r="D80" s="101"/>
-      <c r="E80" s="101"/>
-      <c r="F80" s="105"/>
-      <c r="G80">
-        <f>48.445565700531/200</f>
-        <v>0.24222782850265501</v>
+        <v>12.1965</v>
+      </c>
+      <c r="D80" s="101">
+        <v>-6.3433000000000002</v>
+      </c>
+      <c r="E80" s="101">
+        <v>-15.574299999999999</v>
+      </c>
+      <c r="F80" s="105">
+        <v>-26.417899999999999</v>
+      </c>
+      <c r="G80" s="28">
+        <f>10.0126116275787/200</f>
+        <v>5.0063058137893496E-2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="63">
-        <v>5.7751999999999999</v>
+      <c r="B81" s="9">
+        <v>4.1466000000000003</v>
       </c>
       <c r="C81" s="101">
-        <v>1.4814000000000001</v>
-      </c>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="105"/>
+        <v>8.0610999999999997</v>
+      </c>
+      <c r="D81" s="101">
+        <v>1.9612000000000001</v>
+      </c>
+      <c r="E81" s="101">
+        <v>3.4508000000000001</v>
+      </c>
+      <c r="F81" s="105">
+        <v>1.7428999999999999</v>
+      </c>
+      <c r="G81" s="28"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="63">
-        <v>9.7728000000000002</v>
+      <c r="B82" s="9">
+        <v>24.7393</v>
       </c>
       <c r="C82" s="101">
-        <v>-11.5334</v>
-      </c>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="105"/>
-      <c r="G82">
-        <f>94.5/200</f>
-        <v>0.47249999999999998</v>
+        <v>12.0449</v>
+      </c>
+      <c r="D82" s="101">
+        <v>-7.6127000000000002</v>
+      </c>
+      <c r="E82" s="101">
+        <v>-16.134399999999999</v>
+      </c>
+      <c r="F82" s="105">
+        <v>-28.211300000000001</v>
+      </c>
+      <c r="G82" s="28">
+        <f>18.9219133853912/200</f>
+        <v>9.4609566926956004E-2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="63">
-        <v>6.0221</v>
+      <c r="B83" s="9">
+        <v>4.3129999999999997</v>
       </c>
       <c r="C83" s="101">
-        <v>1.4859</v>
-      </c>
-      <c r="D83" s="101"/>
-      <c r="E83" s="101"/>
-      <c r="F83" s="105"/>
+        <v>8.2604000000000006</v>
+      </c>
+      <c r="D83" s="101">
+        <v>2.4744000000000002</v>
+      </c>
+      <c r="E83" s="101">
+        <v>5.1573000000000002</v>
+      </c>
+      <c r="F83" s="105">
+        <v>1.5481</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B84" s="63"/>
       <c r="C84" s="101"/>
@@ -5328,7 +5381,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B86" s="63"/>
       <c r="C86" s="101"/>
@@ -5350,25 +5403,45 @@
       <c r="A88" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="101"/>
-      <c r="D88" s="101"/>
+      <c r="B88" s="9">
+        <v>21.093800000000002</v>
+      </c>
+      <c r="C88" s="101">
+        <v>10.8035</v>
+      </c>
+      <c r="D88" s="101">
+        <v>-7.6268000000000002</v>
+      </c>
       <c r="E88" s="101"/>
-      <c r="F88" s="105"/>
+      <c r="F88" s="105">
+        <v>-27.412500000000001</v>
+      </c>
+      <c r="G88">
+        <f>12.0926365852355/200</f>
+        <v>6.04631829261775E-2</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="9"/>
-      <c r="C89" s="101"/>
-      <c r="D89" s="101"/>
+      <c r="B89" s="9">
+        <v>2.9011</v>
+      </c>
+      <c r="C89" s="101">
+        <v>8.9991000000000003</v>
+      </c>
+      <c r="D89" s="101">
+        <v>1.6476999999999999</v>
+      </c>
       <c r="E89" s="101"/>
-      <c r="F89" s="105"/>
+      <c r="F89" s="105">
+        <v>1.5172000000000001</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="101"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9323F5F9-A6EE-4B7A-88D9-C4ABC64013C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C89DB7E-8B65-40F6-82DE-D39C9AC87CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -542,9 +542,6 @@
     <t>2) Decimation (change data:6.7 mark red)</t>
   </si>
   <si>
-    <t>On our dataset: (On Welling's dataset: -15.346)</t>
-  </si>
-  <si>
     <t>ERTS J=5 std, optimized q [dB]</t>
   </si>
   <si>
@@ -587,12 +584,6 @@
     <t>h(x) returns spherical coordinates of x</t>
   </si>
   <si>
-    <t>Training time：</t>
-  </si>
-  <si>
-    <t>3) NL observation (change date 6.22)</t>
-  </si>
-  <si>
     <t>[0, 0]</t>
   </si>
   <si>
@@ -606,6 +597,12 @@
   </si>
   <si>
     <t>T=20, v = 0 dB</t>
+  </si>
+  <si>
+    <t>On our dataset: -8.47414493560791</t>
+  </si>
+  <si>
+    <t>3) NL observation (change date 6.23)</t>
   </si>
 </sst>
 </file>
@@ -4302,7 +4299,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4314,7 +4311,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -4334,28 +4331,28 @@
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="48" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="63">
         <v>10.016999999999999</v>
@@ -4782,7 +4779,7 @@
         <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
@@ -4823,7 +4820,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="19">
         <v>0.19120000000000001</v>
@@ -4891,7 +4888,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="19">
         <v>0.19500000000000001</v>
@@ -4959,7 +4956,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="19">
         <v>-2.3424</v>
@@ -4984,7 +4981,7 @@
         <v>119</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="19">
@@ -5003,10 +5000,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="19">
@@ -5029,19 +5026,17 @@
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="103" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="25"/>
       <c r="H53" s="19">
-        <f>122.040362358093/5</f>
-        <v>24.408072471618603</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>180</v>
-      </c>
+        <f>254.527338504791/10</f>
+        <v>25.452733850479099</v>
+      </c>
+      <c r="I53" s="19"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -5186,12 +5181,12 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -5199,7 +5194,7 @@
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -5210,24 +5205,24 @@
         <v>50</v>
       </c>
       <c r="C77" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="D77" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="E77" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="F77" s="48" t="s">
-        <v>185</v>
-      </c>
       <c r="G77" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" s="9">
         <v>6.5773000000000001</v>
@@ -5361,7 +5356,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B84" s="63"/>
       <c r="C84" s="101"/>
@@ -5381,7 +5376,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" s="63"/>
       <c r="C86" s="101"/>
@@ -5410,11 +5405,13 @@
         <v>10.8035</v>
       </c>
       <c r="D88" s="101">
-        <v>-7.6268000000000002</v>
-      </c>
-      <c r="E88" s="101"/>
+        <v>-8.0739999999999998</v>
+      </c>
+      <c r="E88" s="101">
+        <v>-17.941099999999999</v>
+      </c>
       <c r="F88" s="105">
-        <v>-27.412500000000001</v>
+        <v>-27.419599999999999</v>
       </c>
       <c r="G88">
         <f>12.0926365852355/200</f>
@@ -5432,16 +5429,18 @@
         <v>8.9991000000000003</v>
       </c>
       <c r="D89" s="101">
-        <v>1.6476999999999999</v>
-      </c>
-      <c r="E89" s="101"/>
+        <v>1.4996</v>
+      </c>
+      <c r="E89" s="101">
+        <v>1.7119</v>
+      </c>
       <c r="F89" s="105">
-        <v>1.5172000000000001</v>
+        <v>1.5708</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="101"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C89DB7E-8B65-40F6-82DE-D39C9AC87CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75806A9B-37ED-421B-A012-505CA8D55F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="187">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -602,7 +602,10 @@
     <t>On our dataset: -8.47414493560791</t>
   </si>
   <si>
-    <t>3) NL observation (change date 6.23)</t>
+    <t xml:space="preserve">RTSNet 2pass[dB] </t>
+  </si>
+  <si>
+    <t>3) NL observation (change date 6.29)</t>
   </si>
 </sst>
 </file>
@@ -4296,10 +4299,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5181,7 +5184,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -5440,30 +5443,58 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="101"/>
       <c r="D90" s="101"/>
       <c r="E90" s="101"/>
-      <c r="F90" s="105"/>
-    </row>
-    <row r="91" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="6" t="s">
+      <c r="F90" s="105">
+        <v>-27.6053</v>
+      </c>
+      <c r="G90">
+        <f>23.5590772628784/200</f>
+        <v>0.117795386314392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B91" s="31"/>
-      <c r="C91" s="107"/>
-      <c r="D91" s="107"/>
-      <c r="E91" s="107"/>
-      <c r="F91" s="106"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="101"/>
+      <c r="D91" s="101"/>
+      <c r="E91" s="101"/>
+      <c r="F91" s="105">
+        <v>1.5587</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
+      <c r="A92" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="101"/>
+      <c r="D92" s="101"/>
+      <c r="E92" s="101"/>
+      <c r="F92" s="105"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="31"/>
+      <c r="C93" s="107"/>
+      <c r="D93" s="107"/>
+      <c r="E93" s="107"/>
+      <c r="F93" s="106"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75806A9B-37ED-421B-A012-505CA8D55F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B774F64-EAFF-4761-9E40-F950369C215D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4302,7 +4302,7 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5450,7 +5450,7 @@
       <c r="D90" s="101"/>
       <c r="E90" s="101"/>
       <c r="F90" s="105">
-        <v>-27.6053</v>
+        <v>-27.630199999999999</v>
       </c>
       <c r="G90">
         <f>23.5590772628784/200</f>
@@ -5466,7 +5466,7 @@
       <c r="D91" s="101"/>
       <c r="E91" s="101"/>
       <c r="F91" s="105">
-        <v>1.5587</v>
+        <v>1.5582</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B774F64-EAFF-4761-9E40-F950369C215D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E28B2-5698-482B-A502-735DF950D365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="196">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -606,6 +606,33 @@
   </si>
   <si>
     <t>3) NL observation (change date 6.29)</t>
+  </si>
+  <si>
+    <t>LMMSE baseline</t>
+  </si>
+  <si>
+    <t>MSE(x_hat-x)</t>
+  </si>
+  <si>
+    <t>H = I [dB]</t>
+  </si>
+  <si>
+    <t>h = spherical [dB]</t>
+  </si>
+  <si>
+    <t>h(x)=sinx [dB]</t>
+  </si>
+  <si>
+    <t>(0 [linear])-inf</t>
+  </si>
+  <si>
+    <t>r=0 [linear]/-inf [dB]</t>
+  </si>
+  <si>
+    <t>r=1 [linear](0 [dB])</t>
+  </si>
+  <si>
+    <t>N_T = 100, m=n=3, T=500, q=0</t>
   </si>
 </sst>
 </file>
@@ -803,7 +830,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1031,6 +1058,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4299,16 +4332,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37.1796875" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1796875" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
     <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5496,6 +5530,60 @@
       <c r="D94" s="21"/>
       <c r="E94" s="21"/>
     </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B98" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B99" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="104">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B100" s="63">
+        <v>10.7</v>
+      </c>
+      <c r="C100" s="104">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B101" s="108">
+        <v>45.5</v>
+      </c>
+      <c r="C101" s="109">
+        <v>60.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351E28B2-5698-482B-A502-735DF950D365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA69B9B-5881-41DD-99A8-4AB6E5C7C084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="201">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -626,13 +626,28 @@
     <t>(0 [linear])-inf</t>
   </si>
   <si>
-    <t>r=0 [linear]/-inf [dB]</t>
-  </si>
-  <si>
-    <t>r=1 [linear](0 [dB])</t>
-  </si>
-  <si>
-    <t>N_T = 100, m=n=3, T=500, q=0</t>
+    <t xml:space="preserve">RTSNet full Composition Loss(alpha=0.5)[dB] </t>
+  </si>
+  <si>
+    <t>Composition Loss change to h(x)-h(x_hat)</t>
+  </si>
+  <si>
+    <t>converge to approx 22 then to NaN</t>
+  </si>
+  <si>
+    <t>r=-inf [dB]</t>
+  </si>
+  <si>
+    <t>r=0 [dB]</t>
+  </si>
+  <si>
+    <t>N_T = 100, m=n=3, T=500, q=-inf</t>
+  </si>
+  <si>
+    <t>Check Jacobian for linear H(not I)</t>
+  </si>
+  <si>
+    <t>prior: truex+q</t>
   </si>
 </sst>
 </file>
@@ -712,7 +727,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +749,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1064,6 +1097,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4332,10 +4404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4726,7 +4798,7 @@
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
     </row>
-    <row r="22" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="100" t="s">
         <v>161</v>
@@ -4735,7 +4807,7 @@
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="100" t="s">
         <v>163</v>
@@ -5258,22 +5330,22 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="115">
         <v>6.5773000000000001</v>
       </c>
-      <c r="C78" s="63">
+      <c r="C78" s="116">
         <v>-3.4483999999999999</v>
       </c>
-      <c r="D78" s="63">
+      <c r="D78" s="116">
         <v>-13.467700000000001</v>
       </c>
-      <c r="E78" s="63">
+      <c r="E78" s="116">
         <v>-23.496300000000002</v>
       </c>
-      <c r="F78" s="104">
+      <c r="F78" s="117">
         <v>-33.437199999999997</v>
       </c>
       <c r="G78" s="28">
@@ -5282,22 +5354,22 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="114" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="115">
         <v>0.76670000000000005</v>
       </c>
-      <c r="C79" s="63">
+      <c r="C79" s="116">
         <v>0.87109999999999999</v>
       </c>
-      <c r="D79" s="63">
+      <c r="D79" s="116">
         <v>0.85460000000000003</v>
       </c>
-      <c r="E79" s="63">
+      <c r="E79" s="116">
         <v>0.83240000000000003</v>
       </c>
-      <c r="F79" s="104">
+      <c r="F79" s="117">
         <v>0.88029999999999997</v>
       </c>
       <c r="G79" s="28"/>
@@ -5348,22 +5420,22 @@
       <c r="G81" s="28"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="110" t="s">
         <v>150</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="111">
         <v>24.7393</v>
       </c>
-      <c r="C82" s="101">
+      <c r="C82" s="112">
         <v>12.0449</v>
       </c>
-      <c r="D82" s="101">
+      <c r="D82" s="112">
         <v>-7.6127000000000002</v>
       </c>
-      <c r="E82" s="101">
+      <c r="E82" s="112">
         <v>-16.134399999999999</v>
       </c>
-      <c r="F82" s="105">
+      <c r="F82" s="113">
         <v>-28.211300000000001</v>
       </c>
       <c r="G82" s="28">
@@ -5372,22 +5444,22 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="111">
         <v>4.3129999999999997</v>
       </c>
-      <c r="C83" s="101">
+      <c r="C83" s="112">
         <v>8.2604000000000006</v>
       </c>
-      <c r="D83" s="101">
+      <c r="D83" s="112">
         <v>2.4744000000000002</v>
       </c>
-      <c r="E83" s="101">
+      <c r="E83" s="112">
         <v>5.1573000000000002</v>
       </c>
-      <c r="F83" s="105">
+      <c r="F83" s="113">
         <v>1.5481</v>
       </c>
     </row>
@@ -5432,22 +5504,22 @@
       <c r="F87" s="105"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="118">
         <v>21.093800000000002</v>
       </c>
-      <c r="C88" s="101">
+      <c r="C88" s="119">
         <v>10.8035</v>
       </c>
-      <c r="D88" s="101">
+      <c r="D88" s="119">
         <v>-8.0739999999999998</v>
       </c>
-      <c r="E88" s="101">
+      <c r="E88" s="119">
         <v>-17.941099999999999</v>
       </c>
-      <c r="F88" s="105">
+      <c r="F88" s="120">
         <v>-27.419599999999999</v>
       </c>
       <c r="G88">
@@ -5456,40 +5528,38 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="118">
         <v>2.9011</v>
       </c>
-      <c r="C89" s="101">
+      <c r="C89" s="119">
         <v>8.9991000000000003</v>
       </c>
-      <c r="D89" s="101">
+      <c r="D89" s="119">
         <v>1.4996</v>
       </c>
-      <c r="E89" s="101">
+      <c r="E89" s="119">
         <v>1.7119</v>
       </c>
-      <c r="F89" s="105">
+      <c r="F89" s="120">
         <v>1.5708</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B90" s="9"/>
+        <v>193</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>195</v>
+      </c>
       <c r="C90" s="101"/>
-      <c r="D90" s="101"/>
+      <c r="D90" s="101">
+        <v>-7.4996</v>
+      </c>
       <c r="E90" s="101"/>
-      <c r="F90" s="105">
-        <v>-27.630199999999999</v>
-      </c>
-      <c r="G90">
-        <f>23.5590772628784/200</f>
-        <v>0.117795386314392</v>
-      </c>
+      <c r="F90" s="105"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
@@ -5497,91 +5567,155 @@
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
+      <c r="D91" s="101">
+        <v>1.8466</v>
+      </c>
       <c r="E91" s="101"/>
-      <c r="F91" s="105">
-        <v>1.5582</v>
-      </c>
+      <c r="F91" s="105"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="101"/>
-      <c r="D92" s="101"/>
+      <c r="D92" s="101">
+        <v>-7.8452000000000002</v>
+      </c>
       <c r="E92" s="101"/>
       <c r="F92" s="105"/>
     </row>
-    <row r="93" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="5"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="105"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="121" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" s="122">
+        <v>20.151</v>
+      </c>
+      <c r="C94" s="123">
+        <v>6.1003999999999996</v>
+      </c>
+      <c r="D94" s="123"/>
+      <c r="E94" s="123"/>
+      <c r="F94" s="124">
+        <v>-27.630199999999999</v>
+      </c>
+      <c r="G94">
+        <f>23.5590772628784/200</f>
+        <v>0.117795386314392</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="B93" s="31"/>
-      <c r="C93" s="107"/>
-      <c r="D93" s="107"/>
-      <c r="E93" s="107"/>
-      <c r="F93" s="106"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="21"/>
+      <c r="B95" s="122">
+        <v>3.6435</v>
+      </c>
+      <c r="C95" s="123">
+        <v>6.6140999999999996</v>
+      </c>
+      <c r="D95" s="123"/>
+      <c r="E95" s="123"/>
+      <c r="F95" s="124">
+        <v>1.5582</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="101"/>
+      <c r="D96" s="101"/>
+      <c r="E96" s="101"/>
+      <c r="F96" s="105"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="31"/>
+      <c r="C97" s="107"/>
+      <c r="D97" s="107"/>
+      <c r="E97" s="107"/>
+      <c r="F97" s="106"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="14" t="s">
+    <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B98" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="48" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
+      <c r="B102" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B99" s="63" t="s">
+      <c r="B103" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="C99" s="104">
+      <c r="C103" s="104">
         <v>-1.1000000000000001E-3</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
+      <c r="D103" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B100" s="63">
+      <c r="B104" s="63">
         <v>10.7</v>
       </c>
-      <c r="C100" s="104">
+      <c r="C104" s="104">
         <v>11.33</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="6" t="s">
+    <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B101" s="108">
+      <c r="B105" s="108">
         <v>45.5</v>
       </c>
-      <c r="C101" s="109">
+      <c r="C105" s="109">
         <v>60.37</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA69B9B-5881-41DD-99A8-4AB6E5C7C084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338902AB-0A30-4EC3-AAB9-2CA09808BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="208">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -309,9 +309,6 @@
     <t>RTSNet partial(F = I) (n_Epochs=2000, n_Batch=1, learningRate=1E-3, weightDecay=1E-9)[dB]</t>
   </si>
   <si>
-    <t xml:space="preserve">2) Gneralization </t>
-  </si>
-  <si>
     <t>Generalization to Random initial conditions(x1 and x2 both uniformly distributed on [0,100) )</t>
   </si>
   <si>
@@ -502,9 +499,6 @@
   </si>
   <si>
     <t>concat RTS(using the -8.1674 as input) [dB]</t>
-  </si>
-  <si>
-    <t>H = H_rot1</t>
   </si>
   <si>
     <t>EKF  partial(H=I) [dB]</t>
@@ -644,10 +638,37 @@
     <t>N_T = 100, m=n=3, T=500, q=-inf</t>
   </si>
   <si>
-    <t>Check Jacobian for linear H(not I)</t>
-  </si>
-  <si>
     <t>prior: truex+q</t>
+  </si>
+  <si>
+    <t>Check Jacobian for linear H(not I): Good</t>
+  </si>
+  <si>
+    <t>H = I_rot1</t>
+  </si>
+  <si>
+    <t>N_T = 200, m=n=3, T=100 (same dataset as 1) obs mismatch and 3) NL obs )</t>
+  </si>
+  <si>
+    <t>Linear H = I_rot1 [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r,q =[0,0] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">r,q =[0,20] </t>
+  </si>
+  <si>
+    <t>h^-1 method</t>
+  </si>
+  <si>
+    <t>2) Gneralization (change date 7.7)</t>
+  </si>
+  <si>
+    <t>Vanilla [dB]</t>
+  </si>
+  <si>
+    <t>Hybrid [dB]</t>
   </si>
 </sst>
 </file>
@@ -727,7 +748,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +788,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +896,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1137,6 +1170,16 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1417,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K191"/>
+  <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1511,7 +1554,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="9">
         <v>8.0853999999999999</v>
@@ -1713,7 +1756,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="9">
         <v>5.2991000000000001</v>
@@ -1914,7 +1957,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="9">
         <v>2.7555999999999998</v>
@@ -2067,8 +2110,8 @@
       <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="62" t="s">
-        <v>90</v>
+      <c r="A37" s="128" t="s">
+        <v>205</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -2116,7 +2159,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18">
@@ -2189,2211 +2232,2255 @@
         <v>1.4883784604072552</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="13" t="s">
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="11"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+      <c r="A47" s="129" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="130"/>
+      <c r="C47" s="130"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="131"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="A48" s="129" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="130"/>
+      <c r="C48" s="130"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="131"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="129" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="131"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="132" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="134"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
-        <v>146</v>
-      </c>
+      <c r="A51" s="18"/>
       <c r="B51" s="18"/>
-      <c r="C51" s="18">
-        <v>-7.2404999999999999</v>
-      </c>
+      <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="18"/>
-      <c r="G51" s="8">
-        <f>9.09574961662292/200</f>
-        <v>4.5478748083114598E-2</v>
-      </c>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
-        <v>77</v>
+      <c r="A52" s="17" t="s">
+        <v>80</v>
       </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="18">
-        <v>0.54310000000000003</v>
-      </c>
+      <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
-        <v>7</v>
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="B53" s="18"/>
-      <c r="C53" s="18">
-        <v>-11.852600000000001</v>
-      </c>
+      <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
-      <c r="G53" s="8">
-        <f>19.0591733455657/200</f>
-        <v>9.5295866727828499E-2</v>
-      </c>
+      <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18">
-        <v>0.68740000000000001</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="8"/>
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="B55" s="18"/>
       <c r="C55" s="18">
-        <v>-11.773</v>
+        <v>-7.2404999999999999</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
       <c r="G55" s="8">
-        <f>221.406227111816/200</f>
-        <v>1.1070311355590801</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10">
-        <v>0.68469999999999998</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="11"/>
+        <f>9.09574961662292/200</f>
+        <v>4.5478748083114598E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18">
+        <v>0.54310000000000003</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="18"/>
+      <c r="A57" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+      <c r="C57" s="18">
+        <v>-11.852600000000001</v>
+      </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
+      <c r="G57" s="8">
+        <f>19.0591733455657/200</f>
+        <v>9.5295866727828499E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="17" t="s">
-        <v>91</v>
+      <c r="A58" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
+      <c r="C58" s="18">
+        <v>0.68740000000000001</v>
+      </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="18" t="s">
-        <v>36</v>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
+      <c r="C59" s="18">
+        <v>-11.773</v>
+      </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
       <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+      <c r="G59" s="8">
+        <f>221.406227111816/200</f>
+        <v>1.1070311355590801</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10">
+        <v>0.68469999999999998</v>
+      </c>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="22" t="s">
+      <c r="B64" s="20"/>
+      <c r="C64" s="22" t="s">
         <v>3</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="G60" s="47">
-        <v>30.081099999999999</v>
-      </c>
-      <c r="H60" s="36"/>
-      <c r="I60" s="33"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="52">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="8">
-        <v>26.237500000000001</v>
-      </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="33"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="52">
-        <v>0.3891</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="33"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="30">
-        <v>-7.2916999999999996</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" s="8">
-        <v>-6.7626999999999997</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="33"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="30">
-        <v>0.90980000000000005</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="35"/>
-      <c r="F64" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" s="8">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="H64" s="9"/>
+      <c r="F64" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="47">
+        <v>30.081099999999999</v>
+      </c>
+      <c r="H64" s="36"/>
       <c r="I64" s="33"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
-        <v>74</v>
+      <c r="A65" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="18"/>
-      <c r="C65" s="30">
-        <v>-11.7737</v>
+      <c r="C65" s="52">
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="35"/>
       <c r="F65" s="12" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="G65" s="8">
-        <v>-11.523199999999999</v>
-      </c>
-      <c r="H65" s="9"/>
+        <v>26.237500000000001</v>
+      </c>
+      <c r="H65" s="36"/>
       <c r="I65" s="33"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
-        <v>53</v>
+      <c r="A66" s="51" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="18"/>
-      <c r="C66" s="30">
-        <v>1.2115</v>
+      <c r="C66" s="52">
+        <v>0.3891</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="35"/>
-      <c r="F66" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G66" s="8">
-        <v>1.1852</v>
-      </c>
-      <c r="H66" s="9"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="60"/>
+      <c r="H66" s="36"/>
       <c r="I66" s="33"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="54">
-        <v>-11.471500000000001</v>
+      <c r="A67" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="30">
+        <v>-7.2916999999999996</v>
       </c>
       <c r="D67" s="18"/>
-      <c r="E67" s="33"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G67" s="8">
-        <v>9.0884</v>
-      </c>
-      <c r="H67" s="35"/>
+        <v>-6.7626999999999997</v>
+      </c>
+      <c r="H67" s="9"/>
       <c r="I67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="54">
-        <v>1.2063999999999999</v>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="18"/>
+      <c r="C68" s="30">
+        <v>0.90980000000000005</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="35"/>
-      <c r="F68" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G68" s="11">
-        <v>2.7212000000000001</v>
-      </c>
-      <c r="H68" s="35"/>
+      <c r="F68" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="8">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="H68" s="9"/>
       <c r="I68" s="33"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="55">
-        <v>-11.5383</v>
+      <c r="A69" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="30">
+        <v>-11.7737</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+      <c r="F69" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G69" s="8">
+        <v>-11.523199999999999</v>
+      </c>
+      <c r="H69" s="9"/>
       <c r="I69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="56" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="30">
+        <v>1.2115</v>
+      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G70" s="8">
+        <v>1.1852</v>
+      </c>
+      <c r="H70" s="9"/>
+      <c r="I70" s="33"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="54">
+        <v>-11.471500000000001</v>
+      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="8">
+        <v>9.0884</v>
+      </c>
+      <c r="H71" s="35"/>
+      <c r="I71" s="33"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="35"/>
+      <c r="C72" s="54">
+        <v>1.2063999999999999</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="58">
+      <c r="G72" s="11">
+        <v>2.7212000000000001</v>
+      </c>
+      <c r="H72" s="35"/>
+      <c r="I72" s="33"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="35"/>
+      <c r="C73" s="55">
+        <v>-11.5383</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="33"/>
+    </row>
+    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="57"/>
+      <c r="C74" s="58">
         <v>1.1716</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="19" t="s">
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" s="28"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="28"/>
+    </row>
+    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="F79" s="28"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="72"/>
+      <c r="B80" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="28"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="28"/>
-    </row>
-    <row r="75" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="1"/>
-      <c r="F75" s="28"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="72"/>
-      <c r="B76" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="20" t="s">
+      <c r="H80" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D76" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F76" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="G76" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="H76" s="73" t="s">
+      <c r="I80" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="I76" s="74" t="s">
-        <v>102</v>
-      </c>
-      <c r="J76" s="73" t="s">
+      <c r="J80" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="K80" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="K76" s="75" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="9">
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="9">
         <v>-7.7907000000000002</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C81" s="9">
         <f>0.38149070739746/200</f>
         <v>1.9074535369873E-3</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D81" s="9">
         <v>-10.930999999999999</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E81" s="9">
         <f>0.393565416336059/200</f>
         <v>1.967827081680295E-3</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F81" s="9">
         <v>-11.0616</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G81" s="9">
         <f>1.41515588760375/200</f>
         <v>7.0757794380187497E-3</v>
       </c>
-      <c r="H77" s="9">
+      <c r="H81" s="9">
         <v>-11.5398</v>
       </c>
-      <c r="I77" s="9">
+      <c r="I81" s="9">
         <f>1.7515857219696/200</f>
         <v>8.7579286098480001E-3</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J81" s="9">
         <v>-11.533899999999999</v>
       </c>
-      <c r="K77" s="30">
+      <c r="K81" s="30">
         <f>1.83847570419311/200</f>
         <v>9.1923785209655495E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B82" s="9">
         <v>2.2039</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9">
+      <c r="C82" s="9"/>
+      <c r="D82" s="9">
         <v>1.4112</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9">
+      <c r="E82" s="9"/>
+      <c r="F82" s="9">
         <v>0.95120000000000005</v>
       </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9">
+      <c r="G82" s="9"/>
+      <c r="H82" s="9">
         <v>0.77070000000000005</v>
       </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9">
+      <c r="I82" s="9"/>
+      <c r="J82" s="9">
         <v>0.59950000000000003</v>
       </c>
-      <c r="K78" s="30"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
+      <c r="K82" s="30"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B83" s="9">
         <v>-11.7315</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C83" s="9">
         <f>0.743644952774047/200</f>
         <v>3.7182247638702349E-3</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D83" s="9">
         <v>-12.350300000000001</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E83" s="9">
         <f>0.808241128921508/200</f>
         <v>4.0412056446075401E-3</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F83" s="9">
         <v>-12.4358</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G83" s="9">
         <f xml:space="preserve"> 2.81512689590454/200</f>
         <v>1.4075634479522701E-2</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H83" s="9">
         <v>-12.7623</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I83" s="9">
         <f>3.38718914985656/200</f>
         <v>1.69359457492828E-2</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J83" s="9">
         <v>-12.7544</v>
       </c>
-      <c r="K79" s="30">
+      <c r="K83" s="30">
         <f>3.5751347541809/200</f>
         <v>1.7875673770904502E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="12" t="s">
+    <row r="84" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B84" s="9">
         <v>2.4887999999999999</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9">
+      <c r="C84" s="9"/>
+      <c r="D84" s="9">
         <v>1.5609</v>
       </c>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9">
+      <c r="E84" s="9"/>
+      <c r="F84" s="9">
         <v>1.0578000000000001</v>
       </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9">
+      <c r="G84" s="9"/>
+      <c r="H84" s="9">
         <v>0.8075</v>
       </c>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9">
+      <c r="I84" s="9"/>
+      <c r="J84" s="9">
         <v>0.63580000000000003</v>
       </c>
-      <c r="K80" s="30"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B81" s="9">
+      <c r="K84" s="30"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="9">
         <v>-11.2082</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C85" s="9">
         <f>8.5537621974945/200</f>
         <v>4.2768810987472497E-2</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="9">
+      <c r="D85" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E85" s="9">
         <f>8.43400382995605/200</f>
         <v>4.2170019149780247E-2</v>
       </c>
-      <c r="F81" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G81" s="9">
+      <c r="F85" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G85" s="9">
         <f>10.424521446228/200</f>
         <v>5.2122607231140004E-2</v>
       </c>
-      <c r="H81" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="I81" s="9">
+      <c r="H85" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="I85" s="9">
         <f>13.5266025066375/200</f>
         <v>6.76330125331875E-2</v>
       </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="30"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
+      <c r="J85" s="9"/>
+      <c r="K85" s="30"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B86" s="9">
         <v>2.4382999999999999</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="76">
+      <c r="C86" s="9"/>
+      <c r="D86" s="76">
         <v>1.5407</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9">
+      <c r="E86" s="9"/>
+      <c r="F86" s="9">
         <v>1.0585</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="50">
+      <c r="G86" s="9"/>
+      <c r="H86" s="50">
         <v>0.79690000000000005</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="8"/>
-    </row>
-    <row r="83" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="E83" s="78">
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="78"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" s="78">
         <f>8.48960757255554/200</f>
         <v>4.2448037862777704E-2</v>
       </c>
-      <c r="F83" s="78" t="s">
-        <v>106</v>
-      </c>
-      <c r="G83" s="78">
+      <c r="F87" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" s="78">
         <f>9.56008505821228/200</f>
         <v>4.7800425291061405E-2</v>
       </c>
-      <c r="H83" s="79" t="s">
-        <v>104</v>
-      </c>
-      <c r="I83" s="78">
+      <c r="H87" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="I87" s="78">
         <f>11.0999789237976/200</f>
         <v>5.5499894618988001E-2</v>
       </c>
-      <c r="J83" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="K83" s="80">
+      <c r="J87" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="K87" s="80">
         <f>12.9774138927459/200</f>
         <v>6.4887069463729505E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="81" t="s">
+    <row r="88" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B84" s="82"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="83">
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="83">
         <v>1.597</v>
       </c>
-      <c r="E84" s="82"/>
-      <c r="F84" s="83">
+      <c r="E88" s="82"/>
+      <c r="F88" s="83">
         <v>1.0552999999999999</v>
       </c>
-      <c r="G84" s="82"/>
-      <c r="H84" s="83">
+      <c r="G88" s="82"/>
+      <c r="H88" s="83">
         <v>0.82789999999999997</v>
       </c>
-      <c r="I84" s="82"/>
-      <c r="J84" s="83">
+      <c r="I88" s="82"/>
+      <c r="J88" s="83">
         <v>0.61240000000000006</v>
       </c>
-      <c r="K84" s="84"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="33"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="64"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="64"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="72"/>
-      <c r="B87" s="73" t="s">
+      <c r="K88" s="84"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="33"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="64"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="64"/>
+      <c r="G89" s="21"/>
+      <c r="H89" s="64"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="64"/>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="28"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
+      <c r="J90" s="28"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A91" s="72"/>
+      <c r="B91" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C91" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="D91" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F91" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="G91" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="H91" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="D87" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="F87" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="G87" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="H87" s="73" t="s">
+      <c r="I91" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="I87" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="J87" s="85"/>
-      <c r="K87" s="33"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B88" s="86">
+      <c r="J91" s="85"/>
+      <c r="K91" s="33"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B92" s="86">
         <v>-7.2732999999999999</v>
       </c>
-      <c r="C88" s="86">
+      <c r="C92" s="86">
         <f>3.30510807037353/200</f>
         <v>1.6525540351867648E-2</v>
       </c>
-      <c r="D88" s="86">
+      <c r="D92" s="86">
         <v>-9.4646000000000008</v>
       </c>
-      <c r="E88" s="86">
+      <c r="E92" s="86">
         <f>3.73610782623291/200</f>
         <v>1.8680539131164551E-2</v>
       </c>
-      <c r="F88" s="86">
+      <c r="F92" s="86">
         <v>-9.5103000000000009</v>
       </c>
-      <c r="G88" s="86">
+      <c r="G92" s="86">
         <f>3.9412202835083/200</f>
         <v>1.9706101417541498E-2</v>
       </c>
-      <c r="H88" s="86">
+      <c r="H92" s="86">
         <v>-9.6827000000000005</v>
       </c>
-      <c r="I88" s="87">
+      <c r="I92" s="87">
         <f>4.63441228866577/200</f>
         <v>2.317206144332885E-2</v>
       </c>
-      <c r="J88" s="9"/>
-      <c r="K88" s="63"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
+      <c r="J92" s="9"/>
+      <c r="K92" s="63"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B89" s="86">
+      <c r="B93" s="86">
         <v>0.66759999999999997</v>
       </c>
-      <c r="C89" s="86"/>
-      <c r="D89" s="86">
+      <c r="C93" s="86"/>
+      <c r="D93" s="86">
         <v>0.6905</v>
       </c>
-      <c r="E89" s="86"/>
-      <c r="F89" s="86">
+      <c r="E93" s="86"/>
+      <c r="F93" s="86">
         <v>0.68589999999999995</v>
       </c>
-      <c r="G89" s="86"/>
-      <c r="H89" s="86">
+      <c r="G93" s="86"/>
+      <c r="H93" s="86">
         <v>0.49120000000000003</v>
       </c>
-      <c r="I89" s="87"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="63"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
+      <c r="I93" s="87"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="63"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="86">
+      <c r="B94" s="86">
         <v>-11.763400000000001</v>
       </c>
-      <c r="C90" s="86">
+      <c r="C94" s="86">
         <f>6.93132138252258/200</f>
         <v>3.4656606912612901E-2</v>
       </c>
-      <c r="D90" s="86">
+      <c r="D94" s="86">
         <v>-12.1273</v>
       </c>
-      <c r="E90" s="86">
+      <c r="E94" s="86">
         <f>8.01621603965759/200</f>
         <v>4.0081080198287947E-2</v>
       </c>
-      <c r="F90" s="86">
+      <c r="F94" s="86">
         <v>-12.002599999999999</v>
       </c>
-      <c r="G90" s="86">
+      <c r="G94" s="86">
         <f>8.17840385437011/200</f>
         <v>4.0892019271850551E-2</v>
       </c>
-      <c r="H90" s="86">
+      <c r="H94" s="86">
         <v>-12.107100000000001</v>
       </c>
-      <c r="I90" s="87">
+      <c r="I94" s="87">
         <f>9.89218688011169/200</f>
         <v>4.9460934400558453E-2</v>
       </c>
-      <c r="J90" s="9"/>
-      <c r="K90" s="63"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="12" t="s">
+      <c r="J94" s="9"/>
+      <c r="K94" s="63"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B91" s="86">
+      <c r="B95" s="86">
         <v>0.9052</v>
       </c>
-      <c r="C91" s="86"/>
-      <c r="D91" s="86">
+      <c r="C95" s="86"/>
+      <c r="D95" s="86">
         <v>0.71509999999999996</v>
       </c>
-      <c r="E91" s="86"/>
-      <c r="F91" s="86">
+      <c r="E95" s="86"/>
+      <c r="F95" s="86">
         <v>0.66969999999999996</v>
       </c>
-      <c r="G91" s="86"/>
-      <c r="H91" s="86">
+      <c r="G95" s="86"/>
+      <c r="H95" s="86">
         <v>0.52600000000000002</v>
       </c>
-      <c r="I91" s="87"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="63"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="12" t="s">
+      <c r="I95" s="87"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="63"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B92" s="86">
+      <c r="B96" s="86">
         <v>-11.6623</v>
       </c>
-      <c r="C92" s="86">
+      <c r="C96" s="86">
         <f>80.5346596240997/200</f>
         <v>0.40267329812049851</v>
       </c>
-      <c r="D92" s="86">
+      <c r="D96" s="86">
         <v>-11.852600000000001</v>
       </c>
-      <c r="E92" s="86">
+      <c r="E96" s="86">
         <f>85.9917159080505/200</f>
         <v>0.42995857954025246</v>
       </c>
-      <c r="F92" s="86">
+      <c r="F96" s="86">
         <v>-11.3972</v>
       </c>
-      <c r="G92" s="86">
+      <c r="G96" s="86">
         <f xml:space="preserve"> 102.554239511489/200</f>
         <v>0.51277119755744505</v>
       </c>
-      <c r="H92" s="86">
+      <c r="H96" s="86">
         <v>-10.0825</v>
       </c>
-      <c r="I92" s="87">
+      <c r="I96" s="87">
         <f xml:space="preserve"> 135.115339517593/200</f>
         <v>0.6755766975879649</v>
       </c>
-      <c r="J92" s="9"/>
-      <c r="K92" s="63"/>
-    </row>
-    <row r="93" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="13" t="s">
+      <c r="J96" s="9"/>
+      <c r="K96" s="63"/>
+    </row>
+    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B93" s="88">
+      <c r="B97" s="88">
         <v>0.89839999999999998</v>
       </c>
-      <c r="C93" s="88"/>
-      <c r="D93" s="89">
+      <c r="C97" s="88"/>
+      <c r="D97" s="89">
         <v>0.70909999999999995</v>
       </c>
-      <c r="E93" s="88"/>
-      <c r="F93" s="88">
+      <c r="E97" s="88"/>
+      <c r="F97" s="88">
         <v>0.80679999999999996</v>
       </c>
-      <c r="G93" s="88"/>
-      <c r="H93" s="88">
+      <c r="G97" s="88"/>
+      <c r="H97" s="88">
         <v>1.3221000000000001</v>
       </c>
-      <c r="I93" s="90"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="21"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="28" t="s">
+      <c r="I97" s="90"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28"/>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28"/>
+      <c r="F98" s="28"/>
+      <c r="G98" s="28"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
+      <c r="J98" s="28"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A99" s="28"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="14" t="s">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B102" s="37" t="s">
+      <c r="B106" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C102" s="37" t="s">
+      <c r="C106" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D102" s="37" t="s">
+      <c r="D106" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E102" s="37" t="s">
+      <c r="E106" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="37" t="s">
+      <c r="F106" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G102" s="48" t="s">
+      <c r="G106" s="48" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B103" s="9">
+      <c r="B107" s="9">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C107" s="9">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D107" s="9">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E107" s="9">
         <v>-27.2926</v>
       </c>
-      <c r="F103" s="9">
+      <c r="F107" s="9">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G103" s="30">
+      <c r="G107" s="30">
         <f>1.87291026115417/200</f>
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B108" s="9">
         <v>0.88500000000000001</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C108" s="9">
         <v>0.90100000000000002</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D108" s="9">
         <v>0.95669999999999999</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E108" s="9">
         <v>0.96560000000000001</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F108" s="9">
         <v>1.0293000000000001</v>
       </c>
-      <c r="G104" s="49"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="5"/>
-      <c r="B105" s="50"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="49"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
+      <c r="G108" s="49"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A109" s="5"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="49"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B106" s="9">
+      <c r="B110" s="9">
         <v>11.153700000000001</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C110" s="9">
         <v>0.92630000000000001</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D110" s="9">
         <v>-9.1595999999999993</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E110" s="9">
         <v>-18.4282</v>
       </c>
-      <c r="F106" s="9">
+      <c r="F110" s="9">
         <v>-28.785699999999999</v>
       </c>
-      <c r="G106" s="30">
+      <c r="G110" s="30">
         <f>1.73989057540893/200</f>
         <v>8.6994528770446503E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B111" s="9">
         <v>3.0234000000000001</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C111" s="9">
         <v>3.0640999999999998</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D111" s="9">
         <v>3.6509</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E111" s="9">
         <v>3.2534000000000001</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F111" s="9">
         <v>3.3008000000000002</v>
       </c>
-      <c r="G107" s="49"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="5"/>
-      <c r="B108" s="50"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="49"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
+      <c r="G111" s="49"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A112" s="5"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="49"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B109" s="9">
+      <c r="B113" s="9">
         <v>-1.8754</v>
       </c>
-      <c r="C109" s="9">
+      <c r="C113" s="9">
         <v>-11.879799999999999</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D113" s="9">
         <v>-21.812200000000001</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E113" s="9">
         <v>-31.9605</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F113" s="9">
         <v>-41.809899999999999</v>
       </c>
-      <c r="G109" s="30">
+      <c r="G113" s="30">
         <f>3.64388179779052/200</f>
         <v>1.82194089889526E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B110" s="9">
+      <c r="B114" s="9">
         <v>1.2853000000000001</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C114" s="9">
         <v>1.2719</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D114" s="9">
         <v>1.1487000000000001</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E114" s="9">
         <v>1.2646999999999999</v>
       </c>
-      <c r="F110" s="9">
+      <c r="F114" s="9">
         <v>1.1558999999999999</v>
       </c>
-      <c r="G110" s="30"/>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="5"/>
-      <c r="B111" s="50"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="30"/>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
+      <c r="G114" s="30"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="5"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="30"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B116" s="9">
         <v>5.5016999999999996</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C116" s="9">
         <v>-4.8254000000000001</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D116" s="9">
         <v>-15.061500000000001</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E116" s="9">
         <v>-24.198</v>
       </c>
-      <c r="F112" s="9">
+      <c r="F116" s="9">
         <v>-34.591799999999999</v>
       </c>
-      <c r="G112" s="30">
+      <c r="G116" s="30">
         <f>3.63707900047302/200</f>
         <v>1.8185395002365098E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B117" s="9">
         <v>2.9416000000000002</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C117" s="9">
         <v>3.2046000000000001</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D117" s="9">
         <v>3.4399000000000002</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E117" s="9">
         <v>3.1190000000000002</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F117" s="9">
         <v>3.133</v>
       </c>
-      <c r="G113" s="49"/>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="5"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="49"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
+      <c r="G117" s="49"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="5"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="50"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="50"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="49"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B119" s="9">
         <f>-1.7902</f>
         <v>-1.7902</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C119" s="9">
         <v>-11.8467</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D119" s="9">
         <v>-21.738299999999999</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E119" s="9">
         <v>-31.619900000000001</v>
       </c>
-      <c r="F115" s="9">
+      <c r="F119" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G115" s="30">
+      <c r="G119" s="30">
         <f>43.5942468643188/200</f>
         <v>0.21797123432159399</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B120" s="9">
         <v>1.2419</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C120" s="9">
         <v>1.1898</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D120" s="9">
         <v>1.2814000000000001</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E120" s="9">
         <v>1.1073</v>
       </c>
-      <c r="F116" s="26">
+      <c r="F120" s="26">
         <v>1.2888999999999999</v>
       </c>
-      <c r="G116" s="30"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="5"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="30"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
+      <c r="G120" s="30"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" s="5"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="30"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B118" s="9">
+      <c r="B122" s="9">
         <v>-0.77390000000000003</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C122" s="9">
         <v>-10.8522</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D122" s="9">
         <v>-21.103899999999999</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E122" s="9">
         <v>-29.667200000000001</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F122" s="9">
         <v>-38.0655</v>
       </c>
-      <c r="G118" s="30"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
+      <c r="G122" s="30"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B119" s="9">
+      <c r="B123" s="9">
         <v>1.2433000000000001</v>
       </c>
-      <c r="C119" s="9">
+      <c r="C123" s="9">
         <v>1.1579999999999999</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D123" s="9">
         <v>1.2155</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E123" s="9">
         <v>1.2145999999999999</v>
       </c>
-      <c r="F119" s="9">
+      <c r="F123" s="9">
         <v>1.1361000000000001</v>
       </c>
-      <c r="G119" s="30"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="5"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="30"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
+      <c r="G123" s="30"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" s="5"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="30"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B121" s="9">
+      <c r="B125" s="9">
         <v>-1.7432000000000001</v>
       </c>
-      <c r="C121" s="9">
+      <c r="C125" s="9">
         <v>-11.6966</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D125" s="9">
         <v>-21.720500000000001</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E125" s="9">
         <v>-31.185500000000001</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F125" s="9">
         <v>-40.300899999999999</v>
       </c>
-      <c r="G121" s="30"/>
-    </row>
-    <row r="122" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="6" t="s">
+      <c r="G125" s="30"/>
+    </row>
+    <row r="126" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B122" s="31">
+      <c r="B126" s="31">
         <v>1.2693000000000001</v>
       </c>
-      <c r="C122" s="31">
+      <c r="C126" s="31">
         <v>1.2414000000000001</v>
       </c>
-      <c r="D122" s="31">
+      <c r="D126" s="31">
         <v>1.1528</v>
       </c>
-      <c r="E122" s="31">
+      <c r="E126" s="31">
         <v>1.2195</v>
       </c>
-      <c r="F122" s="31">
+      <c r="F126" s="31">
         <v>1.1687000000000001</v>
       </c>
-      <c r="G122" s="32"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="21"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
-      <c r="G123" s="17"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="33"/>
-      <c r="B124" s="33" t="s">
+      <c r="G126" s="32"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="21"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="33"/>
+      <c r="B128" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="21"/>
-      <c r="B125" s="18" t="s">
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="21"/>
+      <c r="B129" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="18"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
-      <c r="G125" s="17"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C128" s="19"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="C129" s="18"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C132" s="19"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
+    <row r="134" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="14" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="37" t="s">
+      <c r="B135" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="37" t="s">
+      <c r="C135" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D131" s="37" t="s">
+      <c r="D135" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E131" s="37" t="s">
+      <c r="E135" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="F131" s="37" t="s">
+      <c r="F135" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G131" s="48" t="s">
+      <c r="G135" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B136" s="9">
         <v>3.4502999999999999</v>
       </c>
-      <c r="C132" s="9">
+      <c r="C136" s="9">
         <v>-6.5942999999999996</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D136" s="9">
         <v>-16.561499999999999</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E136" s="9">
         <v>-26.6008</v>
       </c>
-      <c r="F132" s="9">
+      <c r="F136" s="9">
         <v>-36.565199999999997</v>
       </c>
-      <c r="G132" s="30">
+      <c r="G136" s="30">
         <f>1.81720042228698/1000</f>
         <v>1.8172004222869801E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B137" s="9">
         <v>1.8456999999999999</v>
       </c>
-      <c r="C133" s="9">
+      <c r="C137" s="9">
         <v>1.8831</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D137" s="9">
         <v>1.8754999999999999</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E137" s="9">
         <v>1.9067000000000001</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F137" s="9">
         <v>1.8309</v>
       </c>
-      <c r="G133" s="49"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="5"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="49"/>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="5" t="s">
+      <c r="G137" s="49"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A138" s="5"/>
+      <c r="B138" s="50"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="49"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B139" s="9">
         <v>33.961399999999998</v>
       </c>
-      <c r="C135" s="9">
+      <c r="C139" s="9">
         <v>23.832799999999999</v>
       </c>
-      <c r="D135" s="9">
+      <c r="D139" s="9">
         <v>13.8483</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E139" s="9">
         <v>4.1989999999999998</v>
       </c>
-      <c r="F135" s="9">
+      <c r="F139" s="9">
         <v>-6.4336000000000002</v>
       </c>
-      <c r="G135" s="30"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
+      <c r="G139" s="30"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B140" s="9">
         <v>3.9329999999999998</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C140" s="9">
         <v>3.8573</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D140" s="9">
         <v>3.6829000000000001</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E140" s="9">
         <v>3.8494999999999999</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F140" s="9">
         <v>3.8119000000000001</v>
       </c>
-      <c r="G136" s="49"/>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="5"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="49"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
+      <c r="G140" s="49"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="5"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="49"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B142" s="9">
         <v>-3.8433999999999999</v>
       </c>
-      <c r="C138" s="9">
+      <c r="C142" s="9">
         <v>-13.9133</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D142" s="9">
         <v>-23.5916</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E142" s="9">
         <v>-33.8613</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F142" s="9">
         <v>-43.593000000000004</v>
       </c>
-      <c r="G138" s="30">
+      <c r="G142" s="30">
         <f>3.73042225837707/1000</f>
         <v>3.7304222583770699E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B143" s="9">
         <v>2.6547999999999998</v>
       </c>
-      <c r="C139" s="9">
+      <c r="C143" s="9">
         <v>2.7086999999999999</v>
       </c>
-      <c r="D139" s="9">
+      <c r="D143" s="9">
         <v>2.7507000000000001</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E143" s="9">
         <v>2.7532999999999999</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F143" s="9">
         <v>2.7458</v>
       </c>
-      <c r="G139" s="30"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="5"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="30"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
+      <c r="G143" s="30"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="5"/>
+      <c r="B144" s="50"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="30"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B145" s="9">
         <v>32.962600000000002</v>
       </c>
-      <c r="C141" s="9">
+      <c r="C145" s="9">
         <v>22.838000000000001</v>
       </c>
-      <c r="D141" s="9">
+      <c r="D145" s="9">
         <v>12.853400000000001</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E145" s="9">
         <v>3.2014</v>
       </c>
-      <c r="F141" s="9">
+      <c r="F145" s="9">
         <v>-7.4305000000000003</v>
       </c>
-      <c r="G141" s="30"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
+      <c r="G145" s="30"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A146" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B146" s="9">
         <v>3.9333999999999998</v>
       </c>
-      <c r="C142" s="9">
+      <c r="C146" s="9">
         <v>3.859</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D146" s="9">
         <v>3.6848999999999998</v>
       </c>
-      <c r="E142" s="9">
+      <c r="E146" s="9">
         <v>3.851</v>
       </c>
-      <c r="F142" s="9">
+      <c r="F146" s="9">
         <v>3.8092000000000001</v>
       </c>
-      <c r="G142" s="49"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="5"/>
-      <c r="B143" s="50"/>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="49"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="5" t="s">
+      <c r="G146" s="49"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="5"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="49"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B148" s="9">
         <v>-3.3506</v>
       </c>
-      <c r="C144" s="9">
+      <c r="C148" s="9">
         <v>-13.5854</v>
       </c>
-      <c r="D144" s="9">
+      <c r="D148" s="9">
         <v>-23.3325</v>
       </c>
-      <c r="E144" s="9">
+      <c r="E148" s="9">
         <v>-33.126199999999997</v>
       </c>
-      <c r="F144" s="9">
+      <c r="F148" s="9">
         <v>-43.1599</v>
       </c>
-      <c r="G144" s="30">
+      <c r="G148" s="30">
         <f>44.6756930351257/1000</f>
         <v>4.4675693035125696E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="5" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B149" s="9">
         <v>2.6993</v>
       </c>
-      <c r="C145" s="9">
+      <c r="C149" s="9">
         <v>2.6728000000000001</v>
       </c>
-      <c r="D145" s="9">
+      <c r="D149" s="9">
         <v>2.6707000000000001</v>
       </c>
-      <c r="E145" s="9">
+      <c r="E149" s="9">
         <v>2.6284000000000001</v>
       </c>
-      <c r="F145" s="9">
+      <c r="F149" s="9">
         <v>2.6488</v>
       </c>
-      <c r="G145" s="30"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="5"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="30"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
+      <c r="G149" s="30"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="5"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="30"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B151" s="9">
         <v>10.5525</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C151" s="9">
         <v>-2.0112999999999999</v>
       </c>
-      <c r="D147" s="9">
+      <c r="D151" s="9">
         <v>-10.688499999999999</v>
       </c>
-      <c r="E147" s="9">
+      <c r="E151" s="9">
         <v>-21.682500000000001</v>
       </c>
-      <c r="F147" s="9">
+      <c r="F151" s="9">
         <v>-31.886700000000001</v>
       </c>
-      <c r="G147" s="30"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
+      <c r="G151" s="30"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B152" s="9">
         <v>3.1505999999999998</v>
       </c>
-      <c r="C148" s="9">
+      <c r="C152" s="9">
         <v>1.9450000000000001</v>
       </c>
-      <c r="D148" s="9">
+      <c r="D152" s="9">
         <v>1.9343999999999999</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E152" s="9">
         <v>1.6428</v>
       </c>
-      <c r="F148" s="9">
+      <c r="F152" s="9">
         <v>1.2435</v>
       </c>
-      <c r="G148" s="30"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A149" s="5"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="30"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
+      <c r="G152" s="30"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="5"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="30"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B154" s="9">
         <v>-3.4333999999999998</v>
       </c>
-      <c r="C150" s="9">
+      <c r="C154" s="9">
         <v>-12.944599999999999</v>
       </c>
-      <c r="D150" s="9">
+      <c r="D154" s="9">
         <v>-23.013100000000001</v>
       </c>
-      <c r="E150" s="9">
+      <c r="E154" s="9">
         <v>-32.932000000000002</v>
       </c>
-      <c r="F150" s="9">
+      <c r="F154" s="9">
         <v>-41.863900000000001</v>
       </c>
-      <c r="G150" s="30"/>
-    </row>
-    <row r="151" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="6" t="s">
+      <c r="G154" s="30"/>
+    </row>
+    <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B151" s="31">
+      <c r="B155" s="31">
         <v>2.6326999999999998</v>
       </c>
-      <c r="C151" s="31">
+      <c r="C155" s="31">
         <v>2.6817000000000002</v>
       </c>
-      <c r="D151" s="31">
+      <c r="D155" s="31">
         <v>2.7978000000000001</v>
       </c>
-      <c r="E151" s="31">
+      <c r="E155" s="31">
         <v>2.4706999999999999</v>
       </c>
-      <c r="F151" s="31">
+      <c r="F155" s="31">
         <v>2.6570999999999998</v>
       </c>
-      <c r="G151" s="32"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B152" s="29"/>
-      <c r="C152" s="29"/>
-      <c r="D152" s="29"/>
-      <c r="E152" s="29"/>
-      <c r="F152" s="29"/>
-      <c r="G152" s="29"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B153" s="61" t="s">
+      <c r="G155" s="32"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B156" s="29"/>
+      <c r="C156" s="29"/>
+      <c r="D156" s="29"/>
+      <c r="E156" s="29"/>
+      <c r="F156" s="29"/>
+      <c r="G156" s="29"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B157" s="61" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B154" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B158" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="7" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A167" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A168" s="28" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="28" t="s">
+      <c r="B168" s="28"/>
+      <c r="C168" s="28"/>
+      <c r="D168" s="28"/>
+      <c r="E168" s="28"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="28"/>
+    </row>
+    <row r="169" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A169" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B169" s="28"/>
+      <c r="C169" s="28"/>
+      <c r="D169" s="28"/>
+      <c r="E169" s="28"/>
+      <c r="F169" s="28"/>
+      <c r="G169" s="28"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="B170" s="73">
+        <v>-10</v>
+      </c>
+      <c r="C170" s="73">
+        <v>0</v>
+      </c>
+      <c r="D170" s="73">
+        <v>10</v>
+      </c>
+      <c r="E170" s="94">
+        <v>20</v>
+      </c>
+      <c r="F170" s="85"/>
+      <c r="G170" s="85"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="B171" s="76">
+        <v>10.021800000000001</v>
+      </c>
+      <c r="C171" s="76">
+        <v>-1E-4</v>
+      </c>
+      <c r="D171" s="76">
+        <v>-10.0009</v>
+      </c>
+      <c r="E171" s="55">
+        <v>-20.009399999999999</v>
+      </c>
+      <c r="F171" s="76"/>
+      <c r="G171" s="35"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B172" s="76">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="C172" s="76">
+        <v>0.41980000000000001</v>
+      </c>
+      <c r="D172" s="76">
+        <v>0.42220000000000002</v>
+      </c>
+      <c r="E172" s="55">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="F172" s="76"/>
+      <c r="G172" s="35"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B173" s="9">
+        <v>8.0785</v>
+      </c>
+      <c r="C173" s="9">
+        <v>-0.36620000000000003</v>
+      </c>
+      <c r="D173" s="9">
+        <v>-10.040800000000001</v>
+      </c>
+      <c r="E173" s="30">
+        <v>-20.0139</v>
+      </c>
+      <c r="F173" s="9"/>
+      <c r="G173" s="35"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B174" s="9">
+        <v>0.4738</v>
+      </c>
+      <c r="C174" s="9">
+        <v>0.41570000000000001</v>
+      </c>
+      <c r="D174" s="9">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="E174" s="30">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="F174" s="9"/>
+      <c r="G174" s="35"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="9">
+        <v>6.2323000000000004</v>
+      </c>
+      <c r="C175" s="9">
+        <v>-0.8518</v>
+      </c>
+      <c r="D175" s="9">
+        <v>-10.102499999999999</v>
+      </c>
+      <c r="E175" s="30">
+        <v>-20.0198</v>
+      </c>
+      <c r="F175" s="9"/>
+      <c r="G175" s="35"/>
+    </row>
+    <row r="176" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A176" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B176" s="31">
+        <v>0.49349999999999999</v>
+      </c>
+      <c r="C176" s="31">
+        <v>0.41720000000000002</v>
+      </c>
+      <c r="D176" s="31">
+        <v>0.42209999999999998</v>
+      </c>
+      <c r="E176" s="32">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="F176" s="9"/>
+      <c r="G176" s="35"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" s="28"/>
+      <c r="B177" s="28"/>
+      <c r="C177" s="28"/>
+      <c r="D177" s="28"/>
+      <c r="E177" s="28"/>
+      <c r="F177" s="28"/>
+      <c r="G177" s="28"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" s="28"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+    </row>
+    <row r="179" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B164" s="28"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
-      <c r="E164" s="28"/>
-      <c r="F164" s="28"/>
-      <c r="G164" s="28"/>
-    </row>
-    <row r="165" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="28" t="s">
+      <c r="B179" s="28"/>
+      <c r="C179" s="28"/>
+      <c r="D179" s="28"/>
+      <c r="E179" s="28"/>
+      <c r="F179" s="28"/>
+      <c r="G179" s="28"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="B165" s="28"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
-      <c r="E165" s="28"/>
-      <c r="F165" s="28"/>
-      <c r="G165" s="28"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B166" s="73">
+      <c r="B180" s="73">
         <v>-10</v>
       </c>
-      <c r="C166" s="73">
+      <c r="C180" s="73">
         <v>0</v>
       </c>
-      <c r="D166" s="73">
+      <c r="D180" s="73">
         <v>10</v>
       </c>
-      <c r="E166" s="94">
+      <c r="E180" s="73">
         <v>20</v>
       </c>
-      <c r="F166" s="85"/>
-      <c r="G166" s="85"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="95" t="s">
+      <c r="F180" s="94">
+        <v>30</v>
+      </c>
+      <c r="G180" s="28"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="B167" s="76">
-        <v>10.021800000000001</v>
-      </c>
-      <c r="C167" s="76">
-        <v>-1E-4</v>
-      </c>
-      <c r="D167" s="76">
-        <v>-10.0009</v>
-      </c>
-      <c r="E167" s="55">
-        <v>-20.009399999999999</v>
-      </c>
-      <c r="F167" s="76"/>
-      <c r="G167" s="35"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="95" t="s">
+      <c r="B181" s="76">
+        <v>9.9992999999999999</v>
+      </c>
+      <c r="C181" s="76">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="D181" s="76">
+        <v>-9.9928000000000008</v>
+      </c>
+      <c r="E181" s="76">
+        <v>-20.0136</v>
+      </c>
+      <c r="F181" s="55">
+        <v>-30.004000000000001</v>
+      </c>
+      <c r="G181" s="28"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B168" s="76">
-        <v>0.40789999999999998</v>
-      </c>
-      <c r="C168" s="76">
-        <v>0.41980000000000001</v>
-      </c>
-      <c r="D168" s="76">
-        <v>0.42220000000000002</v>
-      </c>
-      <c r="E168" s="55">
-        <v>0.41310000000000002</v>
-      </c>
-      <c r="F168" s="76"/>
-      <c r="G168" s="35"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B169" s="9">
-        <v>8.0785</v>
-      </c>
-      <c r="C169" s="9">
-        <v>-0.36620000000000003</v>
-      </c>
-      <c r="D169" s="9">
-        <v>-10.040800000000001</v>
-      </c>
-      <c r="E169" s="30">
-        <v>-20.0139</v>
-      </c>
-      <c r="F169" s="9"/>
-      <c r="G169" s="35"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="39" t="s">
+      <c r="B182" s="76">
+        <v>0.41639999999999999</v>
+      </c>
+      <c r="C182" s="76">
+        <v>0.4022</v>
+      </c>
+      <c r="D182" s="76">
+        <v>0.4098</v>
+      </c>
+      <c r="E182" s="76">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F182" s="55">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="G182" s="28"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B183" s="9">
+        <v>2.6894</v>
+      </c>
+      <c r="C183" s="9">
+        <v>-4.6473000000000004</v>
+      </c>
+      <c r="D183" s="9">
+        <v>-11.911799999999999</v>
+      </c>
+      <c r="E183" s="9">
+        <v>-20.385999999999999</v>
+      </c>
+      <c r="F183" s="30">
+        <v>-30.0456</v>
+      </c>
+      <c r="G183" s="28"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B170" s="9">
-        <v>0.4738</v>
-      </c>
-      <c r="C170" s="9">
-        <v>0.41570000000000001</v>
-      </c>
-      <c r="D170" s="9">
-        <v>0.42080000000000001</v>
-      </c>
-      <c r="E170" s="30">
-        <v>0.41360000000000002</v>
-      </c>
-      <c r="F170" s="9"/>
-      <c r="G170" s="35"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="39" t="s">
+      <c r="B184" s="9">
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="C184" s="9">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="D184" s="9">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="E184" s="9">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="F184" s="30">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="G184" s="28"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B171" s="9">
-        <v>6.2323000000000004</v>
-      </c>
-      <c r="C171" s="9">
-        <v>-0.8518</v>
-      </c>
-      <c r="D171" s="9">
-        <v>-10.102499999999999</v>
-      </c>
-      <c r="E171" s="30">
-        <v>-20.0198</v>
-      </c>
-      <c r="F171" s="9"/>
-      <c r="G171" s="35"/>
-    </row>
-    <row r="172" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="40" t="s">
+      <c r="B185" s="9">
+        <v>-1.7606999999999999</v>
+      </c>
+      <c r="C185" s="9">
+        <v>-8.1674000000000007</v>
+      </c>
+      <c r="D185" s="9">
+        <v>-13.776999999999999</v>
+      </c>
+      <c r="E185" s="9">
+        <v>-20.873999999999999</v>
+      </c>
+      <c r="F185" s="30">
+        <v>-30.104199999999999</v>
+      </c>
+      <c r="G185" s="28"/>
+    </row>
+    <row r="186" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B172" s="31">
-        <v>0.49349999999999999</v>
-      </c>
-      <c r="C172" s="31">
-        <v>0.41720000000000002</v>
-      </c>
-      <c r="D172" s="31">
-        <v>0.42209999999999998</v>
-      </c>
-      <c r="E172" s="32">
-        <v>0.41389999999999999</v>
-      </c>
-      <c r="F172" s="9"/>
-      <c r="G172" s="35"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
-      <c r="E173" s="28"/>
-      <c r="F173" s="28"/>
-      <c r="G173" s="28"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="28"/>
-      <c r="B174" s="28"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
-      <c r="E174" s="28"/>
-      <c r="F174" s="28"/>
-      <c r="G174" s="28"/>
-    </row>
-    <row r="175" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="B175" s="28"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
-      <c r="E175" s="28"/>
-      <c r="F175" s="28"/>
-      <c r="G175" s="28"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="72" t="s">
-        <v>142</v>
-      </c>
-      <c r="B176" s="73">
-        <v>-10</v>
-      </c>
-      <c r="C176" s="73">
-        <v>0</v>
-      </c>
-      <c r="D176" s="73">
-        <v>10</v>
-      </c>
-      <c r="E176" s="73">
-        <v>20</v>
-      </c>
-      <c r="F176" s="94">
-        <v>30</v>
-      </c>
-      <c r="G176" s="28"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="95" t="s">
+      <c r="B186" s="31">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="C186" s="31">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="D186" s="31">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="E186" s="31">
+        <v>0.41810000000000003</v>
+      </c>
+      <c r="F186" s="32">
+        <v>0.3926</v>
+      </c>
+      <c r="G186" s="28"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="28"/>
+      <c r="B187" s="28"/>
+      <c r="C187" s="28"/>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
+      <c r="F187" s="28"/>
+      <c r="G187" s="28"/>
+    </row>
+    <row r="188" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B177" s="76">
-        <v>9.9992999999999999</v>
-      </c>
-      <c r="C177" s="76">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="D177" s="76">
-        <v>-9.9928000000000008</v>
-      </c>
-      <c r="E177" s="76">
-        <v>-20.0136</v>
-      </c>
-      <c r="F177" s="55">
-        <v>-30.004000000000001</v>
-      </c>
-      <c r="G177" s="28"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="95" t="s">
+      <c r="B189" s="15"/>
+      <c r="C189" s="97">
+        <v>-8.1576000000000004</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B178" s="76">
-        <v>0.41639999999999999</v>
-      </c>
-      <c r="C178" s="76">
-        <v>0.4022</v>
-      </c>
-      <c r="D178" s="76">
-        <v>0.4098</v>
-      </c>
-      <c r="E178" s="76">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="F178" s="55">
-        <v>0.39079999999999998</v>
-      </c>
-      <c r="G178" s="28"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B179" s="9">
-        <v>2.6894</v>
-      </c>
-      <c r="C179" s="9">
-        <v>-4.6473000000000004</v>
-      </c>
-      <c r="D179" s="9">
-        <v>-11.911799999999999</v>
-      </c>
-      <c r="E179" s="9">
-        <v>-20.385999999999999</v>
-      </c>
-      <c r="F179" s="30">
-        <v>-30.0456</v>
-      </c>
-      <c r="G179" s="28"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B180" s="9">
-        <v>0.94330000000000003</v>
-      </c>
-      <c r="C180" s="9">
-        <v>0.70750000000000002</v>
-      </c>
-      <c r="D180" s="9">
-        <v>0.48320000000000002</v>
-      </c>
-      <c r="E180" s="9">
-        <v>0.42049999999999998</v>
-      </c>
-      <c r="F180" s="30">
-        <v>0.39340000000000003</v>
-      </c>
-      <c r="G180" s="28"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B181" s="9">
-        <v>-1.7606999999999999</v>
-      </c>
-      <c r="C181" s="9">
-        <v>-8.1674000000000007</v>
-      </c>
-      <c r="D181" s="9">
-        <v>-13.776999999999999</v>
-      </c>
-      <c r="E181" s="9">
-        <v>-20.873999999999999</v>
-      </c>
-      <c r="F181" s="30">
-        <v>-30.104199999999999</v>
-      </c>
-      <c r="G181" s="28"/>
-    </row>
-    <row r="182" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="40" t="s">
+      <c r="B190" s="21"/>
+      <c r="C190" s="98">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B191" s="21"/>
+      <c r="C191" s="98">
+        <v>-12.7606</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B182" s="31">
-        <v>1.2151000000000001</v>
-      </c>
-      <c r="C182" s="31">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="D182" s="31">
-        <v>0.49209999999999998</v>
-      </c>
-      <c r="E182" s="31">
-        <v>0.41810000000000003</v>
-      </c>
-      <c r="F182" s="32">
-        <v>0.3926</v>
-      </c>
-      <c r="G182" s="28"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="28"/>
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="28"/>
-      <c r="G183" s="28"/>
-    </row>
-    <row r="184" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="B185" s="15"/>
-      <c r="C185" s="97">
-        <v>-8.1576000000000004</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="B186" s="21"/>
-      <c r="C186" s="98">
-        <v>0.40889999999999999</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="39" t="s">
+      <c r="B192" s="21"/>
+      <c r="C192" s="98">
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A193" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B187" s="21"/>
-      <c r="C187" s="98">
-        <v>-12.7606</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="39" t="s">
+      <c r="B193" s="21"/>
+      <c r="C193" s="98">
+        <v>-8.1062999999999992</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B188" s="21"/>
-      <c r="C188" s="98">
-        <v>0.50029999999999997</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B189" s="21"/>
-      <c r="C189" s="98">
-        <v>-8.1062999999999992</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B190" s="24"/>
-      <c r="C190" s="99">
+      <c r="B194" s="24"/>
+      <c r="C194" s="99">
         <v>0.77159999999999995</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="21"/>
-      <c r="B191" s="21"/>
-      <c r="C191" s="21"/>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A195" s="21"/>
+      <c r="B195" s="21"/>
+      <c r="C195" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4404,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FAE463-692A-4AB1-8AB9-770196756CC0}">
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4420,12 +4507,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -4433,7 +4520,7 @@
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -4456,12 +4543,12 @@
         <v>6</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="63">
         <v>10.016999999999999</v>
@@ -4481,7 +4568,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6" s="63">
         <v>0.33400000000000002</v>
@@ -4525,7 +4612,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B8" s="63">
         <v>1.0844</v>
@@ -4545,7 +4632,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="63">
         <v>-0.25769999999999998</v>
@@ -4565,7 +4652,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="63">
         <v>1.0732999999999999</v>
@@ -4585,7 +4672,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="63">
         <v>-3.8923999999999999</v>
@@ -4609,7 +4696,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B12" s="63">
         <v>0.99550000000000005</v>
@@ -4629,7 +4716,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" s="63">
         <v>-3.8243</v>
@@ -4649,7 +4736,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B14" s="9">
         <v>0.97599999999999998</v>
@@ -4669,7 +4756,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B15" s="9">
         <v>-2.3456000000000001</v>
@@ -4693,7 +4780,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B16" s="9">
         <v>0.94630000000000003</v>
@@ -4713,7 +4800,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="9">
         <v>-2.1879</v>
@@ -4733,7 +4820,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B18" s="9">
         <v>1.0165999999999999</v>
@@ -4753,7 +4840,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B19" s="9">
         <v>-2.3359999999999999</v>
@@ -4773,7 +4860,7 @@
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B20" s="31">
         <v>1.0219</v>
@@ -4801,7 +4888,7 @@
     <row r="22" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A22" s="21"/>
       <c r="B22" s="100" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -4810,7 +4897,7 @@
     <row r="23" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="21"/>
       <c r="B23" s="100" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -4834,7 +4921,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" s="8">
         <f>68.7835264205932/200</f>
@@ -4852,22 +4939,22 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="66">
         <v>-10</v>
@@ -4888,12 +4975,12 @@
         <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35">
         <v>0.64659999999999995</v>
@@ -4916,7 +5003,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" s="19">
         <v>-10.0745</v>
@@ -4929,7 +5016,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C37" s="19">
         <v>0.19120000000000001</v>
@@ -4938,7 +5025,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="69">
         <v>3.8721999999999999</v>
@@ -4961,7 +5048,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39">
         <v>0.68859999999999999</v>
@@ -4984,7 +5071,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C40" s="19">
         <v>-10.035600000000001</v>
@@ -4997,7 +5084,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C41" s="19">
         <v>0.19500000000000001</v>
@@ -5006,7 +5093,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="68" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="69">
         <v>3.9794</v>
@@ -5029,7 +5116,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C43">
         <v>-5.3365</v>
@@ -5038,7 +5125,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C44">
         <v>-5.3365</v>
@@ -5047,7 +5134,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="28">
         <v>-11.2842</v>
@@ -5056,7 +5143,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C46">
         <v>-7.2462999999999997</v>
@@ -5065,7 +5152,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C47" s="19">
         <v>-2.3424</v>
@@ -5078,7 +5165,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="19">
         <v>9.2100000000000001E-2</v>
@@ -5087,10 +5174,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G49" s="23"/>
       <c r="H49" s="19">
@@ -5100,7 +5187,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" s="19">
         <v>0.32890000000000003</v>
@@ -5109,10 +5196,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>168</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="19">
@@ -5122,7 +5209,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" s="19">
         <v>0.30059999999999998</v>
@@ -5131,11 +5218,11 @@
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="103" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D53" s="24"/>
       <c r="E53" s="24"/>
@@ -5150,7 +5237,7 @@
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B56" s="91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="92">
         <v>-15.4787</v>
@@ -5160,10 +5247,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B57" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="87" t="s">
         <v>127</v>
-      </c>
-      <c r="C57" s="87" t="s">
-        <v>128</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
@@ -5176,7 +5263,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B59" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" s="87">
         <v>-15.4361</v>
@@ -5186,10 +5273,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B60" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="87" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
@@ -5202,7 +5289,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B62" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" s="87">
         <v>-26.090299999999999</v>
@@ -5212,10 +5299,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B63" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
@@ -5228,7 +5315,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B65" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="87">
         <v>-15.9239</v>
@@ -5238,17 +5325,17 @@
     </row>
     <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C66" s="90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B67" s="86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="86"/>
       <c r="D67" s="28"/>
@@ -5256,7 +5343,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B68" s="93" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="28"/>
       <c r="D68" s="28"/>
@@ -5264,7 +5351,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B69" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C69" s="102">
         <v>-16.803100000000001</v>
@@ -5274,10 +5361,10 @@
     </row>
     <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B70" s="40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C70" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
@@ -5290,12 +5377,12 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -5303,7 +5390,7 @@
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -5314,24 +5401,24 @@
         <v>50</v>
       </c>
       <c r="C77" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="F77" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="E77" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F77" s="48" t="s">
-        <v>182</v>
-      </c>
       <c r="G77" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B78" s="115">
         <v>6.5773000000000001</v>
@@ -5355,7 +5442,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B79" s="115">
         <v>0.76670000000000005</v>
@@ -5400,7 +5487,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B81" s="9">
         <v>4.1466000000000003</v>
@@ -5421,7 +5508,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="110" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B82" s="111">
         <v>24.7393</v>
@@ -5445,7 +5532,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="110" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B83" s="111">
         <v>4.3129999999999997</v>
@@ -5465,7 +5552,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B84" s="63"/>
       <c r="C84" s="101"/>
@@ -5475,7 +5562,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="101"/>
@@ -5485,7 +5572,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B86" s="63"/>
       <c r="C86" s="101"/>
@@ -5495,7 +5582,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="101"/>
@@ -5505,7 +5592,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B88" s="118">
         <v>21.093800000000002</v>
@@ -5520,7 +5607,7 @@
         <v>-17.941099999999999</v>
       </c>
       <c r="F88" s="120">
-        <v>-27.419599999999999</v>
+        <v>-27.476400000000002</v>
       </c>
       <c r="G88">
         <f>12.0926365852355/200</f>
@@ -5529,7 +5616,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B89" s="118">
         <v>2.9011</v>
@@ -5544,15 +5631,15 @@
         <v>1.7119</v>
       </c>
       <c r="F89" s="120">
-        <v>1.5708</v>
+        <v>1.5530999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>195</v>
       </c>
       <c r="C90" s="101"/>
       <c r="D90" s="101">
@@ -5563,7 +5650,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="101"/>
@@ -5575,7 +5662,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="101"/>
@@ -5595,16 +5682,20 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="121" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B94" s="122">
-        <v>20.151</v>
+        <v>19.848700000000001</v>
       </c>
       <c r="C94" s="123">
         <v>6.1003999999999996</v>
       </c>
-      <c r="D94" s="123"/>
-      <c r="E94" s="123"/>
+      <c r="D94" s="123">
+        <v>-8.1217000000000006</v>
+      </c>
+      <c r="E94" s="123">
+        <v>-17.959700000000002</v>
+      </c>
       <c r="F94" s="124">
         <v>-27.630199999999999</v>
       </c>
@@ -5615,23 +5706,27 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="121" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B95" s="122">
-        <v>3.6435</v>
+        <v>4.1829999999999998</v>
       </c>
       <c r="C95" s="123">
         <v>6.6140999999999996</v>
       </c>
-      <c r="D95" s="123"/>
-      <c r="E95" s="123"/>
+      <c r="D95" s="123">
+        <v>1.5213000000000001</v>
+      </c>
+      <c r="E95" s="123">
+        <v>1.6759999999999999</v>
+      </c>
       <c r="F95" s="124">
         <v>1.5582</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="101"/>
@@ -5641,7 +5736,7 @@
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B97" s="31"/>
       <c r="C97" s="107"/>
@@ -5658,42 +5753,39 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B102" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C102" s="48" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B103" s="63" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C103" s="104">
         <v>-1.1000000000000001E-3</v>
       </c>
-      <c r="D103" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B104" s="63">
         <v>10.7</v>
@@ -5704,7 +5796,7 @@
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B105" s="108">
         <v>45.5</v>
@@ -5713,9 +5805,80 @@
         <v>60.37</v>
       </c>
     </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="125" t="s">
+        <v>198</v>
+      </c>
+    </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="127" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B110" s="48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B111" s="104">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" s="109">
+        <v>0.37640000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="21"/>
+      <c r="B113" s="21"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B114" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C114" s="29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B115" s="104">
+        <v>31.4848</v>
+      </c>
+      <c r="C115" s="29">
+        <v>25.6937</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B116" s="109">
+        <v>2.2843</v>
+      </c>
+      <c r="C116" s="29">
+        <v>2.0991</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338902AB-0A30-4EC3-AAB9-2CA09808BAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72457A2-7550-42D7-A874-574C404C4E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72457A2-7550-42D7-A874-574C404C4E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDCDF5B-726F-460E-8879-9175D9338673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="212">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -249,9 +249,6 @@
   </si>
   <si>
     <t>Observation std [dB]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTSNet (train on test both on known randInit) [dB] </t>
   </si>
   <si>
     <t xml:space="preserve">RTSNet (trained on fixed init state = [0,0], test on random and known init) [dB] </t>
@@ -669,6 +666,21 @@
   </si>
   <si>
     <t>Hybrid [dB]</t>
+  </si>
+  <si>
+    <t>Vanilla train on fixed init [dB]</t>
+  </si>
+  <si>
+    <t>Hybrid train on fixed init [dB]</t>
+  </si>
+  <si>
+    <t>Vanilla train on rand init [dB]</t>
+  </si>
+  <si>
+    <t>Hybrid train on rand init [dB]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTSNet (train on randInit) [dB] </t>
   </si>
 </sst>
 </file>
@@ -915,7 +927,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1007,11 +1018,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1180,6 +1186,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1460,10 +1472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1488,7 +1500,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1508,53 +1520,53 @@
       <c r="E4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>10.022600000000001</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="40">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="40">
         <v>-10.002700000000001</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="40">
         <v>-19.947399999999998</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="42">
         <v>-29.9617</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>0.42399999999999999</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="40">
         <v>0.4476</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="40">
         <v>0.42730000000000001</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="40">
         <v>0.41070000000000001</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="42">
         <v>0.42949999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
-        <v>145</v>
+      <c r="A7" s="38" t="s">
+        <v>144</v>
       </c>
       <c r="B7" s="9">
         <v>8.0853999999999999</v>
@@ -1568,13 +1580,13 @@
       <c r="E7" s="9">
         <v>-21.902799999999999</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>-31.885899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="39" t="s">
-        <v>77</v>
+      <c r="A8" s="38" t="s">
+        <v>76</v>
       </c>
       <c r="B8" s="9">
         <v>0.50170000000000003</v>
@@ -1588,12 +1600,12 @@
       <c r="E8" s="9">
         <v>0.4194</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="29">
         <v>0.51370000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="9">
@@ -1608,13 +1620,13 @@
       <c r="E9" s="9">
         <v>-23.750499999999999</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>-33.749099999999999</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B10" s="9">
@@ -1629,13 +1641,13 @@
       <c r="E10" s="9">
         <v>0.51919999999999999</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="29">
         <v>0.50760000000000005</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="9">
@@ -1650,46 +1662,46 @@
       <c r="E11" s="9">
         <v>-23.7318</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>-33.697800000000001</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="30">
         <v>0.48709999999999998</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>0.53669999999999995</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>0.46279999999999999</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>0.51170000000000004</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="41">
         <v>0.50549999999999995</v>
       </c>
-      <c r="G12" s="18"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="18"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1707,56 +1719,56 @@
       <c r="E15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="40">
         <v>10.004300000000001</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="44">
         <v>-8.4907000000000005E-5</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="40">
         <v>-10.0288</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="40">
         <v>-19.9815</v>
       </c>
-      <c r="F16" s="43">
+      <c r="F16" s="42">
         <v>-29.968599999999999</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="40">
         <v>0.41909999999999997</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="40">
         <v>0.39150000000000001</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="40">
         <v>0.43099999999999999</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>0.40439999999999998</v>
       </c>
-      <c r="F17" s="43">
+      <c r="F17" s="42">
         <v>0.43509999999999999</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
-        <v>145</v>
+      <c r="A18" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="B18" s="9">
         <v>5.2991000000000001</v>
@@ -1770,14 +1782,14 @@
       <c r="E18" s="9">
         <v>-24.680399999999999</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="29">
         <v>-34.730899999999998</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>77</v>
+      <c r="A19" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="B19" s="9">
         <v>0.70950000000000002</v>
@@ -1791,13 +1803,13 @@
       <c r="E19" s="9">
         <v>0.59619999999999995</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="29">
         <v>0.69599999999999995</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="9">
@@ -1812,13 +1824,13 @@
       <c r="E20" s="9">
         <v>-28.098099999999999</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <v>-38.235599999999998</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="9">
@@ -1833,13 +1845,13 @@
       <c r="E21" s="9">
         <v>0.72609999999999997</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <v>0.83679999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
-        <v>83</v>
+      <c r="A22" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="B22" s="9">
         <v>1.8805000000000001</v>
@@ -1853,40 +1865,40 @@
       <c r="E22" s="9">
         <v>-27.875299999999999</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="29">
         <v>-38.1828</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="30">
         <v>0.79549999999999998</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="30">
         <v>0.72040000000000004</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <v>0.79720000000000002</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="30">
         <v>0.74619999999999997</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="41">
         <v>0.83630000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="27"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1914,50 +1926,50 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="40">
         <v>10.011900000000001</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="40">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="40">
         <v>-10.004200000000001</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="40">
         <v>-19.976700000000001</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="40">
         <v>-30.0029</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="40">
         <v>0.39750000000000002</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="40">
         <v>0.43390000000000001</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="40">
         <v>0.44819999999999999</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="40">
         <v>0.4158</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="40">
         <v>0.42849999999999999</v>
       </c>
-      <c r="G28" s="44"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
-        <v>145</v>
+      <c r="A29" s="11" t="s">
+        <v>144</v>
       </c>
       <c r="B29" s="9">
         <v>2.7555999999999998</v>
@@ -1974,14 +1986,14 @@
       <c r="F29" s="9">
         <v>-37.323900000000002</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <f>6.41488122940063/200</f>
         <v>3.2074406147003152E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
-        <v>77</v>
+      <c r="A30" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="B30" s="9">
         <v>1.0863</v>
@@ -1995,13 +2007,13 @@
       <c r="E30" s="9">
         <v>1.0107999999999999</v>
       </c>
-      <c r="F30" s="26">
+      <c r="F30" s="25">
         <v>0.96260000000000001</v>
       </c>
-      <c r="G30" s="30"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B31" s="9">
@@ -2020,13 +2032,13 @@
       <c r="F31" s="9">
         <v>-41.830800000000004</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <f xml:space="preserve"> 13.3679509162902/200</f>
         <v>6.6839754581451E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B32" s="9">
@@ -2041,13 +2053,13 @@
       <c r="E32" s="9">
         <v>1.1073</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>1.2888999999999999</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="9">
@@ -2065,2027 +2077,2136 @@
       <c r="F33" s="9">
         <v>-41.504600000000003</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="29">
         <f>56.4998171329498/200</f>
         <v>0.28249908566474902</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="31">
+      <c r="B34" s="30">
         <v>1.1987000000000001</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="30">
         <v>1.1817</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="30">
         <v>1.2788999999999999</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="30">
         <v>1.1524000000000001</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="33">
         <v>1.2285999999999999</v>
       </c>
-      <c r="G34" s="32"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="128" t="s">
-        <v>205</v>
-      </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="A37" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
     </row>
     <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="19"/>
       <c r="C40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
       <c r="G40" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18">
+      <c r="A41" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17">
         <v>-7.1620999999999997</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="8">
         <f>19.1064960956573/200</f>
         <v>9.5532480478286497E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18">
+      <c r="A42" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17">
         <v>0.3347</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17">
         <v>-11.8101</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
       <c r="G43" s="8">
         <f>39.3029329776763/200</f>
         <v>0.19651466488838149</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17">
         <v>0.45019999999999999</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17">
         <f>(-11.7224-11.7828)/2</f>
         <v>-11.752600000000001</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
       <c r="G45" s="8">
         <f>297.675692081451/200</f>
         <v>1.4883784604072552</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="129" t="s">
+      <c r="A47" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="B47" s="126"/>
+      <c r="C47" s="126"/>
+      <c r="D47" s="126"/>
+      <c r="E47" s="126"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="127"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="127"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="125" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="130"/>
-      <c r="C47" s="130"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="131"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="129" t="s">
-        <v>155</v>
-      </c>
-      <c r="B48" s="130"/>
-      <c r="C48" s="130"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="131"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="129" t="s">
-        <v>207</v>
-      </c>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="131"/>
-    </row>
-    <row r="50" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="132" t="s">
-        <v>155</v>
-      </c>
-      <c r="B50" s="133"/>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="134"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="18" t="s">
+      <c r="B49" s="126"/>
+      <c r="C49" s="126"/>
+      <c r="D49" s="126"/>
+      <c r="E49" s="126"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="127"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="129"/>
+      <c r="C50" s="129"/>
+      <c r="D50" s="129"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="130"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="20"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
       <c r="G54" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17">
         <v>-7.2404999999999999</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
       <c r="G55" s="8">
         <f>9.09574961662292/200</f>
         <v>4.5478748083114598E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17">
         <v>0.54310000000000003</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17">
         <v>-11.852600000000001</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
       <c r="G57" s="8">
         <f>19.0591733455657/200</f>
         <v>9.5295866727828499E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17">
         <v>0.68740000000000001</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17">
         <v>-11.773</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
       <c r="G59" s="8">
         <f>221.406227111816/200</f>
         <v>1.1070311355590801</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="13" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10">
+      <c r="B60" s="17"/>
+      <c r="C60" s="17">
         <v>0.68469999999999998</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="18" t="s">
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="127"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="127"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="126"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="127"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="129"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="130"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="22" t="s">
+      <c r="B68" s="19"/>
+      <c r="C68" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="G64" s="47">
+      <c r="D68" s="17"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="46">
         <v>30.081099999999999</v>
       </c>
-      <c r="H64" s="36"/>
-      <c r="I64" s="33"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A65" s="51" t="s">
+      <c r="H68" s="35"/>
+      <c r="I68" s="32"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="52">
+      <c r="B69" s="17"/>
+      <c r="C69" s="51">
         <v>-1.0999999999999999E-2</v>
       </c>
-      <c r="D65" s="18"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="12" t="s">
+      <c r="D69" s="17"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G69" s="8">
         <v>26.237500000000001</v>
       </c>
-      <c r="H65" s="36"/>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="51" t="s">
+      <c r="H69" s="35"/>
+      <c r="I69" s="32"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="52">
+      <c r="B70" s="17"/>
+      <c r="C70" s="51">
         <v>0.3891</v>
       </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="33"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="30">
-        <v>-7.2916999999999996</v>
-      </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="12" t="s">
+      <c r="D70" s="17"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="56"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="32"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="134">
+        <v>-7.4257999999999997</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G71" s="8">
+        <v>-6.7626999999999997</v>
+      </c>
+      <c r="H71" s="9"/>
+      <c r="I71" s="32"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="G67" s="8">
-        <v>-6.7626999999999997</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="33"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="30">
-        <v>0.90980000000000005</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" s="8">
+      <c r="B72" s="17"/>
+      <c r="C72" s="134">
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G72" s="8">
         <v>0.88480000000000003</v>
       </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="33"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
+      <c r="H72" s="9"/>
+      <c r="I72" s="32"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="29">
+        <v>-11.7737</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="30">
-        <v>-11.7737</v>
-      </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G69" s="8">
+      <c r="G73" s="8">
         <v>-11.523199999999999</v>
       </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="33"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
+      <c r="H73" s="9"/>
+      <c r="I73" s="32"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="30">
+      <c r="B74" s="17"/>
+      <c r="C74" s="29">
         <v>1.2115</v>
       </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="12" t="s">
+      <c r="D74" s="17"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G74" s="8">
         <v>1.1852</v>
       </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="33"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A71" s="53" t="s">
+      <c r="H74" s="9"/>
+      <c r="I74" s="32"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="B75" s="34"/>
+      <c r="C75" s="53">
+        <v>-11.471500000000001</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G75" s="8">
+        <v>9.0884</v>
+      </c>
+      <c r="H75" s="34"/>
+      <c r="I75" s="32"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="34"/>
+      <c r="C76" s="53">
+        <v>1.2063999999999999</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="10">
+        <v>2.7212000000000001</v>
+      </c>
+      <c r="H76" s="34"/>
+      <c r="I76" s="32"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="54">
-        <v>-11.471500000000001</v>
-      </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" s="8">
-        <v>9.0884</v>
-      </c>
-      <c r="H71" s="35"/>
-      <c r="I71" s="33"/>
-    </row>
-    <row r="72" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="54">
-        <v>1.2063999999999999</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="13" t="s">
+      <c r="B77" s="34"/>
+      <c r="C77" s="54">
+        <v>-11.5383</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="34"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="34"/>
+      <c r="I77" s="32"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="G72" s="11">
-        <v>2.7212000000000001</v>
-      </c>
-      <c r="H72" s="35"/>
-      <c r="I72" s="33"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="55">
-        <v>-11.5383</v>
-      </c>
-      <c r="D73" s="18"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="33"/>
-    </row>
-    <row r="74" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="58">
+      <c r="B78" s="34"/>
+      <c r="C78" s="54">
         <v>1.1716</v>
       </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="19" t="s">
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="131" t="s">
+        <v>209</v>
+      </c>
+      <c r="B79" s="132"/>
+      <c r="C79" s="133"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="126"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="125" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="126"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B82" s="126"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="125" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="126"/>
+      <c r="C83" s="127"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="125" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="126"/>
+      <c r="C84" s="127"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="126"/>
+      <c r="C85" s="127"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="128" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="129"/>
+      <c r="C86" s="130"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A88" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A89" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D89" s="27"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A90" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" s="27"/>
+    </row>
+    <row r="91" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="F91" s="27"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A92" s="68"/>
+      <c r="B92" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D92" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F92" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G92" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="D77" s="28"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="28"/>
-    </row>
-    <row r="79" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B79" s="1"/>
-      <c r="F79" s="28"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="72"/>
-      <c r="B80" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="C80" s="20" t="s">
+      <c r="H92" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="D80" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F80" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="G80" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="H80" s="73" t="s">
+      <c r="I92" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="I80" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="J80" s="73" t="s">
+      <c r="J92" s="69" t="s">
+        <v>105</v>
+      </c>
+      <c r="K92" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="K80" s="75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="9">
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A93" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="9">
         <v>-7.7907000000000002</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C93" s="9">
         <f>0.38149070739746/200</f>
         <v>1.9074535369873E-3</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D93" s="9">
         <v>-10.930999999999999</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E93" s="9">
         <f>0.393565416336059/200</f>
         <v>1.967827081680295E-3</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F93" s="9">
         <v>-11.0616</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G93" s="9">
         <f>1.41515588760375/200</f>
         <v>7.0757794380187497E-3</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H93" s="9">
         <v>-11.5398</v>
       </c>
-      <c r="I81" s="9">
+      <c r="I93" s="9">
         <f>1.7515857219696/200</f>
         <v>8.7579286098480001E-3</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J93" s="9">
         <v>-11.533899999999999</v>
       </c>
-      <c r="K81" s="30">
+      <c r="K93" s="29">
         <f>1.83847570419311/200</f>
         <v>9.1923785209655495E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A82" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B82" s="9">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A94" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B94" s="9">
         <v>2.2039</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9">
+      <c r="C94" s="9"/>
+      <c r="D94" s="9">
         <v>1.4112</v>
       </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9">
+      <c r="E94" s="9"/>
+      <c r="F94" s="9">
         <v>0.95120000000000005</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9">
+      <c r="G94" s="9"/>
+      <c r="H94" s="9">
         <v>0.77070000000000005</v>
       </c>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9">
+      <c r="I94" s="9"/>
+      <c r="J94" s="9">
         <v>0.59950000000000003</v>
       </c>
-      <c r="K82" s="30"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A83" s="12" t="s">
+      <c r="K94" s="29"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A95" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B95" s="9">
         <v>-11.7315</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C95" s="9">
         <f>0.743644952774047/200</f>
         <v>3.7182247638702349E-3</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D95" s="9">
         <v>-12.350300000000001</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E95" s="9">
         <f>0.808241128921508/200</f>
         <v>4.0412056446075401E-3</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F95" s="9">
         <v>-12.4358</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G95" s="9">
         <f xml:space="preserve"> 2.81512689590454/200</f>
         <v>1.4075634479522701E-2</v>
       </c>
-      <c r="H83" s="9">
+      <c r="H95" s="9">
         <v>-12.7623</v>
       </c>
-      <c r="I83" s="9">
+      <c r="I95" s="9">
         <f>3.38718914985656/200</f>
         <v>1.69359457492828E-2</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J95" s="9">
         <v>-12.7544</v>
       </c>
-      <c r="K83" s="30">
+      <c r="K95" s="29">
         <f>3.5751347541809/200</f>
         <v>1.7875673770904502E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="12" t="s">
+    <row r="96" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B96" s="9">
         <v>2.4887999999999999</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9">
+      <c r="C96" s="9"/>
+      <c r="D96" s="9">
         <v>1.5609</v>
       </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9">
+      <c r="E96" s="9"/>
+      <c r="F96" s="9">
         <v>1.0578000000000001</v>
       </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9">
+      <c r="G96" s="9"/>
+      <c r="H96" s="9">
         <v>0.8075</v>
       </c>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9">
+      <c r="I96" s="9"/>
+      <c r="J96" s="9">
         <v>0.63580000000000003</v>
       </c>
-      <c r="K84" s="30"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B85" s="9">
+      <c r="K96" s="29"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A97" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="9">
         <v>-11.2082</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C97" s="9">
         <f>8.5537621974945/200</f>
         <v>4.2768810987472497E-2</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" s="9">
+      <c r="D97" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="9">
         <f>8.43400382995605/200</f>
         <v>4.2170019149780247E-2</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G85" s="9">
+      <c r="F97" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G97" s="9">
         <f>10.424521446228/200</f>
         <v>5.2122607231140004E-2</v>
       </c>
-      <c r="H85" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="I85" s="9">
+      <c r="H97" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="I97" s="9">
         <f>13.5266025066375/200</f>
         <v>6.76330125331875E-2</v>
       </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="30"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="12" t="s">
+      <c r="J97" s="9"/>
+      <c r="K97" s="29"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B98" s="9">
         <v>2.4382999999999999</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="76">
+      <c r="C98" s="9"/>
+      <c r="D98" s="72">
         <v>1.5407</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9">
         <v>1.0585</v>
       </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="50">
+      <c r="G98" s="9"/>
+      <c r="H98" s="49">
         <v>0.79690000000000005</v>
       </c>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="8"/>
-    </row>
-    <row r="87" spans="1:11" s="71" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="E87" s="78">
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="8"/>
+    </row>
+    <row r="99" spans="1:11" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99" s="74">
         <f>8.48960757255554/200</f>
         <v>4.2448037862777704E-2</v>
       </c>
-      <c r="F87" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" s="78">
+      <c r="F99" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="G99" s="74">
         <f>9.56008505821228/200</f>
         <v>4.7800425291061405E-2</v>
       </c>
-      <c r="H87" s="79" t="s">
-        <v>103</v>
-      </c>
-      <c r="I87" s="78">
+      <c r="H99" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="I99" s="74">
         <f>11.0999789237976/200</f>
         <v>5.5499894618988001E-2</v>
       </c>
-      <c r="J87" s="79" t="s">
-        <v>120</v>
-      </c>
-      <c r="K87" s="80">
+      <c r="J99" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="K99" s="76">
         <f>12.9774138927459/200</f>
         <v>6.4887069463729505E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="81" t="s">
+    <row r="100" spans="1:11" s="67" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83">
+      <c r="B100" s="78"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="79">
         <v>1.597</v>
       </c>
-      <c r="E88" s="82"/>
-      <c r="F88" s="83">
+      <c r="E100" s="78"/>
+      <c r="F100" s="79">
         <v>1.0552999999999999</v>
       </c>
-      <c r="G88" s="82"/>
-      <c r="H88" s="83">
+      <c r="G100" s="78"/>
+      <c r="H100" s="79">
         <v>0.82789999999999997</v>
       </c>
-      <c r="I88" s="82"/>
-      <c r="J88" s="83">
+      <c r="I100" s="78"/>
+      <c r="J100" s="79">
         <v>0.61240000000000006</v>
       </c>
-      <c r="K88" s="84"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A89" s="33"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="64"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="64"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="64"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="64"/>
-      <c r="K89" s="21"/>
-    </row>
-    <row r="90" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="72"/>
-      <c r="B91" s="73" t="s">
+      <c r="K100" s="80"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A101" s="32"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="60"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="20"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="60"/>
+      <c r="K101" s="20"/>
+    </row>
+    <row r="102" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="27"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="27"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A103" s="68"/>
+      <c r="B103" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="D103" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F103" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="G103" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="H103" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="D91" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F91" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="G91" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="H91" s="73" t="s">
+      <c r="I103" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="I91" s="75" t="s">
-        <v>101</v>
-      </c>
-      <c r="J91" s="85"/>
-      <c r="K91" s="33"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B92" s="86">
+      <c r="J103" s="81"/>
+      <c r="K103" s="32"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A104" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B104" s="82">
         <v>-7.2732999999999999</v>
       </c>
-      <c r="C92" s="86">
+      <c r="C104" s="82">
         <f>3.30510807037353/200</f>
         <v>1.6525540351867648E-2</v>
       </c>
-      <c r="D92" s="86">
+      <c r="D104" s="82">
         <v>-9.4646000000000008</v>
       </c>
-      <c r="E92" s="86">
+      <c r="E104" s="82">
         <f>3.73610782623291/200</f>
         <v>1.8680539131164551E-2</v>
       </c>
-      <c r="F92" s="86">
+      <c r="F104" s="82">
         <v>-9.5103000000000009</v>
       </c>
-      <c r="G92" s="86">
+      <c r="G104" s="82">
         <f>3.9412202835083/200</f>
         <v>1.9706101417541498E-2</v>
       </c>
-      <c r="H92" s="86">
+      <c r="H104" s="82">
         <v>-9.6827000000000005</v>
       </c>
-      <c r="I92" s="87">
+      <c r="I104" s="83">
         <f>4.63441228866577/200</f>
         <v>2.317206144332885E-2</v>
       </c>
-      <c r="J92" s="9"/>
-      <c r="K92" s="63"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B93" s="86">
+      <c r="J104" s="9"/>
+      <c r="K104" s="59"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A105" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B105" s="82">
         <v>0.66759999999999997</v>
       </c>
-      <c r="C93" s="86"/>
-      <c r="D93" s="86">
+      <c r="C105" s="82"/>
+      <c r="D105" s="82">
         <v>0.6905</v>
       </c>
-      <c r="E93" s="86"/>
-      <c r="F93" s="86">
+      <c r="E105" s="82"/>
+      <c r="F105" s="82">
         <v>0.68589999999999995</v>
       </c>
-      <c r="G93" s="86"/>
-      <c r="H93" s="86">
+      <c r="G105" s="82"/>
+      <c r="H105" s="82">
         <v>0.49120000000000003</v>
       </c>
-      <c r="I93" s="87"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="63"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A94" s="12" t="s">
+      <c r="I105" s="83"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="59"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="86">
+      <c r="B106" s="82">
         <v>-11.763400000000001</v>
       </c>
-      <c r="C94" s="86">
+      <c r="C106" s="82">
         <f>6.93132138252258/200</f>
         <v>3.4656606912612901E-2</v>
       </c>
-      <c r="D94" s="86">
+      <c r="D106" s="82">
         <v>-12.1273</v>
       </c>
-      <c r="E94" s="86">
+      <c r="E106" s="82">
         <f>8.01621603965759/200</f>
         <v>4.0081080198287947E-2</v>
       </c>
-      <c r="F94" s="86">
+      <c r="F106" s="82">
         <v>-12.002599999999999</v>
       </c>
-      <c r="G94" s="86">
+      <c r="G106" s="82">
         <f>8.17840385437011/200</f>
         <v>4.0892019271850551E-2</v>
       </c>
-      <c r="H94" s="86">
+      <c r="H106" s="82">
         <v>-12.107100000000001</v>
       </c>
-      <c r="I94" s="87">
+      <c r="I106" s="83">
         <f>9.89218688011169/200</f>
         <v>4.9460934400558453E-2</v>
       </c>
-      <c r="J94" s="9"/>
-      <c r="K94" s="63"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A95" s="12" t="s">
+      <c r="J106" s="9"/>
+      <c r="K106" s="59"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A107" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B95" s="86">
+      <c r="B107" s="82">
         <v>0.9052</v>
       </c>
-      <c r="C95" s="86"/>
-      <c r="D95" s="86">
+      <c r="C107" s="82"/>
+      <c r="D107" s="82">
         <v>0.71509999999999996</v>
       </c>
-      <c r="E95" s="86"/>
-      <c r="F95" s="86">
+      <c r="E107" s="82"/>
+      <c r="F107" s="82">
         <v>0.66969999999999996</v>
       </c>
-      <c r="G95" s="86"/>
-      <c r="H95" s="86">
+      <c r="G107" s="82"/>
+      <c r="H107" s="82">
         <v>0.52600000000000002</v>
       </c>
-      <c r="I95" s="87"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="63"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
+      <c r="I107" s="83"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="59"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="86">
+      <c r="B108" s="82">
         <v>-11.6623</v>
       </c>
-      <c r="C96" s="86">
+      <c r="C108" s="82">
         <f>80.5346596240997/200</f>
         <v>0.40267329812049851</v>
       </c>
-      <c r="D96" s="86">
+      <c r="D108" s="82">
         <v>-11.852600000000001</v>
       </c>
-      <c r="E96" s="86">
+      <c r="E108" s="82">
         <f>85.9917159080505/200</f>
         <v>0.42995857954025246</v>
       </c>
-      <c r="F96" s="86">
+      <c r="F108" s="82">
         <v>-11.3972</v>
       </c>
-      <c r="G96" s="86">
+      <c r="G108" s="82">
         <f xml:space="preserve"> 102.554239511489/200</f>
         <v>0.51277119755744505</v>
       </c>
-      <c r="H96" s="86">
+      <c r="H108" s="82">
         <v>-10.0825</v>
       </c>
-      <c r="I96" s="87">
+      <c r="I108" s="83">
         <f xml:space="preserve"> 135.115339517593/200</f>
         <v>0.6755766975879649</v>
       </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="63"/>
-    </row>
-    <row r="97" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="13" t="s">
+      <c r="J108" s="9"/>
+      <c r="K108" s="59"/>
+    </row>
+    <row r="109" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B97" s="88">
+      <c r="B109" s="84">
         <v>0.89839999999999998</v>
       </c>
-      <c r="C97" s="88"/>
-      <c r="D97" s="89">
+      <c r="C109" s="84"/>
+      <c r="D109" s="85">
         <v>0.70909999999999995</v>
       </c>
-      <c r="E97" s="88"/>
-      <c r="F97" s="88">
+      <c r="E109" s="84"/>
+      <c r="F109" s="84">
         <v>0.80679999999999996</v>
       </c>
-      <c r="G97" s="88"/>
-      <c r="H97" s="88">
+      <c r="G109" s="84"/>
+      <c r="H109" s="84">
         <v>1.3221000000000001</v>
       </c>
-      <c r="I97" s="90"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A102" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A103" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="28" t="s">
+      <c r="I109" s="86"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="20"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A110" s="27"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A111" s="27"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="27"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
+    <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="14" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="37" t="s">
+      <c r="B118" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="37" t="s">
+      <c r="C118" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D106" s="37" t="s">
+      <c r="D118" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="37" t="s">
+      <c r="E118" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F106" s="37" t="s">
+      <c r="F118" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G106" s="48" t="s">
+      <c r="G118" s="47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="9">
+      <c r="B119" s="9">
         <v>2.7021000000000002</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C119" s="9">
         <v>-7.3941999999999997</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D119" s="9">
         <v>-17.366499999999998</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E119" s="9">
         <v>-27.2926</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F119" s="9">
         <v>-37.272500000000001</v>
       </c>
-      <c r="G107" s="30">
+      <c r="G119" s="29">
         <f>1.87291026115417/200</f>
         <v>9.3645513057708501E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" s="9">
-        <v>0.88500000000000001</v>
-      </c>
-      <c r="C108" s="9">
-        <v>0.90100000000000002</v>
-      </c>
-      <c r="D108" s="9">
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="E108" s="9">
-        <v>0.96560000000000001</v>
-      </c>
-      <c r="F108" s="9">
-        <v>1.0293000000000001</v>
-      </c>
-      <c r="G108" s="49"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A109" s="5"/>
-      <c r="B109" s="50"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="49"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="9">
-        <v>11.153700000000001</v>
-      </c>
-      <c r="C110" s="9">
-        <v>0.92630000000000001</v>
-      </c>
-      <c r="D110" s="9">
-        <v>-9.1595999999999993</v>
-      </c>
-      <c r="E110" s="9">
-        <v>-18.4282</v>
-      </c>
-      <c r="F110" s="9">
-        <v>-28.785699999999999</v>
-      </c>
-      <c r="G110" s="30">
-        <f>1.73989057540893/200</f>
-        <v>8.6994528770446503E-3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B111" s="9">
-        <v>3.0234000000000001</v>
-      </c>
-      <c r="C111" s="9">
-        <v>3.0640999999999998</v>
-      </c>
-      <c r="D111" s="9">
-        <v>3.6509</v>
-      </c>
-      <c r="E111" s="9">
-        <v>3.2534000000000001</v>
-      </c>
-      <c r="F111" s="9">
-        <v>3.3008000000000002</v>
-      </c>
-      <c r="G111" s="49"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" s="5"/>
-      <c r="B112" s="50"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="49"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B113" s="9">
-        <v>-1.8754</v>
-      </c>
-      <c r="C113" s="9">
-        <v>-11.879799999999999</v>
-      </c>
-      <c r="D113" s="9">
-        <v>-21.812200000000001</v>
-      </c>
-      <c r="E113" s="9">
-        <v>-31.9605</v>
-      </c>
-      <c r="F113" s="9">
-        <v>-41.809899999999999</v>
-      </c>
-      <c r="G113" s="30">
-        <f>3.64388179779052/200</f>
-        <v>1.82194089889526E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="9">
-        <v>1.2853000000000001</v>
-      </c>
-      <c r="C114" s="9">
-        <v>1.2719</v>
-      </c>
-      <c r="D114" s="9">
-        <v>1.1487000000000001</v>
-      </c>
-      <c r="E114" s="9">
-        <v>1.2646999999999999</v>
-      </c>
-      <c r="F114" s="9">
-        <v>1.1558999999999999</v>
-      </c>
-      <c r="G114" s="30"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="5"/>
-      <c r="B115" s="50"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="30"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B116" s="9">
-        <v>5.5016999999999996</v>
-      </c>
-      <c r="C116" s="9">
-        <v>-4.8254000000000001</v>
-      </c>
-      <c r="D116" s="9">
-        <v>-15.061500000000001</v>
-      </c>
-      <c r="E116" s="9">
-        <v>-24.198</v>
-      </c>
-      <c r="F116" s="9">
-        <v>-34.591799999999999</v>
-      </c>
-      <c r="G116" s="30">
-        <f>3.63707900047302/200</f>
-        <v>1.8185395002365098E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B117" s="9">
-        <v>2.9416000000000002</v>
-      </c>
-      <c r="C117" s="9">
-        <v>3.2046000000000001</v>
-      </c>
-      <c r="D117" s="9">
-        <v>3.4399000000000002</v>
-      </c>
-      <c r="E117" s="9">
-        <v>3.1190000000000002</v>
-      </c>
-      <c r="F117" s="9">
-        <v>3.133</v>
-      </c>
-      <c r="G117" s="49"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="5"/>
-      <c r="B118" s="50"/>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="49"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B119" s="9">
-        <f>-1.7902</f>
-        <v>-1.7902</v>
-      </c>
-      <c r="C119" s="9">
-        <v>-11.8467</v>
-      </c>
-      <c r="D119" s="9">
-        <v>-21.738299999999999</v>
-      </c>
-      <c r="E119" s="9">
-        <v>-31.619900000000001</v>
-      </c>
-      <c r="F119" s="9">
-        <v>-41.830800000000004</v>
-      </c>
-      <c r="G119" s="30">
-        <f>43.5942468643188/200</f>
-        <v>0.21797123432159399</v>
-      </c>
-    </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B120" s="9">
-        <v>1.2419</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="C120" s="9">
-        <v>1.1898</v>
+        <v>0.90100000000000002</v>
       </c>
       <c r="D120" s="9">
-        <v>1.2814000000000001</v>
+        <v>0.95669999999999999</v>
       </c>
       <c r="E120" s="9">
-        <v>1.1073</v>
-      </c>
-      <c r="F120" s="26">
-        <v>1.2888999999999999</v>
-      </c>
-      <c r="G120" s="30"/>
+        <v>0.96560000000000001</v>
+      </c>
+      <c r="F120" s="9">
+        <v>1.0293000000000001</v>
+      </c>
+      <c r="G120" s="48"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="5"/>
-      <c r="B121" s="9"/>
+      <c r="B121" s="49"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
-      <c r="G121" s="30"/>
+      <c r="G121" s="48"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B122" s="9">
-        <v>-0.77390000000000003</v>
+        <v>11.153700000000001</v>
       </c>
       <c r="C122" s="9">
-        <v>-10.8522</v>
+        <v>0.92630000000000001</v>
       </c>
       <c r="D122" s="9">
-        <v>-21.103899999999999</v>
+        <v>-9.1595999999999993</v>
       </c>
       <c r="E122" s="9">
-        <v>-29.667200000000001</v>
+        <v>-18.4282</v>
       </c>
       <c r="F122" s="9">
-        <v>-38.0655</v>
-      </c>
-      <c r="G122" s="30"/>
+        <v>-28.785699999999999</v>
+      </c>
+      <c r="G122" s="29">
+        <f>1.73989057540893/200</f>
+        <v>8.6994528770446503E-3</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B123" s="9">
-        <v>1.2433000000000001</v>
+        <v>3.0234000000000001</v>
       </c>
       <c r="C123" s="9">
-        <v>1.1579999999999999</v>
+        <v>3.0640999999999998</v>
       </c>
       <c r="D123" s="9">
-        <v>1.2155</v>
+        <v>3.6509</v>
       </c>
       <c r="E123" s="9">
-        <v>1.2145999999999999</v>
+        <v>3.2534000000000001</v>
       </c>
       <c r="F123" s="9">
-        <v>1.1361000000000001</v>
-      </c>
-      <c r="G123" s="30"/>
+        <v>3.3008000000000002</v>
+      </c>
+      <c r="G123" s="48"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="5"/>
-      <c r="B124" s="9"/>
+      <c r="B124" s="49"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
-      <c r="G124" s="30"/>
+      <c r="G124" s="48"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" s="9">
+        <v>-1.8754</v>
+      </c>
+      <c r="C125" s="9">
+        <v>-11.879799999999999</v>
+      </c>
+      <c r="D125" s="9">
+        <v>-21.812200000000001</v>
+      </c>
+      <c r="E125" s="9">
+        <v>-31.9605</v>
+      </c>
+      <c r="F125" s="9">
+        <v>-41.809899999999999</v>
+      </c>
+      <c r="G125" s="29">
+        <f>3.64388179779052/200</f>
+        <v>1.82194089889526E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126" s="9">
+        <v>1.2853000000000001</v>
+      </c>
+      <c r="C126" s="9">
+        <v>1.2719</v>
+      </c>
+      <c r="D126" s="9">
+        <v>1.1487000000000001</v>
+      </c>
+      <c r="E126" s="9">
+        <v>1.2646999999999999</v>
+      </c>
+      <c r="F126" s="9">
+        <v>1.1558999999999999</v>
+      </c>
+      <c r="G126" s="29"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" s="5"/>
+      <c r="B127" s="49"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="29"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="9">
+        <v>5.5016999999999996</v>
+      </c>
+      <c r="C128" s="9">
+        <v>-4.8254000000000001</v>
+      </c>
+      <c r="D128" s="9">
+        <v>-15.061500000000001</v>
+      </c>
+      <c r="E128" s="9">
+        <v>-24.198</v>
+      </c>
+      <c r="F128" s="9">
+        <v>-34.591799999999999</v>
+      </c>
+      <c r="G128" s="29">
+        <f>3.63707900047302/200</f>
+        <v>1.8185395002365098E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="9">
+        <v>2.9416000000000002</v>
+      </c>
+      <c r="C129" s="9">
+        <v>3.2046000000000001</v>
+      </c>
+      <c r="D129" s="9">
+        <v>3.4399000000000002</v>
+      </c>
+      <c r="E129" s="9">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="F129" s="9">
+        <v>3.133</v>
+      </c>
+      <c r="G129" s="48"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" s="5"/>
+      <c r="B130" s="49"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="49"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="48"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B131" s="9">
+        <f>-1.7902</f>
+        <v>-1.7902</v>
+      </c>
+      <c r="C131" s="9">
+        <v>-11.8467</v>
+      </c>
+      <c r="D131" s="9">
+        <v>-21.738299999999999</v>
+      </c>
+      <c r="E131" s="9">
+        <v>-31.619900000000001</v>
+      </c>
+      <c r="F131" s="9">
+        <v>-41.830800000000004</v>
+      </c>
+      <c r="G131" s="29">
+        <f>43.5942468643188/200</f>
+        <v>0.21797123432159399</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A132" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="9">
+        <v>1.2419</v>
+      </c>
+      <c r="C132" s="9">
+        <v>1.1898</v>
+      </c>
+      <c r="D132" s="9">
+        <v>1.2814000000000001</v>
+      </c>
+      <c r="E132" s="9">
+        <v>1.1073</v>
+      </c>
+      <c r="F132" s="25">
+        <v>1.2888999999999999</v>
+      </c>
+      <c r="G132" s="29"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A133" s="5"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="29"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B134" s="9">
+        <v>-0.77390000000000003</v>
+      </c>
+      <c r="C134" s="9">
+        <v>-10.8522</v>
+      </c>
+      <c r="D134" s="9">
+        <v>-21.103899999999999</v>
+      </c>
+      <c r="E134" s="9">
+        <v>-29.667200000000001</v>
+      </c>
+      <c r="F134" s="9">
+        <v>-38.0655</v>
+      </c>
+      <c r="G134" s="29"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" s="9">
+        <v>1.2433000000000001</v>
+      </c>
+      <c r="C135" s="9">
+        <v>1.1579999999999999</v>
+      </c>
+      <c r="D135" s="9">
+        <v>1.2155</v>
+      </c>
+      <c r="E135" s="9">
+        <v>1.2145999999999999</v>
+      </c>
+      <c r="F135" s="9">
+        <v>1.1361000000000001</v>
+      </c>
+      <c r="G135" s="29"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A136" s="5"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="29"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B137" s="9">
         <v>-1.7432000000000001</v>
       </c>
-      <c r="C125" s="9">
+      <c r="C137" s="9">
         <v>-11.6966</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D137" s="9">
         <v>-21.720500000000001</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E137" s="9">
         <v>-31.185500000000001</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F137" s="9">
         <v>-40.300899999999999</v>
       </c>
-      <c r="G125" s="30"/>
-    </row>
-    <row r="126" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="6" t="s">
+      <c r="G137" s="29"/>
+    </row>
+    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B126" s="31">
+      <c r="B138" s="30">
         <v>1.2693000000000001</v>
       </c>
-      <c r="C126" s="31">
+      <c r="C138" s="30">
         <v>1.2414000000000001</v>
       </c>
-      <c r="D126" s="31">
+      <c r="D138" s="30">
         <v>1.1528</v>
       </c>
-      <c r="E126" s="31">
+      <c r="E138" s="30">
         <v>1.2195</v>
       </c>
-      <c r="F126" s="31">
+      <c r="F138" s="30">
         <v>1.1687000000000001</v>
       </c>
-      <c r="G126" s="32"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="21"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
-      <c r="G127" s="17"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="33"/>
-      <c r="B128" s="33" t="s">
+      <c r="G138" s="31"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="20"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="32"/>
+      <c r="B140" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="21"/>
-      <c r="B129" s="18" t="s">
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="20"/>
+      <c r="B141" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C129" s="18"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
-      <c r="G129" s="17"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C132" s="19"/>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="C141" s="17"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A144" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C144" s="18"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="14" t="s">
+    <row r="146" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A147" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B135" s="37" t="s">
+      <c r="B147" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C135" s="37" t="s">
+      <c r="C147" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="37" t="s">
+      <c r="D147" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E135" s="37" t="s">
+      <c r="E147" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F135" s="37" t="s">
+      <c r="F147" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="G135" s="48" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
+      <c r="G147" s="47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A148" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B148" s="9">
         <v>3.4502999999999999</v>
       </c>
-      <c r="C136" s="9">
+      <c r="C148" s="9">
         <v>-6.5942999999999996</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D148" s="9">
         <v>-16.561499999999999</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E148" s="9">
         <v>-26.6008</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F148" s="9">
         <v>-36.565199999999997</v>
       </c>
-      <c r="G136" s="30">
+      <c r="G148" s="29">
         <f>1.81720042228698/1000</f>
         <v>1.8172004222869801E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B137" s="9">
-        <v>1.8456999999999999</v>
-      </c>
-      <c r="C137" s="9">
-        <v>1.8831</v>
-      </c>
-      <c r="D137" s="9">
-        <v>1.8754999999999999</v>
-      </c>
-      <c r="E137" s="9">
-        <v>1.9067000000000001</v>
-      </c>
-      <c r="F137" s="9">
-        <v>1.8309</v>
-      </c>
-      <c r="G137" s="49"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A138" s="5"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="49"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B139" s="9">
-        <v>33.961399999999998</v>
-      </c>
-      <c r="C139" s="9">
-        <v>23.832799999999999</v>
-      </c>
-      <c r="D139" s="9">
-        <v>13.8483</v>
-      </c>
-      <c r="E139" s="9">
-        <v>4.1989999999999998</v>
-      </c>
-      <c r="F139" s="9">
-        <v>-6.4336000000000002</v>
-      </c>
-      <c r="G139" s="30"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A140" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B140" s="9">
-        <v>3.9329999999999998</v>
-      </c>
-      <c r="C140" s="9">
-        <v>3.8573</v>
-      </c>
-      <c r="D140" s="9">
-        <v>3.6829000000000001</v>
-      </c>
-      <c r="E140" s="9">
-        <v>3.8494999999999999</v>
-      </c>
-      <c r="F140" s="9">
-        <v>3.8119000000000001</v>
-      </c>
-      <c r="G140" s="49"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A141" s="5"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="49"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B142" s="9">
-        <v>-3.8433999999999999</v>
-      </c>
-      <c r="C142" s="9">
-        <v>-13.9133</v>
-      </c>
-      <c r="D142" s="9">
-        <v>-23.5916</v>
-      </c>
-      <c r="E142" s="9">
-        <v>-33.8613</v>
-      </c>
-      <c r="F142" s="9">
-        <v>-43.593000000000004</v>
-      </c>
-      <c r="G142" s="30">
-        <f>3.73042225837707/1000</f>
-        <v>3.7304222583770699E-3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" s="9">
-        <v>2.6547999999999998</v>
-      </c>
-      <c r="C143" s="9">
-        <v>2.7086999999999999</v>
-      </c>
-      <c r="D143" s="9">
-        <v>2.7507000000000001</v>
-      </c>
-      <c r="E143" s="9">
-        <v>2.7532999999999999</v>
-      </c>
-      <c r="F143" s="9">
-        <v>2.7458</v>
-      </c>
-      <c r="G143" s="30"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A144" s="5"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="30"/>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A145" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B145" s="9">
-        <v>32.962600000000002</v>
-      </c>
-      <c r="C145" s="9">
-        <v>22.838000000000001</v>
-      </c>
-      <c r="D145" s="9">
-        <v>12.853400000000001</v>
-      </c>
-      <c r="E145" s="9">
-        <v>3.2014</v>
-      </c>
-      <c r="F145" s="9">
-        <v>-7.4305000000000003</v>
-      </c>
-      <c r="G145" s="30"/>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B146" s="9">
-        <v>3.9333999999999998</v>
-      </c>
-      <c r="C146" s="9">
-        <v>3.859</v>
-      </c>
-      <c r="D146" s="9">
-        <v>3.6848999999999998</v>
-      </c>
-      <c r="E146" s="9">
-        <v>3.851</v>
-      </c>
-      <c r="F146" s="9">
-        <v>3.8092000000000001</v>
-      </c>
-      <c r="G146" s="49"/>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A147" s="5"/>
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="50"/>
-      <c r="G147" s="49"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B148" s="9">
-        <v>-3.3506</v>
-      </c>
-      <c r="C148" s="9">
-        <v>-13.5854</v>
-      </c>
-      <c r="D148" s="9">
-        <v>-23.3325</v>
-      </c>
-      <c r="E148" s="9">
-        <v>-33.126199999999997</v>
-      </c>
-      <c r="F148" s="9">
-        <v>-43.1599</v>
-      </c>
-      <c r="G148" s="30">
-        <f>44.6756930351257/1000</f>
-        <v>4.4675693035125696E-2</v>
-      </c>
-    </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B149" s="9">
-        <v>2.6993</v>
+        <v>1.8456999999999999</v>
       </c>
       <c r="C149" s="9">
-        <v>2.6728000000000001</v>
+        <v>1.8831</v>
       </c>
       <c r="D149" s="9">
-        <v>2.6707000000000001</v>
+        <v>1.8754999999999999</v>
       </c>
       <c r="E149" s="9">
-        <v>2.6284000000000001</v>
+        <v>1.9067000000000001</v>
       </c>
       <c r="F149" s="9">
-        <v>2.6488</v>
-      </c>
-      <c r="G149" s="30"/>
+        <v>1.8309</v>
+      </c>
+      <c r="G149" s="48"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="5"/>
-      <c r="B150" s="9"/>
+      <c r="B150" s="49"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="30"/>
+      <c r="G150" s="48"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B151" s="9">
-        <v>10.5525</v>
+        <v>33.961399999999998</v>
       </c>
       <c r="C151" s="9">
-        <v>-2.0112999999999999</v>
+        <v>23.832799999999999</v>
       </c>
       <c r="D151" s="9">
-        <v>-10.688499999999999</v>
+        <v>13.8483</v>
       </c>
       <c r="E151" s="9">
-        <v>-21.682500000000001</v>
+        <v>4.1989999999999998</v>
       </c>
       <c r="F151" s="9">
-        <v>-31.886700000000001</v>
-      </c>
-      <c r="G151" s="30"/>
+        <v>-6.4336000000000002</v>
+      </c>
+      <c r="G151" s="29"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B152" s="9">
-        <v>3.1505999999999998</v>
+        <v>3.9329999999999998</v>
       </c>
       <c r="C152" s="9">
-        <v>1.9450000000000001</v>
+        <v>3.8573</v>
       </c>
       <c r="D152" s="9">
-        <v>1.9343999999999999</v>
+        <v>3.6829000000000001</v>
       </c>
       <c r="E152" s="9">
-        <v>1.6428</v>
+        <v>3.8494999999999999</v>
       </c>
       <c r="F152" s="9">
-        <v>1.2435</v>
-      </c>
-      <c r="G152" s="30"/>
+        <v>3.8119000000000001</v>
+      </c>
+      <c r="G152" s="48"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="5"/>
-      <c r="B153" s="9"/>
+      <c r="B153" s="49"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="30"/>
+      <c r="G153" s="48"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="9">
+        <v>-3.8433999999999999</v>
+      </c>
+      <c r="C154" s="9">
+        <v>-13.9133</v>
+      </c>
+      <c r="D154" s="9">
+        <v>-23.5916</v>
+      </c>
+      <c r="E154" s="9">
+        <v>-33.8613</v>
+      </c>
+      <c r="F154" s="9">
+        <v>-43.593000000000004</v>
+      </c>
+      <c r="G154" s="29">
+        <f>3.73042225837707/1000</f>
+        <v>3.7304222583770699E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B155" s="9">
+        <v>2.6547999999999998</v>
+      </c>
+      <c r="C155" s="9">
+        <v>2.7086999999999999</v>
+      </c>
+      <c r="D155" s="9">
+        <v>2.7507000000000001</v>
+      </c>
+      <c r="E155" s="9">
+        <v>2.7532999999999999</v>
+      </c>
+      <c r="F155" s="9">
+        <v>2.7458</v>
+      </c>
+      <c r="G155" s="29"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="5"/>
+      <c r="B156" s="49"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="29"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B157" s="9">
+        <v>32.962600000000002</v>
+      </c>
+      <c r="C157" s="9">
+        <v>22.838000000000001</v>
+      </c>
+      <c r="D157" s="9">
+        <v>12.853400000000001</v>
+      </c>
+      <c r="E157" s="9">
+        <v>3.2014</v>
+      </c>
+      <c r="F157" s="9">
+        <v>-7.4305000000000003</v>
+      </c>
+      <c r="G157" s="29"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="9">
+        <v>3.9333999999999998</v>
+      </c>
+      <c r="C158" s="9">
+        <v>3.859</v>
+      </c>
+      <c r="D158" s="9">
+        <v>3.6848999999999998</v>
+      </c>
+      <c r="E158" s="9">
+        <v>3.851</v>
+      </c>
+      <c r="F158" s="9">
+        <v>3.8092000000000001</v>
+      </c>
+      <c r="G158" s="48"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="5"/>
+      <c r="B159" s="49"/>
+      <c r="C159" s="49"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="49"/>
+      <c r="F159" s="49"/>
+      <c r="G159" s="48"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="9">
+        <v>-3.3506</v>
+      </c>
+      <c r="C160" s="9">
+        <v>-13.5854</v>
+      </c>
+      <c r="D160" s="9">
+        <v>-23.3325</v>
+      </c>
+      <c r="E160" s="9">
+        <v>-33.126199999999997</v>
+      </c>
+      <c r="F160" s="9">
+        <v>-43.1599</v>
+      </c>
+      <c r="G160" s="29">
+        <f>44.6756930351257/1000</f>
+        <v>4.4675693035125696E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A161" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B161" s="9">
+        <v>2.6993</v>
+      </c>
+      <c r="C161" s="9">
+        <v>2.6728000000000001</v>
+      </c>
+      <c r="D161" s="9">
+        <v>2.6707000000000001</v>
+      </c>
+      <c r="E161" s="9">
+        <v>2.6284000000000001</v>
+      </c>
+      <c r="F161" s="9">
+        <v>2.6488</v>
+      </c>
+      <c r="G161" s="29"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="5"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="29"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A163" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B163" s="9">
+        <v>10.5525</v>
+      </c>
+      <c r="C163" s="9">
+        <v>-2.0112999999999999</v>
+      </c>
+      <c r="D163" s="9">
+        <v>-10.688499999999999</v>
+      </c>
+      <c r="E163" s="9">
+        <v>-21.682500000000001</v>
+      </c>
+      <c r="F163" s="9">
+        <v>-31.886700000000001</v>
+      </c>
+      <c r="G163" s="29"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="9">
+        <v>3.1505999999999998</v>
+      </c>
+      <c r="C164" s="9">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="D164" s="9">
+        <v>1.9343999999999999</v>
+      </c>
+      <c r="E164" s="9">
+        <v>1.6428</v>
+      </c>
+      <c r="F164" s="9">
+        <v>1.2435</v>
+      </c>
+      <c r="G164" s="29"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="5"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="29"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A166" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B154" s="9">
+      <c r="B166" s="9">
         <v>-3.4333999999999998</v>
       </c>
-      <c r="C154" s="9">
+      <c r="C166" s="9">
         <v>-12.944599999999999</v>
       </c>
-      <c r="D154" s="9">
+      <c r="D166" s="9">
         <v>-23.013100000000001</v>
       </c>
-      <c r="E154" s="9">
+      <c r="E166" s="9">
         <v>-32.932000000000002</v>
       </c>
-      <c r="F154" s="9">
+      <c r="F166" s="9">
         <v>-41.863900000000001</v>
       </c>
-      <c r="G154" s="30"/>
-    </row>
-    <row r="155" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="6" t="s">
+      <c r="G166" s="29"/>
+    </row>
+    <row r="167" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B155" s="31">
+      <c r="B167" s="30">
         <v>2.6326999999999998</v>
       </c>
-      <c r="C155" s="31">
+      <c r="C167" s="30">
         <v>2.6817000000000002</v>
       </c>
-      <c r="D155" s="31">
+      <c r="D167" s="30">
         <v>2.7978000000000001</v>
       </c>
-      <c r="E155" s="31">
+      <c r="E167" s="30">
         <v>2.4706999999999999</v>
       </c>
-      <c r="F155" s="31">
+      <c r="F167" s="30">
         <v>2.6570999999999998</v>
       </c>
-      <c r="G155" s="32"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B156" s="29"/>
-      <c r="C156" s="29"/>
-      <c r="D156" s="29"/>
-      <c r="E156" s="29"/>
-      <c r="F156" s="29"/>
-      <c r="G156" s="29"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B157" s="61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B158" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A161" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="7" t="s">
-        <v>142</v>
-      </c>
+      <c r="G167" s="31"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="28" t="s">
-        <v>143</v>
-      </c>
       <c r="B168" s="28"/>
       <c r="C168" s="28"/>
       <c r="D168" s="28"/>
@@ -4093,394 +4214,425 @@
       <c r="F168" s="28"/>
       <c r="G168" s="28"/>
     </row>
-    <row r="169" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="28" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B169" s="57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B170" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B180" s="27"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A181" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B181" s="27"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="B169" s="28"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
-      <c r="E169" s="28"/>
-      <c r="F169" s="28"/>
-      <c r="G169" s="28"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B170" s="73">
+      <c r="B182" s="69">
         <v>-10</v>
       </c>
-      <c r="C170" s="73">
+      <c r="C182" s="69">
         <v>0</v>
       </c>
-      <c r="D170" s="73">
+      <c r="D182" s="69">
         <v>10</v>
       </c>
-      <c r="E170" s="94">
+      <c r="E182" s="90">
         <v>20</v>
       </c>
-      <c r="F170" s="85"/>
-      <c r="G170" s="85"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="95" t="s">
+      <c r="F182" s="81"/>
+      <c r="G182" s="81"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B171" s="76">
+      <c r="B183" s="72">
         <v>10.021800000000001</v>
       </c>
-      <c r="C171" s="76">
+      <c r="C183" s="72">
         <v>-1E-4</v>
       </c>
-      <c r="D171" s="76">
+      <c r="D183" s="72">
         <v>-10.0009</v>
       </c>
-      <c r="E171" s="55">
+      <c r="E183" s="54">
         <v>-20.009399999999999</v>
       </c>
-      <c r="F171" s="76"/>
-      <c r="G171" s="35"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="95" t="s">
+      <c r="F183" s="72"/>
+      <c r="G183" s="34"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="B172" s="76">
+      <c r="B184" s="72">
         <v>0.40789999999999998</v>
       </c>
-      <c r="C172" s="76">
+      <c r="C184" s="72">
         <v>0.41980000000000001</v>
       </c>
-      <c r="D172" s="76">
+      <c r="D184" s="72">
         <v>0.42220000000000002</v>
       </c>
-      <c r="E172" s="55">
+      <c r="E184" s="54">
         <v>0.41310000000000002</v>
       </c>
-      <c r="F172" s="76"/>
-      <c r="G172" s="35"/>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B173" s="9">
+      <c r="F184" s="72"/>
+      <c r="G184" s="34"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B185" s="9">
         <v>8.0785</v>
       </c>
-      <c r="C173" s="9">
+      <c r="C185" s="9">
         <v>-0.36620000000000003</v>
       </c>
-      <c r="D173" s="9">
+      <c r="D185" s="9">
         <v>-10.040800000000001</v>
       </c>
-      <c r="E173" s="30">
+      <c r="E185" s="29">
         <v>-20.0139</v>
       </c>
-      <c r="F173" s="9"/>
-      <c r="G173" s="35"/>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B174" s="9">
+      <c r="F185" s="9"/>
+      <c r="G185" s="34"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B186" s="9">
         <v>0.4738</v>
       </c>
-      <c r="C174" s="9">
+      <c r="C186" s="9">
         <v>0.41570000000000001</v>
       </c>
-      <c r="D174" s="9">
+      <c r="D186" s="9">
         <v>0.42080000000000001</v>
       </c>
-      <c r="E174" s="30">
+      <c r="E186" s="29">
         <v>0.41360000000000002</v>
       </c>
-      <c r="F174" s="9"/>
-      <c r="G174" s="35"/>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="39" t="s">
+      <c r="F186" s="9"/>
+      <c r="G186" s="34"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B175" s="9">
+      <c r="B187" s="9">
         <v>6.2323000000000004</v>
       </c>
-      <c r="C175" s="9">
+      <c r="C187" s="9">
         <v>-0.8518</v>
       </c>
-      <c r="D175" s="9">
+      <c r="D187" s="9">
         <v>-10.102499999999999</v>
       </c>
-      <c r="E175" s="30">
+      <c r="E187" s="29">
         <v>-20.0198</v>
       </c>
-      <c r="F175" s="9"/>
-      <c r="G175" s="35"/>
-    </row>
-    <row r="176" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="40" t="s">
+      <c r="F187" s="9"/>
+      <c r="G187" s="34"/>
+    </row>
+    <row r="188" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B176" s="31">
+      <c r="B188" s="30">
         <v>0.49349999999999999</v>
       </c>
-      <c r="C176" s="31">
+      <c r="C188" s="30">
         <v>0.41720000000000002</v>
       </c>
-      <c r="D176" s="31">
+      <c r="D188" s="30">
         <v>0.42209999999999998</v>
       </c>
-      <c r="E176" s="32">
+      <c r="E188" s="31">
         <v>0.41389999999999999</v>
       </c>
-      <c r="F176" s="9"/>
-      <c r="G176" s="35"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="28"/>
-      <c r="B177" s="28"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
-      <c r="E177" s="28"/>
-      <c r="F177" s="28"/>
-      <c r="G177" s="28"/>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="28"/>
-      <c r="B178" s="28"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
-    </row>
-    <row r="179" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="28" t="s">
+      <c r="F188" s="9"/>
+      <c r="G188" s="34"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" s="27"/>
+      <c r="B189" s="27"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" s="27"/>
+      <c r="B190" s="27"/>
+      <c r="C190" s="27"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+    </row>
+    <row r="191" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B191" s="27"/>
+      <c r="C191" s="27"/>
+      <c r="D191" s="27"/>
+      <c r="E191" s="27"/>
+      <c r="F191" s="27"/>
+      <c r="G191" s="27"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B192" s="69">
+        <v>-10</v>
+      </c>
+      <c r="C192" s="69">
+        <v>0</v>
+      </c>
+      <c r="D192" s="69">
+        <v>10</v>
+      </c>
+      <c r="E192" s="69">
+        <v>20</v>
+      </c>
+      <c r="F192" s="90">
+        <v>30</v>
+      </c>
+      <c r="G192" s="27"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="B193" s="72">
+        <v>9.9992999999999999</v>
+      </c>
+      <c r="C193" s="72">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="D193" s="72">
+        <v>-9.9928000000000008</v>
+      </c>
+      <c r="E193" s="72">
+        <v>-20.0136</v>
+      </c>
+      <c r="F193" s="54">
+        <v>-30.004000000000001</v>
+      </c>
+      <c r="G193" s="27"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B194" s="72">
+        <v>0.41639999999999999</v>
+      </c>
+      <c r="C194" s="72">
+        <v>0.4022</v>
+      </c>
+      <c r="D194" s="72">
+        <v>0.4098</v>
+      </c>
+      <c r="E194" s="72">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="F194" s="54">
+        <v>0.39079999999999998</v>
+      </c>
+      <c r="G194" s="27"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B179" s="28"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="B180" s="73">
-        <v>-10</v>
-      </c>
-      <c r="C180" s="73">
-        <v>0</v>
-      </c>
-      <c r="D180" s="73">
-        <v>10</v>
-      </c>
-      <c r="E180" s="73">
-        <v>20</v>
-      </c>
-      <c r="F180" s="94">
-        <v>30</v>
-      </c>
-      <c r="G180" s="28"/>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="95" t="s">
+      <c r="B195" s="9">
+        <v>2.6894</v>
+      </c>
+      <c r="C195" s="9">
+        <v>-4.6473000000000004</v>
+      </c>
+      <c r="D195" s="9">
+        <v>-11.911799999999999</v>
+      </c>
+      <c r="E195" s="9">
+        <v>-20.385999999999999</v>
+      </c>
+      <c r="F195" s="29">
+        <v>-30.0456</v>
+      </c>
+      <c r="G195" s="27"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B196" s="9">
+        <v>0.94330000000000003</v>
+      </c>
+      <c r="C196" s="9">
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="D196" s="9">
+        <v>0.48320000000000002</v>
+      </c>
+      <c r="E196" s="9">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="F196" s="29">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="G196" s="27"/>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="9">
+        <v>-1.7606999999999999</v>
+      </c>
+      <c r="C197" s="9">
+        <v>-8.1674000000000007</v>
+      </c>
+      <c r="D197" s="9">
+        <v>-13.776999999999999</v>
+      </c>
+      <c r="E197" s="9">
+        <v>-20.873999999999999</v>
+      </c>
+      <c r="F197" s="29">
+        <v>-30.104199999999999</v>
+      </c>
+      <c r="G197" s="27"/>
+    </row>
+    <row r="198" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B198" s="30">
+        <v>1.2151000000000001</v>
+      </c>
+      <c r="C198" s="30">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="D198" s="30">
+        <v>0.49209999999999998</v>
+      </c>
+      <c r="E198" s="30">
+        <v>0.41810000000000003</v>
+      </c>
+      <c r="F198" s="31">
+        <v>0.3926</v>
+      </c>
+      <c r="G198" s="27"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" s="27"/>
+      <c r="B199" s="27"/>
+      <c r="C199" s="27"/>
+      <c r="D199" s="27"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="27"/>
+    </row>
+    <row r="200" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="B181" s="76">
-        <v>9.9992999999999999</v>
-      </c>
-      <c r="C181" s="76">
-        <v>9.2999999999999992E-3</v>
-      </c>
-      <c r="D181" s="76">
-        <v>-9.9928000000000008</v>
-      </c>
-      <c r="E181" s="76">
-        <v>-20.0136</v>
-      </c>
-      <c r="F181" s="55">
-        <v>-30.004000000000001</v>
-      </c>
-      <c r="G181" s="28"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="95" t="s">
+      <c r="B201" s="14"/>
+      <c r="C201" s="93">
+        <v>-8.1576000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="B182" s="76">
-        <v>0.41639999999999999</v>
-      </c>
-      <c r="C182" s="76">
-        <v>0.4022</v>
-      </c>
-      <c r="D182" s="76">
-        <v>0.4098</v>
-      </c>
-      <c r="E182" s="76">
-        <v>0.42599999999999999</v>
-      </c>
-      <c r="F182" s="55">
-        <v>0.39079999999999998</v>
-      </c>
-      <c r="G182" s="28"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="B183" s="9">
-        <v>2.6894</v>
-      </c>
-      <c r="C183" s="9">
-        <v>-4.6473000000000004</v>
-      </c>
-      <c r="D183" s="9">
-        <v>-11.911799999999999</v>
-      </c>
-      <c r="E183" s="9">
-        <v>-20.385999999999999</v>
-      </c>
-      <c r="F183" s="30">
-        <v>-30.0456</v>
-      </c>
-      <c r="G183" s="28"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B184" s="9">
-        <v>0.94330000000000003</v>
-      </c>
-      <c r="C184" s="9">
-        <v>0.70750000000000002</v>
-      </c>
-      <c r="D184" s="9">
-        <v>0.48320000000000002</v>
-      </c>
-      <c r="E184" s="9">
-        <v>0.42049999999999998</v>
-      </c>
-      <c r="F184" s="30">
-        <v>0.39340000000000003</v>
-      </c>
-      <c r="G184" s="28"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="9">
-        <v>-1.7606999999999999</v>
-      </c>
-      <c r="C185" s="9">
-        <v>-8.1674000000000007</v>
-      </c>
-      <c r="D185" s="9">
-        <v>-13.776999999999999</v>
-      </c>
-      <c r="E185" s="9">
-        <v>-20.873999999999999</v>
-      </c>
-      <c r="F185" s="30">
-        <v>-30.104199999999999</v>
-      </c>
-      <c r="G185" s="28"/>
-    </row>
-    <row r="186" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="40" t="s">
+      <c r="B202" s="20"/>
+      <c r="C202" s="94">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B203" s="20"/>
+      <c r="C203" s="94">
+        <v>-12.7606</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B186" s="31">
-        <v>1.2151000000000001</v>
-      </c>
-      <c r="C186" s="31">
-        <v>0.77839999999999998</v>
-      </c>
-      <c r="D186" s="31">
-        <v>0.49209999999999998</v>
-      </c>
-      <c r="E186" s="31">
-        <v>0.41810000000000003</v>
-      </c>
-      <c r="F186" s="32">
-        <v>0.3926</v>
-      </c>
-      <c r="G186" s="28"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="28"/>
-      <c r="B187" s="28"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="28"/>
-      <c r="G187" s="28"/>
-    </row>
-    <row r="188" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="B189" s="15"/>
-      <c r="C189" s="97">
-        <v>-8.1576000000000004</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="B190" s="21"/>
-      <c r="C190" s="98">
-        <v>0.40889999999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="39" t="s">
+      <c r="B204" s="20"/>
+      <c r="C204" s="94">
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="B191" s="21"/>
-      <c r="C191" s="98">
-        <v>-12.7606</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="39" t="s">
+      <c r="B205" s="20"/>
+      <c r="C205" s="94">
+        <v>-8.1062999999999992</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B192" s="21"/>
-      <c r="C192" s="98">
-        <v>0.50029999999999997</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="B193" s="21"/>
-      <c r="C193" s="98">
-        <v>-8.1062999999999992</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B194" s="24"/>
-      <c r="C194" s="99">
+      <c r="B206" s="23"/>
+      <c r="C206" s="95">
         <v>0.77159999999999995</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="21"/>
-      <c r="B195" s="21"/>
-      <c r="C195" s="21"/>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A207" s="20"/>
+      <c r="B207" s="20"/>
+      <c r="C207" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -4507,12 +4659,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -4520,69 +4672,69 @@
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="33" t="s">
-        <v>167</v>
+      <c r="G4" s="32" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="63">
+        <v>169</v>
+      </c>
+      <c r="B5" s="59">
         <v>10.016999999999999</v>
       </c>
-      <c r="C5" s="63">
+      <c r="C5" s="59">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="59">
         <v>-10.0108</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="59">
         <v>-19.941700000000001</v>
       </c>
-      <c r="F5" s="104">
+      <c r="F5" s="100">
         <v>-29.985800000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="63">
+        <v>154</v>
+      </c>
+      <c r="B6" s="59">
         <v>0.33400000000000002</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="59">
         <v>0.37640000000000001</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="59">
         <v>0.36840000000000001</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="59">
         <v>0.34689999999999999</v>
       </c>
-      <c r="F6" s="104">
+      <c r="F6" s="100">
         <v>0.35389999999999999</v>
       </c>
     </row>
@@ -4590,19 +4742,19 @@
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="63">
+      <c r="B7" s="59">
         <v>-0.29899999999999999</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="97">
         <v>-10.532999999999999</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="97">
         <v>-20.492699999999999</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="97">
         <v>-30.348199999999999</v>
       </c>
-      <c r="F7" s="105">
+      <c r="F7" s="101">
         <v>-40.4833</v>
       </c>
       <c r="G7">
@@ -4612,81 +4764,81 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="63">
+        <v>154</v>
+      </c>
+      <c r="B8" s="59">
         <v>1.0844</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="97">
         <v>1.016</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="97">
         <v>0.96919999999999995</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="97">
         <v>1.0161</v>
       </c>
-      <c r="F8" s="105">
+      <c r="F8" s="101">
         <v>0.99170000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="63">
+        <v>152</v>
+      </c>
+      <c r="B9" s="59">
         <v>-0.25769999999999998</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="97">
         <v>-9.7469999999999999</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="97">
         <v>-15.945</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="97">
         <v>-17.548500000000001</v>
       </c>
-      <c r="F9" s="105">
+      <c r="F9" s="101">
         <v>-17.7516</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="63">
+        <v>154</v>
+      </c>
+      <c r="B10" s="59">
         <v>1.0732999999999999</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="97">
         <v>0.98750000000000004</v>
       </c>
-      <c r="D10" s="101">
+      <c r="D10" s="97">
         <v>0.76859999999999995</v>
       </c>
-      <c r="E10" s="101">
+      <c r="E10" s="97">
         <v>0.32450000000000001</v>
       </c>
-      <c r="F10" s="105">
+      <c r="F10" s="101">
         <v>0.1086</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="63">
+        <v>148</v>
+      </c>
+      <c r="B11" s="59">
         <v>-3.8923999999999999</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="97">
         <v>-13.7515</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="97">
         <v>-23.868400000000001</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="97">
         <v>-33.743299999999998</v>
       </c>
-      <c r="F11" s="105">
+      <c r="F11" s="101">
         <v>-43.755000000000003</v>
       </c>
       <c r="G11">
@@ -4696,81 +4848,81 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="63">
+        <v>154</v>
+      </c>
+      <c r="B12" s="59">
         <v>0.99550000000000005</v>
       </c>
-      <c r="C12" s="101">
+      <c r="C12" s="97">
         <v>1.161</v>
       </c>
-      <c r="D12" s="101">
+      <c r="D12" s="97">
         <v>1.0254000000000001</v>
       </c>
-      <c r="E12" s="101">
+      <c r="E12" s="97">
         <v>1.0127999999999999</v>
       </c>
-      <c r="F12" s="105">
+      <c r="F12" s="101">
         <v>1.1445000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="63">
+        <v>153</v>
+      </c>
+      <c r="B13" s="59">
         <v>-3.8243</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="97">
         <v>-12.9322</v>
       </c>
-      <c r="D13" s="101">
+      <c r="D13" s="97">
         <v>-18.9573</v>
       </c>
-      <c r="E13" s="101">
+      <c r="E13" s="97">
         <v>-20.362500000000001</v>
       </c>
-      <c r="F13" s="105">
+      <c r="F13" s="101">
         <v>-20.562799999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="9">
         <v>0.97599999999999998</v>
       </c>
-      <c r="C14" s="101">
+      <c r="C14" s="97">
         <v>1.1217999999999999</v>
       </c>
-      <c r="D14" s="101">
+      <c r="D14" s="97">
         <v>0.85319999999999996</v>
       </c>
-      <c r="E14" s="101">
+      <c r="E14" s="97">
         <v>0.36549999999999999</v>
       </c>
-      <c r="F14" s="105">
+      <c r="F14" s="101">
         <v>0.12570000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B15" s="9">
         <v>-2.3456000000000001</v>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="97">
         <v>-13.049799999999999</v>
       </c>
-      <c r="D15" s="101">
+      <c r="D15" s="97">
         <v>-22.5517</v>
       </c>
-      <c r="E15" s="101">
+      <c r="E15" s="97">
         <v>-32.542200000000001</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="101">
         <v>-42.238599999999998</v>
       </c>
       <c r="G15">
@@ -4780,133 +4932,133 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B16" s="9">
         <v>0.94630000000000003</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C16" s="97">
         <v>1.1852</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D16" s="97">
         <v>1.0452999999999999</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E16" s="97">
         <v>1.0355000000000001</v>
       </c>
-      <c r="F16" s="105">
+      <c r="F16" s="101">
         <v>1.044</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B17" s="9">
         <v>-2.1879</v>
       </c>
-      <c r="C17" s="101">
+      <c r="C17" s="97">
         <v>-12.495900000000001</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D17" s="97">
         <v>-22.084499999999998</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E17" s="97">
         <v>-30.325099999999999</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="101">
         <v>-36.4617</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B18" s="9">
         <v>1.0165999999999999</v>
       </c>
-      <c r="C18" s="101">
+      <c r="C18" s="97">
         <v>1.0869</v>
       </c>
-      <c r="D18" s="101">
+      <c r="D18" s="97">
         <v>1.0253000000000001</v>
       </c>
-      <c r="E18" s="101">
+      <c r="E18" s="97">
         <v>1.0752999999999999</v>
       </c>
-      <c r="F18" s="105">
+      <c r="F18" s="101">
         <v>0.84219999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="9">
         <v>-2.3359999999999999</v>
       </c>
-      <c r="C19" s="101">
+      <c r="C19" s="97">
         <v>-12.340199999999999</v>
       </c>
-      <c r="D19" s="101">
+      <c r="D19" s="97">
         <v>-23.157599999999999</v>
       </c>
-      <c r="E19" s="101">
+      <c r="E19" s="97">
         <v>-31.374500000000001</v>
       </c>
-      <c r="F19" s="105">
+      <c r="F19" s="101">
         <v>-40.850499999999997</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B20" s="31">
+        <v>154</v>
+      </c>
+      <c r="B20" s="30">
         <v>1.0219</v>
       </c>
-      <c r="C20" s="107">
+      <c r="C20" s="103">
         <v>1.1998</v>
       </c>
-      <c r="D20" s="107">
+      <c r="D20" s="103">
         <v>1.0428999999999999</v>
       </c>
-      <c r="E20" s="107">
+      <c r="E20" s="103">
         <v>1.1060000000000001</v>
       </c>
-      <c r="F20" s="106">
+      <c r="F20" s="102">
         <v>1.0668</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
-      <c r="B22" s="100" t="s">
-        <v>159</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
-      <c r="B23" s="100" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="15" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4921,7 +5073,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="8">
         <f>68.7835264205932/200</f>
@@ -4932,55 +5084,55 @@
       <c r="A28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <f>55.7775883674621/200</f>
         <v>0.27888794183731053</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="61" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="65" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="66">
+      <c r="B34" s="62">
         <v>-10</v>
       </c>
-      <c r="C34" s="66">
+      <c r="C34" s="62">
         <v>0</v>
       </c>
-      <c r="D34" s="66">
+      <c r="D34" s="62">
         <v>10</v>
       </c>
-      <c r="E34" s="66">
+      <c r="E34" s="62">
         <v>20</v>
       </c>
-      <c r="F34" s="66">
+      <c r="F34" s="62">
         <v>30</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="63">
         <v>40</v>
       </c>
       <c r="H34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B35">
         <v>0.64659999999999995</v>
@@ -4997,58 +5149,58 @@
       <c r="F35">
         <v>-30.135000000000002</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="22">
         <v>-39.999699999999997</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C36" s="19">
+        <v>146</v>
+      </c>
+      <c r="C36" s="18">
         <v>-10.0745</v>
       </c>
-      <c r="G36" s="23"/>
-      <c r="H36" s="19">
+      <c r="G36" s="22"/>
+      <c r="H36" s="18">
         <f>103.243407487869/10</f>
         <v>10.3243407487869</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="19">
+        <v>162</v>
+      </c>
+      <c r="C37" s="18">
         <v>0.19120000000000001</v>
       </c>
-      <c r="G37" s="23"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="B38" s="69">
+      <c r="A38" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="65">
         <v>3.8721999999999999</v>
       </c>
-      <c r="C38" s="69">
+      <c r="C38" s="65">
         <v>8.2391000000000005</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="65">
         <v>11.548999999999999</v>
       </c>
-      <c r="E38" s="69">
+      <c r="E38" s="65">
         <v>15.2288</v>
       </c>
-      <c r="F38" s="69">
+      <c r="F38" s="65">
         <v>16.989699999999999</v>
       </c>
-      <c r="G38" s="70">
+      <c r="G38" s="66">
         <v>15.2288</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <v>0.68859999999999999</v>
@@ -5065,324 +5217,324 @@
       <c r="F39">
         <v>-30.131799999999998</v>
       </c>
-      <c r="G39" s="23">
+      <c r="G39" s="22">
         <v>-39.999499999999998</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="19">
+        <v>147</v>
+      </c>
+      <c r="C40" s="18">
         <v>-10.035600000000001</v>
       </c>
-      <c r="G40" s="23"/>
-      <c r="H40" s="19">
+      <c r="G40" s="22"/>
+      <c r="H40" s="18">
         <f>65.1636457443237/10</f>
         <v>6.5163645744323704</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="19">
+        <v>163</v>
+      </c>
+      <c r="C41" s="18">
         <v>0.19500000000000001</v>
       </c>
-      <c r="G41" s="23"/>
+      <c r="G41" s="22"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="68" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="69">
+      <c r="A42" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="65">
         <v>3.9794</v>
       </c>
-      <c r="C42" s="69">
+      <c r="C42" s="65">
         <v>8.2391000000000005</v>
       </c>
-      <c r="D42" s="69">
+      <c r="D42" s="65">
         <v>11.548999999999999</v>
       </c>
-      <c r="E42" s="69">
+      <c r="E42" s="65">
         <v>15.2288</v>
       </c>
-      <c r="F42" s="69">
+      <c r="F42" s="65">
         <v>16.989699999999999</v>
       </c>
-      <c r="G42" s="70">
+      <c r="G42" s="66">
         <v>15.2288</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C43">
         <v>-5.3365</v>
       </c>
-      <c r="G43" s="23"/>
+      <c r="G43" s="22"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44">
         <v>-5.3365</v>
       </c>
-      <c r="G44" s="23"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C45" s="28">
+        <v>115</v>
+      </c>
+      <c r="C45" s="27">
         <v>-11.2842</v>
       </c>
-      <c r="G45" s="23"/>
+      <c r="G45" s="22"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C46">
         <v>-7.2462999999999997</v>
       </c>
-      <c r="G46" s="23"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C47" s="19">
+        <v>168</v>
+      </c>
+      <c r="C47" s="18">
         <v>-2.3424</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="19">
+      <c r="G47" s="22"/>
+      <c r="H47" s="18">
         <f>37.5523734092712/10</f>
         <v>3.7552373409271196</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="19">
+        <v>125</v>
+      </c>
+      <c r="C48" s="18">
         <v>9.2100000000000001E-2</v>
       </c>
-      <c r="G48" s="23"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="23"/>
-      <c r="H49" s="19">
+        <v>117</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G49" s="22"/>
+      <c r="H49" s="18">
         <f>73.5869255065917/10</f>
         <v>7.3586925506591694</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="19">
+        <v>125</v>
+      </c>
+      <c r="C50" s="18">
         <v>0.32890000000000003</v>
       </c>
-      <c r="G50" s="23"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="19">
+        <v>165</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" s="22"/>
+      <c r="H51" s="18">
         <f>146.174109458923/10</f>
         <v>14.617410945892299</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="19">
+        <v>125</v>
+      </c>
+      <c r="C52" s="18">
         <v>0.30059999999999998</v>
       </c>
-      <c r="G52" s="23"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="103" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="19">
+        <v>118</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="99" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="18">
         <f>254.527338504791/10</f>
         <v>25.452733850479099</v>
       </c>
-      <c r="I53" s="19"/>
+      <c r="I53" s="18"/>
     </row>
     <row r="55" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B56" s="91" t="s">
+      <c r="B56" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C56" s="88">
+        <v>-15.4787</v>
+      </c>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B57" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="83" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B58" s="38"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B59" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="83">
+        <v>-15.4361</v>
+      </c>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B60" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B61" s="38"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B62" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="83">
+        <v>-26.090299999999999</v>
+      </c>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B63" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="83" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B64" s="38"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="27"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B65" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="83">
+        <v>-15.9239</v>
+      </c>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+    </row>
+    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B67" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="92">
-        <v>-15.4787</v>
-      </c>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B57" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B58" s="39"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B59" s="39" t="s">
+      <c r="C67" s="82"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="27"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B68" s="89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B69" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="98">
+        <v>-16.803100000000001</v>
+      </c>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+    </row>
+    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B70" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C59" s="87">
-        <v>-15.4361</v>
-      </c>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B60" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B61" s="39"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B62" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" s="87">
-        <v>-26.090299999999999</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B64" s="39"/>
-      <c r="C64" s="87"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B65" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="87">
-        <v>-15.9239</v>
-      </c>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-    </row>
-    <row r="66" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C66" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B67" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="86"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B68" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B69" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="102">
-        <v>-16.803100000000001</v>
-      </c>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-    </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="90" t="s">
-        <v>132</v>
-      </c>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
+      <c r="C70" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
@@ -5390,76 +5542,76 @@
     </row>
     <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" s="36" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77" s="37" t="s">
+      <c r="D77" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="D77" s="37" t="s">
+      <c r="E77" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="E77" s="37" t="s">
+      <c r="F77" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="F77" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="G77" s="33" t="s">
-        <v>167</v>
+      <c r="G77" s="32" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="114" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="115">
+      <c r="A78" s="110" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="111">
         <v>6.5773000000000001</v>
       </c>
-      <c r="C78" s="116">
+      <c r="C78" s="112">
         <v>-3.4483999999999999</v>
       </c>
-      <c r="D78" s="116">
+      <c r="D78" s="112">
         <v>-13.467700000000001</v>
       </c>
-      <c r="E78" s="116">
+      <c r="E78" s="112">
         <v>-23.496300000000002</v>
       </c>
-      <c r="F78" s="117">
+      <c r="F78" s="113">
         <v>-33.437199999999997</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="27">
         <f>14.5102045536041/200</f>
         <v>7.2551022768020501E-2</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="114" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="115">
+      <c r="A79" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="111">
         <v>0.76670000000000005</v>
       </c>
-      <c r="C79" s="116">
+      <c r="C79" s="112">
         <v>0.87109999999999999</v>
       </c>
-      <c r="D79" s="116">
+      <c r="D79" s="112">
         <v>0.85460000000000003</v>
       </c>
-      <c r="E79" s="116">
+      <c r="E79" s="112">
         <v>0.83240000000000003</v>
       </c>
-      <c r="F79" s="117">
+      <c r="F79" s="113">
         <v>0.88029999999999997</v>
       </c>
-      <c r="G79" s="28"/>
+      <c r="G79" s="27"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
@@ -5468,145 +5620,145 @@
       <c r="B80" s="9">
         <v>24.692499999999999</v>
       </c>
-      <c r="C80" s="101">
+      <c r="C80" s="97">
         <v>12.1965</v>
       </c>
-      <c r="D80" s="101">
+      <c r="D80" s="97">
         <v>-6.3433000000000002</v>
       </c>
-      <c r="E80" s="101">
+      <c r="E80" s="97">
         <v>-15.574299999999999</v>
       </c>
-      <c r="F80" s="105">
+      <c r="F80" s="101">
         <v>-26.417899999999999</v>
       </c>
-      <c r="G80" s="28">
+      <c r="G80" s="27">
         <f>10.0126116275787/200</f>
         <v>5.0063058137893496E-2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B81" s="9">
         <v>4.1466000000000003</v>
       </c>
-      <c r="C81" s="101">
+      <c r="C81" s="97">
         <v>8.0610999999999997</v>
       </c>
-      <c r="D81" s="101">
+      <c r="D81" s="97">
         <v>1.9612000000000001</v>
       </c>
-      <c r="E81" s="101">
+      <c r="E81" s="97">
         <v>3.4508000000000001</v>
       </c>
-      <c r="F81" s="105">
+      <c r="F81" s="101">
         <v>1.7428999999999999</v>
       </c>
-      <c r="G81" s="28"/>
+      <c r="G81" s="27"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" s="111">
+      <c r="A82" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="B82" s="107">
         <v>24.7393</v>
       </c>
-      <c r="C82" s="112">
+      <c r="C82" s="108">
         <v>12.0449</v>
       </c>
-      <c r="D82" s="112">
+      <c r="D82" s="108">
         <v>-7.6127000000000002</v>
       </c>
-      <c r="E82" s="112">
+      <c r="E82" s="108">
         <v>-16.134399999999999</v>
       </c>
-      <c r="F82" s="113">
+      <c r="F82" s="109">
         <v>-28.211300000000001</v>
       </c>
-      <c r="G82" s="28">
+      <c r="G82" s="27">
         <f>18.9219133853912/200</f>
         <v>9.4609566926956004E-2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="110" t="s">
-        <v>155</v>
-      </c>
-      <c r="B83" s="111">
+      <c r="A83" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="B83" s="107">
         <v>4.3129999999999997</v>
       </c>
-      <c r="C83" s="112">
+      <c r="C83" s="108">
         <v>8.2604000000000006</v>
       </c>
-      <c r="D83" s="112">
+      <c r="D83" s="108">
         <v>2.4744000000000002</v>
       </c>
-      <c r="E83" s="112">
+      <c r="E83" s="108">
         <v>5.1573000000000002</v>
       </c>
-      <c r="F83" s="113">
+      <c r="F83" s="109">
         <v>1.5481</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B84" s="63"/>
-      <c r="C84" s="101"/>
-      <c r="D84" s="101"/>
-      <c r="E84" s="101"/>
-      <c r="F84" s="105"/>
+        <v>172</v>
+      </c>
+      <c r="B84" s="59"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="101"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="9"/>
-      <c r="C85" s="101"/>
-      <c r="D85" s="101"/>
-      <c r="E85" s="101"/>
-      <c r="F85" s="105"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="101"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B86" s="63"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="101"/>
-      <c r="E86" s="101"/>
-      <c r="F86" s="105"/>
+        <v>173</v>
+      </c>
+      <c r="B86" s="59"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="101"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B87" s="9"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
-      <c r="F87" s="105"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="101"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="118">
+      <c r="A88" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="114">
         <v>21.093800000000002</v>
       </c>
-      <c r="C88" s="119">
+      <c r="C88" s="115">
         <v>10.8035</v>
       </c>
-      <c r="D88" s="119">
+      <c r="D88" s="115">
         <v>-8.0739999999999998</v>
       </c>
-      <c r="E88" s="119">
+      <c r="E88" s="115">
         <v>-17.941099999999999</v>
       </c>
-      <c r="F88" s="120">
+      <c r="F88" s="116">
         <v>-27.476400000000002</v>
       </c>
       <c r="G88">
@@ -5615,88 +5767,88 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="B89" s="118">
+      <c r="A89" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="114">
         <v>2.9011</v>
       </c>
-      <c r="C89" s="119">
+      <c r="C89" s="115">
         <v>8.9991000000000003</v>
       </c>
-      <c r="D89" s="119">
+      <c r="D89" s="115">
         <v>1.4996</v>
       </c>
-      <c r="E89" s="119">
+      <c r="E89" s="115">
         <v>1.7119</v>
       </c>
-      <c r="F89" s="120">
+      <c r="F89" s="116">
         <v>1.5530999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C90" s="101"/>
-      <c r="D90" s="101">
+        <v>192</v>
+      </c>
+      <c r="C90" s="97"/>
+      <c r="D90" s="97">
         <v>-7.4996</v>
       </c>
-      <c r="E90" s="101"/>
-      <c r="F90" s="105"/>
+      <c r="E90" s="97"/>
+      <c r="F90" s="101"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" s="9"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101">
+      <c r="C91" s="97"/>
+      <c r="D91" s="97">
         <v>1.8466</v>
       </c>
-      <c r="E91" s="101"/>
-      <c r="F91" s="105"/>
+      <c r="E91" s="97"/>
+      <c r="F91" s="101"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B92" s="9"/>
-      <c r="C92" s="101"/>
-      <c r="D92" s="101">
+      <c r="C92" s="97"/>
+      <c r="D92" s="97">
         <v>-7.8452000000000002</v>
       </c>
-      <c r="E92" s="101"/>
-      <c r="F92" s="105"/>
+      <c r="E92" s="97"/>
+      <c r="F92" s="101"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="5"/>
       <c r="B93" s="9"/>
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="101"/>
-      <c r="F93" s="105"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="101"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="121" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" s="122">
+      <c r="A94" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" s="118">
         <v>19.848700000000001</v>
       </c>
-      <c r="C94" s="123">
+      <c r="C94" s="119">
         <v>6.1003999999999996</v>
       </c>
-      <c r="D94" s="123">
+      <c r="D94" s="119">
         <v>-8.1217000000000006</v>
       </c>
-      <c r="E94" s="123">
+      <c r="E94" s="119">
         <v>-17.959700000000002</v>
       </c>
-      <c r="F94" s="124">
+      <c r="F94" s="120">
         <v>-27.630199999999999</v>
       </c>
       <c r="G94">
@@ -5705,179 +5857,179 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="121" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" s="122">
+      <c r="A95" s="117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="118">
         <v>4.1829999999999998</v>
       </c>
-      <c r="C95" s="123">
+      <c r="C95" s="119">
         <v>6.6140999999999996</v>
       </c>
-      <c r="D95" s="123">
+      <c r="D95" s="119">
         <v>1.5213000000000001</v>
       </c>
-      <c r="E95" s="123">
+      <c r="E95" s="119">
         <v>1.6759999999999999</v>
       </c>
-      <c r="F95" s="124">
+      <c r="F95" s="120">
         <v>1.5582</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B96" s="9"/>
-      <c r="C96" s="101"/>
-      <c r="D96" s="101"/>
-      <c r="E96" s="101"/>
-      <c r="F96" s="105"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="97"/>
+      <c r="F96" s="101"/>
     </row>
     <row r="97" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" s="31"/>
-      <c r="C97" s="107"/>
-      <c r="D97" s="107"/>
-      <c r="E97" s="107"/>
-      <c r="F97" s="106"/>
+        <v>154</v>
+      </c>
+      <c r="B97" s="30"/>
+      <c r="C97" s="103"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="103"/>
+      <c r="F97" s="102"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="21"/>
+      <c r="A98" s="20"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="20"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B102" s="37" t="s">
+      <c r="A102" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="C102" s="47" t="s">
         <v>194</v>
-      </c>
-      <c r="C102" s="48" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="B103" s="63" t="s">
-        <v>190</v>
-      </c>
-      <c r="C103" s="104">
+        <v>186</v>
+      </c>
+      <c r="B103" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" s="100">
         <v>-1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B104" s="63">
+        <v>187</v>
+      </c>
+      <c r="B104" s="59">
         <v>10.7</v>
       </c>
-      <c r="C104" s="104">
+      <c r="C104" s="100">
         <v>11.33</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B105" s="108">
+        <v>188</v>
+      </c>
+      <c r="B105" s="104">
         <v>45.5</v>
       </c>
-      <c r="C105" s="109">
+      <c r="C105" s="105">
         <v>60.37</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="125" t="s">
-        <v>198</v>
+      <c r="A106" s="121" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="127" t="s">
-        <v>200</v>
+      <c r="A109" s="123" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B110" s="48" t="s">
-        <v>203</v>
+      <c r="A110" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B110" s="47" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="B111" s="104">
+        <v>200</v>
+      </c>
+      <c r="B111" s="100">
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B112" s="109">
+        <v>154</v>
+      </c>
+      <c r="B112" s="105">
         <v>0.37640000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A113" s="21"/>
-      <c r="B113" s="21"/>
+      <c r="A113" s="20"/>
+      <c r="B113" s="20"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B114" s="48" t="s">
-        <v>202</v>
-      </c>
-      <c r="C114" s="29" t="s">
-        <v>204</v>
+      <c r="A114" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="B114" s="47" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B115" s="104">
+        <v>187</v>
+      </c>
+      <c r="B115" s="100">
         <v>31.4848</v>
       </c>
-      <c r="C115" s="29">
+      <c r="C115" s="28">
         <v>25.6937</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A116" s="126" t="s">
-        <v>155</v>
-      </c>
-      <c r="B116" s="109">
+      <c r="A116" s="122" t="s">
+        <v>154</v>
+      </c>
+      <c r="B116" s="105">
         <v>2.2843</v>
       </c>
-      <c r="C116" s="29">
+      <c r="C116" s="28">
         <v>2.0991</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xiaoy\Documents\RTSNet_Journal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDCDF5B-726F-460E-8879-9175D9338673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A29D5D-E9B0-441B-830F-1F13D7131D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="17020" windowHeight="10120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="212">
   <si>
     <t>N_E=1000, N_CV=100, N_T=200</t>
   </si>
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t>dB:-12.0894 #parameters:57085100</t>
-  </si>
-  <si>
-    <t>3) Scaling towards large models (Change date:5.18 colored in red)</t>
   </si>
   <si>
     <t>2x2, H=I, Trajectory Length T=100, Dataset size: N_T=1000</t>
@@ -681,6 +678,9 @@
   </si>
   <si>
     <t xml:space="preserve">RTSNet (train on randInit) [dB] </t>
+  </si>
+  <si>
+    <t>3) Scaling towards large models (Change date:7.7)</t>
   </si>
 </sst>
 </file>
@@ -908,7 +908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1008,13 +1008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyA